--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="19560" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
     <t>关卡</t>
   </si>
   <si>
-    <t>病毒进攻波，对应表ConfigGameVirusWave</t>
+    <t>病毒进攻波，对应表TableGameVirusWave</t>
   </si>
   <si>
     <t>病毒产生间隔时间调节因素</t>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -125,6 +125,29 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -137,14 +160,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -164,11 +187,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -181,7 +218,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -189,22 +226,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,16 +240,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -243,30 +258,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -281,6 +281,180 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -288,180 +462,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,16 +476,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,36 +514,25 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -566,6 +555,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -578,10 +578,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +590,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1081,7 +1081,7 @@
   <dimension ref="A1:N46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1235,7 +1235,7 @@
         <v>21</v>
       </c>
       <c r="D5" s="2">
-        <v>0.95</v>
+        <v>0.955</v>
       </c>
       <c r="E5" s="2">
         <v>1.1</v>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19560" windowHeight="9660"/>
+    <workbookView windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
   <si>
     <t>id</t>
   </si>
@@ -42,13 +42,10 @@
     <t>isBoss</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>int</t>
   </si>
   <si>
-    <t>string[]</t>
+    <t>int[]</t>
   </si>
   <si>
     <t>float</t>
@@ -129,28 +126,87 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -166,29 +222,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,13 +261,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -231,46 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -281,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,17 +472,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -515,40 +521,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,16 +554,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -590,133 +587,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1078,10 +1075,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N46"/>
+  <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4:G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1092,14 +1089,14 @@
     <col min="5" max="5" width="29.375" customWidth="1"/>
     <col min="6" max="6" width="29.625" customWidth="1"/>
     <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="10" width="29.625" customWidth="1"/>
-    <col min="11" max="11" width="19.375" customWidth="1"/>
-    <col min="12" max="12" width="19.125" customWidth="1"/>
-    <col min="13" max="13" width="13.875" customWidth="1"/>
-    <col min="14" max="14" width="17.25" customWidth="1"/>
+    <col min="8" max="8" width="29.625" customWidth="1"/>
+    <col min="9" max="9" width="19.375" customWidth="1"/>
+    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="11" max="11" width="13.875" customWidth="1"/>
+    <col min="12" max="12" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1124,76 +1121,72 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
       <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
+      <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:14">
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:12">
       <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>20</v>
       </c>
       <c r="I3" s="3"/>
       <c r="J3" s="3"/>
       <c r="K3" s="3"/>
       <c r="L3" s="3"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="3"/>
-    </row>
-    <row r="4" spans="1:14">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1201,7 +1194,7 @@
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1216,15 +1209,13 @@
         <v>1</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="M4" s="4"/>
-      <c r="N4" s="4"/>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1232,7 +1223,7 @@
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="2">
         <v>0.955</v>
@@ -1244,18 +1235,16 @@
         <v>1.1</v>
       </c>
       <c r="G5" s="2">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1263,7 +1252,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="2">
         <v>0.935</v>
@@ -1275,18 +1264,16 @@
         <v>1.2</v>
       </c>
       <c r="G6" s="2">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="M6" s="4"/>
-      <c r="N6" s="4"/>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1294,7 +1281,7 @@
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="2">
         <v>0.92</v>
@@ -1306,18 +1293,16 @@
         <v>1.3</v>
       </c>
       <c r="G7" s="2">
-        <v>2.5</v>
+        <v>2.2</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1325,7 +1310,7 @@
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="2">
         <v>0.905</v>
@@ -1337,18 +1322,16 @@
         <v>1.4</v>
       </c>
       <c r="G8" s="2">
-        <v>3</v>
+        <v>2.6</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1356,7 +1339,7 @@
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9" s="2">
         <v>0.89</v>
@@ -1368,18 +1351,16 @@
         <v>1.5</v>
       </c>
       <c r="G9" s="2">
-        <v>3.5</v>
+        <v>3</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="2"/>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1387,7 +1368,7 @@
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2">
         <v>0.875</v>
@@ -1399,18 +1380,16 @@
         <v>1.6</v>
       </c>
       <c r="G10" s="2">
-        <v>4</v>
+        <v>3.4</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I10" s="2"/>
-      <c r="J10" s="2"/>
-      <c r="K10" s="2"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>8</v>
       </c>
@@ -1418,7 +1397,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="2">
         <v>0.860000000000001</v>
@@ -1430,18 +1409,16 @@
         <v>1.7</v>
       </c>
       <c r="G11" s="2">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I11" s="2"/>
-      <c r="J11" s="2"/>
-      <c r="K11" s="2"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>9</v>
       </c>
@@ -1449,7 +1426,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="2">
         <v>0.845000000000001</v>
@@ -1461,18 +1438,16 @@
         <v>1.8</v>
       </c>
       <c r="G12" s="2">
-        <v>5</v>
+        <v>4.2</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="M12" s="4"/>
-      <c r="N12" s="4"/>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>10</v>
       </c>
@@ -1480,7 +1455,7 @@
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="2">
         <v>0.830000000000001</v>
@@ -1492,18 +1467,16 @@
         <v>1.9</v>
       </c>
       <c r="G13" s="2">
-        <v>5.5</v>
+        <v>4.6</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I13" s="2"/>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="M13" s="4"/>
-      <c r="N13" s="4"/>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>11</v>
       </c>
@@ -1511,7 +1484,7 @@
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="2">
         <v>0.815000000000001</v>
@@ -1523,18 +1496,16 @@
         <v>2</v>
       </c>
       <c r="G14" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="2"/>
-      <c r="J14" s="2"/>
-      <c r="K14" s="2"/>
-      <c r="M14" s="4"/>
-      <c r="N14" s="4"/>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>12</v>
       </c>
@@ -1542,7 +1513,7 @@
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D15" s="2">
         <v>0.800000000000001</v>
@@ -1554,18 +1525,16 @@
         <v>2.1</v>
       </c>
       <c r="G15" s="2">
-        <v>6.5</v>
+        <v>5.4</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="2"/>
-      <c r="J15" s="2"/>
-      <c r="K15" s="2"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>13</v>
       </c>
@@ -1573,7 +1542,7 @@
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D16" s="2">
         <v>0.785000000000001</v>
@@ -1585,18 +1554,16 @@
         <v>2.2</v>
       </c>
       <c r="G16" s="2">
-        <v>7</v>
+        <v>5.8</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I16" s="2"/>
-      <c r="J16" s="2"/>
-      <c r="K16" s="2"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>14</v>
       </c>
@@ -1604,7 +1571,7 @@
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D17" s="2">
         <v>0.770000000000001</v>
@@ -1616,18 +1583,16 @@
         <v>2.3</v>
       </c>
       <c r="G17" s="2">
-        <v>7.5</v>
+        <v>6.2</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="2"/>
-      <c r="J17" s="2"/>
-      <c r="K17" s="2"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>15</v>
       </c>
@@ -1635,7 +1600,7 @@
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2">
         <v>0.755000000000001</v>
@@ -1647,18 +1612,16 @@
         <v>2.4</v>
       </c>
       <c r="G18" s="2">
-        <v>8</v>
+        <v>6.6</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="2"/>
-      <c r="J18" s="2"/>
-      <c r="K18" s="2"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>16</v>
       </c>
@@ -1666,7 +1629,7 @@
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D19" s="2">
         <v>0.740000000000001</v>
@@ -1678,18 +1641,16 @@
         <v>2.5</v>
       </c>
       <c r="G19" s="2">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="2"/>
-      <c r="J19" s="2"/>
-      <c r="K19" s="2"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>17</v>
       </c>
@@ -1697,7 +1658,7 @@
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D20" s="2">
         <v>0.725000000000001</v>
@@ -1709,18 +1670,16 @@
         <v>2.6</v>
       </c>
       <c r="G20" s="2">
-        <v>9</v>
+        <v>7.4</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I20" s="2"/>
-      <c r="J20" s="2"/>
-      <c r="K20" s="2"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>18</v>
       </c>
@@ -1728,7 +1687,7 @@
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D21" s="2">
         <v>0.710000000000002</v>
@@ -1740,18 +1699,16 @@
         <v>2.7</v>
       </c>
       <c r="G21" s="2">
-        <v>9.5</v>
+        <v>7.8</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I21" s="2"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>19</v>
       </c>
@@ -1759,7 +1716,7 @@
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D22" s="2">
         <v>0.695000000000002</v>
@@ -1771,18 +1728,16 @@
         <v>2.8</v>
       </c>
       <c r="G22" s="2">
-        <v>10</v>
+        <v>8.2</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="2"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>20</v>
       </c>
@@ -1790,7 +1745,7 @@
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D23" s="2">
         <v>0.680000000000002</v>
@@ -1802,18 +1757,16 @@
         <v>2.9</v>
       </c>
       <c r="G23" s="2">
-        <v>10.5</v>
+        <v>8.6</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I23" s="2"/>
-      <c r="J23" s="2"/>
-      <c r="K23" s="2"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>21</v>
       </c>
@@ -1821,7 +1774,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D24" s="2">
         <v>0.665000000000002</v>
@@ -1833,18 +1786,16 @@
         <v>3</v>
       </c>
       <c r="G24" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>22</v>
       </c>
@@ -1852,7 +1803,7 @@
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D25" s="2">
         <v>0.650000000000002</v>
@@ -1864,18 +1815,16 @@
         <v>3.1</v>
       </c>
       <c r="G25" s="2">
-        <v>11.5</v>
+        <v>9.4</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I25" s="2"/>
-      <c r="J25" s="2"/>
-      <c r="K25" s="2"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="K25" s="4"/>
+      <c r="L25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>23</v>
       </c>
@@ -1883,7 +1832,7 @@
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D26" s="2">
         <v>0.635000000000002</v>
@@ -1895,18 +1844,16 @@
         <v>3.2</v>
       </c>
       <c r="G26" s="2">
-        <v>12</v>
+        <v>9.8</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I26" s="2"/>
-      <c r="J26" s="2"/>
-      <c r="K26" s="2"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>24</v>
       </c>
@@ -1914,7 +1861,7 @@
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D27" s="2">
         <v>0.620000000000002</v>
@@ -1926,18 +1873,16 @@
         <v>3.3</v>
       </c>
       <c r="G27" s="2">
-        <v>12.5</v>
+        <v>10.2</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I27" s="2"/>
-      <c r="J27" s="2"/>
-      <c r="K27" s="2"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>25</v>
       </c>
@@ -1945,7 +1890,7 @@
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D28" s="2">
         <v>0.605000000000002</v>
@@ -1957,18 +1902,16 @@
         <v>3.4</v>
       </c>
       <c r="G28" s="2">
-        <v>13</v>
+        <v>10.6</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I28" s="2"/>
-      <c r="J28" s="2"/>
-      <c r="K28" s="2"/>
-      <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>26</v>
       </c>
@@ -1976,7 +1919,7 @@
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D29" s="2">
         <v>0.590000000000002</v>
@@ -1988,18 +1931,16 @@
         <v>3.5</v>
       </c>
       <c r="G29" s="2">
-        <v>13.5</v>
+        <v>11</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I29" s="2"/>
-      <c r="J29" s="2"/>
-      <c r="K29" s="2"/>
-      <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2007,7 +1948,7 @@
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D30" s="2">
         <v>0.575000000000002</v>
@@ -2019,18 +1960,16 @@
         <v>3.6</v>
       </c>
       <c r="G30" s="2">
-        <v>14</v>
+        <v>11.4</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I30" s="2"/>
-      <c r="J30" s="2"/>
-      <c r="K30" s="2"/>
-      <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2038,7 +1977,7 @@
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D31" s="2">
         <v>0.560000000000002</v>
@@ -2050,18 +1989,16 @@
         <v>3.7</v>
       </c>
       <c r="G31" s="2">
-        <v>14.5</v>
+        <v>11.8</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
-      <c r="K31" s="2"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2069,7 +2006,7 @@
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D32" s="2">
         <v>0.545000000000003</v>
@@ -2081,18 +2018,16 @@
         <v>3.8</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>12.2</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
-      <c r="K32" s="2"/>
-      <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2100,7 +2035,7 @@
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D33" s="2">
         <v>0.530000000000003</v>
@@ -2112,18 +2047,16 @@
         <v>3.9</v>
       </c>
       <c r="G33" s="2">
-        <v>15.5</v>
+        <v>12.6</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
-      <c r="K33" s="2"/>
-      <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2131,7 +2064,7 @@
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D34" s="2">
         <v>0.515000000000003</v>
@@ -2143,18 +2076,16 @@
         <v>4</v>
       </c>
       <c r="G34" s="2">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I34" s="2"/>
-      <c r="J34" s="2"/>
-      <c r="K34" s="2"/>
-      <c r="M34" s="4"/>
-      <c r="N34" s="4"/>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2162,7 +2093,7 @@
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D35" s="2">
         <v>0.500000000000003</v>
@@ -2174,18 +2105,16 @@
         <v>4.1</v>
       </c>
       <c r="G35" s="2">
-        <v>16.5</v>
+        <v>13.4</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I35" s="2"/>
-      <c r="J35" s="2"/>
-      <c r="K35" s="2"/>
-      <c r="M35" s="4"/>
-      <c r="N35" s="4"/>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2193,7 +2122,7 @@
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D36" s="2">
         <v>0.485000000000003</v>
@@ -2205,18 +2134,16 @@
         <v>4.2</v>
       </c>
       <c r="G36" s="2">
-        <v>17</v>
+        <v>13.8</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I36" s="2"/>
-      <c r="J36" s="2"/>
-      <c r="K36" s="2"/>
-      <c r="M36" s="4"/>
-      <c r="N36" s="4"/>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2224,7 +2151,7 @@
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D37" s="2">
         <v>0.470000000000003</v>
@@ -2236,18 +2163,16 @@
         <v>4.3</v>
       </c>
       <c r="G37" s="2">
-        <v>17.5</v>
+        <v>14.2</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I37" s="2"/>
-      <c r="J37" s="2"/>
-      <c r="K37" s="2"/>
-      <c r="M37" s="4"/>
-      <c r="N37" s="4"/>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2255,7 +2180,7 @@
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D38" s="2">
         <v>0.455000000000003</v>
@@ -2267,18 +2192,16 @@
         <v>4.4</v>
       </c>
       <c r="G38" s="2">
-        <v>18</v>
+        <v>14.6</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I38" s="2"/>
-      <c r="J38" s="2"/>
-      <c r="K38" s="2"/>
-      <c r="M38" s="4"/>
-      <c r="N38" s="4"/>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2286,7 +2209,7 @@
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D39" s="2">
         <v>0.440000000000003</v>
@@ -2298,18 +2221,16 @@
         <v>4.5</v>
       </c>
       <c r="G39" s="2">
-        <v>18.5</v>
+        <v>15</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I39" s="2"/>
-      <c r="J39" s="2"/>
-      <c r="K39" s="2"/>
-      <c r="M39" s="4"/>
-      <c r="N39" s="4"/>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2317,7 +2238,7 @@
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D40" s="2">
         <v>0.425000000000003</v>
@@ -2329,18 +2250,16 @@
         <v>4.6</v>
       </c>
       <c r="G40" s="2">
-        <v>19</v>
+        <v>15.4</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I40" s="2"/>
-      <c r="J40" s="2"/>
-      <c r="K40" s="2"/>
-      <c r="M40" s="4"/>
-      <c r="N40" s="4"/>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>38</v>
       </c>
@@ -2348,7 +2267,7 @@
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D41" s="2">
         <v>0.410000000000003</v>
@@ -2360,18 +2279,16 @@
         <v>4.7</v>
       </c>
       <c r="G41" s="2">
-        <v>19.5</v>
+        <v>15.8</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I41" s="2"/>
-      <c r="J41" s="2"/>
-      <c r="K41" s="2"/>
-      <c r="M41" s="4"/>
-      <c r="N41" s="4"/>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>39</v>
       </c>
@@ -2379,7 +2296,7 @@
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D42" s="2">
         <v>0.395000000000004</v>
@@ -2391,18 +2308,16 @@
         <v>4.8</v>
       </c>
       <c r="G42" s="2">
-        <v>20</v>
+        <v>16.2</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I42" s="2"/>
-      <c r="J42" s="2"/>
-      <c r="K42" s="2"/>
-      <c r="M42" s="4"/>
-      <c r="N42" s="4"/>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>40</v>
       </c>
@@ -2410,7 +2325,7 @@
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D43" s="2">
         <v>0.380000000000004</v>
@@ -2422,18 +2337,16 @@
         <v>4.9</v>
       </c>
       <c r="G43" s="2">
-        <v>20.5</v>
+        <v>16.6</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I43" s="2"/>
-      <c r="J43" s="2"/>
-      <c r="K43" s="2"/>
-      <c r="M43" s="4"/>
-      <c r="N43" s="4"/>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>41</v>
       </c>
@@ -2441,7 +2354,7 @@
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D44" s="2">
         <v>0.365000000000004</v>
@@ -2453,18 +2366,16 @@
         <v>4.99999999999999</v>
       </c>
       <c r="G44" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I44" s="2"/>
-      <c r="J44" s="2"/>
-      <c r="K44" s="2"/>
-      <c r="M44" s="4"/>
-      <c r="N44" s="4"/>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="K44" s="4"/>
+      <c r="L44" s="4"/>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>42</v>
       </c>
@@ -2472,7 +2383,7 @@
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D45" s="2">
         <v>0.350000000000004</v>
@@ -2484,18 +2395,16 @@
         <v>5.09999999999999</v>
       </c>
       <c r="G45" s="2">
-        <v>21.5</v>
+        <v>17.4</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I45" s="2"/>
-      <c r="J45" s="2"/>
-      <c r="K45" s="2"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>43</v>
       </c>
@@ -2503,7 +2412,7 @@
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D46" s="2">
         <v>0.335000000000004</v>
@@ -2515,16 +2424,14 @@
         <v>5.19999999999999</v>
       </c>
       <c r="G46" s="2">
-        <v>22</v>
+        <v>17.8</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I46" s="2"/>
-      <c r="J46" s="2"/>
-      <c r="K46" s="2"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="13905"/>
+    <workbookView windowWidth="27510" windowHeight="13905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
   <si>
     <t>id</t>
   </si>
@@ -42,6 +42,9 @@
     <t>isBoss</t>
   </si>
   <si>
+    <t>hpRange</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -54,6 +57,9 @@
     <t>bool</t>
   </si>
   <si>
+    <t>TRangeInt</t>
+  </si>
+  <si>
     <t>ID</t>
   </si>
   <si>
@@ -78,32 +84,34 @@
     <t>BOSS关卡</t>
   </si>
   <si>
-    <t>[1,2,3]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>f</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>alse</t>
-    </r>
+    <t>关卡病毒血量范围，影响病毒颜色</t>
+  </si>
+  <si>
+    <t>[1,2,3,4,5]</t>
+  </si>
+  <si>
+    <t>false</t>
+  </si>
+  <si>
+    <t>0~10</t>
+  </si>
+  <si>
+    <t>3~30</t>
+  </si>
+  <si>
+    <t>9~90</t>
+  </si>
+  <si>
+    <t>27~270</t>
   </si>
   <si>
     <t>true</t>
+  </si>
+  <si>
+    <t>81~810</t>
+  </si>
+  <si>
+    <t>100~1000</t>
   </si>
 </sst>
 </file>
@@ -111,12 +119,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,21 +135,12 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -156,14 +155,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,7 +184,84 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -192,78 +276,8 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +292,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -472,17 +486,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -490,8 +500,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -514,8 +524,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,17 +541,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,16 +568,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -587,146 +601,143 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1075,32 +1086,32 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4:G46"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="2" max="2" width="27.125" customWidth="1"/>
-    <col min="3" max="3" width="29.625" customWidth="1"/>
-    <col min="4" max="4" width="26" customWidth="1"/>
-    <col min="5" max="5" width="29.375" customWidth="1"/>
-    <col min="6" max="6" width="29.625" customWidth="1"/>
-    <col min="7" max="7" width="20.625" customWidth="1"/>
-    <col min="8" max="8" width="29.625" customWidth="1"/>
-    <col min="9" max="9" width="19.375" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
-    <col min="11" max="11" width="13.875" customWidth="1"/>
-    <col min="12" max="12" width="17.25" customWidth="1"/>
+    <col min="1" max="1" width="9" style="2"/>
+    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="29.625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="26" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="29.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="29.625" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="17.25" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
-      <c r="A1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
@@ -1121,80 +1132,77 @@
       <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="B2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="D2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:12">
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="D3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="L3" s="3"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4">
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1208,22 +1216,23 @@
       <c r="G4" s="2">
         <v>1</v>
       </c>
-      <c r="H4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5">
+      <c r="H4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="3"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>0.955</v>
@@ -1237,22 +1246,23 @@
       <c r="G5" s="2">
         <v>1.4</v>
       </c>
-      <c r="H5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="2"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="A6">
+      <c r="H5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J5" s="3"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>3</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0.935</v>
@@ -1266,22 +1276,23 @@
       <c r="G6" s="2">
         <v>1.8</v>
       </c>
-      <c r="H6" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I6" s="2"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="A7">
+      <c r="H6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="3"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>4</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>0.92</v>
@@ -1295,22 +1306,23 @@
       <c r="G7" s="2">
         <v>2.2</v>
       </c>
-      <c r="H7" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I7" s="2"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8">
+      <c r="H7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="3"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>5</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D8" s="2">
         <v>0.905</v>
@@ -1324,22 +1336,23 @@
       <c r="G8" s="2">
         <v>2.6</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="2"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9">
+      <c r="H8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="3"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>6</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D9" s="2">
         <v>0.89</v>
@@ -1353,22 +1366,23 @@
       <c r="G9" s="2">
         <v>3</v>
       </c>
-      <c r="H9" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="2"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10">
+      <c r="H9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J9" s="3"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>7</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>0.875</v>
@@ -1382,22 +1396,23 @@
       <c r="G10" s="2">
         <v>3.4</v>
       </c>
-      <c r="H10" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I10" s="2"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-    </row>
-    <row r="11" spans="1:12">
-      <c r="A11">
+      <c r="H10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="3"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D11" s="2">
         <v>0.860000000000001</v>
@@ -1411,22 +1426,23 @@
       <c r="G11" s="2">
         <v>3.8</v>
       </c>
-      <c r="H11" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I11" s="2"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12">
+      <c r="H11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="3"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>9</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D12" s="2">
         <v>0.845000000000001</v>
@@ -1440,22 +1456,23 @@
       <c r="G12" s="2">
         <v>4.2</v>
       </c>
-      <c r="H12" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="2"/>
-      <c r="K12" s="4"/>
-      <c r="L12" s="4"/>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13">
+      <c r="H12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J12" s="3"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>10</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D13" s="2">
         <v>0.830000000000001</v>
@@ -1469,22 +1486,23 @@
       <c r="G13" s="2">
         <v>4.6</v>
       </c>
-      <c r="H13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I13" s="2"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14">
+      <c r="H13" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J13" s="3"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>11</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D14" s="2">
         <v>0.815000000000001</v>
@@ -1498,22 +1516,23 @@
       <c r="G14" s="2">
         <v>5</v>
       </c>
-      <c r="H14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I14" s="2"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
-    </row>
-    <row r="15" spans="1:12">
-      <c r="A15">
+      <c r="H14" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>12</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D15" s="2">
         <v>0.800000000000001</v>
@@ -1527,22 +1546,23 @@
       <c r="G15" s="2">
         <v>5.4</v>
       </c>
-      <c r="H15" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I15" s="2"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16">
+      <c r="H15" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J15" s="3"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>13</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D16" s="2">
         <v>0.785000000000001</v>
@@ -1556,22 +1576,23 @@
       <c r="G16" s="2">
         <v>5.8</v>
       </c>
-      <c r="H16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="2"/>
-      <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
-    </row>
-    <row r="17" spans="1:12">
-      <c r="A17">
+      <c r="H16" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>14</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D17" s="2">
         <v>0.770000000000001</v>
@@ -1585,22 +1606,23 @@
       <c r="G17" s="2">
         <v>6.2</v>
       </c>
-      <c r="H17" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I17" s="2"/>
-      <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
-    </row>
-    <row r="18" spans="1:12">
-      <c r="A18">
+      <c r="H17" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>15</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D18" s="2">
         <v>0.755000000000001</v>
@@ -1614,22 +1636,23 @@
       <c r="G18" s="2">
         <v>6.6</v>
       </c>
-      <c r="H18" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I18" s="2"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-    </row>
-    <row r="19" spans="1:12">
-      <c r="A19">
+      <c r="H18" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>16</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D19" s="2">
         <v>0.740000000000001</v>
@@ -1643,22 +1666,23 @@
       <c r="G19" s="2">
         <v>7</v>
       </c>
-      <c r="H19" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="2"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-    </row>
-    <row r="20" spans="1:12">
-      <c r="A20">
+      <c r="H19" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>17</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D20" s="2">
         <v>0.725000000000001</v>
@@ -1672,22 +1696,23 @@
       <c r="G20" s="2">
         <v>7.4</v>
       </c>
-      <c r="H20" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I20" s="2"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-    </row>
-    <row r="21" spans="1:12">
-      <c r="A21">
+      <c r="H20" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>18</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D21" s="2">
         <v>0.710000000000002</v>
@@ -1701,22 +1726,23 @@
       <c r="G21" s="2">
         <v>7.8</v>
       </c>
-      <c r="H21" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I21" s="2"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-    </row>
-    <row r="22" spans="1:12">
-      <c r="A22">
+      <c r="H21" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>19</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D22" s="2">
         <v>0.695000000000002</v>
@@ -1730,22 +1756,23 @@
       <c r="G22" s="2">
         <v>8.2</v>
       </c>
-      <c r="H22" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I22" s="2"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-    </row>
-    <row r="23" spans="1:12">
-      <c r="A23">
+      <c r="H22" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J22" s="3"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>20</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2">
         <v>0.680000000000002</v>
@@ -1759,22 +1786,23 @@
       <c r="G23" s="2">
         <v>8.6</v>
       </c>
-      <c r="H23" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I23" s="2"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-    </row>
-    <row r="24" spans="1:12">
-      <c r="A24">
+      <c r="H23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="3"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>21</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D24" s="2">
         <v>0.665000000000002</v>
@@ -1788,22 +1816,23 @@
       <c r="G24" s="2">
         <v>9</v>
       </c>
-      <c r="H24" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I24" s="2"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-    </row>
-    <row r="25" spans="1:12">
-      <c r="A25">
+      <c r="H24" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J24" s="3"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>22</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D25" s="2">
         <v>0.650000000000002</v>
@@ -1817,22 +1846,23 @@
       <c r="G25" s="2">
         <v>9.4</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I25" s="2"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-    </row>
-    <row r="26" spans="1:12">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26">
+      <c r="H25" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I25" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J25" s="3"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="2">
+        <v>23</v>
+      </c>
+      <c r="B26" s="2">
         <v>23</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D26" s="2">
         <v>0.635000000000002</v>
@@ -1846,22 +1876,23 @@
       <c r="G26" s="2">
         <v>9.8</v>
       </c>
-      <c r="H26" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I26" s="2"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27">
+      <c r="H26" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="3"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="2">
+        <v>24</v>
+      </c>
+      <c r="B27" s="2">
         <v>24</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D27" s="2">
         <v>0.620000000000002</v>
@@ -1875,22 +1906,23 @@
       <c r="G27" s="2">
         <v>10.2</v>
       </c>
-      <c r="H27" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I27" s="2"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12">
-      <c r="A28">
+      <c r="H27" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>25</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D28" s="2">
         <v>0.605000000000002</v>
@@ -1904,22 +1936,23 @@
       <c r="G28" s="2">
         <v>10.6</v>
       </c>
-      <c r="H28" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I28" s="2"/>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-    </row>
-    <row r="29" spans="1:12">
-      <c r="A29">
+      <c r="H28" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J28" s="3"/>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>26</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D29" s="2">
         <v>0.590000000000002</v>
@@ -1933,22 +1966,23 @@
       <c r="G29" s="2">
         <v>11</v>
       </c>
-      <c r="H29" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I29" s="2"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:12">
-      <c r="A30">
+      <c r="H29" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>27</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D30" s="2">
         <v>0.575000000000002</v>
@@ -1962,22 +1996,23 @@
       <c r="G30" s="2">
         <v>11.4</v>
       </c>
-      <c r="H30" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I30" s="2"/>
-      <c r="K30" s="4"/>
-      <c r="L30" s="4"/>
-    </row>
-    <row r="31" spans="1:12">
-      <c r="A31">
+      <c r="H30" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J30" s="3"/>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>28</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D31" s="2">
         <v>0.560000000000002</v>
@@ -1991,22 +2026,23 @@
       <c r="G31" s="2">
         <v>11.8</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I31" s="2"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-    </row>
-    <row r="32" spans="1:12">
-      <c r="A32">
+      <c r="H31" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I31" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="3"/>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>29</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D32" s="2">
         <v>0.545000000000003</v>
@@ -2020,22 +2056,23 @@
       <c r="G32" s="2">
         <v>12.2</v>
       </c>
-      <c r="H32" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I32" s="2"/>
-      <c r="K32" s="4"/>
-      <c r="L32" s="4"/>
-    </row>
-    <row r="33" spans="1:12">
-      <c r="A33">
+      <c r="H32" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I32" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J32" s="3"/>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>30</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D33" s="2">
         <v>0.530000000000003</v>
@@ -2049,22 +2086,23 @@
       <c r="G33" s="2">
         <v>12.6</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I33" s="2"/>
-      <c r="K33" s="4"/>
-      <c r="L33" s="4"/>
-    </row>
-    <row r="34" spans="1:12">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34">
+      <c r="H33" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I33" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J33" s="3"/>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="2">
+        <v>31</v>
+      </c>
+      <c r="B34" s="2">
         <v>31</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D34" s="2">
         <v>0.515000000000003</v>
@@ -2078,22 +2116,23 @@
       <c r="G34" s="2">
         <v>13</v>
       </c>
-      <c r="H34" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I34" s="2"/>
-      <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
-    </row>
-    <row r="35" spans="1:12">
-      <c r="A35">
+      <c r="H34" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I34" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J34" s="3"/>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>32</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D35" s="2">
         <v>0.500000000000003</v>
@@ -2107,22 +2146,23 @@
       <c r="G35" s="2">
         <v>13.4</v>
       </c>
-      <c r="H35" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I35" s="2"/>
-      <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
-    </row>
-    <row r="36" spans="1:12">
-      <c r="A36">
+      <c r="H35" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J35" s="3"/>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>33</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D36" s="2">
         <v>0.485000000000003</v>
@@ -2136,22 +2176,23 @@
       <c r="G36" s="2">
         <v>13.8</v>
       </c>
-      <c r="H36" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I36" s="2"/>
-      <c r="K36" s="4"/>
-      <c r="L36" s="4"/>
-    </row>
-    <row r="37" spans="1:12">
-      <c r="A37">
+      <c r="H36" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J36" s="3"/>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>34</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D37" s="2">
         <v>0.470000000000003</v>
@@ -2165,22 +2206,23 @@
       <c r="G37" s="2">
         <v>14.2</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I37" s="2"/>
-      <c r="K37" s="4"/>
-      <c r="L37" s="4"/>
-    </row>
-    <row r="38" spans="1:12">
-      <c r="A38">
+      <c r="H37" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I37" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J37" s="3"/>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>35</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D38" s="2">
         <v>0.455000000000003</v>
@@ -2194,22 +2236,23 @@
       <c r="G38" s="2">
         <v>14.6</v>
       </c>
-      <c r="H38" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I38" s="2"/>
-      <c r="K38" s="4"/>
-      <c r="L38" s="4"/>
-    </row>
-    <row r="39" spans="1:12">
-      <c r="A39">
+      <c r="H38" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J38" s="3"/>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>36</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D39" s="2">
         <v>0.440000000000003</v>
@@ -2223,22 +2266,23 @@
       <c r="G39" s="2">
         <v>15</v>
       </c>
-      <c r="H39" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I39" s="2"/>
-      <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
-    </row>
-    <row r="40" spans="1:12">
-      <c r="A40">
+      <c r="H39" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J39" s="3"/>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>37</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D40" s="2">
         <v>0.425000000000003</v>
@@ -2252,22 +2296,23 @@
       <c r="G40" s="2">
         <v>15.4</v>
       </c>
-      <c r="H40" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I40" s="2"/>
-      <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
-    </row>
-    <row r="41" spans="1:12">
-      <c r="A41">
+      <c r="H40" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J40" s="3"/>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>38</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D41" s="2">
         <v>0.410000000000003</v>
@@ -2281,22 +2326,23 @@
       <c r="G41" s="2">
         <v>15.8</v>
       </c>
-      <c r="H41" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I41" s="2"/>
-      <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
-    </row>
-    <row r="42" spans="1:12">
-      <c r="A42">
+      <c r="H41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J41" s="3"/>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>39</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D42" s="2">
         <v>0.395000000000004</v>
@@ -2310,22 +2356,23 @@
       <c r="G42" s="2">
         <v>16.2</v>
       </c>
-      <c r="H42" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I42" s="2"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="1:12">
-      <c r="A43">
+      <c r="H42" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J42" s="3"/>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>40</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D43" s="2">
         <v>0.380000000000004</v>
@@ -2339,22 +2386,23 @@
       <c r="G43" s="2">
         <v>16.6</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I43" s="2"/>
-      <c r="K43" s="4"/>
-      <c r="L43" s="4"/>
-    </row>
-    <row r="44" spans="1:12">
-      <c r="A44">
+      <c r="H43" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="I43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J43" s="3"/>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>41</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D44" s="2">
         <v>0.365000000000004</v>
@@ -2368,22 +2416,23 @@
       <c r="G44" s="2">
         <v>17</v>
       </c>
-      <c r="H44" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I44" s="2"/>
-      <c r="K44" s="4"/>
-      <c r="L44" s="4"/>
-    </row>
-    <row r="45" spans="1:12">
-      <c r="A45">
+      <c r="H44" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="3"/>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>42</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D45" s="2">
         <v>0.350000000000004</v>
@@ -2397,22 +2446,23 @@
       <c r="G45" s="2">
         <v>17.4</v>
       </c>
-      <c r="H45" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I45" s="2"/>
-      <c r="K45" s="4"/>
-      <c r="L45" s="4"/>
-    </row>
-    <row r="46" spans="1:12">
-      <c r="A46">
+      <c r="H45" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J45" s="3"/>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>43</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D46" s="2">
         <v>0.335000000000004</v>
@@ -2426,12 +2476,13 @@
       <c r="G46" s="2">
         <v>17.8</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="I46" s="2"/>
-      <c r="K46" s="4"/>
-      <c r="L46" s="4"/>
+      <c r="H46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -4,26 +4,23 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27510" windowHeight="13905"/>
+    <workbookView windowWidth="20540" windowHeight="8360"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>id</t>
   </si>
   <si>
-    <t>level</t>
-  </si>
-  <si>
     <t>waveID</t>
   </si>
   <si>
@@ -45,6 +42,9 @@
     <t>hpRange</t>
   </si>
   <si>
+    <t>coinValueFactor</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -60,10 +60,7 @@
     <t>TRangeInt</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>关卡</t>
+    <t>ID（关卡）</t>
   </si>
   <si>
     <t>病毒进攻波，对应表TableGameVirusWave</t>
@@ -85,6 +82,9 @@
   </si>
   <si>
     <t>关卡病毒血量范围，影响病毒颜色</t>
+  </si>
+  <si>
+    <t>金币价值系数</t>
   </si>
   <si>
     <t>[1,2,3,4,5]</t>
@@ -119,10 +119,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -139,16 +139,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,14 +155,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,30 +177,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -216,6 +193,29 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -230,9 +230,33 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -253,31 +277,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,19 +292,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -316,7 +454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,151 +472,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -486,13 +486,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,6 +506,15 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,10 +534,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -544,251 +583,213 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1084,27 +1085,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C46"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="27.125" style="2" customWidth="1"/>
-    <col min="3" max="3" width="29.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="26" style="2" customWidth="1"/>
-    <col min="5" max="5" width="29.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="29.625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="20.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="29.625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="17.25" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="2" max="2" width="29.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="26" style="2" customWidth="1"/>
+    <col min="4" max="4" width="29.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="29.625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="29.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="19.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.3846153846154" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1141,10 +1141,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>11</v>
@@ -1156,13 +1156,13 @@
         <v>11</v>
       </c>
       <c r="G2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" s="1" customFormat="1" ht="45" customHeight="1" spans="1:9">
@@ -1194,15 +1194,15 @@
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:9">
       <c r="A4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="2">
         <v>1</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="D4" s="2">
         <v>1</v>
@@ -1213,1286 +1213,1243 @@
       <c r="F4" s="2">
         <v>1</v>
       </c>
-      <c r="G4" s="2">
-        <v>1</v>
+      <c r="G4" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="3"/>
-    </row>
-    <row r="5" spans="1:10">
+      <c r="I4" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="2">
-        <v>2</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>23</v>
+      <c r="B5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.955</v>
       </c>
       <c r="D5" s="2">
-        <v>0.955</v>
+        <v>1.1</v>
       </c>
       <c r="E5" s="2">
         <v>1.1</v>
       </c>
       <c r="F5" s="2">
-        <v>1.1</v>
-      </c>
-      <c r="G5" s="2">
         <v>1.4</v>
       </c>
+      <c r="G5" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I5" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J5" s="3"/>
-    </row>
-    <row r="6" spans="1:10">
+      <c r="I5" s="4">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>3</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
+      <c r="B6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.935</v>
       </c>
       <c r="D6" s="2">
-        <v>0.935</v>
+        <v>1.2</v>
       </c>
       <c r="E6" s="2">
         <v>1.2</v>
       </c>
       <c r="F6" s="2">
-        <v>1.2</v>
-      </c>
-      <c r="G6" s="2">
         <v>1.8</v>
       </c>
+      <c r="G6" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J6" s="3"/>
-    </row>
-    <row r="7" spans="1:10">
+      <c r="I6" s="4">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>4</v>
       </c>
-      <c r="B7" s="2">
-        <v>4</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
+      <c r="B7" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.92</v>
       </c>
       <c r="D7" s="2">
-        <v>0.92</v>
+        <v>1.3</v>
       </c>
       <c r="E7" s="2">
         <v>1.3</v>
       </c>
       <c r="F7" s="2">
-        <v>1.3</v>
-      </c>
-      <c r="G7" s="2">
         <v>2.2</v>
       </c>
+      <c r="G7" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I7" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="J7" s="3"/>
-    </row>
-    <row r="8" spans="1:10">
+      <c r="I7" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="2">
         <v>5</v>
       </c>
-      <c r="B8" s="2">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
+      <c r="B8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.905</v>
       </c>
       <c r="D8" s="2">
-        <v>0.905</v>
+        <v>1.4</v>
       </c>
       <c r="E8" s="2">
         <v>1.4</v>
       </c>
       <c r="F8" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="G8" s="2">
         <v>2.6</v>
       </c>
+      <c r="G8" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="J8" s="3"/>
-    </row>
-    <row r="9" spans="1:10">
+      <c r="I8" s="4">
+        <v>4.4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="2">
         <v>6</v>
       </c>
-      <c r="B9" s="2">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>23</v>
+      <c r="B9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.89</v>
       </c>
       <c r="D9" s="2">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="E9" s="2">
         <v>1.5</v>
       </c>
       <c r="F9" s="2">
-        <v>1.5</v>
-      </c>
-      <c r="G9" s="2">
         <v>3</v>
       </c>
+      <c r="G9" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H9" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="3"/>
-    </row>
-    <row r="10" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I9" s="4">
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="2">
         <v>7</v>
       </c>
-      <c r="B10" s="2">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>23</v>
+      <c r="B10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.875</v>
       </c>
       <c r="D10" s="2">
-        <v>0.875</v>
+        <v>1.6</v>
       </c>
       <c r="E10" s="2">
         <v>1.6</v>
       </c>
       <c r="F10" s="2">
-        <v>1.6</v>
-      </c>
-      <c r="G10" s="2">
         <v>3.4</v>
       </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J10" s="3"/>
-    </row>
-    <row r="11" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="2">
         <v>8</v>
       </c>
-      <c r="B11" s="2">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>23</v>
+      <c r="B11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.860000000000001</v>
       </c>
       <c r="D11" s="2">
-        <v>0.860000000000001</v>
+        <v>1.7</v>
       </c>
       <c r="E11" s="2">
         <v>1.7</v>
       </c>
       <c r="F11" s="2">
-        <v>1.7</v>
-      </c>
-      <c r="G11" s="2">
         <v>3.8</v>
       </c>
+      <c r="G11" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J11" s="3"/>
-    </row>
-    <row r="12" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="2">
         <v>9</v>
       </c>
-      <c r="B12" s="2">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>23</v>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.845000000000001</v>
       </c>
       <c r="D12" s="2">
-        <v>0.845000000000001</v>
+        <v>1.8</v>
       </c>
       <c r="E12" s="2">
         <v>1.8</v>
       </c>
       <c r="F12" s="2">
-        <v>1.8</v>
-      </c>
-      <c r="G12" s="2">
         <v>4.2</v>
       </c>
+      <c r="G12" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J12" s="3"/>
-    </row>
-    <row r="13" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I12" s="4">
+        <v>6.4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="2">
         <v>10</v>
       </c>
-      <c r="B13" s="2">
-        <v>10</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>23</v>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.830000000000001</v>
       </c>
       <c r="D13" s="2">
-        <v>0.830000000000001</v>
+        <v>1.9</v>
       </c>
       <c r="E13" s="2">
         <v>1.9</v>
       </c>
       <c r="F13" s="2">
-        <v>1.9</v>
-      </c>
-      <c r="G13" s="2">
         <v>4.6</v>
       </c>
+      <c r="G13" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H13" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J13" s="3"/>
-    </row>
-    <row r="14" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I13" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="2">
         <v>11</v>
       </c>
-      <c r="B14" s="2">
-        <v>11</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>23</v>
+      <c r="B14" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.815000000000001</v>
       </c>
       <c r="D14" s="2">
-        <v>0.815000000000001</v>
+        <v>2</v>
       </c>
       <c r="E14" s="2">
         <v>2</v>
       </c>
       <c r="F14" s="2">
-        <v>2</v>
-      </c>
-      <c r="G14" s="2">
         <v>5</v>
       </c>
+      <c r="G14" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I14" s="4">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="2">
         <v>12</v>
       </c>
-      <c r="B15" s="2">
-        <v>12</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>23</v>
+      <c r="B15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="2">
+        <v>0.800000000000001</v>
       </c>
       <c r="D15" s="2">
-        <v>0.800000000000001</v>
+        <v>2.1</v>
       </c>
       <c r="E15" s="2">
         <v>2.1</v>
       </c>
       <c r="F15" s="2">
-        <v>2.1</v>
-      </c>
-      <c r="G15" s="2">
         <v>5.4</v>
       </c>
+      <c r="G15" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H15" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J15" s="3"/>
-    </row>
-    <row r="16" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I15" s="4">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="2">
         <v>13</v>
       </c>
-      <c r="B16" s="2">
-        <v>13</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>23</v>
+      <c r="B16" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="2">
+        <v>0.785000000000001</v>
       </c>
       <c r="D16" s="2">
-        <v>0.785000000000001</v>
+        <v>2.2</v>
       </c>
       <c r="E16" s="2">
         <v>2.2</v>
       </c>
       <c r="F16" s="2">
-        <v>2.2</v>
-      </c>
-      <c r="G16" s="2">
         <v>5.8</v>
       </c>
+      <c r="G16" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H16" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I16" s="4">
+        <v>9.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="2">
         <v>14</v>
       </c>
-      <c r="B17" s="2">
-        <v>14</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
+      <c r="B17" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="2">
+        <v>0.770000000000001</v>
       </c>
       <c r="D17" s="2">
-        <v>0.770000000000001</v>
+        <v>2.3</v>
       </c>
       <c r="E17" s="2">
         <v>2.3</v>
       </c>
       <c r="F17" s="2">
-        <v>2.3</v>
-      </c>
-      <c r="G17" s="2">
         <v>6.2</v>
       </c>
+      <c r="G17" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="2">
         <v>15</v>
       </c>
-      <c r="B18" s="2">
-        <v>15</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>23</v>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="2">
+        <v>0.755000000000001</v>
       </c>
       <c r="D18" s="2">
-        <v>0.755000000000001</v>
+        <v>2.4</v>
       </c>
       <c r="E18" s="2">
         <v>2.4</v>
       </c>
       <c r="F18" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="G18" s="2">
         <v>6.6</v>
       </c>
+      <c r="G18" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H18" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I18" s="4">
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="2">
         <v>16</v>
       </c>
-      <c r="B19" s="2">
-        <v>16</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
+      <c r="B19" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.740000000000001</v>
       </c>
       <c r="D19" s="2">
-        <v>0.740000000000001</v>
+        <v>2.5</v>
       </c>
       <c r="E19" s="2">
         <v>2.5</v>
       </c>
       <c r="F19" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="G19" s="2">
         <v>7</v>
       </c>
+      <c r="G19" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H19" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I19" s="4">
+        <v>12.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="2">
         <v>17</v>
       </c>
-      <c r="B20" s="2">
-        <v>17</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>23</v>
+      <c r="B20" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="2">
+        <v>0.725000000000001</v>
       </c>
       <c r="D20" s="2">
-        <v>0.725000000000001</v>
+        <v>2.6</v>
       </c>
       <c r="E20" s="2">
         <v>2.6</v>
       </c>
       <c r="F20" s="2">
-        <v>2.6</v>
-      </c>
-      <c r="G20" s="2">
         <v>7.4</v>
       </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H20" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I20" s="4">
+        <v>13.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="2">
         <v>18</v>
       </c>
-      <c r="B21" s="2">
-        <v>18</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>23</v>
+      <c r="B21" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="2">
+        <v>0.710000000000002</v>
       </c>
       <c r="D21" s="2">
-        <v>0.710000000000002</v>
+        <v>2.7</v>
       </c>
       <c r="E21" s="2">
         <v>2.7</v>
       </c>
       <c r="F21" s="2">
-        <v>2.7</v>
-      </c>
-      <c r="G21" s="2">
         <v>7.8</v>
       </c>
+      <c r="G21" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I21" s="4">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="2">
         <v>19</v>
       </c>
-      <c r="B22" s="2">
-        <v>19</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>23</v>
+      <c r="B22" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="2">
+        <v>0.695000000000002</v>
       </c>
       <c r="D22" s="2">
-        <v>0.695000000000002</v>
+        <v>2.8</v>
       </c>
       <c r="E22" s="2">
         <v>2.8</v>
       </c>
       <c r="F22" s="2">
-        <v>2.8</v>
-      </c>
-      <c r="G22" s="2">
         <v>8.2</v>
       </c>
+      <c r="G22" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H22" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J22" s="3"/>
-    </row>
-    <row r="23" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I22" s="4">
+        <v>16.5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="2">
         <v>20</v>
       </c>
-      <c r="B23" s="2">
-        <v>20</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>23</v>
+      <c r="B23" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="2">
+        <v>0.680000000000002</v>
       </c>
       <c r="D23" s="2">
-        <v>0.680000000000002</v>
+        <v>2.9</v>
       </c>
       <c r="E23" s="2">
         <v>2.9</v>
       </c>
       <c r="F23" s="2">
-        <v>2.9</v>
-      </c>
-      <c r="G23" s="2">
         <v>8.6</v>
       </c>
+      <c r="G23" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H23" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J23" s="3"/>
-    </row>
-    <row r="24" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I23" s="4">
+        <v>18.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="2">
         <v>21</v>
       </c>
-      <c r="B24" s="2">
-        <v>21</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>23</v>
+      <c r="B24" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C24" s="2">
+        <v>0.665000000000002</v>
       </c>
       <c r="D24" s="2">
-        <v>0.665000000000002</v>
+        <v>3</v>
       </c>
       <c r="E24" s="2">
         <v>3</v>
       </c>
       <c r="F24" s="2">
-        <v>3</v>
-      </c>
-      <c r="G24" s="2">
         <v>9</v>
       </c>
+      <c r="G24" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H24" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J24" s="3"/>
-    </row>
-    <row r="25" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I24" s="4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="2">
         <v>22</v>
       </c>
-      <c r="B25" s="2">
-        <v>22</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>23</v>
+      <c r="B25" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="2">
+        <v>0.650000000000002</v>
       </c>
       <c r="D25" s="2">
-        <v>0.650000000000002</v>
+        <v>3.1</v>
       </c>
       <c r="E25" s="2">
         <v>3.1</v>
       </c>
       <c r="F25" s="2">
-        <v>3.1</v>
-      </c>
-      <c r="G25" s="2">
         <v>9.4</v>
       </c>
+      <c r="G25" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H25" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J25" s="3"/>
-    </row>
-    <row r="26" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I25" s="4">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="2">
         <v>23</v>
       </c>
-      <c r="B26" s="2">
-        <v>23</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>23</v>
+      <c r="B26" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="2">
+        <v>0.635000000000002</v>
       </c>
       <c r="D26" s="2">
-        <v>0.635000000000002</v>
+        <v>3.2</v>
       </c>
       <c r="E26" s="2">
         <v>3.2</v>
       </c>
       <c r="F26" s="2">
-        <v>3.2</v>
-      </c>
-      <c r="G26" s="2">
         <v>9.8</v>
       </c>
+      <c r="G26" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H26" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="3"/>
-    </row>
-    <row r="27" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I26" s="4">
+        <v>24.2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="2">
         <v>24</v>
       </c>
-      <c r="B27" s="2">
-        <v>24</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>23</v>
+      <c r="B27" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="2">
+        <v>0.620000000000002</v>
       </c>
       <c r="D27" s="2">
-        <v>0.620000000000002</v>
+        <v>3.3</v>
       </c>
       <c r="E27" s="2">
         <v>3.3</v>
       </c>
       <c r="F27" s="2">
-        <v>3.3</v>
-      </c>
-      <c r="G27" s="2">
         <v>10.2</v>
       </c>
+      <c r="G27" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H27" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J27" s="3"/>
-    </row>
-    <row r="28" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I27" s="4">
+        <v>26.6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="2">
         <v>25</v>
       </c>
-      <c r="B28" s="2">
-        <v>25</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>23</v>
+      <c r="B28" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="2">
+        <v>0.605000000000002</v>
       </c>
       <c r="D28" s="2">
-        <v>0.605000000000002</v>
+        <v>3.4</v>
       </c>
       <c r="E28" s="2">
         <v>3.4</v>
       </c>
       <c r="F28" s="2">
-        <v>3.4</v>
-      </c>
-      <c r="G28" s="2">
         <v>10.6</v>
       </c>
+      <c r="G28" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H28" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I28" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="3"/>
-    </row>
-    <row r="29" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I28" s="4">
+        <v>29.3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="2">
         <v>26</v>
       </c>
-      <c r="B29" s="2">
-        <v>26</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>23</v>
+      <c r="B29" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="2">
+        <v>0.590000000000002</v>
       </c>
       <c r="D29" s="2">
-        <v>0.590000000000002</v>
+        <v>3.5</v>
       </c>
       <c r="E29" s="2">
         <v>3.5</v>
       </c>
       <c r="F29" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="G29" s="2">
         <v>11</v>
       </c>
+      <c r="G29" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H29" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I29" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J29" s="3"/>
-    </row>
-    <row r="30" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I29" s="4">
+        <v>32.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="2">
         <v>27</v>
       </c>
-      <c r="B30" s="2">
-        <v>27</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>23</v>
+      <c r="B30" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <v>0.575000000000002</v>
       </c>
       <c r="D30" s="2">
-        <v>0.575000000000002</v>
+        <v>3.6</v>
       </c>
       <c r="E30" s="2">
         <v>3.6</v>
       </c>
       <c r="F30" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="G30" s="2">
         <v>11.4</v>
       </c>
+      <c r="G30" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H30" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I30" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J30" s="3"/>
-    </row>
-    <row r="31" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I30" s="4">
+        <v>35.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="2">
         <v>28</v>
       </c>
-      <c r="B31" s="2">
-        <v>28</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>23</v>
+      <c r="B31" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="2">
+        <v>0.560000000000002</v>
       </c>
       <c r="D31" s="2">
-        <v>0.560000000000002</v>
+        <v>3.7</v>
       </c>
       <c r="E31" s="2">
         <v>3.7</v>
       </c>
       <c r="F31" s="2">
-        <v>3.7</v>
-      </c>
-      <c r="G31" s="2">
         <v>11.8</v>
       </c>
+      <c r="G31" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H31" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J31" s="3"/>
-    </row>
-    <row r="32" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I31" s="4">
+        <v>38.9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="2">
         <v>29</v>
       </c>
-      <c r="B32" s="2">
-        <v>29</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>23</v>
+      <c r="B32" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="2">
+        <v>0.545000000000003</v>
       </c>
       <c r="D32" s="2">
-        <v>0.545000000000003</v>
+        <v>3.8</v>
       </c>
       <c r="E32" s="2">
         <v>3.8</v>
       </c>
       <c r="F32" s="2">
-        <v>3.8</v>
-      </c>
-      <c r="G32" s="2">
         <v>12.2</v>
       </c>
+      <c r="G32" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H32" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J32" s="3"/>
-    </row>
-    <row r="33" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I32" s="4">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="2">
         <v>30</v>
       </c>
-      <c r="B33" s="2">
-        <v>30</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>23</v>
+      <c r="B33" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="2">
+        <v>0.530000000000003</v>
       </c>
       <c r="D33" s="2">
-        <v>0.530000000000003</v>
+        <v>3.9</v>
       </c>
       <c r="E33" s="2">
         <v>3.9</v>
       </c>
       <c r="F33" s="2">
-        <v>3.9</v>
-      </c>
-      <c r="G33" s="2">
         <v>12.6</v>
       </c>
+      <c r="G33" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H33" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J33" s="3"/>
-    </row>
-    <row r="34" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I33" s="4">
+        <v>47.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="2">
         <v>31</v>
       </c>
-      <c r="B34" s="2">
-        <v>31</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>23</v>
+      <c r="B34" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="2">
+        <v>0.515000000000003</v>
       </c>
       <c r="D34" s="2">
-        <v>0.515000000000003</v>
+        <v>4</v>
       </c>
       <c r="E34" s="2">
         <v>4</v>
       </c>
       <c r="F34" s="2">
-        <v>4</v>
-      </c>
-      <c r="G34" s="2">
         <v>13</v>
       </c>
+      <c r="G34" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H34" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I34" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J34" s="3"/>
-    </row>
-    <row r="35" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I34" s="4">
+        <v>51.8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="2">
         <v>32</v>
       </c>
-      <c r="B35" s="2">
-        <v>32</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>23</v>
+      <c r="B35" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="2">
+        <v>0.500000000000003</v>
       </c>
       <c r="D35" s="2">
-        <v>0.500000000000003</v>
+        <v>4.1</v>
       </c>
       <c r="E35" s="2">
         <v>4.1</v>
       </c>
       <c r="F35" s="2">
-        <v>4.1</v>
-      </c>
-      <c r="G35" s="2">
         <v>13.4</v>
       </c>
+      <c r="G35" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H35" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="3"/>
-    </row>
-    <row r="36" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I35" s="4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="2">
         <v>33</v>
       </c>
-      <c r="B36" s="2">
-        <v>33</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>23</v>
+      <c r="B36" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="2">
+        <v>0.485000000000003</v>
       </c>
       <c r="D36" s="2">
-        <v>0.485000000000003</v>
+        <v>4.2</v>
       </c>
       <c r="E36" s="2">
         <v>4.2</v>
       </c>
       <c r="F36" s="2">
-        <v>4.2</v>
-      </c>
-      <c r="G36" s="2">
         <v>13.8</v>
       </c>
+      <c r="G36" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H36" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J36" s="3"/>
-    </row>
-    <row r="37" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I36" s="4">
+        <v>62.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="2">
         <v>34</v>
       </c>
-      <c r="B37" s="2">
-        <v>34</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>23</v>
+      <c r="B37" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="2">
+        <v>0.470000000000003</v>
       </c>
       <c r="D37" s="2">
-        <v>0.470000000000003</v>
+        <v>4.3</v>
       </c>
       <c r="E37" s="2">
         <v>4.3</v>
       </c>
       <c r="F37" s="2">
-        <v>4.3</v>
-      </c>
-      <c r="G37" s="2">
         <v>14.2</v>
       </c>
+      <c r="G37" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H37" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I37" s="4">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="2">
         <v>35</v>
       </c>
-      <c r="B38" s="2">
-        <v>35</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>23</v>
+      <c r="B38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="2">
+        <v>0.455000000000003</v>
       </c>
       <c r="D38" s="2">
-        <v>0.455000000000003</v>
+        <v>4.4</v>
       </c>
       <c r="E38" s="2">
         <v>4.4</v>
       </c>
       <c r="F38" s="2">
-        <v>4.4</v>
-      </c>
-      <c r="G38" s="2">
         <v>14.6</v>
       </c>
+      <c r="G38" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H38" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J38" s="3"/>
-    </row>
-    <row r="39" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I38" s="4">
+        <v>75.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="2">
         <v>36</v>
       </c>
-      <c r="B39" s="2">
-        <v>36</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>23</v>
+      <c r="B39" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="2">
+        <v>0.440000000000003</v>
       </c>
       <c r="D39" s="2">
-        <v>0.440000000000003</v>
+        <v>4.5</v>
       </c>
       <c r="E39" s="2">
         <v>4.5</v>
       </c>
       <c r="F39" s="2">
-        <v>4.5</v>
-      </c>
-      <c r="G39" s="2">
         <v>15</v>
       </c>
+      <c r="G39" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H39" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I39" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J39" s="3"/>
-    </row>
-    <row r="40" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I39" s="4">
+        <v>83.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="2">
         <v>37</v>
       </c>
-      <c r="B40" s="2">
-        <v>37</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>23</v>
+      <c r="B40" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40" s="2">
+        <v>0.425000000000003</v>
       </c>
       <c r="D40" s="2">
-        <v>0.425000000000003</v>
+        <v>4.6</v>
       </c>
       <c r="E40" s="2">
         <v>4.6</v>
       </c>
       <c r="F40" s="2">
-        <v>4.6</v>
-      </c>
-      <c r="G40" s="2">
         <v>15.4</v>
       </c>
+      <c r="G40" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H40" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J40" s="3"/>
-    </row>
-    <row r="41" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I40" s="4">
+        <v>91.9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="2">
         <v>38</v>
       </c>
-      <c r="B41" s="2">
-        <v>38</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>23</v>
+      <c r="B41" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C41" s="2">
+        <v>0.410000000000003</v>
       </c>
       <c r="D41" s="2">
-        <v>0.410000000000003</v>
+        <v>4.7</v>
       </c>
       <c r="E41" s="2">
         <v>4.7</v>
       </c>
       <c r="F41" s="2">
-        <v>4.7</v>
-      </c>
-      <c r="G41" s="2">
         <v>15.8</v>
       </c>
+      <c r="G41" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H41" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J41" s="3"/>
-    </row>
-    <row r="42" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I41" s="4">
+        <v>101.1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="2">
         <v>39</v>
       </c>
-      <c r="B42" s="2">
-        <v>39</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>23</v>
+      <c r="B42" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="2">
+        <v>0.395000000000004</v>
       </c>
       <c r="D42" s="2">
-        <v>0.395000000000004</v>
+        <v>4.8</v>
       </c>
       <c r="E42" s="2">
         <v>4.8</v>
       </c>
       <c r="F42" s="2">
-        <v>4.8</v>
-      </c>
-      <c r="G42" s="2">
         <v>16.2</v>
       </c>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H42" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J42" s="3"/>
-    </row>
-    <row r="43" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I42" s="4">
+        <v>111.2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="2">
         <v>40</v>
       </c>
-      <c r="B43" s="2">
-        <v>40</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>23</v>
+      <c r="B43" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="2">
+        <v>0.380000000000004</v>
       </c>
       <c r="D43" s="2">
-        <v>0.380000000000004</v>
+        <v>4.9</v>
       </c>
       <c r="E43" s="2">
         <v>4.9</v>
       </c>
       <c r="F43" s="2">
-        <v>4.9</v>
-      </c>
-      <c r="G43" s="2">
         <v>16.6</v>
       </c>
+      <c r="G43" s="3" t="s">
+        <v>29</v>
+      </c>
       <c r="H43" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I43" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J43" s="3"/>
-    </row>
-    <row r="44" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I43" s="4">
+        <v>122.3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="2">
         <v>41</v>
       </c>
-      <c r="B44" s="2">
-        <v>41</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>23</v>
+      <c r="B44" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C44" s="2">
+        <v>0.365000000000004</v>
       </c>
       <c r="D44" s="2">
-        <v>0.365000000000004</v>
+        <v>4.99999999999999</v>
       </c>
       <c r="E44" s="2">
         <v>4.99999999999999</v>
       </c>
       <c r="F44" s="2">
-        <v>4.99999999999999</v>
-      </c>
-      <c r="G44" s="2">
         <v>17</v>
       </c>
+      <c r="G44" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H44" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="3"/>
-    </row>
-    <row r="45" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I44" s="4">
+        <v>134.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="2">
         <v>42</v>
       </c>
-      <c r="B45" s="2">
-        <v>42</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>23</v>
+      <c r="B45" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C45" s="2">
+        <v>0.350000000000004</v>
       </c>
       <c r="D45" s="2">
-        <v>0.350000000000004</v>
+        <v>5.09999999999999</v>
       </c>
       <c r="E45" s="2">
         <v>5.09999999999999</v>
       </c>
       <c r="F45" s="2">
-        <v>5.09999999999999</v>
-      </c>
-      <c r="G45" s="2">
         <v>17.4</v>
       </c>
+      <c r="G45" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H45" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J45" s="3"/>
-    </row>
-    <row r="46" spans="1:10">
+        <v>31</v>
+      </c>
+      <c r="I45" s="4">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="2">
         <v>43</v>
       </c>
-      <c r="B46" s="2">
-        <v>43</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>23</v>
+      <c r="B46" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="2">
+        <v>0.335000000000004</v>
       </c>
       <c r="D46" s="2">
-        <v>0.335000000000004</v>
+        <v>5.19999999999999</v>
       </c>
       <c r="E46" s="2">
         <v>5.19999999999999</v>
       </c>
       <c r="F46" s="2">
-        <v>5.19999999999999</v>
-      </c>
-      <c r="G46" s="2">
         <v>17.8</v>
       </c>
+      <c r="G46" s="3" t="s">
+        <v>24</v>
+      </c>
       <c r="H46" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="3"/>
+        <v>31</v>
+      </c>
+      <c r="I46" s="4">
+        <v>162.8</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2500,15 +2457,15 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
@@ -2516,9 +2473,9 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
 </file>
--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24560" windowHeight="8360"/>
+    <workbookView windowWidth="21800" windowHeight="9180"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -60,7 +60,7 @@
     <t>bool</t>
   </si>
   <si>
-    <t>TRangeInt</t>
+    <t>TRange</t>
   </si>
   <si>
     <t>ID（关卡）</t>
@@ -1628,10 +1628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1677,17 +1677,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1699,23 +1691,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1731,7 +1717,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1745,19 +1731,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1771,14 +1755,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1792,9 +1784,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1819,7 +1819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1831,7 +1837,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1843,31 +1879,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1879,7 +1945,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1891,79 +1957,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1981,13 +1981,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2010,17 +2010,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2036,36 +2030,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,150 +2054,186 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2605,8 +2605,8 @@
   <sheetPr/>
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.6"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -102,13 +102,13 @@
     <t>0~10</t>
   </si>
   <si>
-    <t>[88,2,5,1,89,88,88]</t>
+    <t>[88,2,4,1,89,88,88]</t>
   </si>
   <si>
     <t>0~30</t>
   </si>
   <si>
-    <t>[88,1,2,89,3,88,1]</t>
+    <t>[88,1,2,89,5,88,1]</t>
   </si>
   <si>
     <t>3~30</t>
@@ -1628,10 +1628,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1654,37 +1654,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1699,7 +1670,53 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1707,7 +1724,35 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1722,21 +1767,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1744,9 +1774,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1759,44 +1797,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1807,7 +1807,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1819,175 +1987,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2002,30 +2002,15 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -2050,31 +2035,33 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2090,11 +2077,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2104,10 +2104,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2116,133 +2116,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2605,8 +2605,8 @@
   <sheetPr/>
   <dimension ref="A1:K503"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A493" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2746,7 +2746,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="4">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2778,7 +2778,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2801,7 +2801,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="2">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="G6" s="3" t="s">
         <v>26</v>
@@ -2810,7 +2810,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -2833,7 +2833,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="2">
-        <v>1.8</v>
+        <v>2.2</v>
       </c>
       <c r="G7" s="3" t="s">
         <v>26</v>
@@ -2842,7 +2842,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
@@ -2865,7 +2865,7 @@
         <v>1</v>
       </c>
       <c r="F8" s="2">
-        <v>2</v>
+        <v>2.6</v>
       </c>
       <c r="G8" s="3" t="s">
         <v>35</v>
@@ -2874,7 +2874,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -2906,7 +2906,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -2929,7 +2929,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="2">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>26</v>
@@ -2938,7 +2938,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -2961,7 +2961,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="2">
-        <v>3.8</v>
+        <v>4.2</v>
       </c>
       <c r="G11" s="3" t="s">
         <v>26</v>
@@ -2970,7 +2970,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J11" s="2">
         <v>5</v>
@@ -2993,7 +2993,7 @@
         <v>1</v>
       </c>
       <c r="F12" s="2">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>26</v>
@@ -3002,7 +3002,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
@@ -3025,7 +3025,7 @@
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>6.6</v>
+        <v>5.4</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>35</v>
@@ -3034,7 +3034,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J13" s="2">
         <v>5</v>
@@ -3057,7 +3057,7 @@
         <v>1</v>
       </c>
       <c r="F14" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G14" s="3" t="s">
         <v>26</v>
@@ -3066,7 +3066,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="J14" s="2">
         <v>12</v>
@@ -3083,13 +3083,13 @@
         <v>0.9</v>
       </c>
       <c r="D15" s="2">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="E15" s="2">
         <v>1</v>
       </c>
       <c r="F15" s="2">
-        <v>7.4</v>
+        <v>6.6</v>
       </c>
       <c r="G15" s="3" t="s">
         <v>26</v>
@@ -3115,13 +3115,13 @@
         <v>0.9</v>
       </c>
       <c r="D16" s="2">
-        <v>1.5</v>
+        <v>1.6</v>
       </c>
       <c r="E16" s="2">
         <v>1</v>
       </c>
       <c r="F16" s="2">
-        <v>7.8</v>
+        <v>7.2</v>
       </c>
       <c r="G16" s="3" t="s">
         <v>26</v>
@@ -3147,13 +3147,13 @@
         <v>0.9</v>
       </c>
       <c r="D17" s="2">
-        <v>1.5</v>
+        <v>1.65</v>
       </c>
       <c r="E17" s="2">
         <v>1</v>
       </c>
       <c r="F17" s="2">
-        <v>8.2</v>
+        <v>7.8</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>26</v>
@@ -3179,13 +3179,13 @@
         <v>0.9</v>
       </c>
       <c r="D18" s="2">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>8.6</v>
+        <v>8.4</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>35</v>
@@ -3211,13 +3211,13 @@
         <v>0.9</v>
       </c>
       <c r="D19" s="2">
-        <v>1.5</v>
+        <v>1.72</v>
       </c>
       <c r="E19" s="2">
         <v>1</v>
       </c>
       <c r="F19" s="2">
-        <v>10.2</v>
+        <v>9</v>
       </c>
       <c r="G19" s="3" t="s">
         <v>26</v>
@@ -3243,13 +3243,13 @@
         <v>0.9</v>
       </c>
       <c r="D20" s="2">
-        <v>1.5</v>
+        <v>1.74</v>
       </c>
       <c r="E20" s="2">
         <v>1</v>
       </c>
       <c r="F20" s="2">
-        <v>10.6</v>
+        <v>9.6</v>
       </c>
       <c r="G20" s="3" t="s">
         <v>26</v>
@@ -3275,13 +3275,13 @@
         <v>0.9</v>
       </c>
       <c r="D21" s="2">
-        <v>1.5</v>
+        <v>1.76</v>
       </c>
       <c r="E21" s="2">
         <v>1</v>
       </c>
       <c r="F21" s="2">
-        <v>11</v>
+        <v>10.2</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>26</v>
@@ -3307,13 +3307,13 @@
         <v>0.9</v>
       </c>
       <c r="D22" s="2">
-        <v>1.5</v>
+        <v>1.78</v>
       </c>
       <c r="E22" s="2">
         <v>1</v>
       </c>
       <c r="F22" s="2">
-        <v>11.4</v>
+        <v>10.8</v>
       </c>
       <c r="G22" s="3" t="s">
         <v>26</v>
@@ -3339,13 +3339,13 @@
         <v>0.7</v>
       </c>
       <c r="D23" s="2">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="E23" s="2">
         <v>1</v>
       </c>
       <c r="F23" s="2">
-        <v>9</v>
+        <v>11.4</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>35</v>
@@ -3371,13 +3371,13 @@
         <v>0.7</v>
       </c>
       <c r="D24" s="2">
-        <v>1.5</v>
+        <v>1.82</v>
       </c>
       <c r="E24" s="2">
         <v>1.2</v>
       </c>
       <c r="F24" s="2">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>26</v>
@@ -3403,13 +3403,13 @@
         <v>0.7</v>
       </c>
       <c r="D25" s="2">
-        <v>1.5</v>
+        <v>1.84</v>
       </c>
       <c r="E25" s="2">
         <v>1.2</v>
       </c>
       <c r="F25" s="2">
-        <v>9.4</v>
+        <v>12.6</v>
       </c>
       <c r="G25" s="3" t="s">
         <v>26</v>
@@ -3435,13 +3435,13 @@
         <v>0.7</v>
       </c>
       <c r="D26" s="2">
-        <v>1.5</v>
+        <v>1.86</v>
       </c>
       <c r="E26" s="2">
         <v>1.2</v>
       </c>
       <c r="F26" s="2">
-        <v>9.8</v>
+        <v>13.2</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>26</v>
@@ -3467,13 +3467,13 @@
         <v>0.7</v>
       </c>
       <c r="D27" s="2">
-        <v>1.5</v>
+        <v>1.88</v>
       </c>
       <c r="E27" s="2">
         <v>1.2</v>
       </c>
       <c r="F27" s="2">
-        <v>10.2</v>
+        <v>13.8</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>26</v>
@@ -3499,13 +3499,13 @@
         <v>0.7</v>
       </c>
       <c r="D28" s="2">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="E28" s="2">
         <v>1.2</v>
       </c>
       <c r="F28" s="2">
-        <v>10.6</v>
+        <v>14.4</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>35</v>
@@ -3531,13 +3531,13 @@
         <v>0.7</v>
       </c>
       <c r="D29" s="2">
-        <v>1.6</v>
+        <v>1.92</v>
       </c>
       <c r="E29" s="2">
         <v>1.2</v>
       </c>
       <c r="F29" s="2">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>26</v>
@@ -3563,13 +3563,13 @@
         <v>0.7</v>
       </c>
       <c r="D30" s="2">
-        <v>1.6</v>
+        <v>1.94</v>
       </c>
       <c r="E30" s="2">
         <v>1.2</v>
       </c>
       <c r="F30" s="2">
-        <v>11.4</v>
+        <v>15.6</v>
       </c>
       <c r="G30" s="3" t="s">
         <v>26</v>
@@ -3595,13 +3595,13 @@
         <v>0.7</v>
       </c>
       <c r="D31" s="2">
-        <v>1.6</v>
+        <v>1.96</v>
       </c>
       <c r="E31" s="2">
         <v>1.2</v>
       </c>
       <c r="F31" s="2">
-        <v>11.8</v>
+        <v>16.2</v>
       </c>
       <c r="G31" s="3" t="s">
         <v>26</v>
@@ -3627,13 +3627,13 @@
         <v>0.7</v>
       </c>
       <c r="D32" s="2">
-        <v>1.6</v>
+        <v>1.98</v>
       </c>
       <c r="E32" s="2">
         <v>1.2</v>
       </c>
       <c r="F32" s="2">
-        <v>12.2</v>
+        <v>16.8</v>
       </c>
       <c r="G32" s="3" t="s">
         <v>26</v>
@@ -3659,13 +3659,13 @@
         <v>0.5</v>
       </c>
       <c r="D33" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E33" s="2">
         <v>1.2</v>
       </c>
       <c r="F33" s="2">
-        <v>12.6</v>
+        <v>17.4</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>35</v>
@@ -3691,13 +3691,13 @@
         <v>0.5</v>
       </c>
       <c r="D34" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E34" s="2">
         <v>1.2</v>
       </c>
       <c r="F34" s="2">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G34" s="3" t="s">
         <v>26</v>
@@ -3723,13 +3723,13 @@
         <v>0.5</v>
       </c>
       <c r="D35" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E35" s="2">
         <v>1.2</v>
       </c>
       <c r="F35" s="2">
-        <v>13.4</v>
+        <v>18.6</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>26</v>
@@ -3755,13 +3755,13 @@
         <v>0.5</v>
       </c>
       <c r="D36" s="2">
-        <v>1.6</v>
+        <v>2</v>
       </c>
       <c r="E36" s="2">
         <v>1.2</v>
       </c>
       <c r="F36" s="2">
-        <v>13.8</v>
+        <v>19.2</v>
       </c>
       <c r="G36" s="3" t="s">
         <v>26</v>
@@ -3787,13 +3787,13 @@
         <v>0.5</v>
       </c>
       <c r="D37" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E37" s="2">
         <v>1.2</v>
       </c>
       <c r="F37" s="2">
-        <v>14.2</v>
+        <v>19.8</v>
       </c>
       <c r="G37" s="3" t="s">
         <v>26</v>
@@ -3819,13 +3819,13 @@
         <v>0.5</v>
       </c>
       <c r="D38" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E38" s="2">
         <v>1.2</v>
       </c>
       <c r="F38" s="2">
-        <v>14.6</v>
+        <v>20.4</v>
       </c>
       <c r="G38" s="3" t="s">
         <v>35</v>
@@ -3851,13 +3851,13 @@
         <v>0.5</v>
       </c>
       <c r="D39" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E39" s="2">
         <v>1.2</v>
       </c>
       <c r="F39" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G39" s="3" t="s">
         <v>26</v>
@@ -3883,13 +3883,13 @@
         <v>0.5</v>
       </c>
       <c r="D40" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E40" s="2">
         <v>1.2</v>
       </c>
       <c r="F40" s="2">
-        <v>15.4</v>
+        <v>21.6</v>
       </c>
       <c r="G40" s="3" t="s">
         <v>26</v>
@@ -3915,13 +3915,13 @@
         <v>0.5</v>
       </c>
       <c r="D41" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E41" s="2">
         <v>1.2</v>
       </c>
       <c r="F41" s="2">
-        <v>15.8</v>
+        <v>22.2</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>26</v>
@@ -3947,13 +3947,13 @@
         <v>0.5</v>
       </c>
       <c r="D42" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E42" s="2">
         <v>1.2</v>
       </c>
       <c r="F42" s="2">
-        <v>16.2</v>
+        <v>22.8</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>26</v>
@@ -3979,13 +3979,13 @@
         <v>0.5</v>
       </c>
       <c r="D43" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E43" s="2">
         <v>1.3</v>
       </c>
       <c r="F43" s="2">
-        <v>16.6</v>
+        <v>23.4</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>35</v>
@@ -4011,13 +4011,13 @@
         <v>0.5</v>
       </c>
       <c r="D44" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E44" s="2">
         <v>1.3</v>
       </c>
       <c r="F44" s="2">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="G44" s="3" t="s">
         <v>26</v>
@@ -4043,13 +4043,13 @@
         <v>0.5</v>
       </c>
       <c r="D45" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E45" s="2">
         <v>1.3</v>
       </c>
       <c r="F45" s="2">
-        <v>17.4</v>
+        <v>24.6</v>
       </c>
       <c r="G45" s="3" t="s">
         <v>26</v>
@@ -4075,13 +4075,13 @@
         <v>0.5</v>
       </c>
       <c r="D46" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E46" s="2">
         <v>1.3</v>
       </c>
       <c r="F46" s="2">
-        <v>17.8</v>
+        <v>25.2</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>26</v>
@@ -4107,13 +4107,13 @@
         <v>0.5</v>
       </c>
       <c r="D47" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E47" s="2">
         <v>1.3</v>
       </c>
       <c r="F47" s="2">
-        <v>18.2</v>
+        <v>25.8</v>
       </c>
       <c r="G47" s="3" t="s">
         <v>26</v>
@@ -4139,13 +4139,13 @@
         <v>0.5</v>
       </c>
       <c r="D48" s="2">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="E48" s="2">
         <v>1.3</v>
       </c>
       <c r="F48" s="2">
-        <v>18.6</v>
+        <v>26.4</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>35</v>
@@ -4177,7 +4177,7 @@
         <v>1.3</v>
       </c>
       <c r="F49" s="2">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="G49" s="3" t="s">
         <v>26</v>
@@ -4209,7 +4209,7 @@
         <v>1.3</v>
       </c>
       <c r="F50" s="2">
-        <v>19.4</v>
+        <v>27.6</v>
       </c>
       <c r="G50" s="3" t="s">
         <v>26</v>
@@ -4241,7 +4241,7 @@
         <v>1.3</v>
       </c>
       <c r="F51" s="2">
-        <v>19.8</v>
+        <v>28.2</v>
       </c>
       <c r="G51" s="3" t="s">
         <v>26</v>
@@ -4273,7 +4273,7 @@
         <v>1.3</v>
       </c>
       <c r="F52" s="2">
-        <v>20.2</v>
+        <v>28.8</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>26</v>
@@ -4305,7 +4305,7 @@
         <v>1.3</v>
       </c>
       <c r="F53" s="2">
-        <v>20.6</v>
+        <v>29.4</v>
       </c>
       <c r="G53" s="3" t="s">
         <v>35</v>
@@ -4369,7 +4369,7 @@
         <v>1</v>
       </c>
       <c r="F55" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>26</v>
@@ -4401,7 +4401,7 @@
         <v>1</v>
       </c>
       <c r="F56" s="2">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>26</v>
@@ -4433,7 +4433,7 @@
         <v>1</v>
       </c>
       <c r="F57" s="2">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>26</v>
@@ -4465,7 +4465,7 @@
         <v>1</v>
       </c>
       <c r="F58" s="2">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>35</v>
@@ -4497,7 +4497,7 @@
         <v>1</v>
       </c>
       <c r="F59" s="2">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>26</v>
@@ -4529,7 +4529,7 @@
         <v>1</v>
       </c>
       <c r="F60" s="2">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>26</v>
@@ -4561,7 +4561,7 @@
         <v>1</v>
       </c>
       <c r="F61" s="2">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>26</v>
@@ -4593,7 +4593,7 @@
         <v>1</v>
       </c>
       <c r="F62" s="2">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>26</v>
@@ -4625,7 +4625,7 @@
         <v>1</v>
       </c>
       <c r="F63" s="2">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>35</v>
@@ -4657,7 +4657,7 @@
         <v>1</v>
       </c>
       <c r="F64" s="2">
-        <v>200</v>
+        <v>220</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>26</v>
@@ -4689,7 +4689,7 @@
         <v>1</v>
       </c>
       <c r="F65" s="2">
-        <v>200</v>
+        <v>222</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>26</v>
@@ -4721,7 +4721,7 @@
         <v>1</v>
       </c>
       <c r="F66" s="2">
-        <v>200</v>
+        <v>224</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>26</v>
@@ -4753,7 +4753,7 @@
         <v>1</v>
       </c>
       <c r="F67" s="2">
-        <v>200</v>
+        <v>226</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>26</v>
@@ -4785,7 +4785,7 @@
         <v>1</v>
       </c>
       <c r="F68" s="2">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>35</v>
@@ -4817,7 +4817,7 @@
         <v>1</v>
       </c>
       <c r="F69" s="2">
-        <v>200</v>
+        <v>230</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>26</v>
@@ -4849,7 +4849,7 @@
         <v>1</v>
       </c>
       <c r="F70" s="2">
-        <v>200</v>
+        <v>232</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>26</v>
@@ -4881,7 +4881,7 @@
         <v>1</v>
       </c>
       <c r="F71" s="2">
-        <v>200</v>
+        <v>234</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>26</v>
@@ -4913,7 +4913,7 @@
         <v>1</v>
       </c>
       <c r="F72" s="2">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>26</v>
@@ -4945,7 +4945,7 @@
         <v>1</v>
       </c>
       <c r="F73" s="2">
-        <v>200</v>
+        <v>238</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>35</v>
@@ -4977,7 +4977,7 @@
         <v>1.2</v>
       </c>
       <c r="F74" s="2">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>26</v>
@@ -5009,7 +5009,7 @@
         <v>1.2</v>
       </c>
       <c r="F75" s="2">
-        <v>200</v>
+        <v>242</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>26</v>
@@ -5041,7 +5041,7 @@
         <v>1.2</v>
       </c>
       <c r="F76" s="2">
-        <v>200</v>
+        <v>244</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>26</v>
@@ -5073,7 +5073,7 @@
         <v>1.2</v>
       </c>
       <c r="F77" s="2">
-        <v>200</v>
+        <v>246</v>
       </c>
       <c r="G77" s="3" t="s">
         <v>26</v>
@@ -5105,7 +5105,7 @@
         <v>1.2</v>
       </c>
       <c r="F78" s="2">
-        <v>200</v>
+        <v>248</v>
       </c>
       <c r="G78" s="3" t="s">
         <v>35</v>
@@ -5137,7 +5137,7 @@
         <v>1.2</v>
       </c>
       <c r="F79" s="2">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="G79" s="3" t="s">
         <v>26</v>
@@ -5169,7 +5169,7 @@
         <v>1.2</v>
       </c>
       <c r="F80" s="2">
-        <v>200</v>
+        <v>252</v>
       </c>
       <c r="G80" s="3" t="s">
         <v>26</v>
@@ -5201,7 +5201,7 @@
         <v>1.2</v>
       </c>
       <c r="F81" s="2">
-        <v>200</v>
+        <v>254</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>26</v>
@@ -5233,7 +5233,7 @@
         <v>1.2</v>
       </c>
       <c r="F82" s="2">
-        <v>200</v>
+        <v>256</v>
       </c>
       <c r="G82" s="3" t="s">
         <v>26</v>
@@ -5265,7 +5265,7 @@
         <v>1.2</v>
       </c>
       <c r="F83" s="2">
-        <v>200</v>
+        <v>258</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>35</v>
@@ -5297,7 +5297,7 @@
         <v>1.2</v>
       </c>
       <c r="F84" s="2">
-        <v>200</v>
+        <v>260</v>
       </c>
       <c r="G84" s="3" t="s">
         <v>26</v>
@@ -5329,7 +5329,7 @@
         <v>1.2</v>
       </c>
       <c r="F85" s="2">
-        <v>200</v>
+        <v>262</v>
       </c>
       <c r="G85" s="3" t="s">
         <v>26</v>
@@ -5361,7 +5361,7 @@
         <v>1.2</v>
       </c>
       <c r="F86" s="2">
-        <v>200</v>
+        <v>264</v>
       </c>
       <c r="G86" s="3" t="s">
         <v>26</v>
@@ -5393,7 +5393,7 @@
         <v>1.2</v>
       </c>
       <c r="F87" s="2">
-        <v>200</v>
+        <v>266</v>
       </c>
       <c r="G87" s="3" t="s">
         <v>26</v>
@@ -5425,7 +5425,7 @@
         <v>1.2</v>
       </c>
       <c r="F88" s="2">
-        <v>200</v>
+        <v>268</v>
       </c>
       <c r="G88" s="3" t="s">
         <v>35</v>
@@ -5457,7 +5457,7 @@
         <v>1.2</v>
       </c>
       <c r="F89" s="2">
-        <v>200</v>
+        <v>270</v>
       </c>
       <c r="G89" s="3" t="s">
         <v>26</v>
@@ -5489,7 +5489,7 @@
         <v>1.2</v>
       </c>
       <c r="F90" s="2">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="G90" s="3" t="s">
         <v>26</v>
@@ -5521,7 +5521,7 @@
         <v>1.2</v>
       </c>
       <c r="F91" s="2">
-        <v>200</v>
+        <v>274</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>26</v>
@@ -5553,7 +5553,7 @@
         <v>1.2</v>
       </c>
       <c r="F92" s="2">
-        <v>200</v>
+        <v>276</v>
       </c>
       <c r="G92" s="3" t="s">
         <v>26</v>
@@ -5585,7 +5585,7 @@
         <v>1.3</v>
       </c>
       <c r="F93" s="2">
-        <v>200</v>
+        <v>278</v>
       </c>
       <c r="G93" s="3" t="s">
         <v>35</v>
@@ -5617,7 +5617,7 @@
         <v>1.3</v>
       </c>
       <c r="F94" s="2">
-        <v>200</v>
+        <v>280</v>
       </c>
       <c r="G94" s="3" t="s">
         <v>26</v>
@@ -5649,7 +5649,7 @@
         <v>1.3</v>
       </c>
       <c r="F95" s="2">
-        <v>200</v>
+        <v>282</v>
       </c>
       <c r="G95" s="3" t="s">
         <v>26</v>
@@ -5681,7 +5681,7 @@
         <v>1.3</v>
       </c>
       <c r="F96" s="2">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="G96" s="3" t="s">
         <v>26</v>
@@ -5713,7 +5713,7 @@
         <v>1.3</v>
       </c>
       <c r="F97" s="2">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="G97" s="3" t="s">
         <v>26</v>
@@ -5745,7 +5745,7 @@
         <v>1.3</v>
       </c>
       <c r="F98" s="2">
-        <v>200</v>
+        <v>288</v>
       </c>
       <c r="G98" s="3" t="s">
         <v>35</v>
@@ -5777,7 +5777,7 @@
         <v>1.3</v>
       </c>
       <c r="F99" s="2">
-        <v>200</v>
+        <v>290</v>
       </c>
       <c r="G99" s="3" t="s">
         <v>26</v>
@@ -5809,7 +5809,7 @@
         <v>1.3</v>
       </c>
       <c r="F100" s="2">
-        <v>200</v>
+        <v>292</v>
       </c>
       <c r="G100" s="3" t="s">
         <v>26</v>
@@ -5841,7 +5841,7 @@
         <v>1.3</v>
       </c>
       <c r="F101" s="2">
-        <v>200</v>
+        <v>294</v>
       </c>
       <c r="G101" s="3" t="s">
         <v>26</v>
@@ -5873,7 +5873,7 @@
         <v>1.3</v>
       </c>
       <c r="F102" s="2">
-        <v>200</v>
+        <v>296</v>
       </c>
       <c r="G102" s="3" t="s">
         <v>26</v>
@@ -5905,7 +5905,7 @@
         <v>1.3</v>
       </c>
       <c r="F103" s="2">
-        <v>200</v>
+        <v>298</v>
       </c>
       <c r="G103" s="3" t="s">
         <v>35</v>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -2609,9 +2609,9 @@
   <dimension ref="A1:K503"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A483" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J503" sqref="J503"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3871,7 +3871,7 @@
         <v>97</v>
       </c>
       <c r="I39" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J39" s="2">
         <v>50</v>
@@ -3903,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="J40" s="2">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="I41" s="4">
-        <v>8.00000000000001</v>
+        <v>5</v>
       </c>
       <c r="J41" s="2">
         <v>50</v>
@@ -3967,7 +3967,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="4">
-        <v>9.00000000000001</v>
+        <v>5</v>
       </c>
       <c r="J42" s="2">
         <v>50</v>
@@ -3999,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="I43" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J43" s="2">
         <v>50</v>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="I44" s="4">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J44" s="2">
         <v>50</v>
@@ -4063,7 +4063,7 @@
         <v>109</v>
       </c>
       <c r="I45" s="4">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="J45" s="2">
         <v>50</v>
@@ -4095,7 +4095,7 @@
         <v>111</v>
       </c>
       <c r="I46" s="4">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="J46" s="2">
         <v>50</v>
@@ -4127,7 +4127,7 @@
         <v>113</v>
       </c>
       <c r="I47" s="4">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="J47" s="2">
         <v>50</v>
@@ -4159,7 +4159,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J48" s="2">
         <v>50</v>
@@ -4191,7 +4191,7 @@
         <v>117</v>
       </c>
       <c r="I49" s="4">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="J49" s="2">
         <v>50</v>
@@ -4223,7 +4223,7 @@
         <v>119</v>
       </c>
       <c r="I50" s="4">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="J50" s="2">
         <v>50</v>
@@ -4255,7 +4255,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="4">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2">
         <v>50</v>
@@ -4287,7 +4287,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="4">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2">
         <v>50</v>
@@ -4319,7 +4319,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J53" s="2">
         <v>50</v>
@@ -4351,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="4">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2">
         <v>100</v>
@@ -4383,7 +4383,7 @@
         <v>127</v>
       </c>
       <c r="I55" s="4">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -4415,7 +4415,7 @@
         <v>127</v>
       </c>
       <c r="I56" s="4">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
@@ -4447,7 +4447,7 @@
         <v>127</v>
       </c>
       <c r="I57" s="4">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2">
         <v>100</v>
@@ -4479,7 +4479,7 @@
         <v>127</v>
       </c>
       <c r="I58" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J58" s="2">
         <v>100</v>
@@ -4511,7 +4511,7 @@
         <v>133</v>
       </c>
       <c r="I59" s="4">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="J59" s="2">
         <v>100</v>
@@ -4543,7 +4543,7 @@
         <v>133</v>
       </c>
       <c r="I60" s="4">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
@@ -4575,7 +4575,7 @@
         <v>133</v>
       </c>
       <c r="I61" s="4">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -4607,7 +4607,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="4">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2">
         <v>100</v>
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="I63" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
@@ -4671,7 +4671,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="4">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
@@ -4703,7 +4703,7 @@
         <v>136</v>
       </c>
       <c r="I65" s="4">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="J65" s="2">
         <v>100</v>
@@ -4735,7 +4735,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="4">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="J66" s="2">
         <v>100</v>
@@ -4767,7 +4767,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="4">
-        <v>34</v>
+        <v>5</v>
       </c>
       <c r="J67" s="2">
         <v>100</v>
@@ -4799,7 +4799,7 @@
         <v>141</v>
       </c>
       <c r="I68" s="4">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="J68" s="2">
         <v>100</v>
@@ -4831,7 +4831,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="4">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2">
         <v>260</v>
@@ -4863,7 +4863,7 @@
         <v>144</v>
       </c>
       <c r="I70" s="4">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="J70" s="2">
         <v>270</v>
@@ -4895,7 +4895,7 @@
         <v>146</v>
       </c>
       <c r="I71" s="4">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="J71" s="2">
         <v>280</v>
@@ -4927,7 +4927,7 @@
         <v>148</v>
       </c>
       <c r="I72" s="4">
-        <v>39</v>
+        <v>5</v>
       </c>
       <c r="J72" s="2">
         <v>290</v>
@@ -4959,7 +4959,7 @@
         <v>150</v>
       </c>
       <c r="I73" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J73" s="2">
         <v>300</v>
@@ -4991,7 +4991,7 @@
         <v>151</v>
       </c>
       <c r="I74" s="4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2">
         <v>310</v>
@@ -5023,7 +5023,7 @@
         <v>152</v>
       </c>
       <c r="I75" s="4">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J75" s="2">
         <v>320</v>
@@ -5055,7 +5055,7 @@
         <v>153</v>
       </c>
       <c r="I76" s="4">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J76" s="2">
         <v>330</v>
@@ -5087,7 +5087,7 @@
         <v>154</v>
       </c>
       <c r="I77" s="4">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2">
         <v>340</v>
@@ -5119,7 +5119,7 @@
         <v>155</v>
       </c>
       <c r="I78" s="4">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J78" s="2">
         <v>350</v>
@@ -5151,7 +5151,7 @@
         <v>156</v>
       </c>
       <c r="I79" s="4">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J79" s="2">
         <v>360</v>
@@ -5183,7 +5183,7 @@
         <v>157</v>
       </c>
       <c r="I80" s="4">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J80" s="2">
         <v>370</v>
@@ -5215,7 +5215,7 @@
         <v>158</v>
       </c>
       <c r="I81" s="4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J81" s="2">
         <v>380</v>
@@ -5247,7 +5247,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="4">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J82" s="2">
         <v>390</v>
@@ -5279,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="I83" s="4">
-        <v>50</v>
+        <v>5</v>
       </c>
       <c r="J83" s="2">
         <v>420</v>
@@ -5311,7 +5311,7 @@
         <v>161</v>
       </c>
       <c r="I84" s="4">
-        <v>51</v>
+        <v>5</v>
       </c>
       <c r="J84" s="2">
         <v>450</v>
@@ -5343,7 +5343,7 @@
         <v>162</v>
       </c>
       <c r="I85" s="4">
-        <v>52</v>
+        <v>5</v>
       </c>
       <c r="J85" s="2">
         <v>480</v>
@@ -5375,7 +5375,7 @@
         <v>163</v>
       </c>
       <c r="I86" s="4">
-        <v>53</v>
+        <v>5</v>
       </c>
       <c r="J86" s="2">
         <v>510</v>
@@ -5407,7 +5407,7 @@
         <v>164</v>
       </c>
       <c r="I87" s="4">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="J87" s="2">
         <v>540</v>
@@ -5439,7 +5439,7 @@
         <v>165</v>
       </c>
       <c r="I88" s="4">
-        <v>55</v>
+        <v>5</v>
       </c>
       <c r="J88" s="2">
         <v>570</v>
@@ -5471,7 +5471,7 @@
         <v>166</v>
       </c>
       <c r="I89" s="4">
-        <v>56</v>
+        <v>5</v>
       </c>
       <c r="J89" s="2">
         <v>600</v>
@@ -5503,7 +5503,7 @@
         <v>167</v>
       </c>
       <c r="I90" s="4">
-        <v>57</v>
+        <v>5</v>
       </c>
       <c r="J90" s="2">
         <v>630</v>
@@ -5535,7 +5535,7 @@
         <v>168</v>
       </c>
       <c r="I91" s="4">
-        <v>58</v>
+        <v>5</v>
       </c>
       <c r="J91" s="2">
         <v>660</v>
@@ -5567,7 +5567,7 @@
         <v>169</v>
       </c>
       <c r="I92" s="4">
-        <v>59</v>
+        <v>5</v>
       </c>
       <c r="J92" s="2">
         <v>690</v>
@@ -5599,7 +5599,7 @@
         <v>170</v>
       </c>
       <c r="I93" s="4">
-        <v>60</v>
+        <v>5</v>
       </c>
       <c r="J93" s="2">
         <v>720</v>
@@ -5631,7 +5631,7 @@
         <v>172</v>
       </c>
       <c r="I94" s="4">
-        <v>61</v>
+        <v>5</v>
       </c>
       <c r="J94" s="2">
         <v>750</v>
@@ -5663,7 +5663,7 @@
         <v>173</v>
       </c>
       <c r="I95" s="4">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="J95" s="2">
         <v>780</v>
@@ -5695,7 +5695,7 @@
         <v>174</v>
       </c>
       <c r="I96" s="4">
-        <v>63</v>
+        <v>5</v>
       </c>
       <c r="J96" s="2">
         <v>810</v>
@@ -5727,7 +5727,7 @@
         <v>175</v>
       </c>
       <c r="I97" s="4">
-        <v>64</v>
+        <v>5</v>
       </c>
       <c r="J97" s="2">
         <v>840</v>
@@ -5759,7 +5759,7 @@
         <v>176</v>
       </c>
       <c r="I98" s="4">
-        <v>65</v>
+        <v>5</v>
       </c>
       <c r="J98" s="2">
         <v>870</v>
@@ -5791,7 +5791,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="4">
-        <v>66</v>
+        <v>5</v>
       </c>
       <c r="J99" s="2">
         <v>900</v>
@@ -5823,7 +5823,7 @@
         <v>178</v>
       </c>
       <c r="I100" s="4">
-        <v>67</v>
+        <v>5</v>
       </c>
       <c r="J100" s="2">
         <v>1000</v>
@@ -5855,7 +5855,7 @@
         <v>179</v>
       </c>
       <c r="I101" s="4">
-        <v>68</v>
+        <v>5</v>
       </c>
       <c r="J101" s="2">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>180</v>
       </c>
       <c r="I102" s="4">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="J102" s="2">
         <v>1000</v>
@@ -5919,7 +5919,7 @@
         <v>181</v>
       </c>
       <c r="I103" s="4">
-        <v>70</v>
+        <v>5</v>
       </c>
       <c r="J103" s="2">
         <v>1000</v>
@@ -5951,7 +5951,7 @@
         <v>182</v>
       </c>
       <c r="I104" s="4">
-        <v>71</v>
+        <v>5</v>
       </c>
       <c r="J104" s="2">
         <v>1000</v>
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="I105" s="4">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="J105" s="2">
         <v>1000</v>
@@ -6015,7 +6015,7 @@
         <v>182</v>
       </c>
       <c r="I106" s="4">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="J106" s="2">
         <v>1000</v>
@@ -6047,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="I107" s="4">
-        <v>74</v>
+        <v>5</v>
       </c>
       <c r="J107" s="2">
         <v>1000</v>
@@ -6079,7 +6079,7 @@
         <v>182</v>
       </c>
       <c r="I108" s="4">
-        <v>75</v>
+        <v>5</v>
       </c>
       <c r="J108" s="2">
         <v>1000</v>
@@ -6111,7 +6111,7 @@
         <v>182</v>
       </c>
       <c r="I109" s="4">
-        <v>76</v>
+        <v>5</v>
       </c>
       <c r="J109" s="2">
         <v>1000</v>
@@ -6143,7 +6143,7 @@
         <v>182</v>
       </c>
       <c r="I110" s="4">
-        <v>77</v>
+        <v>5</v>
       </c>
       <c r="J110" s="2">
         <v>1000</v>
@@ -6175,7 +6175,7 @@
         <v>182</v>
       </c>
       <c r="I111" s="4">
-        <v>78</v>
+        <v>5</v>
       </c>
       <c r="J111" s="2">
         <v>1050</v>
@@ -6207,7 +6207,7 @@
         <v>182</v>
       </c>
       <c r="I112" s="4">
-        <v>79</v>
+        <v>5</v>
       </c>
       <c r="J112" s="2">
         <v>1100</v>
@@ -6239,7 +6239,7 @@
         <v>182</v>
       </c>
       <c r="I113" s="4">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="J113" s="2">
         <v>1150</v>
@@ -6271,7 +6271,7 @@
         <v>184</v>
       </c>
       <c r="I114" s="4">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="J114" s="2">
         <v>1200</v>
@@ -6303,7 +6303,7 @@
         <v>185</v>
       </c>
       <c r="I115" s="4">
-        <v>82</v>
+        <v>5</v>
       </c>
       <c r="J115" s="2">
         <v>1250</v>
@@ -6335,7 +6335,7 @@
         <v>186</v>
       </c>
       <c r="I116" s="4">
-        <v>83</v>
+        <v>5</v>
       </c>
       <c r="J116" s="2">
         <v>1300</v>
@@ -6367,7 +6367,7 @@
         <v>187</v>
       </c>
       <c r="I117" s="4">
-        <v>84</v>
+        <v>5</v>
       </c>
       <c r="J117" s="2">
         <v>1350</v>
@@ -6399,7 +6399,7 @@
         <v>188</v>
       </c>
       <c r="I118" s="4">
-        <v>85</v>
+        <v>5</v>
       </c>
       <c r="J118" s="2">
         <v>1400</v>
@@ -6431,7 +6431,7 @@
         <v>189</v>
       </c>
       <c r="I119" s="4">
-        <v>86</v>
+        <v>5</v>
       </c>
       <c r="J119" s="2">
         <v>1450</v>
@@ -6463,7 +6463,7 @@
         <v>190</v>
       </c>
       <c r="I120" s="4">
-        <v>87</v>
+        <v>5</v>
       </c>
       <c r="J120" s="2">
         <v>1500</v>
@@ -6495,7 +6495,7 @@
         <v>191</v>
       </c>
       <c r="I121" s="4">
-        <v>88</v>
+        <v>5</v>
       </c>
       <c r="J121" s="2">
         <v>1600</v>
@@ -6527,7 +6527,7 @@
         <v>192</v>
       </c>
       <c r="I122" s="4">
-        <v>89</v>
+        <v>5</v>
       </c>
       <c r="J122" s="2">
         <v>1700</v>
@@ -6560,7 +6560,7 @@
         <v>193</v>
       </c>
       <c r="I123" s="4">
-        <v>90</v>
+        <v>5</v>
       </c>
       <c r="J123" s="2">
         <v>1800</v>
@@ -6593,7 +6593,7 @@
         <v>194</v>
       </c>
       <c r="I124" s="4">
-        <v>91</v>
+        <v>5</v>
       </c>
       <c r="J124" s="2">
         <v>1900</v>
@@ -6626,7 +6626,7 @@
         <v>195</v>
       </c>
       <c r="I125" s="4">
-        <v>92</v>
+        <v>5</v>
       </c>
       <c r="J125" s="2">
         <v>2000</v>
@@ -6659,7 +6659,7 @@
         <v>196</v>
       </c>
       <c r="I126" s="4">
-        <v>93</v>
+        <v>5</v>
       </c>
       <c r="J126" s="2">
         <v>2100</v>
@@ -6692,7 +6692,7 @@
         <v>197</v>
       </c>
       <c r="I127" s="4">
-        <v>94</v>
+        <v>5</v>
       </c>
       <c r="J127" s="2">
         <v>2200</v>
@@ -6725,7 +6725,7 @@
         <v>198</v>
       </c>
       <c r="I128" s="4">
-        <v>95</v>
+        <v>5</v>
       </c>
       <c r="J128" s="2">
         <v>2300</v>
@@ -6758,7 +6758,7 @@
         <v>199</v>
       </c>
       <c r="I129" s="4">
-        <v>96</v>
+        <v>5</v>
       </c>
       <c r="J129" s="2">
         <v>2400</v>
@@ -6791,7 +6791,7 @@
         <v>200</v>
       </c>
       <c r="I130" s="4">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="J130" s="2">
         <v>2500</v>
@@ -6824,7 +6824,7 @@
         <v>201</v>
       </c>
       <c r="I131" s="4">
-        <v>98</v>
+        <v>5</v>
       </c>
       <c r="J131" s="2">
         <v>2600</v>
@@ -6857,7 +6857,7 @@
         <v>202</v>
       </c>
       <c r="I132" s="4">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="J132" s="2">
         <v>2700</v>
@@ -6890,7 +6890,7 @@
         <v>203</v>
       </c>
       <c r="I133" s="4">
-        <v>100</v>
+        <v>5</v>
       </c>
       <c r="J133" s="2">
         <v>2800</v>
@@ -6923,7 +6923,7 @@
         <v>182</v>
       </c>
       <c r="I134" s="4">
-        <v>101</v>
+        <v>5</v>
       </c>
       <c r="J134" s="2">
         <v>2900</v>
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="I135" s="4">
-        <v>102</v>
+        <v>5</v>
       </c>
       <c r="J135" s="2">
         <v>3000</v>
@@ -6989,7 +6989,7 @@
         <v>185</v>
       </c>
       <c r="I136" s="4">
-        <v>103</v>
+        <v>5</v>
       </c>
       <c r="J136" s="2">
         <v>3100</v>
@@ -7022,7 +7022,7 @@
         <v>186</v>
       </c>
       <c r="I137" s="4">
-        <v>104</v>
+        <v>5</v>
       </c>
       <c r="J137" s="2">
         <v>3200</v>
@@ -7055,7 +7055,7 @@
         <v>187</v>
       </c>
       <c r="I138" s="4">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="J138" s="2">
         <v>3300</v>
@@ -7088,7 +7088,7 @@
         <v>188</v>
       </c>
       <c r="I139" s="4">
-        <v>106</v>
+        <v>5</v>
       </c>
       <c r="J139" s="2">
         <v>3400</v>
@@ -7121,7 +7121,7 @@
         <v>189</v>
       </c>
       <c r="I140" s="4">
-        <v>107</v>
+        <v>5</v>
       </c>
       <c r="J140" s="2">
         <v>3500</v>
@@ -7154,7 +7154,7 @@
         <v>190</v>
       </c>
       <c r="I141" s="4">
-        <v>108</v>
+        <v>5</v>
       </c>
       <c r="J141" s="2">
         <v>3700</v>
@@ -7187,7 +7187,7 @@
         <v>191</v>
       </c>
       <c r="I142" s="4">
-        <v>109</v>
+        <v>5</v>
       </c>
       <c r="J142" s="2">
         <v>3900</v>
@@ -7220,7 +7220,7 @@
         <v>192</v>
       </c>
       <c r="I143" s="4">
-        <v>110</v>
+        <v>5</v>
       </c>
       <c r="J143" s="2">
         <v>4100</v>
@@ -7253,7 +7253,7 @@
         <v>193</v>
       </c>
       <c r="I144" s="4">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="J144" s="2">
         <v>4300</v>
@@ -7286,7 +7286,7 @@
         <v>194</v>
       </c>
       <c r="I145" s="4">
-        <v>112</v>
+        <v>5</v>
       </c>
       <c r="J145" s="2">
         <v>4500</v>
@@ -7319,7 +7319,7 @@
         <v>195</v>
       </c>
       <c r="I146" s="4">
-        <v>113</v>
+        <v>5</v>
       </c>
       <c r="J146" s="2">
         <v>4700</v>
@@ -7352,7 +7352,7 @@
         <v>196</v>
       </c>
       <c r="I147" s="4">
-        <v>114</v>
+        <v>5</v>
       </c>
       <c r="J147" s="2">
         <v>4900</v>
@@ -7385,7 +7385,7 @@
         <v>197</v>
       </c>
       <c r="I148" s="4">
-        <v>115</v>
+        <v>5</v>
       </c>
       <c r="J148" s="2">
         <v>5100</v>
@@ -7418,7 +7418,7 @@
         <v>198</v>
       </c>
       <c r="I149" s="4">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="J149" s="2">
         <v>5300</v>
@@ -7451,7 +7451,7 @@
         <v>199</v>
       </c>
       <c r="I150" s="4">
-        <v>117</v>
+        <v>5</v>
       </c>
       <c r="J150" s="2">
         <v>5500</v>
@@ -7484,7 +7484,7 @@
         <v>200</v>
       </c>
       <c r="I151" s="4">
-        <v>118</v>
+        <v>5</v>
       </c>
       <c r="J151" s="2">
         <v>5700</v>
@@ -7517,7 +7517,7 @@
         <v>201</v>
       </c>
       <c r="I152" s="4">
-        <v>119</v>
+        <v>5</v>
       </c>
       <c r="J152" s="2">
         <v>5900</v>
@@ -7550,7 +7550,7 @@
         <v>202</v>
       </c>
       <c r="I153" s="4">
-        <v>120</v>
+        <v>5</v>
       </c>
       <c r="J153" s="2">
         <v>6100</v>
@@ -7583,7 +7583,7 @@
         <v>204</v>
       </c>
       <c r="I154" s="4">
-        <v>121</v>
+        <v>5</v>
       </c>
       <c r="J154" s="2">
         <v>6300</v>
@@ -7616,7 +7616,7 @@
         <v>204</v>
       </c>
       <c r="I155" s="4">
-        <v>122</v>
+        <v>5</v>
       </c>
       <c r="J155" s="2">
         <v>6500</v>
@@ -7649,7 +7649,7 @@
         <v>204</v>
       </c>
       <c r="I156" s="4">
-        <v>123</v>
+        <v>5</v>
       </c>
       <c r="J156" s="2">
         <v>6700</v>
@@ -7682,7 +7682,7 @@
         <v>204</v>
       </c>
       <c r="I157" s="4">
-        <v>124</v>
+        <v>5</v>
       </c>
       <c r="J157" s="2">
         <v>6900</v>
@@ -7715,7 +7715,7 @@
         <v>204</v>
       </c>
       <c r="I158" s="4">
-        <v>125</v>
+        <v>5</v>
       </c>
       <c r="J158" s="2">
         <v>7100</v>
@@ -7748,7 +7748,7 @@
         <v>204</v>
       </c>
       <c r="I159" s="4">
-        <v>126</v>
+        <v>5</v>
       </c>
       <c r="J159" s="2">
         <v>7300</v>
@@ -7781,7 +7781,7 @@
         <v>204</v>
       </c>
       <c r="I160" s="4">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="J160" s="2">
         <v>7500</v>
@@ -7814,7 +7814,7 @@
         <v>204</v>
       </c>
       <c r="I161" s="4">
-        <v>128</v>
+        <v>5</v>
       </c>
       <c r="J161" s="2">
         <v>7700</v>
@@ -7847,7 +7847,7 @@
         <v>204</v>
       </c>
       <c r="I162" s="4">
-        <v>129</v>
+        <v>5</v>
       </c>
       <c r="J162" s="2">
         <v>7900</v>
@@ -7880,7 +7880,7 @@
         <v>204</v>
       </c>
       <c r="I163" s="4">
-        <v>130</v>
+        <v>5</v>
       </c>
       <c r="J163" s="2">
         <v>8100</v>
@@ -7913,7 +7913,7 @@
         <v>205</v>
       </c>
       <c r="I164" s="4">
-        <v>131</v>
+        <v>5</v>
       </c>
       <c r="J164" s="2">
         <v>8300</v>
@@ -7946,7 +7946,7 @@
         <v>206</v>
       </c>
       <c r="I165" s="4">
-        <v>132</v>
+        <v>5</v>
       </c>
       <c r="J165" s="2">
         <v>8500</v>
@@ -7979,7 +7979,7 @@
         <v>207</v>
       </c>
       <c r="I166" s="4">
-        <v>133</v>
+        <v>5</v>
       </c>
       <c r="J166" s="2">
         <v>8700</v>
@@ -8012,7 +8012,7 @@
         <v>208</v>
       </c>
       <c r="I167" s="4">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="J167" s="2">
         <v>8900</v>
@@ -8045,7 +8045,7 @@
         <v>209</v>
       </c>
       <c r="I168" s="4">
-        <v>135</v>
+        <v>5</v>
       </c>
       <c r="J168" s="2">
         <v>9100</v>
@@ -8078,7 +8078,7 @@
         <v>210</v>
       </c>
       <c r="I169" s="4">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="J169" s="2">
         <v>9300</v>
@@ -8111,7 +8111,7 @@
         <v>211</v>
       </c>
       <c r="I170" s="4">
-        <v>137</v>
+        <v>5</v>
       </c>
       <c r="J170" s="2">
         <v>9500</v>
@@ -8144,7 +8144,7 @@
         <v>212</v>
       </c>
       <c r="I171" s="4">
-        <v>138</v>
+        <v>5</v>
       </c>
       <c r="J171" s="2">
         <v>9700</v>
@@ -8177,7 +8177,7 @@
         <v>213</v>
       </c>
       <c r="I172" s="4">
-        <v>139</v>
+        <v>5</v>
       </c>
       <c r="J172" s="2">
         <v>9900</v>
@@ -8210,7 +8210,7 @@
         <v>214</v>
       </c>
       <c r="I173" s="4">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="J173" s="2">
         <v>10000</v>
@@ -8243,7 +8243,7 @@
         <v>215</v>
       </c>
       <c r="I174" s="4">
-        <v>141</v>
+        <v>5</v>
       </c>
       <c r="J174" s="2">
         <v>11000</v>
@@ -8276,7 +8276,7 @@
         <v>216</v>
       </c>
       <c r="I175" s="4">
-        <v>142</v>
+        <v>5</v>
       </c>
       <c r="J175" s="2">
         <v>12000</v>
@@ -8309,7 +8309,7 @@
         <v>217</v>
       </c>
       <c r="I176" s="4">
-        <v>143</v>
+        <v>5</v>
       </c>
       <c r="J176" s="2">
         <v>13000</v>
@@ -8342,7 +8342,7 @@
         <v>218</v>
       </c>
       <c r="I177" s="4">
-        <v>144</v>
+        <v>5</v>
       </c>
       <c r="J177" s="2">
         <v>14000</v>
@@ -8375,7 +8375,7 @@
         <v>219</v>
       </c>
       <c r="I178" s="4">
-        <v>145</v>
+        <v>5</v>
       </c>
       <c r="J178" s="2">
         <v>15000</v>
@@ -8408,7 +8408,7 @@
         <v>220</v>
       </c>
       <c r="I179" s="4">
-        <v>146</v>
+        <v>5</v>
       </c>
       <c r="J179" s="2">
         <v>16000</v>
@@ -8441,7 +8441,7 @@
         <v>221</v>
       </c>
       <c r="I180" s="4">
-        <v>147</v>
+        <v>5</v>
       </c>
       <c r="J180" s="2">
         <v>17000</v>
@@ -8474,7 +8474,7 @@
         <v>222</v>
       </c>
       <c r="I181" s="4">
-        <v>148</v>
+        <v>5</v>
       </c>
       <c r="J181" s="2">
         <v>18000</v>
@@ -8507,7 +8507,7 @@
         <v>223</v>
       </c>
       <c r="I182" s="4">
-        <v>149</v>
+        <v>5</v>
       </c>
       <c r="J182" s="2">
         <v>19000</v>
@@ -8540,7 +8540,7 @@
         <v>224</v>
       </c>
       <c r="I183" s="4">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="J183" s="2">
         <v>20000</v>
@@ -8573,7 +8573,7 @@
         <v>225</v>
       </c>
       <c r="I184" s="4">
-        <v>151</v>
+        <v>5</v>
       </c>
       <c r="J184" s="2">
         <v>21000</v>
@@ -8606,7 +8606,7 @@
         <v>226</v>
       </c>
       <c r="I185" s="4">
-        <v>152</v>
+        <v>5</v>
       </c>
       <c r="J185" s="2">
         <v>22000</v>
@@ -8639,7 +8639,7 @@
         <v>227</v>
       </c>
       <c r="I186" s="4">
-        <v>153</v>
+        <v>5</v>
       </c>
       <c r="J186" s="2">
         <v>23000</v>
@@ -8672,7 +8672,7 @@
         <v>228</v>
       </c>
       <c r="I187" s="4">
-        <v>154</v>
+        <v>5</v>
       </c>
       <c r="J187" s="2">
         <v>24000</v>
@@ -8705,7 +8705,7 @@
         <v>229</v>
       </c>
       <c r="I188" s="4">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="J188" s="2">
         <v>25000</v>
@@ -8738,7 +8738,7 @@
         <v>230</v>
       </c>
       <c r="I189" s="4">
-        <v>156</v>
+        <v>5</v>
       </c>
       <c r="J189" s="2">
         <v>26000</v>
@@ -8771,7 +8771,7 @@
         <v>231</v>
       </c>
       <c r="I190" s="4">
-        <v>157</v>
+        <v>5</v>
       </c>
       <c r="J190" s="2">
         <v>27000</v>
@@ -8804,7 +8804,7 @@
         <v>232</v>
       </c>
       <c r="I191" s="4">
-        <v>158</v>
+        <v>5</v>
       </c>
       <c r="J191" s="2">
         <v>28000</v>
@@ -8837,7 +8837,7 @@
         <v>233</v>
       </c>
       <c r="I192" s="4">
-        <v>159</v>
+        <v>5</v>
       </c>
       <c r="J192" s="2">
         <v>29000</v>
@@ -8870,7 +8870,7 @@
         <v>234</v>
       </c>
       <c r="I193" s="4">
-        <v>160</v>
+        <v>5</v>
       </c>
       <c r="J193" s="2">
         <v>30000</v>
@@ -8903,7 +8903,7 @@
         <v>235</v>
       </c>
       <c r="I194" s="4">
-        <v>161</v>
+        <v>5</v>
       </c>
       <c r="J194" s="2">
         <v>31000</v>
@@ -8936,7 +8936,7 @@
         <v>236</v>
       </c>
       <c r="I195" s="4">
-        <v>162</v>
+        <v>5</v>
       </c>
       <c r="J195" s="2">
         <v>32000</v>
@@ -8969,7 +8969,7 @@
         <v>237</v>
       </c>
       <c r="I196" s="4">
-        <v>163</v>
+        <v>5</v>
       </c>
       <c r="J196" s="2">
         <v>33000</v>
@@ -9002,7 +9002,7 @@
         <v>238</v>
       </c>
       <c r="I197" s="4">
-        <v>164</v>
+        <v>5</v>
       </c>
       <c r="J197" s="2">
         <v>34000</v>
@@ -9035,7 +9035,7 @@
         <v>239</v>
       </c>
       <c r="I198" s="4">
-        <v>165</v>
+        <v>5</v>
       </c>
       <c r="J198" s="2">
         <v>35000</v>
@@ -9068,7 +9068,7 @@
         <v>240</v>
       </c>
       <c r="I199" s="4">
-        <v>166</v>
+        <v>5</v>
       </c>
       <c r="J199" s="2">
         <v>36000</v>
@@ -9101,7 +9101,7 @@
         <v>241</v>
       </c>
       <c r="I200" s="4">
-        <v>167</v>
+        <v>5</v>
       </c>
       <c r="J200" s="2">
         <v>37000</v>
@@ -9134,7 +9134,7 @@
         <v>242</v>
       </c>
       <c r="I201" s="4">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="J201" s="2">
         <v>38000</v>
@@ -9167,7 +9167,7 @@
         <v>243</v>
       </c>
       <c r="I202" s="4">
-        <v>169</v>
+        <v>5</v>
       </c>
       <c r="J202" s="2">
         <v>39000</v>
@@ -9200,7 +9200,7 @@
         <v>244</v>
       </c>
       <c r="I203" s="4">
-        <v>170</v>
+        <v>5</v>
       </c>
       <c r="J203" s="2">
         <v>40000</v>
@@ -9233,7 +9233,7 @@
         <v>245</v>
       </c>
       <c r="I204" s="4">
-        <v>171</v>
+        <v>5</v>
       </c>
       <c r="J204" s="2">
         <v>41000</v>
@@ -9266,7 +9266,7 @@
         <v>245</v>
       </c>
       <c r="I205" s="4">
-        <v>172</v>
+        <v>5</v>
       </c>
       <c r="J205" s="2">
         <v>42000</v>
@@ -9299,7 +9299,7 @@
         <v>245</v>
       </c>
       <c r="I206" s="4">
-        <v>173</v>
+        <v>5</v>
       </c>
       <c r="J206" s="2">
         <v>43000</v>
@@ -9332,7 +9332,7 @@
         <v>245</v>
       </c>
       <c r="I207" s="4">
-        <v>174</v>
+        <v>5</v>
       </c>
       <c r="J207" s="2">
         <v>44000</v>
@@ -9365,7 +9365,7 @@
         <v>245</v>
       </c>
       <c r="I208" s="4">
-        <v>175</v>
+        <v>5</v>
       </c>
       <c r="J208" s="2">
         <v>45000</v>
@@ -9398,7 +9398,7 @@
         <v>245</v>
       </c>
       <c r="I209" s="4">
-        <v>176</v>
+        <v>5</v>
       </c>
       <c r="J209" s="2">
         <v>46000</v>
@@ -9431,7 +9431,7 @@
         <v>245</v>
       </c>
       <c r="I210" s="4">
-        <v>177</v>
+        <v>5</v>
       </c>
       <c r="J210" s="2">
         <v>47000</v>
@@ -9464,7 +9464,7 @@
         <v>245</v>
       </c>
       <c r="I211" s="4">
-        <v>178</v>
+        <v>5</v>
       </c>
       <c r="J211" s="2">
         <v>48000</v>
@@ -9497,7 +9497,7 @@
         <v>245</v>
       </c>
       <c r="I212" s="4">
-        <v>179</v>
+        <v>5</v>
       </c>
       <c r="J212" s="2">
         <v>49000</v>
@@ -9530,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="I213" s="4">
-        <v>180</v>
+        <v>5</v>
       </c>
       <c r="J213" s="2">
         <v>50000</v>
@@ -9563,7 +9563,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="4">
-        <v>181</v>
+        <v>5</v>
       </c>
       <c r="J214" s="2">
         <v>51000</v>
@@ -9596,7 +9596,7 @@
         <v>247</v>
       </c>
       <c r="I215" s="4">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="J215" s="2">
         <v>52000</v>
@@ -9629,7 +9629,7 @@
         <v>248</v>
       </c>
       <c r="I216" s="4">
-        <v>183</v>
+        <v>5</v>
       </c>
       <c r="J216" s="2">
         <v>53000</v>
@@ -9662,7 +9662,7 @@
         <v>249</v>
       </c>
       <c r="I217" s="4">
-        <v>184</v>
+        <v>5</v>
       </c>
       <c r="J217" s="2">
         <v>54000</v>
@@ -9695,7 +9695,7 @@
         <v>250</v>
       </c>
       <c r="I218" s="4">
-        <v>185</v>
+        <v>5</v>
       </c>
       <c r="J218" s="2">
         <v>55000</v>
@@ -9728,7 +9728,7 @@
         <v>251</v>
       </c>
       <c r="I219" s="4">
-        <v>186</v>
+        <v>5</v>
       </c>
       <c r="J219" s="2">
         <v>56000</v>
@@ -9761,7 +9761,7 @@
         <v>252</v>
       </c>
       <c r="I220" s="4">
-        <v>187</v>
+        <v>5</v>
       </c>
       <c r="J220" s="2">
         <v>57000</v>
@@ -9794,7 +9794,7 @@
         <v>253</v>
       </c>
       <c r="I221" s="4">
-        <v>188</v>
+        <v>5</v>
       </c>
       <c r="J221" s="2">
         <v>58000</v>
@@ -9827,7 +9827,7 @@
         <v>254</v>
       </c>
       <c r="I222" s="4">
-        <v>189</v>
+        <v>5</v>
       </c>
       <c r="J222" s="2">
         <v>59000</v>
@@ -9860,7 +9860,7 @@
         <v>255</v>
       </c>
       <c r="I223" s="4">
-        <v>190</v>
+        <v>5</v>
       </c>
       <c r="J223" s="2">
         <v>60000</v>
@@ -9893,7 +9893,7 @@
         <v>256</v>
       </c>
       <c r="I224" s="4">
-        <v>191</v>
+        <v>5</v>
       </c>
       <c r="J224" s="2">
         <v>61000</v>
@@ -9926,7 +9926,7 @@
         <v>257</v>
       </c>
       <c r="I225" s="4">
-        <v>192</v>
+        <v>5</v>
       </c>
       <c r="J225" s="2">
         <v>62000</v>
@@ -9959,7 +9959,7 @@
         <v>258</v>
       </c>
       <c r="I226" s="4">
-        <v>193</v>
+        <v>5</v>
       </c>
       <c r="J226" s="2">
         <v>63000</v>
@@ -9992,7 +9992,7 @@
         <v>259</v>
       </c>
       <c r="I227" s="4">
-        <v>194</v>
+        <v>5</v>
       </c>
       <c r="J227" s="2">
         <v>64000</v>
@@ -10025,7 +10025,7 @@
         <v>260</v>
       </c>
       <c r="I228" s="4">
-        <v>195</v>
+        <v>5</v>
       </c>
       <c r="J228" s="2">
         <v>65000</v>
@@ -10058,7 +10058,7 @@
         <v>261</v>
       </c>
       <c r="I229" s="4">
-        <v>196</v>
+        <v>5</v>
       </c>
       <c r="J229" s="2">
         <v>66000</v>
@@ -10091,7 +10091,7 @@
         <v>262</v>
       </c>
       <c r="I230" s="4">
-        <v>197</v>
+        <v>5</v>
       </c>
       <c r="J230" s="2">
         <v>67000</v>
@@ -10124,7 +10124,7 @@
         <v>263</v>
       </c>
       <c r="I231" s="4">
-        <v>198</v>
+        <v>5</v>
       </c>
       <c r="J231" s="2">
         <v>68000</v>
@@ -10157,7 +10157,7 @@
         <v>264</v>
       </c>
       <c r="I232" s="4">
-        <v>199</v>
+        <v>5</v>
       </c>
       <c r="J232" s="2">
         <v>69000</v>
@@ -10190,7 +10190,7 @@
         <v>265</v>
       </c>
       <c r="I233" s="4">
-        <v>200</v>
+        <v>5</v>
       </c>
       <c r="J233" s="2">
         <v>70000</v>
@@ -10223,7 +10223,7 @@
         <v>266</v>
       </c>
       <c r="I234" s="4">
-        <v>201</v>
+        <v>5</v>
       </c>
       <c r="J234" s="2">
         <v>71000</v>
@@ -10256,7 +10256,7 @@
         <v>267</v>
       </c>
       <c r="I235" s="4">
-        <v>202</v>
+        <v>5</v>
       </c>
       <c r="J235" s="2">
         <v>72000</v>
@@ -10289,7 +10289,7 @@
         <v>268</v>
       </c>
       <c r="I236" s="4">
-        <v>203</v>
+        <v>5</v>
       </c>
       <c r="J236" s="2">
         <v>73000</v>
@@ -10322,7 +10322,7 @@
         <v>269</v>
       </c>
       <c r="I237" s="4">
-        <v>204</v>
+        <v>5</v>
       </c>
       <c r="J237" s="2">
         <v>74000</v>
@@ -10355,7 +10355,7 @@
         <v>270</v>
       </c>
       <c r="I238" s="4">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="J238" s="2">
         <v>75000</v>
@@ -10388,7 +10388,7 @@
         <v>271</v>
       </c>
       <c r="I239" s="4">
-        <v>206</v>
+        <v>5</v>
       </c>
       <c r="J239" s="2">
         <v>76000</v>
@@ -10421,7 +10421,7 @@
         <v>272</v>
       </c>
       <c r="I240" s="4">
-        <v>207</v>
+        <v>5</v>
       </c>
       <c r="J240" s="2">
         <v>77000</v>
@@ -10454,7 +10454,7 @@
         <v>273</v>
       </c>
       <c r="I241" s="4">
-        <v>208</v>
+        <v>5</v>
       </c>
       <c r="J241" s="2">
         <v>78000</v>
@@ -10487,7 +10487,7 @@
         <v>274</v>
       </c>
       <c r="I242" s="4">
-        <v>209</v>
+        <v>5</v>
       </c>
       <c r="J242" s="2">
         <v>79000</v>
@@ -10520,7 +10520,7 @@
         <v>275</v>
       </c>
       <c r="I243" s="4">
-        <v>210</v>
+        <v>5</v>
       </c>
       <c r="J243" s="2">
         <v>80000</v>
@@ -10553,7 +10553,7 @@
         <v>276</v>
       </c>
       <c r="I244" s="4">
-        <v>211</v>
+        <v>5</v>
       </c>
       <c r="J244" s="2">
         <v>81000</v>
@@ -10586,7 +10586,7 @@
         <v>277</v>
       </c>
       <c r="I245" s="4">
-        <v>212</v>
+        <v>5</v>
       </c>
       <c r="J245" s="2">
         <v>82000</v>
@@ -10619,7 +10619,7 @@
         <v>278</v>
       </c>
       <c r="I246" s="4">
-        <v>213</v>
+        <v>5</v>
       </c>
       <c r="J246" s="2">
         <v>83000</v>
@@ -10652,7 +10652,7 @@
         <v>279</v>
       </c>
       <c r="I247" s="4">
-        <v>214</v>
+        <v>5</v>
       </c>
       <c r="J247" s="2">
         <v>84000</v>
@@ -10685,7 +10685,7 @@
         <v>280</v>
       </c>
       <c r="I248" s="4">
-        <v>215</v>
+        <v>5</v>
       </c>
       <c r="J248" s="2">
         <v>85000</v>
@@ -10718,7 +10718,7 @@
         <v>281</v>
       </c>
       <c r="I249" s="4">
-        <v>216</v>
+        <v>5</v>
       </c>
       <c r="J249" s="2">
         <v>86000</v>
@@ -10751,7 +10751,7 @@
         <v>282</v>
       </c>
       <c r="I250" s="4">
-        <v>217</v>
+        <v>6</v>
       </c>
       <c r="J250" s="2">
         <v>87000</v>
@@ -10784,7 +10784,7 @@
         <v>283</v>
       </c>
       <c r="I251" s="4">
-        <v>218</v>
+        <v>6</v>
       </c>
       <c r="J251" s="2">
         <v>88000</v>
@@ -10817,7 +10817,7 @@
         <v>284</v>
       </c>
       <c r="I252" s="4">
-        <v>219</v>
+        <v>6</v>
       </c>
       <c r="J252" s="2">
         <v>89000</v>
@@ -10850,7 +10850,7 @@
         <v>285</v>
       </c>
       <c r="I253" s="4">
-        <v>220</v>
+        <v>6</v>
       </c>
       <c r="J253" s="2">
         <v>90000</v>
@@ -10883,7 +10883,7 @@
         <v>286</v>
       </c>
       <c r="I254" s="4">
-        <v>221</v>
+        <v>6</v>
       </c>
       <c r="J254" s="2">
         <v>91000</v>
@@ -10916,7 +10916,7 @@
         <v>287</v>
       </c>
       <c r="I255" s="4">
-        <v>222</v>
+        <v>6</v>
       </c>
       <c r="J255" s="2">
         <v>92000</v>
@@ -10949,7 +10949,7 @@
         <v>288</v>
       </c>
       <c r="I256" s="4">
-        <v>223</v>
+        <v>6</v>
       </c>
       <c r="J256" s="2">
         <v>93000</v>
@@ -10982,7 +10982,7 @@
         <v>289</v>
       </c>
       <c r="I257" s="4">
-        <v>224</v>
+        <v>6</v>
       </c>
       <c r="J257" s="2">
         <v>94000</v>
@@ -11015,7 +11015,7 @@
         <v>290</v>
       </c>
       <c r="I258" s="4">
-        <v>225</v>
+        <v>6</v>
       </c>
       <c r="J258" s="2">
         <v>95000</v>
@@ -11048,7 +11048,7 @@
         <v>291</v>
       </c>
       <c r="I259" s="4">
-        <v>226</v>
+        <v>6</v>
       </c>
       <c r="J259" s="2">
         <v>96000</v>
@@ -11081,7 +11081,7 @@
         <v>292</v>
       </c>
       <c r="I260" s="4">
-        <v>227</v>
+        <v>6</v>
       </c>
       <c r="J260" s="2">
         <v>97000</v>
@@ -11114,7 +11114,7 @@
         <v>293</v>
       </c>
       <c r="I261" s="4">
-        <v>228</v>
+        <v>6</v>
       </c>
       <c r="J261" s="2">
         <v>98000</v>
@@ -11147,7 +11147,7 @@
         <v>294</v>
       </c>
       <c r="I262" s="4">
-        <v>229</v>
+        <v>6</v>
       </c>
       <c r="J262" s="2">
         <v>99000</v>
@@ -11180,7 +11180,7 @@
         <v>295</v>
       </c>
       <c r="I263" s="4">
-        <v>230</v>
+        <v>6</v>
       </c>
       <c r="J263" s="2">
         <v>100000</v>
@@ -11213,7 +11213,7 @@
         <v>296</v>
       </c>
       <c r="I264" s="4">
-        <v>231</v>
+        <v>6</v>
       </c>
       <c r="J264" s="2">
         <v>110000</v>
@@ -11246,7 +11246,7 @@
         <v>297</v>
       </c>
       <c r="I265" s="4">
-        <v>232</v>
+        <v>6</v>
       </c>
       <c r="J265" s="2">
         <v>120000</v>
@@ -11279,7 +11279,7 @@
         <v>298</v>
       </c>
       <c r="I266" s="4">
-        <v>233</v>
+        <v>6</v>
       </c>
       <c r="J266" s="2">
         <v>130000</v>
@@ -11312,7 +11312,7 @@
         <v>299</v>
       </c>
       <c r="I267" s="4">
-        <v>234</v>
+        <v>6</v>
       </c>
       <c r="J267" s="2">
         <v>140000</v>
@@ -11345,7 +11345,7 @@
         <v>300</v>
       </c>
       <c r="I268" s="4">
-        <v>235</v>
+        <v>6</v>
       </c>
       <c r="J268" s="2">
         <v>150000</v>
@@ -11378,7 +11378,7 @@
         <v>301</v>
       </c>
       <c r="I269" s="4">
-        <v>236</v>
+        <v>6</v>
       </c>
       <c r="J269" s="2">
         <v>160000</v>
@@ -11411,7 +11411,7 @@
         <v>302</v>
       </c>
       <c r="I270" s="4">
-        <v>237</v>
+        <v>6</v>
       </c>
       <c r="J270" s="2">
         <v>170000</v>
@@ -11444,7 +11444,7 @@
         <v>303</v>
       </c>
       <c r="I271" s="4">
-        <v>238</v>
+        <v>6</v>
       </c>
       <c r="J271" s="2">
         <v>180000</v>
@@ -11477,7 +11477,7 @@
         <v>304</v>
       </c>
       <c r="I272" s="4">
-        <v>239</v>
+        <v>6</v>
       </c>
       <c r="J272" s="2">
         <v>190000</v>
@@ -11510,7 +11510,7 @@
         <v>305</v>
       </c>
       <c r="I273" s="4">
-        <v>240</v>
+        <v>6</v>
       </c>
       <c r="J273" s="2">
         <v>200000</v>
@@ -11543,7 +11543,7 @@
         <v>306</v>
       </c>
       <c r="I274" s="4">
-        <v>241</v>
+        <v>6</v>
       </c>
       <c r="J274" s="2">
         <v>210000</v>
@@ -11576,7 +11576,7 @@
         <v>307</v>
       </c>
       <c r="I275" s="4">
-        <v>242</v>
+        <v>6</v>
       </c>
       <c r="J275" s="2">
         <v>220000</v>
@@ -11609,7 +11609,7 @@
         <v>308</v>
       </c>
       <c r="I276" s="4">
-        <v>243</v>
+        <v>6</v>
       </c>
       <c r="J276" s="2">
         <v>230000</v>
@@ -11642,7 +11642,7 @@
         <v>309</v>
       </c>
       <c r="I277" s="4">
-        <v>244</v>
+        <v>6</v>
       </c>
       <c r="J277" s="2">
         <v>240000</v>
@@ -11675,7 +11675,7 @@
         <v>310</v>
       </c>
       <c r="I278" s="4">
-        <v>245</v>
+        <v>6</v>
       </c>
       <c r="J278" s="2">
         <v>250000</v>
@@ -11708,7 +11708,7 @@
         <v>311</v>
       </c>
       <c r="I279" s="4">
-        <v>246</v>
+        <v>6</v>
       </c>
       <c r="J279" s="2">
         <v>260000</v>
@@ -11741,7 +11741,7 @@
         <v>312</v>
       </c>
       <c r="I280" s="4">
-        <v>247</v>
+        <v>6</v>
       </c>
       <c r="J280" s="2">
         <v>270000</v>
@@ -11774,7 +11774,7 @@
         <v>313</v>
       </c>
       <c r="I281" s="4">
-        <v>248</v>
+        <v>6</v>
       </c>
       <c r="J281" s="2">
         <v>280000</v>
@@ -11807,7 +11807,7 @@
         <v>314</v>
       </c>
       <c r="I282" s="4">
-        <v>249</v>
+        <v>6</v>
       </c>
       <c r="J282" s="2">
         <v>290000</v>
@@ -11840,7 +11840,7 @@
         <v>315</v>
       </c>
       <c r="I283" s="4">
-        <v>250</v>
+        <v>6</v>
       </c>
       <c r="J283" s="2">
         <v>300000</v>
@@ -11873,7 +11873,7 @@
         <v>316</v>
       </c>
       <c r="I284" s="4">
-        <v>251</v>
+        <v>6</v>
       </c>
       <c r="J284" s="2">
         <v>310000</v>
@@ -11906,7 +11906,7 @@
         <v>317</v>
       </c>
       <c r="I285" s="4">
-        <v>252</v>
+        <v>6</v>
       </c>
       <c r="J285" s="2">
         <v>320000</v>
@@ -11939,7 +11939,7 @@
         <v>318</v>
       </c>
       <c r="I286" s="4">
-        <v>253</v>
+        <v>6</v>
       </c>
       <c r="J286" s="2">
         <v>330000</v>
@@ -11972,7 +11972,7 @@
         <v>319</v>
       </c>
       <c r="I287" s="4">
-        <v>254</v>
+        <v>6</v>
       </c>
       <c r="J287" s="2">
         <v>340000</v>
@@ -12005,7 +12005,7 @@
         <v>320</v>
       </c>
       <c r="I288" s="4">
-        <v>255</v>
+        <v>6</v>
       </c>
       <c r="J288" s="2">
         <v>350000</v>
@@ -12038,7 +12038,7 @@
         <v>321</v>
       </c>
       <c r="I289" s="4">
-        <v>256</v>
+        <v>6</v>
       </c>
       <c r="J289" s="2">
         <v>360000</v>
@@ -12071,7 +12071,7 @@
         <v>322</v>
       </c>
       <c r="I290" s="4">
-        <v>257</v>
+        <v>6</v>
       </c>
       <c r="J290" s="2">
         <v>370000</v>
@@ -12104,7 +12104,7 @@
         <v>323</v>
       </c>
       <c r="I291" s="4">
-        <v>258</v>
+        <v>6</v>
       </c>
       <c r="J291" s="2">
         <v>380000</v>
@@ -12137,7 +12137,7 @@
         <v>324</v>
       </c>
       <c r="I292" s="4">
-        <v>259</v>
+        <v>6</v>
       </c>
       <c r="J292" s="2">
         <v>390000</v>
@@ -12170,7 +12170,7 @@
         <v>325</v>
       </c>
       <c r="I293" s="4">
-        <v>260</v>
+        <v>6</v>
       </c>
       <c r="J293" s="2">
         <v>400000</v>
@@ -12203,7 +12203,7 @@
         <v>326</v>
       </c>
       <c r="I294" s="4">
-        <v>261</v>
+        <v>6</v>
       </c>
       <c r="J294" s="2">
         <v>410000</v>
@@ -12236,7 +12236,7 @@
         <v>327</v>
       </c>
       <c r="I295" s="4">
-        <v>262</v>
+        <v>6</v>
       </c>
       <c r="J295" s="2">
         <v>420000</v>
@@ -12269,7 +12269,7 @@
         <v>328</v>
       </c>
       <c r="I296" s="4">
-        <v>263</v>
+        <v>6</v>
       </c>
       <c r="J296" s="2">
         <v>430000</v>
@@ -12302,7 +12302,7 @@
         <v>329</v>
       </c>
       <c r="I297" s="4">
-        <v>264</v>
+        <v>6</v>
       </c>
       <c r="J297" s="2">
         <v>440000</v>
@@ -12335,7 +12335,7 @@
         <v>330</v>
       </c>
       <c r="I298" s="4">
-        <v>265</v>
+        <v>6</v>
       </c>
       <c r="J298" s="2">
         <v>450000</v>
@@ -12368,7 +12368,7 @@
         <v>331</v>
       </c>
       <c r="I299" s="4">
-        <v>266</v>
+        <v>6</v>
       </c>
       <c r="J299" s="2">
         <v>460000</v>
@@ -12401,7 +12401,7 @@
         <v>332</v>
       </c>
       <c r="I300" s="4">
-        <v>267</v>
+        <v>6</v>
       </c>
       <c r="J300" s="2">
         <v>470000</v>
@@ -12434,7 +12434,7 @@
         <v>333</v>
       </c>
       <c r="I301" s="4">
-        <v>268</v>
+        <v>6</v>
       </c>
       <c r="J301" s="2">
         <v>480000</v>
@@ -12467,7 +12467,7 @@
         <v>334</v>
       </c>
       <c r="I302" s="4">
-        <v>269</v>
+        <v>6</v>
       </c>
       <c r="J302" s="2">
         <v>490000</v>
@@ -12500,7 +12500,7 @@
         <v>335</v>
       </c>
       <c r="I303" s="4">
-        <v>270</v>
+        <v>6</v>
       </c>
       <c r="J303" s="2">
         <v>500000</v>
@@ -12533,7 +12533,7 @@
         <v>336</v>
       </c>
       <c r="I304" s="4">
-        <v>271</v>
+        <v>6</v>
       </c>
       <c r="J304" s="2">
         <v>510000</v>
@@ -12566,7 +12566,7 @@
         <v>337</v>
       </c>
       <c r="I305" s="4">
-        <v>272</v>
+        <v>6</v>
       </c>
       <c r="J305" s="2">
         <v>520000</v>
@@ -12599,7 +12599,7 @@
         <v>338</v>
       </c>
       <c r="I306" s="4">
-        <v>273</v>
+        <v>6</v>
       </c>
       <c r="J306" s="2">
         <v>530000</v>
@@ -12632,7 +12632,7 @@
         <v>339</v>
       </c>
       <c r="I307" s="4">
-        <v>274</v>
+        <v>6</v>
       </c>
       <c r="J307" s="2">
         <v>540000</v>
@@ -12665,7 +12665,7 @@
         <v>340</v>
       </c>
       <c r="I308" s="4">
-        <v>275</v>
+        <v>6</v>
       </c>
       <c r="J308" s="2">
         <v>550000</v>
@@ -12698,7 +12698,7 @@
         <v>341</v>
       </c>
       <c r="I309" s="4">
-        <v>276</v>
+        <v>6</v>
       </c>
       <c r="J309" s="2">
         <v>560000</v>
@@ -12731,7 +12731,7 @@
         <v>342</v>
       </c>
       <c r="I310" s="4">
-        <v>277</v>
+        <v>6</v>
       </c>
       <c r="J310" s="2">
         <v>570000</v>
@@ -12764,7 +12764,7 @@
         <v>343</v>
       </c>
       <c r="I311" s="4">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="J311" s="2">
         <v>580000</v>
@@ -12797,7 +12797,7 @@
         <v>344</v>
       </c>
       <c r="I312" s="4">
-        <v>279</v>
+        <v>6</v>
       </c>
       <c r="J312" s="2">
         <v>590000</v>
@@ -12830,7 +12830,7 @@
         <v>345</v>
       </c>
       <c r="I313" s="4">
-        <v>280</v>
+        <v>6</v>
       </c>
       <c r="J313" s="2">
         <v>600000</v>
@@ -12863,7 +12863,7 @@
         <v>346</v>
       </c>
       <c r="I314" s="4">
-        <v>281</v>
+        <v>6</v>
       </c>
       <c r="J314" s="2">
         <v>610000</v>
@@ -12896,7 +12896,7 @@
         <v>347</v>
       </c>
       <c r="I315" s="4">
-        <v>282</v>
+        <v>6</v>
       </c>
       <c r="J315" s="2">
         <v>620000</v>
@@ -12929,7 +12929,7 @@
         <v>348</v>
       </c>
       <c r="I316" s="4">
-        <v>283</v>
+        <v>6</v>
       </c>
       <c r="J316" s="2">
         <v>630000</v>
@@ -12962,7 +12962,7 @@
         <v>349</v>
       </c>
       <c r="I317" s="4">
-        <v>284</v>
+        <v>6</v>
       </c>
       <c r="J317" s="2">
         <v>640000</v>
@@ -12995,7 +12995,7 @@
         <v>350</v>
       </c>
       <c r="I318" s="4">
-        <v>285</v>
+        <v>6</v>
       </c>
       <c r="J318" s="2">
         <v>650000</v>
@@ -13028,7 +13028,7 @@
         <v>351</v>
       </c>
       <c r="I319" s="4">
-        <v>286</v>
+        <v>6</v>
       </c>
       <c r="J319" s="2">
         <v>660000</v>
@@ -13061,7 +13061,7 @@
         <v>352</v>
       </c>
       <c r="I320" s="4">
-        <v>287</v>
+        <v>6</v>
       </c>
       <c r="J320" s="2">
         <v>670000</v>
@@ -13094,7 +13094,7 @@
         <v>353</v>
       </c>
       <c r="I321" s="4">
-        <v>288</v>
+        <v>6</v>
       </c>
       <c r="J321" s="2">
         <v>680000</v>
@@ -13127,7 +13127,7 @@
         <v>354</v>
       </c>
       <c r="I322" s="4">
-        <v>289</v>
+        <v>6</v>
       </c>
       <c r="J322" s="2">
         <v>690000</v>
@@ -13160,7 +13160,7 @@
         <v>355</v>
       </c>
       <c r="I323" s="4">
-        <v>290</v>
+        <v>6</v>
       </c>
       <c r="J323" s="2">
         <v>700000</v>
@@ -13193,7 +13193,7 @@
         <v>356</v>
       </c>
       <c r="I324" s="4">
-        <v>291</v>
+        <v>6</v>
       </c>
       <c r="J324" s="2">
         <v>710000</v>
@@ -13226,7 +13226,7 @@
         <v>357</v>
       </c>
       <c r="I325" s="4">
-        <v>292</v>
+        <v>6</v>
       </c>
       <c r="J325" s="2">
         <v>720000</v>
@@ -13259,7 +13259,7 @@
         <v>358</v>
       </c>
       <c r="I326" s="4">
-        <v>293</v>
+        <v>6</v>
       </c>
       <c r="J326" s="2">
         <v>730000</v>
@@ -13292,7 +13292,7 @@
         <v>359</v>
       </c>
       <c r="I327" s="4">
-        <v>294</v>
+        <v>6</v>
       </c>
       <c r="J327" s="2">
         <v>740000</v>
@@ -13325,7 +13325,7 @@
         <v>360</v>
       </c>
       <c r="I328" s="4">
-        <v>295</v>
+        <v>6</v>
       </c>
       <c r="J328" s="2">
         <v>750000</v>
@@ -13358,7 +13358,7 @@
         <v>361</v>
       </c>
       <c r="I329" s="4">
-        <v>296</v>
+        <v>6</v>
       </c>
       <c r="J329" s="2">
         <v>760000</v>
@@ -13391,7 +13391,7 @@
         <v>362</v>
       </c>
       <c r="I330" s="4">
-        <v>297</v>
+        <v>6</v>
       </c>
       <c r="J330" s="2">
         <v>770000</v>
@@ -13424,7 +13424,7 @@
         <v>363</v>
       </c>
       <c r="I331" s="4">
-        <v>298</v>
+        <v>6</v>
       </c>
       <c r="J331" s="2">
         <v>780000</v>
@@ -13457,7 +13457,7 @@
         <v>364</v>
       </c>
       <c r="I332" s="4">
-        <v>299</v>
+        <v>6</v>
       </c>
       <c r="J332" s="2">
         <v>790000</v>
@@ -13490,7 +13490,7 @@
         <v>365</v>
       </c>
       <c r="I333" s="4">
-        <v>300</v>
+        <v>6</v>
       </c>
       <c r="J333" s="2">
         <v>800000</v>
@@ -13523,7 +13523,7 @@
         <v>366</v>
       </c>
       <c r="I334" s="4">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="J334" s="2">
         <v>810000</v>
@@ -13556,7 +13556,7 @@
         <v>367</v>
       </c>
       <c r="I335" s="4">
-        <v>302</v>
+        <v>6</v>
       </c>
       <c r="J335" s="2">
         <v>820000</v>
@@ -13589,7 +13589,7 @@
         <v>368</v>
       </c>
       <c r="I336" s="4">
-        <v>303</v>
+        <v>6</v>
       </c>
       <c r="J336" s="2">
         <v>830000</v>
@@ -13622,7 +13622,7 @@
         <v>369</v>
       </c>
       <c r="I337" s="4">
-        <v>304</v>
+        <v>6</v>
       </c>
       <c r="J337" s="2">
         <v>840000</v>
@@ -13655,7 +13655,7 @@
         <v>370</v>
       </c>
       <c r="I338" s="4">
-        <v>305</v>
+        <v>6</v>
       </c>
       <c r="J338" s="2">
         <v>850000</v>
@@ -13688,7 +13688,7 @@
         <v>371</v>
       </c>
       <c r="I339" s="4">
-        <v>306</v>
+        <v>6</v>
       </c>
       <c r="J339" s="2">
         <v>860000</v>
@@ -13721,7 +13721,7 @@
         <v>372</v>
       </c>
       <c r="I340" s="4">
-        <v>307</v>
+        <v>6</v>
       </c>
       <c r="J340" s="2">
         <v>870000</v>
@@ -13754,7 +13754,7 @@
         <v>373</v>
       </c>
       <c r="I341" s="4">
-        <v>308</v>
+        <v>6</v>
       </c>
       <c r="J341" s="2">
         <v>880000</v>
@@ -13787,7 +13787,7 @@
         <v>374</v>
       </c>
       <c r="I342" s="4">
-        <v>309</v>
+        <v>6</v>
       </c>
       <c r="J342" s="2">
         <v>890000</v>
@@ -13820,7 +13820,7 @@
         <v>375</v>
       </c>
       <c r="I343" s="4">
-        <v>310</v>
+        <v>6</v>
       </c>
       <c r="J343" s="2">
         <v>900000</v>
@@ -13853,7 +13853,7 @@
         <v>376</v>
       </c>
       <c r="I344" s="4">
-        <v>311</v>
+        <v>6</v>
       </c>
       <c r="J344" s="2">
         <v>910000</v>
@@ -13886,7 +13886,7 @@
         <v>377</v>
       </c>
       <c r="I345" s="4">
-        <v>312</v>
+        <v>6</v>
       </c>
       <c r="J345" s="2">
         <v>920000</v>
@@ -13919,7 +13919,7 @@
         <v>378</v>
       </c>
       <c r="I346" s="4">
-        <v>313</v>
+        <v>6</v>
       </c>
       <c r="J346" s="2">
         <v>930000</v>
@@ -13952,7 +13952,7 @@
         <v>379</v>
       </c>
       <c r="I347" s="4">
-        <v>314</v>
+        <v>6</v>
       </c>
       <c r="J347" s="2">
         <v>940000</v>
@@ -13985,7 +13985,7 @@
         <v>380</v>
       </c>
       <c r="I348" s="4">
-        <v>315</v>
+        <v>6</v>
       </c>
       <c r="J348" s="2">
         <v>950000</v>
@@ -14018,7 +14018,7 @@
         <v>381</v>
       </c>
       <c r="I349" s="4">
-        <v>316</v>
+        <v>6</v>
       </c>
       <c r="J349" s="2">
         <v>960000</v>
@@ -14051,7 +14051,7 @@
         <v>382</v>
       </c>
       <c r="I350" s="4">
-        <v>317</v>
+        <v>6</v>
       </c>
       <c r="J350" s="2">
         <v>970000</v>
@@ -14084,7 +14084,7 @@
         <v>383</v>
       </c>
       <c r="I351" s="4">
-        <v>318</v>
+        <v>6</v>
       </c>
       <c r="J351" s="2">
         <v>980000</v>
@@ -14117,7 +14117,7 @@
         <v>384</v>
       </c>
       <c r="I352" s="4">
-        <v>319</v>
+        <v>6</v>
       </c>
       <c r="J352" s="2">
         <v>990000</v>
@@ -14150,7 +14150,7 @@
         <v>385</v>
       </c>
       <c r="I353" s="4">
-        <v>320</v>
+        <v>6</v>
       </c>
       <c r="J353" s="2">
         <v>1000000</v>
@@ -14183,7 +14183,7 @@
         <v>386</v>
       </c>
       <c r="I354" s="4">
-        <v>321</v>
+        <v>6</v>
       </c>
       <c r="J354" s="2">
         <v>1010000</v>
@@ -14216,7 +14216,7 @@
         <v>387</v>
       </c>
       <c r="I355" s="4">
-        <v>322</v>
+        <v>6</v>
       </c>
       <c r="J355" s="2">
         <v>1020000</v>
@@ -14249,7 +14249,7 @@
         <v>388</v>
       </c>
       <c r="I356" s="4">
-        <v>323</v>
+        <v>6</v>
       </c>
       <c r="J356" s="2">
         <v>1030000</v>
@@ -14282,7 +14282,7 @@
         <v>389</v>
       </c>
       <c r="I357" s="4">
-        <v>324</v>
+        <v>6</v>
       </c>
       <c r="J357" s="2">
         <v>1040000</v>
@@ -14315,7 +14315,7 @@
         <v>390</v>
       </c>
       <c r="I358" s="4">
-        <v>325</v>
+        <v>6</v>
       </c>
       <c r="J358" s="2">
         <v>1050000</v>
@@ -14348,7 +14348,7 @@
         <v>391</v>
       </c>
       <c r="I359" s="4">
-        <v>326</v>
+        <v>6</v>
       </c>
       <c r="J359" s="2">
         <v>1060000</v>
@@ -14381,7 +14381,7 @@
         <v>392</v>
       </c>
       <c r="I360" s="4">
-        <v>327</v>
+        <v>6</v>
       </c>
       <c r="J360" s="2">
         <v>1070000</v>
@@ -14414,7 +14414,7 @@
         <v>393</v>
       </c>
       <c r="I361" s="4">
-        <v>328</v>
+        <v>6</v>
       </c>
       <c r="J361" s="2">
         <v>1080000</v>
@@ -14447,7 +14447,7 @@
         <v>394</v>
       </c>
       <c r="I362" s="4">
-        <v>329</v>
+        <v>6</v>
       </c>
       <c r="J362" s="2">
         <v>1090000</v>
@@ -14480,7 +14480,7 @@
         <v>395</v>
       </c>
       <c r="I363" s="4">
-        <v>330</v>
+        <v>6</v>
       </c>
       <c r="J363" s="2">
         <v>1100000</v>
@@ -14513,7 +14513,7 @@
         <v>396</v>
       </c>
       <c r="I364" s="4">
-        <v>331</v>
+        <v>6</v>
       </c>
       <c r="J364" s="2">
         <v>1110000</v>
@@ -14546,7 +14546,7 @@
         <v>397</v>
       </c>
       <c r="I365" s="4">
-        <v>332</v>
+        <v>6</v>
       </c>
       <c r="J365" s="2">
         <v>1120000</v>
@@ -14579,7 +14579,7 @@
         <v>398</v>
       </c>
       <c r="I366" s="4">
-        <v>333</v>
+        <v>6</v>
       </c>
       <c r="J366" s="2">
         <v>1130000</v>
@@ -14612,7 +14612,7 @@
         <v>399</v>
       </c>
       <c r="I367" s="4">
-        <v>334</v>
+        <v>6</v>
       </c>
       <c r="J367" s="2">
         <v>1140000</v>
@@ -14645,7 +14645,7 @@
         <v>400</v>
       </c>
       <c r="I368" s="4">
-        <v>335</v>
+        <v>6</v>
       </c>
       <c r="J368" s="2">
         <v>1150000</v>
@@ -14678,7 +14678,7 @@
         <v>401</v>
       </c>
       <c r="I369" s="4">
-        <v>336</v>
+        <v>6</v>
       </c>
       <c r="J369" s="2">
         <v>1160000</v>
@@ -14711,7 +14711,7 @@
         <v>402</v>
       </c>
       <c r="I370" s="4">
-        <v>337</v>
+        <v>6</v>
       </c>
       <c r="J370" s="2">
         <v>1170000</v>
@@ -14744,7 +14744,7 @@
         <v>403</v>
       </c>
       <c r="I371" s="4">
-        <v>338</v>
+        <v>6</v>
       </c>
       <c r="J371" s="2">
         <v>1180000</v>
@@ -14777,7 +14777,7 @@
         <v>404</v>
       </c>
       <c r="I372" s="4">
-        <v>339</v>
+        <v>6</v>
       </c>
       <c r="J372" s="2">
         <v>1190000</v>
@@ -14810,7 +14810,7 @@
         <v>405</v>
       </c>
       <c r="I373" s="4">
-        <v>340</v>
+        <v>6</v>
       </c>
       <c r="J373" s="2">
         <v>1200000</v>
@@ -14843,7 +14843,7 @@
         <v>406</v>
       </c>
       <c r="I374" s="4">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="J374" s="2">
         <v>1210000</v>
@@ -14876,7 +14876,7 @@
         <v>407</v>
       </c>
       <c r="I375" s="4">
-        <v>342</v>
+        <v>6</v>
       </c>
       <c r="J375" s="2">
         <v>1220000</v>
@@ -14909,7 +14909,7 @@
         <v>408</v>
       </c>
       <c r="I376" s="4">
-        <v>343</v>
+        <v>6</v>
       </c>
       <c r="J376" s="2">
         <v>1230000</v>
@@ -14942,7 +14942,7 @@
         <v>409</v>
       </c>
       <c r="I377" s="4">
-        <v>344</v>
+        <v>6</v>
       </c>
       <c r="J377" s="2">
         <v>1240000</v>
@@ -14975,7 +14975,7 @@
         <v>410</v>
       </c>
       <c r="I378" s="4">
-        <v>345</v>
+        <v>6</v>
       </c>
       <c r="J378" s="2">
         <v>1250000</v>
@@ -15008,7 +15008,7 @@
         <v>411</v>
       </c>
       <c r="I379" s="4">
-        <v>346</v>
+        <v>6</v>
       </c>
       <c r="J379" s="2">
         <v>1260000</v>
@@ -15041,7 +15041,7 @@
         <v>412</v>
       </c>
       <c r="I380" s="4">
-        <v>347</v>
+        <v>6</v>
       </c>
       <c r="J380" s="2">
         <v>1270000</v>
@@ -15074,7 +15074,7 @@
         <v>413</v>
       </c>
       <c r="I381" s="4">
-        <v>348</v>
+        <v>6</v>
       </c>
       <c r="J381" s="2">
         <v>1280000</v>
@@ -15107,7 +15107,7 @@
         <v>414</v>
       </c>
       <c r="I382" s="4">
-        <v>349</v>
+        <v>6</v>
       </c>
       <c r="J382" s="2">
         <v>1290000</v>
@@ -15140,7 +15140,7 @@
         <v>415</v>
       </c>
       <c r="I383" s="4">
-        <v>350</v>
+        <v>6</v>
       </c>
       <c r="J383" s="2">
         <v>1300000</v>
@@ -15173,7 +15173,7 @@
         <v>416</v>
       </c>
       <c r="I384" s="4">
-        <v>351</v>
+        <v>6</v>
       </c>
       <c r="J384" s="2">
         <v>1310000</v>
@@ -15206,7 +15206,7 @@
         <v>417</v>
       </c>
       <c r="I385" s="4">
-        <v>352</v>
+        <v>6</v>
       </c>
       <c r="J385" s="2">
         <v>1320000</v>
@@ -15239,7 +15239,7 @@
         <v>418</v>
       </c>
       <c r="I386" s="4">
-        <v>353</v>
+        <v>6</v>
       </c>
       <c r="J386" s="2">
         <v>1330000</v>
@@ -15272,7 +15272,7 @@
         <v>419</v>
       </c>
       <c r="I387" s="4">
-        <v>354</v>
+        <v>6</v>
       </c>
       <c r="J387" s="2">
         <v>1340000</v>
@@ -15305,7 +15305,7 @@
         <v>420</v>
       </c>
       <c r="I388" s="4">
-        <v>355</v>
+        <v>6</v>
       </c>
       <c r="J388" s="2">
         <v>1350000</v>
@@ -15338,7 +15338,7 @@
         <v>421</v>
       </c>
       <c r="I389" s="4">
-        <v>356</v>
+        <v>6</v>
       </c>
       <c r="J389" s="2">
         <v>1360000</v>
@@ -15371,7 +15371,7 @@
         <v>422</v>
       </c>
       <c r="I390" s="4">
-        <v>357</v>
+        <v>6</v>
       </c>
       <c r="J390" s="2">
         <v>1370000</v>
@@ -15404,7 +15404,7 @@
         <v>423</v>
       </c>
       <c r="I391" s="4">
-        <v>358</v>
+        <v>6</v>
       </c>
       <c r="J391" s="2">
         <v>1380000</v>
@@ -15437,7 +15437,7 @@
         <v>424</v>
       </c>
       <c r="I392" s="4">
-        <v>359</v>
+        <v>6</v>
       </c>
       <c r="J392" s="2">
         <v>1390000</v>
@@ -15470,7 +15470,7 @@
         <v>425</v>
       </c>
       <c r="I393" s="4">
-        <v>360</v>
+        <v>6</v>
       </c>
       <c r="J393" s="2">
         <v>1400000</v>
@@ -15503,7 +15503,7 @@
         <v>426</v>
       </c>
       <c r="I394" s="4">
-        <v>361</v>
+        <v>6</v>
       </c>
       <c r="J394" s="2">
         <v>1410000</v>
@@ -15536,7 +15536,7 @@
         <v>427</v>
       </c>
       <c r="I395" s="4">
-        <v>362</v>
+        <v>6</v>
       </c>
       <c r="J395" s="2">
         <v>1420000</v>
@@ -15569,7 +15569,7 @@
         <v>428</v>
       </c>
       <c r="I396" s="4">
-        <v>363</v>
+        <v>6</v>
       </c>
       <c r="J396" s="2">
         <v>1430000</v>
@@ -15602,7 +15602,7 @@
         <v>429</v>
       </c>
       <c r="I397" s="4">
-        <v>364</v>
+        <v>6</v>
       </c>
       <c r="J397" s="2">
         <v>1440000</v>
@@ -15635,7 +15635,7 @@
         <v>430</v>
       </c>
       <c r="I398" s="4">
-        <v>365</v>
+        <v>6</v>
       </c>
       <c r="J398" s="2">
         <v>1450000</v>
@@ -15668,7 +15668,7 @@
         <v>431</v>
       </c>
       <c r="I399" s="4">
-        <v>366</v>
+        <v>6</v>
       </c>
       <c r="J399" s="2">
         <v>1460000</v>
@@ -15701,7 +15701,7 @@
         <v>432</v>
       </c>
       <c r="I400" s="4">
-        <v>367</v>
+        <v>6</v>
       </c>
       <c r="J400" s="2">
         <v>1470000</v>
@@ -15734,7 +15734,7 @@
         <v>433</v>
       </c>
       <c r="I401" s="4">
-        <v>368</v>
+        <v>7</v>
       </c>
       <c r="J401" s="2">
         <v>1480000</v>
@@ -15767,7 +15767,7 @@
         <v>434</v>
       </c>
       <c r="I402" s="4">
-        <v>369</v>
+        <v>7</v>
       </c>
       <c r="J402" s="2">
         <v>1490000</v>
@@ -15800,7 +15800,7 @@
         <v>435</v>
       </c>
       <c r="I403" s="4">
-        <v>370</v>
+        <v>7</v>
       </c>
       <c r="J403" s="2">
         <v>1500000</v>
@@ -15833,7 +15833,7 @@
         <v>436</v>
       </c>
       <c r="I404" s="4">
-        <v>371</v>
+        <v>7</v>
       </c>
       <c r="J404" s="2">
         <v>1510000</v>
@@ -15866,7 +15866,7 @@
         <v>437</v>
       </c>
       <c r="I405" s="4">
-        <v>372</v>
+        <v>7</v>
       </c>
       <c r="J405" s="2">
         <v>1520000</v>
@@ -15899,7 +15899,7 @@
         <v>438</v>
       </c>
       <c r="I406" s="4">
-        <v>373</v>
+        <v>7</v>
       </c>
       <c r="J406" s="2">
         <v>1530000</v>
@@ -15932,7 +15932,7 @@
         <v>439</v>
       </c>
       <c r="I407" s="4">
-        <v>374</v>
+        <v>7</v>
       </c>
       <c r="J407" s="2">
         <v>1540000</v>
@@ -15965,7 +15965,7 @@
         <v>440</v>
       </c>
       <c r="I408" s="4">
-        <v>375</v>
+        <v>7</v>
       </c>
       <c r="J408" s="2">
         <v>1550000</v>
@@ -15998,7 +15998,7 @@
         <v>441</v>
       </c>
       <c r="I409" s="4">
-        <v>376</v>
+        <v>7</v>
       </c>
       <c r="J409" s="2">
         <v>1560000</v>
@@ -16031,7 +16031,7 @@
         <v>442</v>
       </c>
       <c r="I410" s="4">
-        <v>377</v>
+        <v>7</v>
       </c>
       <c r="J410" s="2">
         <v>1570000</v>
@@ -16064,7 +16064,7 @@
         <v>443</v>
       </c>
       <c r="I411" s="4">
-        <v>378</v>
+        <v>7</v>
       </c>
       <c r="J411" s="2">
         <v>1580000</v>
@@ -16097,7 +16097,7 @@
         <v>444</v>
       </c>
       <c r="I412" s="4">
-        <v>379</v>
+        <v>7</v>
       </c>
       <c r="J412" s="2">
         <v>1590000</v>
@@ -16130,7 +16130,7 @@
         <v>445</v>
       </c>
       <c r="I413" s="4">
-        <v>380</v>
+        <v>7</v>
       </c>
       <c r="J413" s="2">
         <v>1600000</v>
@@ -16163,7 +16163,7 @@
         <v>446</v>
       </c>
       <c r="I414" s="4">
-        <v>381</v>
+        <v>7</v>
       </c>
       <c r="J414" s="2">
         <v>1610000</v>
@@ -16196,7 +16196,7 @@
         <v>447</v>
       </c>
       <c r="I415" s="4">
-        <v>382</v>
+        <v>7</v>
       </c>
       <c r="J415" s="2">
         <v>1620000</v>
@@ -16229,7 +16229,7 @@
         <v>448</v>
       </c>
       <c r="I416" s="4">
-        <v>383</v>
+        <v>7</v>
       </c>
       <c r="J416" s="2">
         <v>1630000</v>
@@ -16262,7 +16262,7 @@
         <v>449</v>
       </c>
       <c r="I417" s="4">
-        <v>384</v>
+        <v>7</v>
       </c>
       <c r="J417" s="2">
         <v>1640000</v>
@@ -16295,7 +16295,7 @@
         <v>450</v>
       </c>
       <c r="I418" s="4">
-        <v>385</v>
+        <v>7</v>
       </c>
       <c r="J418" s="2">
         <v>1650000</v>
@@ -16328,7 +16328,7 @@
         <v>451</v>
       </c>
       <c r="I419" s="4">
-        <v>386</v>
+        <v>7</v>
       </c>
       <c r="J419" s="2">
         <v>1660000</v>
@@ -16361,7 +16361,7 @@
         <v>452</v>
       </c>
       <c r="I420" s="4">
-        <v>387</v>
+        <v>7</v>
       </c>
       <c r="J420" s="2">
         <v>1670000</v>
@@ -16394,7 +16394,7 @@
         <v>453</v>
       </c>
       <c r="I421" s="4">
-        <v>388</v>
+        <v>7</v>
       </c>
       <c r="J421" s="2">
         <v>1680000</v>
@@ -16427,7 +16427,7 @@
         <v>454</v>
       </c>
       <c r="I422" s="4">
-        <v>389</v>
+        <v>7</v>
       </c>
       <c r="J422" s="2">
         <v>1690000</v>
@@ -16460,7 +16460,7 @@
         <v>455</v>
       </c>
       <c r="I423" s="4">
-        <v>390</v>
+        <v>7</v>
       </c>
       <c r="J423" s="2">
         <v>1700000</v>
@@ -16493,7 +16493,7 @@
         <v>456</v>
       </c>
       <c r="I424" s="4">
-        <v>391</v>
+        <v>7</v>
       </c>
       <c r="J424" s="2">
         <v>1710000</v>
@@ -16526,7 +16526,7 @@
         <v>457</v>
       </c>
       <c r="I425" s="4">
-        <v>392</v>
+        <v>7</v>
       </c>
       <c r="J425" s="2">
         <v>1720000</v>
@@ -16559,7 +16559,7 @@
         <v>458</v>
       </c>
       <c r="I426" s="4">
-        <v>393</v>
+        <v>7</v>
       </c>
       <c r="J426" s="2">
         <v>1730000</v>
@@ -16592,7 +16592,7 @@
         <v>459</v>
       </c>
       <c r="I427" s="4">
-        <v>394</v>
+        <v>7</v>
       </c>
       <c r="J427" s="2">
         <v>1740000</v>
@@ -16625,7 +16625,7 @@
         <v>460</v>
       </c>
       <c r="I428" s="4">
-        <v>395</v>
+        <v>7</v>
       </c>
       <c r="J428" s="2">
         <v>1750000</v>
@@ -16658,7 +16658,7 @@
         <v>461</v>
       </c>
       <c r="I429" s="4">
-        <v>396</v>
+        <v>7</v>
       </c>
       <c r="J429" s="2">
         <v>1760000</v>
@@ -16691,7 +16691,7 @@
         <v>462</v>
       </c>
       <c r="I430" s="4">
-        <v>397</v>
+        <v>7</v>
       </c>
       <c r="J430" s="2">
         <v>1770000</v>
@@ -16724,7 +16724,7 @@
         <v>463</v>
       </c>
       <c r="I431" s="4">
-        <v>398</v>
+        <v>7</v>
       </c>
       <c r="J431" s="2">
         <v>1780000</v>
@@ -16757,7 +16757,7 @@
         <v>464</v>
       </c>
       <c r="I432" s="4">
-        <v>399</v>
+        <v>7</v>
       </c>
       <c r="J432" s="2">
         <v>1790000</v>
@@ -16790,7 +16790,7 @@
         <v>465</v>
       </c>
       <c r="I433" s="4">
-        <v>400</v>
+        <v>7</v>
       </c>
       <c r="J433" s="2">
         <v>1800000</v>
@@ -16823,7 +16823,7 @@
         <v>466</v>
       </c>
       <c r="I434" s="4">
-        <v>404</v>
+        <v>7</v>
       </c>
       <c r="J434" s="2">
         <v>1810000</v>
@@ -16856,7 +16856,7 @@
         <v>467</v>
       </c>
       <c r="I435" s="4">
-        <v>408</v>
+        <v>7</v>
       </c>
       <c r="J435" s="2">
         <v>1820000</v>
@@ -16889,7 +16889,7 @@
         <v>468</v>
       </c>
       <c r="I436" s="4">
-        <v>412</v>
+        <v>7</v>
       </c>
       <c r="J436" s="2">
         <v>1830000</v>
@@ -16922,7 +16922,7 @@
         <v>469</v>
       </c>
       <c r="I437" s="4">
-        <v>416</v>
+        <v>7</v>
       </c>
       <c r="J437" s="2">
         <v>1840000</v>
@@ -16955,7 +16955,7 @@
         <v>470</v>
       </c>
       <c r="I438" s="4">
-        <v>420</v>
+        <v>7</v>
       </c>
       <c r="J438" s="2">
         <v>1850000</v>
@@ -16988,7 +16988,7 @@
         <v>471</v>
       </c>
       <c r="I439" s="4">
-        <v>424</v>
+        <v>7</v>
       </c>
       <c r="J439" s="2">
         <v>1860000</v>
@@ -17021,7 +17021,7 @@
         <v>472</v>
       </c>
       <c r="I440" s="4">
-        <v>428</v>
+        <v>7</v>
       </c>
       <c r="J440" s="2">
         <v>1870000</v>
@@ -17054,7 +17054,7 @@
         <v>473</v>
       </c>
       <c r="I441" s="4">
-        <v>432</v>
+        <v>7</v>
       </c>
       <c r="J441" s="2">
         <v>1880000</v>
@@ -17087,7 +17087,7 @@
         <v>474</v>
       </c>
       <c r="I442" s="4">
-        <v>436</v>
+        <v>7</v>
       </c>
       <c r="J442" s="2">
         <v>1890000</v>
@@ -17120,7 +17120,7 @@
         <v>475</v>
       </c>
       <c r="I443" s="4">
-        <v>440</v>
+        <v>7</v>
       </c>
       <c r="J443" s="2">
         <v>1900000</v>
@@ -17153,7 +17153,7 @@
         <v>476</v>
       </c>
       <c r="I444" s="4">
-        <v>444</v>
+        <v>7</v>
       </c>
       <c r="J444" s="2">
         <v>1910000</v>
@@ -17186,7 +17186,7 @@
         <v>477</v>
       </c>
       <c r="I445" s="4">
-        <v>448</v>
+        <v>7</v>
       </c>
       <c r="J445" s="2">
         <v>1920000</v>
@@ -17219,7 +17219,7 @@
         <v>478</v>
       </c>
       <c r="I446" s="4">
-        <v>452</v>
+        <v>7</v>
       </c>
       <c r="J446" s="2">
         <v>1930000</v>
@@ -17252,7 +17252,7 @@
         <v>479</v>
       </c>
       <c r="I447" s="4">
-        <v>456</v>
+        <v>7</v>
       </c>
       <c r="J447" s="2">
         <v>1940000</v>
@@ -17285,7 +17285,7 @@
         <v>480</v>
       </c>
       <c r="I448" s="4">
-        <v>460</v>
+        <v>7</v>
       </c>
       <c r="J448" s="2">
         <v>1950000</v>
@@ -17318,7 +17318,7 @@
         <v>481</v>
       </c>
       <c r="I449" s="4">
-        <v>464</v>
+        <v>7</v>
       </c>
       <c r="J449" s="2">
         <v>1960000</v>
@@ -17351,7 +17351,7 @@
         <v>482</v>
       </c>
       <c r="I450" s="4">
-        <v>468</v>
+        <v>7</v>
       </c>
       <c r="J450" s="2">
         <v>1970000</v>
@@ -17384,7 +17384,7 @@
         <v>483</v>
       </c>
       <c r="I451" s="4">
-        <v>472</v>
+        <v>7</v>
       </c>
       <c r="J451" s="2">
         <v>1980000</v>
@@ -17417,7 +17417,7 @@
         <v>484</v>
       </c>
       <c r="I452" s="4">
-        <v>476</v>
+        <v>7</v>
       </c>
       <c r="J452" s="2">
         <v>1990000</v>
@@ -17450,7 +17450,7 @@
         <v>485</v>
       </c>
       <c r="I453" s="4">
-        <v>480</v>
+        <v>7</v>
       </c>
       <c r="J453" s="2">
         <v>2000000</v>
@@ -17483,7 +17483,7 @@
         <v>486</v>
       </c>
       <c r="I454" s="4">
-        <v>484</v>
+        <v>7</v>
       </c>
       <c r="J454" s="2">
         <v>2010000</v>
@@ -17516,7 +17516,7 @@
         <v>487</v>
       </c>
       <c r="I455" s="4">
-        <v>488</v>
+        <v>7</v>
       </c>
       <c r="J455" s="2">
         <v>2020000</v>
@@ -17549,7 +17549,7 @@
         <v>488</v>
       </c>
       <c r="I456" s="4">
-        <v>492</v>
+        <v>7</v>
       </c>
       <c r="J456" s="2">
         <v>2030000</v>
@@ -17582,7 +17582,7 @@
         <v>489</v>
       </c>
       <c r="I457" s="4">
-        <v>496</v>
+        <v>7</v>
       </c>
       <c r="J457" s="2">
         <v>2040000</v>
@@ -17615,7 +17615,7 @@
         <v>490</v>
       </c>
       <c r="I458" s="4">
-        <v>500</v>
+        <v>7</v>
       </c>
       <c r="J458" s="2">
         <v>2050000</v>
@@ -17648,7 +17648,7 @@
         <v>491</v>
       </c>
       <c r="I459" s="4">
-        <v>504</v>
+        <v>7</v>
       </c>
       <c r="J459" s="2">
         <v>2060000</v>
@@ -17681,7 +17681,7 @@
         <v>492</v>
       </c>
       <c r="I460" s="4">
-        <v>508</v>
+        <v>7</v>
       </c>
       <c r="J460" s="2">
         <v>2070000</v>
@@ -17714,7 +17714,7 @@
         <v>493</v>
       </c>
       <c r="I461" s="4">
-        <v>512</v>
+        <v>7</v>
       </c>
       <c r="J461" s="2">
         <v>2080000</v>
@@ -17747,7 +17747,7 @@
         <v>494</v>
       </c>
       <c r="I462" s="4">
-        <v>516</v>
+        <v>7</v>
       </c>
       <c r="J462" s="2">
         <v>2090000</v>
@@ -17780,7 +17780,7 @@
         <v>495</v>
       </c>
       <c r="I463" s="4">
-        <v>520</v>
+        <v>7</v>
       </c>
       <c r="J463" s="2">
         <v>2100000</v>
@@ -17813,7 +17813,7 @@
         <v>496</v>
       </c>
       <c r="I464" s="4">
-        <v>524</v>
+        <v>7</v>
       </c>
       <c r="J464" s="2">
         <v>2110000</v>
@@ -17846,7 +17846,7 @@
         <v>497</v>
       </c>
       <c r="I465" s="4">
-        <v>528</v>
+        <v>7</v>
       </c>
       <c r="J465" s="2">
         <v>2120000</v>
@@ -17879,7 +17879,7 @@
         <v>498</v>
       </c>
       <c r="I466" s="4">
-        <v>532</v>
+        <v>7</v>
       </c>
       <c r="J466" s="2">
         <v>2130000</v>
@@ -17912,7 +17912,7 @@
         <v>499</v>
       </c>
       <c r="I467" s="4">
-        <v>536</v>
+        <v>7</v>
       </c>
       <c r="J467" s="2">
         <v>2140000</v>
@@ -17945,7 +17945,7 @@
         <v>500</v>
       </c>
       <c r="I468" s="4">
-        <v>540</v>
+        <v>7</v>
       </c>
       <c r="J468" s="2">
         <v>2150000</v>
@@ -17978,7 +17978,7 @@
         <v>501</v>
       </c>
       <c r="I469" s="4">
-        <v>544</v>
+        <v>7</v>
       </c>
       <c r="J469" s="2">
         <v>2160000</v>
@@ -18011,7 +18011,7 @@
         <v>502</v>
       </c>
       <c r="I470" s="4">
-        <v>548</v>
+        <v>7</v>
       </c>
       <c r="J470" s="2">
         <v>2170000</v>
@@ -18044,7 +18044,7 @@
         <v>503</v>
       </c>
       <c r="I471" s="4">
-        <v>552</v>
+        <v>7</v>
       </c>
       <c r="J471" s="2">
         <v>2180000</v>
@@ -18077,7 +18077,7 @@
         <v>504</v>
       </c>
       <c r="I472" s="4">
-        <v>556</v>
+        <v>7</v>
       </c>
       <c r="J472" s="2">
         <v>2190000</v>
@@ -18110,7 +18110,7 @@
         <v>505</v>
       </c>
       <c r="I473" s="4">
-        <v>560</v>
+        <v>7</v>
       </c>
       <c r="J473" s="2">
         <v>2200000</v>
@@ -18143,7 +18143,7 @@
         <v>506</v>
       </c>
       <c r="I474" s="4">
-        <v>564</v>
+        <v>7</v>
       </c>
       <c r="J474" s="2">
         <v>2210000</v>
@@ -18176,7 +18176,7 @@
         <v>507</v>
       </c>
       <c r="I475" s="4">
-        <v>568</v>
+        <v>7</v>
       </c>
       <c r="J475" s="2">
         <v>2220000</v>
@@ -18209,7 +18209,7 @@
         <v>508</v>
       </c>
       <c r="I476" s="4">
-        <v>572</v>
+        <v>7</v>
       </c>
       <c r="J476" s="2">
         <v>2230000</v>
@@ -18242,7 +18242,7 @@
         <v>509</v>
       </c>
       <c r="I477" s="4">
-        <v>576</v>
+        <v>7</v>
       </c>
       <c r="J477" s="2">
         <v>2240000</v>
@@ -18275,7 +18275,7 @@
         <v>510</v>
       </c>
       <c r="I478" s="4">
-        <v>580</v>
+        <v>7</v>
       </c>
       <c r="J478" s="2">
         <v>2250000</v>
@@ -18308,7 +18308,7 @@
         <v>511</v>
       </c>
       <c r="I479" s="4">
-        <v>584</v>
+        <v>7</v>
       </c>
       <c r="J479" s="2">
         <v>2260000</v>
@@ -18341,7 +18341,7 @@
         <v>512</v>
       </c>
       <c r="I480" s="4">
-        <v>588</v>
+        <v>7</v>
       </c>
       <c r="J480" s="2">
         <v>2270000</v>
@@ -18374,7 +18374,7 @@
         <v>513</v>
       </c>
       <c r="I481" s="4">
-        <v>592</v>
+        <v>7</v>
       </c>
       <c r="J481" s="2">
         <v>2280000</v>
@@ -18407,7 +18407,7 @@
         <v>514</v>
       </c>
       <c r="I482" s="4">
-        <v>596</v>
+        <v>7</v>
       </c>
       <c r="J482" s="2">
         <v>2290000</v>
@@ -18440,7 +18440,7 @@
         <v>515</v>
       </c>
       <c r="I483" s="4">
-        <v>600</v>
+        <v>7</v>
       </c>
       <c r="J483" s="2">
         <v>2300000</v>
@@ -18473,7 +18473,7 @@
         <v>516</v>
       </c>
       <c r="I484" s="4">
-        <v>604</v>
+        <v>7</v>
       </c>
       <c r="J484" s="2">
         <v>2310000</v>
@@ -18506,7 +18506,7 @@
         <v>517</v>
       </c>
       <c r="I485" s="4">
-        <v>608</v>
+        <v>7</v>
       </c>
       <c r="J485" s="2">
         <v>2320000</v>
@@ -18539,7 +18539,7 @@
         <v>518</v>
       </c>
       <c r="I486" s="4">
-        <v>612</v>
+        <v>7</v>
       </c>
       <c r="J486" s="2">
         <v>2330000</v>
@@ -18572,7 +18572,7 @@
         <v>519</v>
       </c>
       <c r="I487" s="4">
-        <v>616</v>
+        <v>7</v>
       </c>
       <c r="J487" s="2">
         <v>2340000</v>
@@ -18605,7 +18605,7 @@
         <v>520</v>
       </c>
       <c r="I488" s="4">
-        <v>620</v>
+        <v>7</v>
       </c>
       <c r="J488" s="2">
         <v>2350000</v>
@@ -18638,7 +18638,7 @@
         <v>521</v>
       </c>
       <c r="I489" s="4">
-        <v>624</v>
+        <v>7</v>
       </c>
       <c r="J489" s="2">
         <v>2360000</v>
@@ -18671,7 +18671,7 @@
         <v>522</v>
       </c>
       <c r="I490" s="4">
-        <v>628</v>
+        <v>7</v>
       </c>
       <c r="J490" s="2">
         <v>2370000</v>
@@ -18704,7 +18704,7 @@
         <v>523</v>
       </c>
       <c r="I491" s="4">
-        <v>632</v>
+        <v>7</v>
       </c>
       <c r="J491" s="2">
         <v>2380000</v>
@@ -18737,7 +18737,7 @@
         <v>524</v>
       </c>
       <c r="I492" s="4">
-        <v>636</v>
+        <v>7</v>
       </c>
       <c r="J492" s="2">
         <v>2390000</v>
@@ -18770,7 +18770,7 @@
         <v>525</v>
       </c>
       <c r="I493" s="4">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="J493" s="2">
         <v>2400000</v>
@@ -18803,7 +18803,7 @@
         <v>526</v>
       </c>
       <c r="I494" s="4">
-        <v>640</v>
+        <v>7</v>
       </c>
       <c r="J494" s="2">
         <v>2410000</v>
@@ -18836,7 +18836,7 @@
         <v>527</v>
       </c>
       <c r="I495" s="4">
-        <v>650</v>
+        <v>7</v>
       </c>
       <c r="J495" s="2">
         <v>2420000</v>
@@ -18869,7 +18869,7 @@
         <v>528</v>
       </c>
       <c r="I496" s="4">
-        <v>660</v>
+        <v>7</v>
       </c>
       <c r="J496" s="2">
         <v>2430000</v>
@@ -18902,7 +18902,7 @@
         <v>529</v>
       </c>
       <c r="I497" s="4">
-        <v>670</v>
+        <v>7</v>
       </c>
       <c r="J497" s="2">
         <v>2440000</v>
@@ -18935,7 +18935,7 @@
         <v>530</v>
       </c>
       <c r="I498" s="4">
-        <v>680</v>
+        <v>7</v>
       </c>
       <c r="J498" s="2">
         <v>2450000</v>
@@ -18968,7 +18968,7 @@
         <v>531</v>
       </c>
       <c r="I499" s="4">
-        <v>690</v>
+        <v>7</v>
       </c>
       <c r="J499" s="2">
         <v>2460000</v>
@@ -19001,7 +19001,7 @@
         <v>532</v>
       </c>
       <c r="I500" s="4">
-        <v>700</v>
+        <v>7</v>
       </c>
       <c r="J500" s="2">
         <v>2470000</v>
@@ -19034,7 +19034,7 @@
         <v>533</v>
       </c>
       <c r="I501" s="4">
-        <v>710</v>
+        <v>7</v>
       </c>
       <c r="J501" s="2">
         <v>2480000</v>
@@ -19067,7 +19067,7 @@
         <v>534</v>
       </c>
       <c r="I502" s="4">
-        <v>720</v>
+        <v>7</v>
       </c>
       <c r="J502" s="2">
         <v>2490000</v>
@@ -19100,7 +19100,7 @@
         <v>535</v>
       </c>
       <c r="I503" s="4">
-        <v>730</v>
+        <v>7</v>
       </c>
       <c r="J503" s="2">
         <v>2500000</v>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -1632,8 +1632,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1657,32 +1657,8 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,30 +1666,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1727,35 +1680,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,17 +1696,16 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1793,11 +1717,87 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1810,7 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1822,7 +1828,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1834,7 +1846,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1846,67 +1918,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,49 +1954,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,12 +1994,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="9">
     <border>
@@ -2006,24 +2006,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,15 +2026,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2071,7 +2049,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2091,13 +2078,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,10 +2107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,133 +2119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2606,12 +2606,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K503"/>
+  <dimension ref="A1:K504"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2751,7 +2751,7 @@
         <v>27</v>
       </c>
       <c r="I4" s="4">
-        <v>1.5</v>
+        <v>3</v>
       </c>
       <c r="J4" s="2">
         <v>1</v>
@@ -2783,7 +2783,7 @@
         <v>29</v>
       </c>
       <c r="I5" s="4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <v>2</v>
@@ -2815,7 +2815,7 @@
         <v>31</v>
       </c>
       <c r="I6" s="4">
-        <v>0.81</v>
+        <v>1.01</v>
       </c>
       <c r="J6" s="2">
         <v>3</v>
@@ -2847,7 +2847,7 @@
         <v>33</v>
       </c>
       <c r="I7" s="4">
-        <v>0.82</v>
+        <v>1.02</v>
       </c>
       <c r="J7" s="2">
         <v>4</v>
@@ -2879,7 +2879,7 @@
         <v>33</v>
       </c>
       <c r="I8" s="4">
-        <v>0.83</v>
+        <v>1.03</v>
       </c>
       <c r="J8" s="2">
         <v>5</v>
@@ -2911,7 +2911,7 @@
         <v>37</v>
       </c>
       <c r="I9" s="4">
-        <v>0.84</v>
+        <v>1.04</v>
       </c>
       <c r="J9" s="2">
         <v>5</v>
@@ -2943,7 +2943,7 @@
         <v>39</v>
       </c>
       <c r="I10" s="4">
-        <v>0.85</v>
+        <v>1.05</v>
       </c>
       <c r="J10" s="2">
         <v>5</v>
@@ -2975,7 +2975,7 @@
         <v>41</v>
       </c>
       <c r="I11" s="4">
-        <v>0.86</v>
+        <v>1.06</v>
       </c>
       <c r="J11" s="2">
         <v>5</v>
@@ -3007,7 +3007,7 @@
         <v>43</v>
       </c>
       <c r="I12" s="4">
-        <v>0.87</v>
+        <v>1.07</v>
       </c>
       <c r="J12" s="2">
         <v>5</v>
@@ -3039,7 +3039,7 @@
         <v>45</v>
       </c>
       <c r="I13" s="4">
-        <v>0.88</v>
+        <v>1.08</v>
       </c>
       <c r="J13" s="2">
         <v>5</v>
@@ -3071,7 +3071,7 @@
         <v>47</v>
       </c>
       <c r="I14" s="4">
-        <v>0.89</v>
+        <v>1.09</v>
       </c>
       <c r="J14" s="2">
         <v>12</v>
@@ -3103,7 +3103,7 @@
         <v>49</v>
       </c>
       <c r="I15" s="4">
-        <v>0.9</v>
+        <v>1.1</v>
       </c>
       <c r="J15" s="2">
         <v>14</v>
@@ -3135,7 +3135,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="4">
-        <v>0.91</v>
+        <v>1.11</v>
       </c>
       <c r="J16" s="2">
         <v>16</v>
@@ -3167,7 +3167,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="4">
-        <v>0.92</v>
+        <v>1.12</v>
       </c>
       <c r="J17" s="2">
         <v>18</v>
@@ -3199,7 +3199,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="4">
-        <v>0.93</v>
+        <v>1.13</v>
       </c>
       <c r="J18" s="2">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="4">
-        <v>0.94</v>
+        <v>1.14</v>
       </c>
       <c r="J19" s="2">
         <v>22</v>
@@ -3263,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="4">
-        <v>0.95</v>
+        <v>1.15</v>
       </c>
       <c r="J20" s="2">
         <v>24</v>
@@ -3295,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="4">
-        <v>0.96</v>
+        <v>1.16</v>
       </c>
       <c r="J21" s="2">
         <v>26</v>
@@ -3327,7 +3327,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="4">
-        <v>0.97</v>
+        <v>1.17</v>
       </c>
       <c r="J22" s="2">
         <v>28</v>
@@ -3359,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="4">
-        <v>0.98</v>
+        <v>1.18</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3391,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="I24" s="4">
-        <v>0.99</v>
+        <v>1.19</v>
       </c>
       <c r="J24" s="2">
         <v>32</v>
@@ -3423,7 +3423,7 @@
         <v>69</v>
       </c>
       <c r="I25" s="4">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="J25" s="2">
         <v>34</v>
@@ -3455,7 +3455,7 @@
         <v>71</v>
       </c>
       <c r="I26" s="4">
-        <v>1.1</v>
+        <v>1.3</v>
       </c>
       <c r="J26" s="2">
         <v>36</v>
@@ -3487,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="4">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="J27" s="2">
         <v>38</v>
@@ -3519,7 +3519,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J28" s="2">
         <v>40</v>
@@ -3551,7 +3551,7 @@
         <v>77</v>
       </c>
       <c r="I29" s="4">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="J29" s="2">
         <v>42</v>
@@ -3583,7 +3583,7 @@
         <v>79</v>
       </c>
       <c r="I30" s="4">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="J30" s="2">
         <v>44</v>
@@ -3615,7 +3615,7 @@
         <v>81</v>
       </c>
       <c r="I31" s="4">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="J31" s="2">
         <v>46</v>
@@ -3647,7 +3647,7 @@
         <v>83</v>
       </c>
       <c r="I32" s="4">
-        <v>1.7</v>
+        <v>1.9</v>
       </c>
       <c r="J32" s="2">
         <v>48</v>
@@ -3679,7 +3679,7 @@
         <v>85</v>
       </c>
       <c r="I33" s="4">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="J33" s="2">
         <v>50</v>
@@ -3711,7 +3711,7 @@
         <v>87</v>
       </c>
       <c r="I34" s="4">
-        <v>1.9</v>
+        <v>3</v>
       </c>
       <c r="J34" s="2">
         <v>50</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J35" s="2">
         <v>50</v>
@@ -3775,7 +3775,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J36" s="2">
         <v>50</v>
@@ -3807,7 +3807,7 @@
         <v>93</v>
       </c>
       <c r="I37" s="4">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="J37" s="2">
         <v>50</v>
@@ -3839,7 +3839,7 @@
         <v>95</v>
       </c>
       <c r="I38" s="4">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="J38" s="2">
         <v>50</v>
@@ -3871,7 +3871,7 @@
         <v>97</v>
       </c>
       <c r="I39" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="J39" s="2">
         <v>50</v>
@@ -3903,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="4">
-        <v>5</v>
+        <v>9.00000000000001</v>
       </c>
       <c r="J40" s="2">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="I41" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="J41" s="2">
         <v>50</v>
@@ -3967,7 +3967,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="4">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="J42" s="2">
         <v>50</v>
@@ -3999,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="I43" s="4">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="J43" s="2">
         <v>50</v>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="I44" s="4">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="J44" s="2">
         <v>50</v>
@@ -4063,7 +4063,7 @@
         <v>109</v>
       </c>
       <c r="I45" s="4">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="J45" s="2">
         <v>50</v>
@@ -4095,7 +4095,7 @@
         <v>111</v>
       </c>
       <c r="I46" s="4">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="J46" s="2">
         <v>50</v>
@@ -4127,7 +4127,7 @@
         <v>113</v>
       </c>
       <c r="I47" s="4">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="J47" s="2">
         <v>50</v>
@@ -4159,7 +4159,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="4">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="J48" s="2">
         <v>50</v>
@@ -4191,7 +4191,7 @@
         <v>117</v>
       </c>
       <c r="I49" s="4">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="J49" s="2">
         <v>50</v>
@@ -4223,7 +4223,7 @@
         <v>119</v>
       </c>
       <c r="I50" s="4">
-        <v>5</v>
+        <v>19</v>
       </c>
       <c r="J50" s="2">
         <v>50</v>
@@ -4255,7 +4255,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="4">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J51" s="2">
         <v>50</v>
@@ -4287,7 +4287,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="4">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="J52" s="2">
         <v>50</v>
@@ -4319,7 +4319,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="4">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="J53" s="2">
         <v>50</v>
@@ -4351,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="4">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="J54" s="2">
         <v>100</v>
@@ -4383,7 +4383,7 @@
         <v>127</v>
       </c>
       <c r="I55" s="4">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -4415,7 +4415,7 @@
         <v>127</v>
       </c>
       <c r="I56" s="4">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
@@ -4447,7 +4447,7 @@
         <v>127</v>
       </c>
       <c r="I57" s="4">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="J57" s="2">
         <v>100</v>
@@ -4479,7 +4479,7 @@
         <v>127</v>
       </c>
       <c r="I58" s="4">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="J58" s="2">
         <v>100</v>
@@ -4511,7 +4511,7 @@
         <v>133</v>
       </c>
       <c r="I59" s="4">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="J59" s="2">
         <v>100</v>
@@ -4543,7 +4543,7 @@
         <v>133</v>
       </c>
       <c r="I60" s="4">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
@@ -4575,7 +4575,7 @@
         <v>133</v>
       </c>
       <c r="I61" s="4">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -4607,7 +4607,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="4">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="J62" s="2">
         <v>100</v>
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="I63" s="4">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
@@ -4671,7 +4671,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="4">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
@@ -4703,7 +4703,7 @@
         <v>136</v>
       </c>
       <c r="I65" s="4">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="J65" s="2">
         <v>100</v>
@@ -4735,7 +4735,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="4">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="J66" s="2">
         <v>100</v>
@@ -4767,7 +4767,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="4">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="J67" s="2">
         <v>100</v>
@@ -4799,7 +4799,7 @@
         <v>141</v>
       </c>
       <c r="I68" s="4">
-        <v>5</v>
+        <v>37</v>
       </c>
       <c r="J68" s="2">
         <v>100</v>
@@ -4831,7 +4831,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="4">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="J69" s="2">
         <v>260</v>
@@ -4863,7 +4863,7 @@
         <v>144</v>
       </c>
       <c r="I70" s="4">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="J70" s="2">
         <v>270</v>
@@ -4895,7 +4895,7 @@
         <v>146</v>
       </c>
       <c r="I71" s="4">
-        <v>5</v>
+        <v>40</v>
       </c>
       <c r="J71" s="2">
         <v>280</v>
@@ -4927,7 +4927,7 @@
         <v>148</v>
       </c>
       <c r="I72" s="4">
-        <v>5</v>
+        <v>41</v>
       </c>
       <c r="J72" s="2">
         <v>290</v>
@@ -4959,7 +4959,7 @@
         <v>150</v>
       </c>
       <c r="I73" s="4">
-        <v>5</v>
+        <v>42</v>
       </c>
       <c r="J73" s="2">
         <v>300</v>
@@ -4991,7 +4991,7 @@
         <v>151</v>
       </c>
       <c r="I74" s="4">
-        <v>5</v>
+        <v>43</v>
       </c>
       <c r="J74" s="2">
         <v>310</v>
@@ -5023,7 +5023,7 @@
         <v>152</v>
       </c>
       <c r="I75" s="4">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="J75" s="2">
         <v>320</v>
@@ -5055,7 +5055,7 @@
         <v>153</v>
       </c>
       <c r="I76" s="4">
-        <v>5</v>
+        <v>45</v>
       </c>
       <c r="J76" s="2">
         <v>330</v>
@@ -5087,7 +5087,7 @@
         <v>154</v>
       </c>
       <c r="I77" s="4">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="J77" s="2">
         <v>340</v>
@@ -5119,7 +5119,7 @@
         <v>155</v>
       </c>
       <c r="I78" s="4">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="J78" s="2">
         <v>350</v>
@@ -5151,7 +5151,7 @@
         <v>156</v>
       </c>
       <c r="I79" s="4">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="J79" s="2">
         <v>360</v>
@@ -5183,7 +5183,7 @@
         <v>157</v>
       </c>
       <c r="I80" s="4">
-        <v>5</v>
+        <v>49</v>
       </c>
       <c r="J80" s="2">
         <v>370</v>
@@ -5215,7 +5215,7 @@
         <v>158</v>
       </c>
       <c r="I81" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J81" s="2">
         <v>380</v>
@@ -5247,7 +5247,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J82" s="2">
         <v>390</v>
@@ -5279,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="I83" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J83" s="2">
         <v>420</v>
@@ -5311,7 +5311,7 @@
         <v>161</v>
       </c>
       <c r="I84" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J84" s="2">
         <v>450</v>
@@ -5343,7 +5343,7 @@
         <v>162</v>
       </c>
       <c r="I85" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J85" s="2">
         <v>480</v>
@@ -5375,7 +5375,7 @@
         <v>163</v>
       </c>
       <c r="I86" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J86" s="2">
         <v>510</v>
@@ -5407,7 +5407,7 @@
         <v>164</v>
       </c>
       <c r="I87" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J87" s="2">
         <v>540</v>
@@ -5439,7 +5439,7 @@
         <v>165</v>
       </c>
       <c r="I88" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J88" s="2">
         <v>570</v>
@@ -5471,7 +5471,7 @@
         <v>166</v>
       </c>
       <c r="I89" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J89" s="2">
         <v>600</v>
@@ -5503,7 +5503,7 @@
         <v>167</v>
       </c>
       <c r="I90" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J90" s="2">
         <v>630</v>
@@ -5535,7 +5535,7 @@
         <v>168</v>
       </c>
       <c r="I91" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J91" s="2">
         <v>660</v>
@@ -5567,7 +5567,7 @@
         <v>169</v>
       </c>
       <c r="I92" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J92" s="2">
         <v>690</v>
@@ -5599,7 +5599,7 @@
         <v>170</v>
       </c>
       <c r="I93" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J93" s="2">
         <v>720</v>
@@ -5631,7 +5631,7 @@
         <v>172</v>
       </c>
       <c r="I94" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J94" s="2">
         <v>750</v>
@@ -5663,7 +5663,7 @@
         <v>173</v>
       </c>
       <c r="I95" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J95" s="2">
         <v>780</v>
@@ -5695,7 +5695,7 @@
         <v>174</v>
       </c>
       <c r="I96" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J96" s="2">
         <v>810</v>
@@ -5727,7 +5727,7 @@
         <v>175</v>
       </c>
       <c r="I97" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J97" s="2">
         <v>840</v>
@@ -5759,7 +5759,7 @@
         <v>176</v>
       </c>
       <c r="I98" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J98" s="2">
         <v>870</v>
@@ -5791,7 +5791,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J99" s="2">
         <v>900</v>
@@ -5823,7 +5823,7 @@
         <v>178</v>
       </c>
       <c r="I100" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J100" s="2">
         <v>1000</v>
@@ -5855,7 +5855,7 @@
         <v>179</v>
       </c>
       <c r="I101" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J101" s="2">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>180</v>
       </c>
       <c r="I102" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J102" s="2">
         <v>1000</v>
@@ -5919,7 +5919,7 @@
         <v>181</v>
       </c>
       <c r="I103" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J103" s="2">
         <v>1000</v>
@@ -5951,7 +5951,7 @@
         <v>182</v>
       </c>
       <c r="I104" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J104" s="2">
         <v>1000</v>
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="I105" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J105" s="2">
         <v>1000</v>
@@ -6015,7 +6015,7 @@
         <v>182</v>
       </c>
       <c r="I106" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J106" s="2">
         <v>1000</v>
@@ -6047,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="I107" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J107" s="2">
         <v>1000</v>
@@ -6079,7 +6079,7 @@
         <v>182</v>
       </c>
       <c r="I108" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J108" s="2">
         <v>1000</v>
@@ -6111,7 +6111,7 @@
         <v>182</v>
       </c>
       <c r="I109" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J109" s="2">
         <v>1000</v>
@@ -6143,7 +6143,7 @@
         <v>182</v>
       </c>
       <c r="I110" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J110" s="2">
         <v>1000</v>
@@ -6175,7 +6175,7 @@
         <v>182</v>
       </c>
       <c r="I111" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J111" s="2">
         <v>1050</v>
@@ -6207,7 +6207,7 @@
         <v>182</v>
       </c>
       <c r="I112" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J112" s="2">
         <v>1100</v>
@@ -6239,7 +6239,7 @@
         <v>182</v>
       </c>
       <c r="I113" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J113" s="2">
         <v>1150</v>
@@ -6271,7 +6271,7 @@
         <v>184</v>
       </c>
       <c r="I114" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J114" s="2">
         <v>1200</v>
@@ -6303,7 +6303,7 @@
         <v>185</v>
       </c>
       <c r="I115" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J115" s="2">
         <v>1250</v>
@@ -6335,7 +6335,7 @@
         <v>186</v>
       </c>
       <c r="I116" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J116" s="2">
         <v>1300</v>
@@ -6367,7 +6367,7 @@
         <v>187</v>
       </c>
       <c r="I117" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J117" s="2">
         <v>1350</v>
@@ -6399,7 +6399,7 @@
         <v>188</v>
       </c>
       <c r="I118" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J118" s="2">
         <v>1400</v>
@@ -6431,7 +6431,7 @@
         <v>189</v>
       </c>
       <c r="I119" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J119" s="2">
         <v>1450</v>
@@ -6463,7 +6463,7 @@
         <v>190</v>
       </c>
       <c r="I120" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J120" s="2">
         <v>1500</v>
@@ -6495,7 +6495,7 @@
         <v>191</v>
       </c>
       <c r="I121" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J121" s="2">
         <v>1600</v>
@@ -6527,7 +6527,7 @@
         <v>192</v>
       </c>
       <c r="I122" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J122" s="2">
         <v>1700</v>
@@ -6560,7 +6560,7 @@
         <v>193</v>
       </c>
       <c r="I123" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J123" s="2">
         <v>1800</v>
@@ -6593,7 +6593,7 @@
         <v>194</v>
       </c>
       <c r="I124" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J124" s="2">
         <v>1900</v>
@@ -6626,7 +6626,7 @@
         <v>195</v>
       </c>
       <c r="I125" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J125" s="2">
         <v>2000</v>
@@ -6659,7 +6659,7 @@
         <v>196</v>
       </c>
       <c r="I126" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J126" s="2">
         <v>2100</v>
@@ -6692,7 +6692,7 @@
         <v>197</v>
       </c>
       <c r="I127" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J127" s="2">
         <v>2200</v>
@@ -6725,7 +6725,7 @@
         <v>198</v>
       </c>
       <c r="I128" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J128" s="2">
         <v>2300</v>
@@ -6758,7 +6758,7 @@
         <v>199</v>
       </c>
       <c r="I129" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J129" s="2">
         <v>2400</v>
@@ -6791,7 +6791,7 @@
         <v>200</v>
       </c>
       <c r="I130" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J130" s="2">
         <v>2500</v>
@@ -6824,7 +6824,7 @@
         <v>201</v>
       </c>
       <c r="I131" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J131" s="2">
         <v>2600</v>
@@ -6857,7 +6857,7 @@
         <v>202</v>
       </c>
       <c r="I132" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J132" s="2">
         <v>2700</v>
@@ -6890,7 +6890,7 @@
         <v>203</v>
       </c>
       <c r="I133" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J133" s="2">
         <v>2800</v>
@@ -6923,7 +6923,7 @@
         <v>182</v>
       </c>
       <c r="I134" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J134" s="2">
         <v>2900</v>
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="I135" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J135" s="2">
         <v>3000</v>
@@ -6989,7 +6989,7 @@
         <v>185</v>
       </c>
       <c r="I136" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J136" s="2">
         <v>3100</v>
@@ -7022,7 +7022,7 @@
         <v>186</v>
       </c>
       <c r="I137" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J137" s="2">
         <v>3200</v>
@@ -7055,7 +7055,7 @@
         <v>187</v>
       </c>
       <c r="I138" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J138" s="2">
         <v>3300</v>
@@ -7088,7 +7088,7 @@
         <v>188</v>
       </c>
       <c r="I139" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J139" s="2">
         <v>3400</v>
@@ -7121,7 +7121,7 @@
         <v>189</v>
       </c>
       <c r="I140" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J140" s="2">
         <v>3500</v>
@@ -7154,7 +7154,7 @@
         <v>190</v>
       </c>
       <c r="I141" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J141" s="2">
         <v>3700</v>
@@ -7187,7 +7187,7 @@
         <v>191</v>
       </c>
       <c r="I142" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J142" s="2">
         <v>3900</v>
@@ -7220,7 +7220,7 @@
         <v>192</v>
       </c>
       <c r="I143" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J143" s="2">
         <v>4100</v>
@@ -7253,7 +7253,7 @@
         <v>193</v>
       </c>
       <c r="I144" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J144" s="2">
         <v>4300</v>
@@ -7286,7 +7286,7 @@
         <v>194</v>
       </c>
       <c r="I145" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J145" s="2">
         <v>4500</v>
@@ -7319,7 +7319,7 @@
         <v>195</v>
       </c>
       <c r="I146" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J146" s="2">
         <v>4700</v>
@@ -7352,7 +7352,7 @@
         <v>196</v>
       </c>
       <c r="I147" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J147" s="2">
         <v>4900</v>
@@ -7385,7 +7385,7 @@
         <v>197</v>
       </c>
       <c r="I148" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J148" s="2">
         <v>5100</v>
@@ -7418,7 +7418,7 @@
         <v>198</v>
       </c>
       <c r="I149" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J149" s="2">
         <v>5300</v>
@@ -7451,7 +7451,7 @@
         <v>199</v>
       </c>
       <c r="I150" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J150" s="2">
         <v>5500</v>
@@ -7484,7 +7484,7 @@
         <v>200</v>
       </c>
       <c r="I151" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J151" s="2">
         <v>5700</v>
@@ -7517,7 +7517,7 @@
         <v>201</v>
       </c>
       <c r="I152" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J152" s="2">
         <v>5900</v>
@@ -7550,7 +7550,7 @@
         <v>202</v>
       </c>
       <c r="I153" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J153" s="2">
         <v>6100</v>
@@ -7583,7 +7583,7 @@
         <v>204</v>
       </c>
       <c r="I154" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J154" s="2">
         <v>6300</v>
@@ -7616,7 +7616,7 @@
         <v>204</v>
       </c>
       <c r="I155" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J155" s="2">
         <v>6500</v>
@@ -7649,7 +7649,7 @@
         <v>204</v>
       </c>
       <c r="I156" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J156" s="2">
         <v>6700</v>
@@ -7682,7 +7682,7 @@
         <v>204</v>
       </c>
       <c r="I157" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J157" s="2">
         <v>6900</v>
@@ -7715,7 +7715,7 @@
         <v>204</v>
       </c>
       <c r="I158" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J158" s="2">
         <v>7100</v>
@@ -7748,7 +7748,7 @@
         <v>204</v>
       </c>
       <c r="I159" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J159" s="2">
         <v>7300</v>
@@ -7781,7 +7781,7 @@
         <v>204</v>
       </c>
       <c r="I160" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J160" s="2">
         <v>7500</v>
@@ -7814,7 +7814,7 @@
         <v>204</v>
       </c>
       <c r="I161" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J161" s="2">
         <v>7700</v>
@@ -7847,7 +7847,7 @@
         <v>204</v>
       </c>
       <c r="I162" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J162" s="2">
         <v>7900</v>
@@ -7880,7 +7880,7 @@
         <v>204</v>
       </c>
       <c r="I163" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J163" s="2">
         <v>8100</v>
@@ -7913,7 +7913,7 @@
         <v>205</v>
       </c>
       <c r="I164" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J164" s="2">
         <v>8300</v>
@@ -7946,7 +7946,7 @@
         <v>206</v>
       </c>
       <c r="I165" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J165" s="2">
         <v>8500</v>
@@ -7979,7 +7979,7 @@
         <v>207</v>
       </c>
       <c r="I166" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J166" s="2">
         <v>8700</v>
@@ -8012,7 +8012,7 @@
         <v>208</v>
       </c>
       <c r="I167" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J167" s="2">
         <v>8900</v>
@@ -8045,7 +8045,7 @@
         <v>209</v>
       </c>
       <c r="I168" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J168" s="2">
         <v>9100</v>
@@ -8078,7 +8078,7 @@
         <v>210</v>
       </c>
       <c r="I169" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J169" s="2">
         <v>9300</v>
@@ -8111,7 +8111,7 @@
         <v>211</v>
       </c>
       <c r="I170" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J170" s="2">
         <v>9500</v>
@@ -8144,7 +8144,7 @@
         <v>212</v>
       </c>
       <c r="I171" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J171" s="2">
         <v>9700</v>
@@ -8177,7 +8177,7 @@
         <v>213</v>
       </c>
       <c r="I172" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J172" s="2">
         <v>9900</v>
@@ -8210,7 +8210,7 @@
         <v>214</v>
       </c>
       <c r="I173" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J173" s="2">
         <v>10000</v>
@@ -8243,7 +8243,7 @@
         <v>215</v>
       </c>
       <c r="I174" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J174" s="2">
         <v>11000</v>
@@ -8276,7 +8276,7 @@
         <v>216</v>
       </c>
       <c r="I175" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J175" s="2">
         <v>12000</v>
@@ -8309,7 +8309,7 @@
         <v>217</v>
       </c>
       <c r="I176" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J176" s="2">
         <v>13000</v>
@@ -8342,7 +8342,7 @@
         <v>218</v>
       </c>
       <c r="I177" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J177" s="2">
         <v>14000</v>
@@ -8375,7 +8375,7 @@
         <v>219</v>
       </c>
       <c r="I178" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J178" s="2">
         <v>15000</v>
@@ -8408,7 +8408,7 @@
         <v>220</v>
       </c>
       <c r="I179" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J179" s="2">
         <v>16000</v>
@@ -8441,7 +8441,7 @@
         <v>221</v>
       </c>
       <c r="I180" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J180" s="2">
         <v>17000</v>
@@ -8474,7 +8474,7 @@
         <v>222</v>
       </c>
       <c r="I181" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J181" s="2">
         <v>18000</v>
@@ -8507,7 +8507,7 @@
         <v>223</v>
       </c>
       <c r="I182" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J182" s="2">
         <v>19000</v>
@@ -8540,7 +8540,7 @@
         <v>224</v>
       </c>
       <c r="I183" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J183" s="2">
         <v>20000</v>
@@ -8573,7 +8573,7 @@
         <v>225</v>
       </c>
       <c r="I184" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J184" s="2">
         <v>21000</v>
@@ -8606,7 +8606,7 @@
         <v>226</v>
       </c>
       <c r="I185" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J185" s="2">
         <v>22000</v>
@@ -8639,7 +8639,7 @@
         <v>227</v>
       </c>
       <c r="I186" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J186" s="2">
         <v>23000</v>
@@ -8672,7 +8672,7 @@
         <v>228</v>
       </c>
       <c r="I187" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J187" s="2">
         <v>24000</v>
@@ -8705,7 +8705,7 @@
         <v>229</v>
       </c>
       <c r="I188" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J188" s="2">
         <v>25000</v>
@@ -8738,7 +8738,7 @@
         <v>230</v>
       </c>
       <c r="I189" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J189" s="2">
         <v>26000</v>
@@ -8771,7 +8771,7 @@
         <v>231</v>
       </c>
       <c r="I190" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J190" s="2">
         <v>27000</v>
@@ -8804,7 +8804,7 @@
         <v>232</v>
       </c>
       <c r="I191" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J191" s="2">
         <v>28000</v>
@@ -8837,7 +8837,7 @@
         <v>233</v>
       </c>
       <c r="I192" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J192" s="2">
         <v>29000</v>
@@ -8870,7 +8870,7 @@
         <v>234</v>
       </c>
       <c r="I193" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J193" s="2">
         <v>30000</v>
@@ -8903,7 +8903,7 @@
         <v>235</v>
       </c>
       <c r="I194" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J194" s="2">
         <v>31000</v>
@@ -8936,7 +8936,7 @@
         <v>236</v>
       </c>
       <c r="I195" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J195" s="2">
         <v>32000</v>
@@ -8969,7 +8969,7 @@
         <v>237</v>
       </c>
       <c r="I196" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J196" s="2">
         <v>33000</v>
@@ -9002,7 +9002,7 @@
         <v>238</v>
       </c>
       <c r="I197" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J197" s="2">
         <v>34000</v>
@@ -9035,7 +9035,7 @@
         <v>239</v>
       </c>
       <c r="I198" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J198" s="2">
         <v>35000</v>
@@ -9068,7 +9068,7 @@
         <v>240</v>
       </c>
       <c r="I199" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J199" s="2">
         <v>36000</v>
@@ -9101,7 +9101,7 @@
         <v>241</v>
       </c>
       <c r="I200" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J200" s="2">
         <v>37000</v>
@@ -9134,7 +9134,7 @@
         <v>242</v>
       </c>
       <c r="I201" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J201" s="2">
         <v>38000</v>
@@ -9167,7 +9167,7 @@
         <v>243</v>
       </c>
       <c r="I202" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J202" s="2">
         <v>39000</v>
@@ -9200,7 +9200,7 @@
         <v>244</v>
       </c>
       <c r="I203" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J203" s="2">
         <v>40000</v>
@@ -9233,7 +9233,7 @@
         <v>245</v>
       </c>
       <c r="I204" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J204" s="2">
         <v>41000</v>
@@ -9266,7 +9266,7 @@
         <v>245</v>
       </c>
       <c r="I205" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J205" s="2">
         <v>42000</v>
@@ -9299,7 +9299,7 @@
         <v>245</v>
       </c>
       <c r="I206" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J206" s="2">
         <v>43000</v>
@@ -9332,7 +9332,7 @@
         <v>245</v>
       </c>
       <c r="I207" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J207" s="2">
         <v>44000</v>
@@ -9365,7 +9365,7 @@
         <v>245</v>
       </c>
       <c r="I208" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J208" s="2">
         <v>45000</v>
@@ -9398,7 +9398,7 @@
         <v>245</v>
       </c>
       <c r="I209" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J209" s="2">
         <v>46000</v>
@@ -9431,7 +9431,7 @@
         <v>245</v>
       </c>
       <c r="I210" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J210" s="2">
         <v>47000</v>
@@ -9464,7 +9464,7 @@
         <v>245</v>
       </c>
       <c r="I211" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J211" s="2">
         <v>48000</v>
@@ -9497,7 +9497,7 @@
         <v>245</v>
       </c>
       <c r="I212" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J212" s="2">
         <v>49000</v>
@@ -9530,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="I213" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J213" s="2">
         <v>50000</v>
@@ -9563,7 +9563,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J214" s="2">
         <v>51000</v>
@@ -9596,7 +9596,7 @@
         <v>247</v>
       </c>
       <c r="I215" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J215" s="2">
         <v>52000</v>
@@ -9629,7 +9629,7 @@
         <v>248</v>
       </c>
       <c r="I216" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J216" s="2">
         <v>53000</v>
@@ -9662,7 +9662,7 @@
         <v>249</v>
       </c>
       <c r="I217" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J217" s="2">
         <v>54000</v>
@@ -9695,7 +9695,7 @@
         <v>250</v>
       </c>
       <c r="I218" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J218" s="2">
         <v>55000</v>
@@ -9728,7 +9728,7 @@
         <v>251</v>
       </c>
       <c r="I219" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J219" s="2">
         <v>56000</v>
@@ -9761,7 +9761,7 @@
         <v>252</v>
       </c>
       <c r="I220" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J220" s="2">
         <v>57000</v>
@@ -9794,7 +9794,7 @@
         <v>253</v>
       </c>
       <c r="I221" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J221" s="2">
         <v>58000</v>
@@ -9827,7 +9827,7 @@
         <v>254</v>
       </c>
       <c r="I222" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J222" s="2">
         <v>59000</v>
@@ -9860,7 +9860,7 @@
         <v>255</v>
       </c>
       <c r="I223" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J223" s="2">
         <v>60000</v>
@@ -9893,7 +9893,7 @@
         <v>256</v>
       </c>
       <c r="I224" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J224" s="2">
         <v>61000</v>
@@ -9926,7 +9926,7 @@
         <v>257</v>
       </c>
       <c r="I225" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J225" s="2">
         <v>62000</v>
@@ -9959,7 +9959,7 @@
         <v>258</v>
       </c>
       <c r="I226" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J226" s="2">
         <v>63000</v>
@@ -9992,7 +9992,7 @@
         <v>259</v>
       </c>
       <c r="I227" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J227" s="2">
         <v>64000</v>
@@ -10025,7 +10025,7 @@
         <v>260</v>
       </c>
       <c r="I228" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J228" s="2">
         <v>65000</v>
@@ -10058,7 +10058,7 @@
         <v>261</v>
       </c>
       <c r="I229" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J229" s="2">
         <v>66000</v>
@@ -10091,7 +10091,7 @@
         <v>262</v>
       </c>
       <c r="I230" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J230" s="2">
         <v>67000</v>
@@ -10124,7 +10124,7 @@
         <v>263</v>
       </c>
       <c r="I231" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J231" s="2">
         <v>68000</v>
@@ -10157,7 +10157,7 @@
         <v>264</v>
       </c>
       <c r="I232" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J232" s="2">
         <v>69000</v>
@@ -10190,7 +10190,7 @@
         <v>265</v>
       </c>
       <c r="I233" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J233" s="2">
         <v>70000</v>
@@ -10223,7 +10223,7 @@
         <v>266</v>
       </c>
       <c r="I234" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J234" s="2">
         <v>71000</v>
@@ -10256,7 +10256,7 @@
         <v>267</v>
       </c>
       <c r="I235" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J235" s="2">
         <v>72000</v>
@@ -10289,7 +10289,7 @@
         <v>268</v>
       </c>
       <c r="I236" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J236" s="2">
         <v>73000</v>
@@ -10322,7 +10322,7 @@
         <v>269</v>
       </c>
       <c r="I237" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J237" s="2">
         <v>74000</v>
@@ -10355,7 +10355,7 @@
         <v>270</v>
       </c>
       <c r="I238" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J238" s="2">
         <v>75000</v>
@@ -10388,7 +10388,7 @@
         <v>271</v>
       </c>
       <c r="I239" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J239" s="2">
         <v>76000</v>
@@ -10421,7 +10421,7 @@
         <v>272</v>
       </c>
       <c r="I240" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J240" s="2">
         <v>77000</v>
@@ -10454,7 +10454,7 @@
         <v>273</v>
       </c>
       <c r="I241" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J241" s="2">
         <v>78000</v>
@@ -10487,7 +10487,7 @@
         <v>274</v>
       </c>
       <c r="I242" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J242" s="2">
         <v>79000</v>
@@ -10520,7 +10520,7 @@
         <v>275</v>
       </c>
       <c r="I243" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J243" s="2">
         <v>80000</v>
@@ -10553,7 +10553,7 @@
         <v>276</v>
       </c>
       <c r="I244" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J244" s="2">
         <v>81000</v>
@@ -10586,7 +10586,7 @@
         <v>277</v>
       </c>
       <c r="I245" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J245" s="2">
         <v>82000</v>
@@ -10619,7 +10619,7 @@
         <v>278</v>
       </c>
       <c r="I246" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J246" s="2">
         <v>83000</v>
@@ -10652,7 +10652,7 @@
         <v>279</v>
       </c>
       <c r="I247" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J247" s="2">
         <v>84000</v>
@@ -10685,7 +10685,7 @@
         <v>280</v>
       </c>
       <c r="I248" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J248" s="2">
         <v>85000</v>
@@ -10718,7 +10718,7 @@
         <v>281</v>
       </c>
       <c r="I249" s="4">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="J249" s="2">
         <v>86000</v>
@@ -10751,7 +10751,7 @@
         <v>282</v>
       </c>
       <c r="I250" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J250" s="2">
         <v>87000</v>
@@ -10784,7 +10784,7 @@
         <v>283</v>
       </c>
       <c r="I251" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J251" s="2">
         <v>88000</v>
@@ -10817,7 +10817,7 @@
         <v>284</v>
       </c>
       <c r="I252" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J252" s="2">
         <v>89000</v>
@@ -10850,7 +10850,7 @@
         <v>285</v>
       </c>
       <c r="I253" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J253" s="2">
         <v>90000</v>
@@ -10883,7 +10883,7 @@
         <v>286</v>
       </c>
       <c r="I254" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J254" s="2">
         <v>91000</v>
@@ -10916,7 +10916,7 @@
         <v>287</v>
       </c>
       <c r="I255" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J255" s="2">
         <v>92000</v>
@@ -10949,7 +10949,7 @@
         <v>288</v>
       </c>
       <c r="I256" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J256" s="2">
         <v>93000</v>
@@ -10982,7 +10982,7 @@
         <v>289</v>
       </c>
       <c r="I257" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J257" s="2">
         <v>94000</v>
@@ -11015,7 +11015,7 @@
         <v>290</v>
       </c>
       <c r="I258" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J258" s="2">
         <v>95000</v>
@@ -11048,7 +11048,7 @@
         <v>291</v>
       </c>
       <c r="I259" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J259" s="2">
         <v>96000</v>
@@ -11081,7 +11081,7 @@
         <v>292</v>
       </c>
       <c r="I260" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J260" s="2">
         <v>97000</v>
@@ -11114,7 +11114,7 @@
         <v>293</v>
       </c>
       <c r="I261" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J261" s="2">
         <v>98000</v>
@@ -11147,7 +11147,7 @@
         <v>294</v>
       </c>
       <c r="I262" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J262" s="2">
         <v>99000</v>
@@ -11180,7 +11180,7 @@
         <v>295</v>
       </c>
       <c r="I263" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J263" s="2">
         <v>100000</v>
@@ -11213,7 +11213,7 @@
         <v>296</v>
       </c>
       <c r="I264" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J264" s="2">
         <v>110000</v>
@@ -11246,7 +11246,7 @@
         <v>297</v>
       </c>
       <c r="I265" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J265" s="2">
         <v>120000</v>
@@ -11279,7 +11279,7 @@
         <v>298</v>
       </c>
       <c r="I266" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J266" s="2">
         <v>130000</v>
@@ -11312,7 +11312,7 @@
         <v>299</v>
       </c>
       <c r="I267" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J267" s="2">
         <v>140000</v>
@@ -11345,7 +11345,7 @@
         <v>300</v>
       </c>
       <c r="I268" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J268" s="2">
         <v>150000</v>
@@ -11378,7 +11378,7 @@
         <v>301</v>
       </c>
       <c r="I269" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J269" s="2">
         <v>160000</v>
@@ -11411,7 +11411,7 @@
         <v>302</v>
       </c>
       <c r="I270" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J270" s="2">
         <v>170000</v>
@@ -11444,7 +11444,7 @@
         <v>303</v>
       </c>
       <c r="I271" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J271" s="2">
         <v>180000</v>
@@ -11477,7 +11477,7 @@
         <v>304</v>
       </c>
       <c r="I272" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J272" s="2">
         <v>190000</v>
@@ -11510,7 +11510,7 @@
         <v>305</v>
       </c>
       <c r="I273" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J273" s="2">
         <v>200000</v>
@@ -11543,7 +11543,7 @@
         <v>306</v>
       </c>
       <c r="I274" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J274" s="2">
         <v>210000</v>
@@ -11576,7 +11576,7 @@
         <v>307</v>
       </c>
       <c r="I275" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J275" s="2">
         <v>220000</v>
@@ -11609,7 +11609,7 @@
         <v>308</v>
       </c>
       <c r="I276" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J276" s="2">
         <v>230000</v>
@@ -11642,7 +11642,7 @@
         <v>309</v>
       </c>
       <c r="I277" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J277" s="2">
         <v>240000</v>
@@ -11675,7 +11675,7 @@
         <v>310</v>
       </c>
       <c r="I278" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J278" s="2">
         <v>250000</v>
@@ -11708,7 +11708,7 @@
         <v>311</v>
       </c>
       <c r="I279" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J279" s="2">
         <v>260000</v>
@@ -11741,7 +11741,7 @@
         <v>312</v>
       </c>
       <c r="I280" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J280" s="2">
         <v>270000</v>
@@ -11774,7 +11774,7 @@
         <v>313</v>
       </c>
       <c r="I281" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J281" s="2">
         <v>280000</v>
@@ -11807,7 +11807,7 @@
         <v>314</v>
       </c>
       <c r="I282" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J282" s="2">
         <v>290000</v>
@@ -11840,7 +11840,7 @@
         <v>315</v>
       </c>
       <c r="I283" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J283" s="2">
         <v>300000</v>
@@ -11873,7 +11873,7 @@
         <v>316</v>
       </c>
       <c r="I284" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J284" s="2">
         <v>310000</v>
@@ -11906,7 +11906,7 @@
         <v>317</v>
       </c>
       <c r="I285" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J285" s="2">
         <v>320000</v>
@@ -11939,7 +11939,7 @@
         <v>318</v>
       </c>
       <c r="I286" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J286" s="2">
         <v>330000</v>
@@ -11972,7 +11972,7 @@
         <v>319</v>
       </c>
       <c r="I287" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J287" s="2">
         <v>340000</v>
@@ -12005,7 +12005,7 @@
         <v>320</v>
       </c>
       <c r="I288" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J288" s="2">
         <v>350000</v>
@@ -12038,7 +12038,7 @@
         <v>321</v>
       </c>
       <c r="I289" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J289" s="2">
         <v>360000</v>
@@ -12071,7 +12071,7 @@
         <v>322</v>
       </c>
       <c r="I290" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J290" s="2">
         <v>370000</v>
@@ -12104,7 +12104,7 @@
         <v>323</v>
       </c>
       <c r="I291" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J291" s="2">
         <v>380000</v>
@@ -12137,7 +12137,7 @@
         <v>324</v>
       </c>
       <c r="I292" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J292" s="2">
         <v>390000</v>
@@ -12170,7 +12170,7 @@
         <v>325</v>
       </c>
       <c r="I293" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J293" s="2">
         <v>400000</v>
@@ -12203,7 +12203,7 @@
         <v>326</v>
       </c>
       <c r="I294" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J294" s="2">
         <v>410000</v>
@@ -12236,7 +12236,7 @@
         <v>327</v>
       </c>
       <c r="I295" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J295" s="2">
         <v>420000</v>
@@ -12269,7 +12269,7 @@
         <v>328</v>
       </c>
       <c r="I296" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J296" s="2">
         <v>430000</v>
@@ -12302,7 +12302,7 @@
         <v>329</v>
       </c>
       <c r="I297" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J297" s="2">
         <v>440000</v>
@@ -12335,7 +12335,7 @@
         <v>330</v>
       </c>
       <c r="I298" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J298" s="2">
         <v>450000</v>
@@ -12368,7 +12368,7 @@
         <v>331</v>
       </c>
       <c r="I299" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J299" s="2">
         <v>460000</v>
@@ -12401,7 +12401,7 @@
         <v>332</v>
       </c>
       <c r="I300" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J300" s="2">
         <v>470000</v>
@@ -12434,7 +12434,7 @@
         <v>333</v>
       </c>
       <c r="I301" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J301" s="2">
         <v>480000</v>
@@ -12467,7 +12467,7 @@
         <v>334</v>
       </c>
       <c r="I302" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J302" s="2">
         <v>490000</v>
@@ -12500,7 +12500,7 @@
         <v>335</v>
       </c>
       <c r="I303" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J303" s="2">
         <v>500000</v>
@@ -12533,7 +12533,7 @@
         <v>336</v>
       </c>
       <c r="I304" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J304" s="2">
         <v>510000</v>
@@ -12566,7 +12566,7 @@
         <v>337</v>
       </c>
       <c r="I305" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J305" s="2">
         <v>520000</v>
@@ -12599,7 +12599,7 @@
         <v>338</v>
       </c>
       <c r="I306" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J306" s="2">
         <v>530000</v>
@@ -12632,7 +12632,7 @@
         <v>339</v>
       </c>
       <c r="I307" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J307" s="2">
         <v>540000</v>
@@ -12665,7 +12665,7 @@
         <v>340</v>
       </c>
       <c r="I308" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J308" s="2">
         <v>550000</v>
@@ -12698,7 +12698,7 @@
         <v>341</v>
       </c>
       <c r="I309" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J309" s="2">
         <v>560000</v>
@@ -12731,7 +12731,7 @@
         <v>342</v>
       </c>
       <c r="I310" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J310" s="2">
         <v>570000</v>
@@ -12764,7 +12764,7 @@
         <v>343</v>
       </c>
       <c r="I311" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J311" s="2">
         <v>580000</v>
@@ -12797,7 +12797,7 @@
         <v>344</v>
       </c>
       <c r="I312" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J312" s="2">
         <v>590000</v>
@@ -12830,7 +12830,7 @@
         <v>345</v>
       </c>
       <c r="I313" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J313" s="2">
         <v>600000</v>
@@ -12863,7 +12863,7 @@
         <v>346</v>
       </c>
       <c r="I314" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J314" s="2">
         <v>610000</v>
@@ -12896,7 +12896,7 @@
         <v>347</v>
       </c>
       <c r="I315" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J315" s="2">
         <v>620000</v>
@@ -12929,7 +12929,7 @@
         <v>348</v>
       </c>
       <c r="I316" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J316" s="2">
         <v>630000</v>
@@ -12962,7 +12962,7 @@
         <v>349</v>
       </c>
       <c r="I317" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J317" s="2">
         <v>640000</v>
@@ -12995,7 +12995,7 @@
         <v>350</v>
       </c>
       <c r="I318" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J318" s="2">
         <v>650000</v>
@@ -13028,7 +13028,7 @@
         <v>351</v>
       </c>
       <c r="I319" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J319" s="2">
         <v>660000</v>
@@ -13061,7 +13061,7 @@
         <v>352</v>
       </c>
       <c r="I320" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J320" s="2">
         <v>670000</v>
@@ -13094,7 +13094,7 @@
         <v>353</v>
       </c>
       <c r="I321" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J321" s="2">
         <v>680000</v>
@@ -13127,7 +13127,7 @@
         <v>354</v>
       </c>
       <c r="I322" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J322" s="2">
         <v>690000</v>
@@ -13160,7 +13160,7 @@
         <v>355</v>
       </c>
       <c r="I323" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J323" s="2">
         <v>700000</v>
@@ -13193,7 +13193,7 @@
         <v>356</v>
       </c>
       <c r="I324" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J324" s="2">
         <v>710000</v>
@@ -13226,7 +13226,7 @@
         <v>357</v>
       </c>
       <c r="I325" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J325" s="2">
         <v>720000</v>
@@ -13259,7 +13259,7 @@
         <v>358</v>
       </c>
       <c r="I326" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J326" s="2">
         <v>730000</v>
@@ -13292,7 +13292,7 @@
         <v>359</v>
       </c>
       <c r="I327" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J327" s="2">
         <v>740000</v>
@@ -13325,7 +13325,7 @@
         <v>360</v>
       </c>
       <c r="I328" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J328" s="2">
         <v>750000</v>
@@ -13358,7 +13358,7 @@
         <v>361</v>
       </c>
       <c r="I329" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J329" s="2">
         <v>760000</v>
@@ -13391,7 +13391,7 @@
         <v>362</v>
       </c>
       <c r="I330" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J330" s="2">
         <v>770000</v>
@@ -13424,7 +13424,7 @@
         <v>363</v>
       </c>
       <c r="I331" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J331" s="2">
         <v>780000</v>
@@ -13457,7 +13457,7 @@
         <v>364</v>
       </c>
       <c r="I332" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J332" s="2">
         <v>790000</v>
@@ -13490,7 +13490,7 @@
         <v>365</v>
       </c>
       <c r="I333" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J333" s="2">
         <v>800000</v>
@@ -13523,7 +13523,7 @@
         <v>366</v>
       </c>
       <c r="I334" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J334" s="2">
         <v>810000</v>
@@ -13556,7 +13556,7 @@
         <v>367</v>
       </c>
       <c r="I335" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J335" s="2">
         <v>820000</v>
@@ -13589,7 +13589,7 @@
         <v>368</v>
       </c>
       <c r="I336" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J336" s="2">
         <v>830000</v>
@@ -13622,7 +13622,7 @@
         <v>369</v>
       </c>
       <c r="I337" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J337" s="2">
         <v>840000</v>
@@ -13655,7 +13655,7 @@
         <v>370</v>
       </c>
       <c r="I338" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J338" s="2">
         <v>850000</v>
@@ -13688,7 +13688,7 @@
         <v>371</v>
       </c>
       <c r="I339" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J339" s="2">
         <v>860000</v>
@@ -13721,7 +13721,7 @@
         <v>372</v>
       </c>
       <c r="I340" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J340" s="2">
         <v>870000</v>
@@ -13754,7 +13754,7 @@
         <v>373</v>
       </c>
       <c r="I341" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J341" s="2">
         <v>880000</v>
@@ -13787,7 +13787,7 @@
         <v>374</v>
       </c>
       <c r="I342" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J342" s="2">
         <v>890000</v>
@@ -13820,7 +13820,7 @@
         <v>375</v>
       </c>
       <c r="I343" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J343" s="2">
         <v>900000</v>
@@ -13853,7 +13853,7 @@
         <v>376</v>
       </c>
       <c r="I344" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J344" s="2">
         <v>910000</v>
@@ -13886,7 +13886,7 @@
         <v>377</v>
       </c>
       <c r="I345" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J345" s="2">
         <v>920000</v>
@@ -13919,7 +13919,7 @@
         <v>378</v>
       </c>
       <c r="I346" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J346" s="2">
         <v>930000</v>
@@ -13952,7 +13952,7 @@
         <v>379</v>
       </c>
       <c r="I347" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J347" s="2">
         <v>940000</v>
@@ -13985,7 +13985,7 @@
         <v>380</v>
       </c>
       <c r="I348" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J348" s="2">
         <v>950000</v>
@@ -14018,7 +14018,7 @@
         <v>381</v>
       </c>
       <c r="I349" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J349" s="2">
         <v>960000</v>
@@ -14051,7 +14051,7 @@
         <v>382</v>
       </c>
       <c r="I350" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J350" s="2">
         <v>970000</v>
@@ -14084,7 +14084,7 @@
         <v>383</v>
       </c>
       <c r="I351" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J351" s="2">
         <v>980000</v>
@@ -14117,7 +14117,7 @@
         <v>384</v>
       </c>
       <c r="I352" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J352" s="2">
         <v>990000</v>
@@ -14150,7 +14150,7 @@
         <v>385</v>
       </c>
       <c r="I353" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J353" s="2">
         <v>1000000</v>
@@ -14183,7 +14183,7 @@
         <v>386</v>
       </c>
       <c r="I354" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J354" s="2">
         <v>1010000</v>
@@ -14216,7 +14216,7 @@
         <v>387</v>
       </c>
       <c r="I355" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J355" s="2">
         <v>1020000</v>
@@ -14249,7 +14249,7 @@
         <v>388</v>
       </c>
       <c r="I356" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J356" s="2">
         <v>1030000</v>
@@ -14282,7 +14282,7 @@
         <v>389</v>
       </c>
       <c r="I357" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J357" s="2">
         <v>1040000</v>
@@ -14315,7 +14315,7 @@
         <v>390</v>
       </c>
       <c r="I358" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J358" s="2">
         <v>1050000</v>
@@ -14348,7 +14348,7 @@
         <v>391</v>
       </c>
       <c r="I359" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J359" s="2">
         <v>1060000</v>
@@ -14381,7 +14381,7 @@
         <v>392</v>
       </c>
       <c r="I360" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J360" s="2">
         <v>1070000</v>
@@ -14414,7 +14414,7 @@
         <v>393</v>
       </c>
       <c r="I361" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J361" s="2">
         <v>1080000</v>
@@ -14447,7 +14447,7 @@
         <v>394</v>
       </c>
       <c r="I362" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J362" s="2">
         <v>1090000</v>
@@ -14480,7 +14480,7 @@
         <v>395</v>
       </c>
       <c r="I363" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J363" s="2">
         <v>1100000</v>
@@ -14513,7 +14513,7 @@
         <v>396</v>
       </c>
       <c r="I364" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J364" s="2">
         <v>1110000</v>
@@ -14546,7 +14546,7 @@
         <v>397</v>
       </c>
       <c r="I365" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J365" s="2">
         <v>1120000</v>
@@ -14579,7 +14579,7 @@
         <v>398</v>
       </c>
       <c r="I366" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J366" s="2">
         <v>1130000</v>
@@ -14612,7 +14612,7 @@
         <v>399</v>
       </c>
       <c r="I367" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J367" s="2">
         <v>1140000</v>
@@ -14645,7 +14645,7 @@
         <v>400</v>
       </c>
       <c r="I368" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J368" s="2">
         <v>1150000</v>
@@ -14678,7 +14678,7 @@
         <v>401</v>
       </c>
       <c r="I369" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J369" s="2">
         <v>1160000</v>
@@ -14711,7 +14711,7 @@
         <v>402</v>
       </c>
       <c r="I370" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J370" s="2">
         <v>1170000</v>
@@ -14744,7 +14744,7 @@
         <v>403</v>
       </c>
       <c r="I371" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J371" s="2">
         <v>1180000</v>
@@ -14777,7 +14777,7 @@
         <v>404</v>
       </c>
       <c r="I372" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J372" s="2">
         <v>1190000</v>
@@ -14810,7 +14810,7 @@
         <v>405</v>
       </c>
       <c r="I373" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J373" s="2">
         <v>1200000</v>
@@ -14843,7 +14843,7 @@
         <v>406</v>
       </c>
       <c r="I374" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J374" s="2">
         <v>1210000</v>
@@ -14876,7 +14876,7 @@
         <v>407</v>
       </c>
       <c r="I375" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J375" s="2">
         <v>1220000</v>
@@ -14909,7 +14909,7 @@
         <v>408</v>
       </c>
       <c r="I376" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J376" s="2">
         <v>1230000</v>
@@ -14942,7 +14942,7 @@
         <v>409</v>
       </c>
       <c r="I377" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J377" s="2">
         <v>1240000</v>
@@ -14975,7 +14975,7 @@
         <v>410</v>
       </c>
       <c r="I378" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J378" s="2">
         <v>1250000</v>
@@ -15008,7 +15008,7 @@
         <v>411</v>
       </c>
       <c r="I379" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J379" s="2">
         <v>1260000</v>
@@ -15041,7 +15041,7 @@
         <v>412</v>
       </c>
       <c r="I380" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J380" s="2">
         <v>1270000</v>
@@ -15074,7 +15074,7 @@
         <v>413</v>
       </c>
       <c r="I381" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J381" s="2">
         <v>1280000</v>
@@ -15107,7 +15107,7 @@
         <v>414</v>
       </c>
       <c r="I382" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J382" s="2">
         <v>1290000</v>
@@ -15140,7 +15140,7 @@
         <v>415</v>
       </c>
       <c r="I383" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J383" s="2">
         <v>1300000</v>
@@ -15173,7 +15173,7 @@
         <v>416</v>
       </c>
       <c r="I384" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J384" s="2">
         <v>1310000</v>
@@ -15206,7 +15206,7 @@
         <v>417</v>
       </c>
       <c r="I385" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J385" s="2">
         <v>1320000</v>
@@ -15239,7 +15239,7 @@
         <v>418</v>
       </c>
       <c r="I386" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J386" s="2">
         <v>1330000</v>
@@ -15272,7 +15272,7 @@
         <v>419</v>
       </c>
       <c r="I387" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J387" s="2">
         <v>1340000</v>
@@ -15305,7 +15305,7 @@
         <v>420</v>
       </c>
       <c r="I388" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J388" s="2">
         <v>1350000</v>
@@ -15338,7 +15338,7 @@
         <v>421</v>
       </c>
       <c r="I389" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J389" s="2">
         <v>1360000</v>
@@ -15371,7 +15371,7 @@
         <v>422</v>
       </c>
       <c r="I390" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J390" s="2">
         <v>1370000</v>
@@ -15404,7 +15404,7 @@
         <v>423</v>
       </c>
       <c r="I391" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J391" s="2">
         <v>1380000</v>
@@ -15437,7 +15437,7 @@
         <v>424</v>
       </c>
       <c r="I392" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J392" s="2">
         <v>1390000</v>
@@ -15470,7 +15470,7 @@
         <v>425</v>
       </c>
       <c r="I393" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J393" s="2">
         <v>1400000</v>
@@ -15503,7 +15503,7 @@
         <v>426</v>
       </c>
       <c r="I394" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J394" s="2">
         <v>1410000</v>
@@ -15536,7 +15536,7 @@
         <v>427</v>
       </c>
       <c r="I395" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J395" s="2">
         <v>1420000</v>
@@ -15569,7 +15569,7 @@
         <v>428</v>
       </c>
       <c r="I396" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J396" s="2">
         <v>1430000</v>
@@ -15602,7 +15602,7 @@
         <v>429</v>
       </c>
       <c r="I397" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J397" s="2">
         <v>1440000</v>
@@ -15635,7 +15635,7 @@
         <v>430</v>
       </c>
       <c r="I398" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J398" s="2">
         <v>1450000</v>
@@ -15668,7 +15668,7 @@
         <v>431</v>
       </c>
       <c r="I399" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J399" s="2">
         <v>1460000</v>
@@ -15701,7 +15701,7 @@
         <v>432</v>
       </c>
       <c r="I400" s="4">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="J400" s="2">
         <v>1470000</v>
@@ -15734,7 +15734,7 @@
         <v>433</v>
       </c>
       <c r="I401" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J401" s="2">
         <v>1480000</v>
@@ -15767,7 +15767,7 @@
         <v>434</v>
       </c>
       <c r="I402" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J402" s="2">
         <v>1490000</v>
@@ -15800,7 +15800,7 @@
         <v>435</v>
       </c>
       <c r="I403" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J403" s="2">
         <v>1500000</v>
@@ -15833,7 +15833,7 @@
         <v>436</v>
       </c>
       <c r="I404" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J404" s="2">
         <v>1510000</v>
@@ -15866,7 +15866,7 @@
         <v>437</v>
       </c>
       <c r="I405" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J405" s="2">
         <v>1520000</v>
@@ -15899,7 +15899,7 @@
         <v>438</v>
       </c>
       <c r="I406" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J406" s="2">
         <v>1530000</v>
@@ -15932,7 +15932,7 @@
         <v>439</v>
       </c>
       <c r="I407" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J407" s="2">
         <v>1540000</v>
@@ -15965,7 +15965,7 @@
         <v>440</v>
       </c>
       <c r="I408" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J408" s="2">
         <v>1550000</v>
@@ -15998,7 +15998,7 @@
         <v>441</v>
       </c>
       <c r="I409" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J409" s="2">
         <v>1560000</v>
@@ -16031,7 +16031,7 @@
         <v>442</v>
       </c>
       <c r="I410" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J410" s="2">
         <v>1570000</v>
@@ -16064,7 +16064,7 @@
         <v>443</v>
       </c>
       <c r="I411" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J411" s="2">
         <v>1580000</v>
@@ -16097,7 +16097,7 @@
         <v>444</v>
       </c>
       <c r="I412" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J412" s="2">
         <v>1590000</v>
@@ -16130,7 +16130,7 @@
         <v>445</v>
       </c>
       <c r="I413" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J413" s="2">
         <v>1600000</v>
@@ -16163,7 +16163,7 @@
         <v>446</v>
       </c>
       <c r="I414" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J414" s="2">
         <v>1610000</v>
@@ -16196,7 +16196,7 @@
         <v>447</v>
       </c>
       <c r="I415" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J415" s="2">
         <v>1620000</v>
@@ -16229,7 +16229,7 @@
         <v>448</v>
       </c>
       <c r="I416" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J416" s="2">
         <v>1630000</v>
@@ -16262,7 +16262,7 @@
         <v>449</v>
       </c>
       <c r="I417" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J417" s="2">
         <v>1640000</v>
@@ -16295,7 +16295,7 @@
         <v>450</v>
       </c>
       <c r="I418" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J418" s="2">
         <v>1650000</v>
@@ -16328,7 +16328,7 @@
         <v>451</v>
       </c>
       <c r="I419" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J419" s="2">
         <v>1660000</v>
@@ -16361,7 +16361,7 @@
         <v>452</v>
       </c>
       <c r="I420" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J420" s="2">
         <v>1670000</v>
@@ -16394,7 +16394,7 @@
         <v>453</v>
       </c>
       <c r="I421" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J421" s="2">
         <v>1680000</v>
@@ -16427,7 +16427,7 @@
         <v>454</v>
       </c>
       <c r="I422" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J422" s="2">
         <v>1690000</v>
@@ -16460,7 +16460,7 @@
         <v>455</v>
       </c>
       <c r="I423" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J423" s="2">
         <v>1700000</v>
@@ -16493,7 +16493,7 @@
         <v>456</v>
       </c>
       <c r="I424" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J424" s="2">
         <v>1710000</v>
@@ -16526,7 +16526,7 @@
         <v>457</v>
       </c>
       <c r="I425" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J425" s="2">
         <v>1720000</v>
@@ -16559,7 +16559,7 @@
         <v>458</v>
       </c>
       <c r="I426" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J426" s="2">
         <v>1730000</v>
@@ -16592,7 +16592,7 @@
         <v>459</v>
       </c>
       <c r="I427" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J427" s="2">
         <v>1740000</v>
@@ -16625,7 +16625,7 @@
         <v>460</v>
       </c>
       <c r="I428" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J428" s="2">
         <v>1750000</v>
@@ -16658,7 +16658,7 @@
         <v>461</v>
       </c>
       <c r="I429" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J429" s="2">
         <v>1760000</v>
@@ -16691,7 +16691,7 @@
         <v>462</v>
       </c>
       <c r="I430" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J430" s="2">
         <v>1770000</v>
@@ -16724,7 +16724,7 @@
         <v>463</v>
       </c>
       <c r="I431" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J431" s="2">
         <v>1780000</v>
@@ -16757,7 +16757,7 @@
         <v>464</v>
       </c>
       <c r="I432" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J432" s="2">
         <v>1790000</v>
@@ -16790,7 +16790,7 @@
         <v>465</v>
       </c>
       <c r="I433" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J433" s="2">
         <v>1800000</v>
@@ -16823,7 +16823,7 @@
         <v>466</v>
       </c>
       <c r="I434" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J434" s="2">
         <v>1810000</v>
@@ -16856,7 +16856,7 @@
         <v>467</v>
       </c>
       <c r="I435" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J435" s="2">
         <v>1820000</v>
@@ -16889,7 +16889,7 @@
         <v>468</v>
       </c>
       <c r="I436" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J436" s="2">
         <v>1830000</v>
@@ -16922,7 +16922,7 @@
         <v>469</v>
       </c>
       <c r="I437" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J437" s="2">
         <v>1840000</v>
@@ -16955,7 +16955,7 @@
         <v>470</v>
       </c>
       <c r="I438" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J438" s="2">
         <v>1850000</v>
@@ -16988,7 +16988,7 @@
         <v>471</v>
       </c>
       <c r="I439" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J439" s="2">
         <v>1860000</v>
@@ -17021,7 +17021,7 @@
         <v>472</v>
       </c>
       <c r="I440" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J440" s="2">
         <v>1870000</v>
@@ -17054,7 +17054,7 @@
         <v>473</v>
       </c>
       <c r="I441" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J441" s="2">
         <v>1880000</v>
@@ -17087,7 +17087,7 @@
         <v>474</v>
       </c>
       <c r="I442" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J442" s="2">
         <v>1890000</v>
@@ -17120,7 +17120,7 @@
         <v>475</v>
       </c>
       <c r="I443" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J443" s="2">
         <v>1900000</v>
@@ -17153,7 +17153,7 @@
         <v>476</v>
       </c>
       <c r="I444" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J444" s="2">
         <v>1910000</v>
@@ -17186,7 +17186,7 @@
         <v>477</v>
       </c>
       <c r="I445" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J445" s="2">
         <v>1920000</v>
@@ -17219,7 +17219,7 @@
         <v>478</v>
       </c>
       <c r="I446" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J446" s="2">
         <v>1930000</v>
@@ -17252,7 +17252,7 @@
         <v>479</v>
       </c>
       <c r="I447" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J447" s="2">
         <v>1940000</v>
@@ -17285,7 +17285,7 @@
         <v>480</v>
       </c>
       <c r="I448" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J448" s="2">
         <v>1950000</v>
@@ -17318,7 +17318,7 @@
         <v>481</v>
       </c>
       <c r="I449" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J449" s="2">
         <v>1960000</v>
@@ -17351,7 +17351,7 @@
         <v>482</v>
       </c>
       <c r="I450" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J450" s="2">
         <v>1970000</v>
@@ -17384,7 +17384,7 @@
         <v>483</v>
       </c>
       <c r="I451" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J451" s="2">
         <v>1980000</v>
@@ -17417,7 +17417,7 @@
         <v>484</v>
       </c>
       <c r="I452" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J452" s="2">
         <v>1990000</v>
@@ -17450,7 +17450,7 @@
         <v>485</v>
       </c>
       <c r="I453" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J453" s="2">
         <v>2000000</v>
@@ -17483,7 +17483,7 @@
         <v>486</v>
       </c>
       <c r="I454" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J454" s="2">
         <v>2010000</v>
@@ -17516,7 +17516,7 @@
         <v>487</v>
       </c>
       <c r="I455" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J455" s="2">
         <v>2020000</v>
@@ -17549,7 +17549,7 @@
         <v>488</v>
       </c>
       <c r="I456" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J456" s="2">
         <v>2030000</v>
@@ -17582,7 +17582,7 @@
         <v>489</v>
       </c>
       <c r="I457" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J457" s="2">
         <v>2040000</v>
@@ -17615,7 +17615,7 @@
         <v>490</v>
       </c>
       <c r="I458" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J458" s="2">
         <v>2050000</v>
@@ -17648,7 +17648,7 @@
         <v>491</v>
       </c>
       <c r="I459" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J459" s="2">
         <v>2060000</v>
@@ -17681,7 +17681,7 @@
         <v>492</v>
       </c>
       <c r="I460" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J460" s="2">
         <v>2070000</v>
@@ -17714,7 +17714,7 @@
         <v>493</v>
       </c>
       <c r="I461" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J461" s="2">
         <v>2080000</v>
@@ -17747,7 +17747,7 @@
         <v>494</v>
       </c>
       <c r="I462" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J462" s="2">
         <v>2090000</v>
@@ -17780,7 +17780,7 @@
         <v>495</v>
       </c>
       <c r="I463" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J463" s="2">
         <v>2100000</v>
@@ -17813,7 +17813,7 @@
         <v>496</v>
       </c>
       <c r="I464" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J464" s="2">
         <v>2110000</v>
@@ -17846,7 +17846,7 @@
         <v>497</v>
       </c>
       <c r="I465" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J465" s="2">
         <v>2120000</v>
@@ -17879,7 +17879,7 @@
         <v>498</v>
       </c>
       <c r="I466" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J466" s="2">
         <v>2130000</v>
@@ -17912,7 +17912,7 @@
         <v>499</v>
       </c>
       <c r="I467" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J467" s="2">
         <v>2140000</v>
@@ -17945,7 +17945,7 @@
         <v>500</v>
       </c>
       <c r="I468" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J468" s="2">
         <v>2150000</v>
@@ -17978,7 +17978,7 @@
         <v>501</v>
       </c>
       <c r="I469" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J469" s="2">
         <v>2160000</v>
@@ -18011,7 +18011,7 @@
         <v>502</v>
       </c>
       <c r="I470" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J470" s="2">
         <v>2170000</v>
@@ -18044,7 +18044,7 @@
         <v>503</v>
       </c>
       <c r="I471" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J471" s="2">
         <v>2180000</v>
@@ -18077,7 +18077,7 @@
         <v>504</v>
       </c>
       <c r="I472" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J472" s="2">
         <v>2190000</v>
@@ -18110,7 +18110,7 @@
         <v>505</v>
       </c>
       <c r="I473" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J473" s="2">
         <v>2200000</v>
@@ -18143,7 +18143,7 @@
         <v>506</v>
       </c>
       <c r="I474" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J474" s="2">
         <v>2210000</v>
@@ -18176,7 +18176,7 @@
         <v>507</v>
       </c>
       <c r="I475" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J475" s="2">
         <v>2220000</v>
@@ -18209,7 +18209,7 @@
         <v>508</v>
       </c>
       <c r="I476" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J476" s="2">
         <v>2230000</v>
@@ -18242,7 +18242,7 @@
         <v>509</v>
       </c>
       <c r="I477" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J477" s="2">
         <v>2240000</v>
@@ -18275,7 +18275,7 @@
         <v>510</v>
       </c>
       <c r="I478" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J478" s="2">
         <v>2250000</v>
@@ -18308,7 +18308,7 @@
         <v>511</v>
       </c>
       <c r="I479" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J479" s="2">
         <v>2260000</v>
@@ -18341,7 +18341,7 @@
         <v>512</v>
       </c>
       <c r="I480" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J480" s="2">
         <v>2270000</v>
@@ -18374,7 +18374,7 @@
         <v>513</v>
       </c>
       <c r="I481" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J481" s="2">
         <v>2280000</v>
@@ -18407,7 +18407,7 @@
         <v>514</v>
       </c>
       <c r="I482" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J482" s="2">
         <v>2290000</v>
@@ -18440,7 +18440,7 @@
         <v>515</v>
       </c>
       <c r="I483" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J483" s="2">
         <v>2300000</v>
@@ -18473,7 +18473,7 @@
         <v>516</v>
       </c>
       <c r="I484" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J484" s="2">
         <v>2310000</v>
@@ -18506,7 +18506,7 @@
         <v>517</v>
       </c>
       <c r="I485" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J485" s="2">
         <v>2320000</v>
@@ -18539,7 +18539,7 @@
         <v>518</v>
       </c>
       <c r="I486" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J486" s="2">
         <v>2330000</v>
@@ -18572,7 +18572,7 @@
         <v>519</v>
       </c>
       <c r="I487" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J487" s="2">
         <v>2340000</v>
@@ -18605,7 +18605,7 @@
         <v>520</v>
       </c>
       <c r="I488" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J488" s="2">
         <v>2350000</v>
@@ -18638,7 +18638,7 @@
         <v>521</v>
       </c>
       <c r="I489" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J489" s="2">
         <v>2360000</v>
@@ -18671,7 +18671,7 @@
         <v>522</v>
       </c>
       <c r="I490" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J490" s="2">
         <v>2370000</v>
@@ -18704,7 +18704,7 @@
         <v>523</v>
       </c>
       <c r="I491" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J491" s="2">
         <v>2380000</v>
@@ -18737,7 +18737,7 @@
         <v>524</v>
       </c>
       <c r="I492" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J492" s="2">
         <v>2390000</v>
@@ -18770,7 +18770,7 @@
         <v>525</v>
       </c>
       <c r="I493" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J493" s="2">
         <v>2400000</v>
@@ -18803,7 +18803,7 @@
         <v>526</v>
       </c>
       <c r="I494" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J494" s="2">
         <v>2410000</v>
@@ -18836,7 +18836,7 @@
         <v>527</v>
       </c>
       <c r="I495" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J495" s="2">
         <v>2420000</v>
@@ -18869,7 +18869,7 @@
         <v>528</v>
       </c>
       <c r="I496" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J496" s="2">
         <v>2430000</v>
@@ -18902,7 +18902,7 @@
         <v>529</v>
       </c>
       <c r="I497" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J497" s="2">
         <v>2440000</v>
@@ -18935,7 +18935,7 @@
         <v>530</v>
       </c>
       <c r="I498" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J498" s="2">
         <v>2450000</v>
@@ -18968,7 +18968,7 @@
         <v>531</v>
       </c>
       <c r="I499" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J499" s="2">
         <v>2460000</v>
@@ -19001,7 +19001,7 @@
         <v>532</v>
       </c>
       <c r="I500" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J500" s="2">
         <v>2470000</v>
@@ -19034,7 +19034,7 @@
         <v>533</v>
       </c>
       <c r="I501" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J501" s="2">
         <v>2480000</v>
@@ -19067,7 +19067,7 @@
         <v>534</v>
       </c>
       <c r="I502" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J502" s="2">
         <v>2490000</v>
@@ -19100,12 +19100,17 @@
         <v>535</v>
       </c>
       <c r="I503" s="4">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="J503" s="2">
         <v>2500000</v>
       </c>
       <c r="K503" s="5"/>
+    </row>
+    <row r="504" spans="9:9">
+      <c r="I504" s="4">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -1632,8 +1632,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -1658,52 +1658,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,54 +1672,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1785,6 +1695,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1793,11 +1710,94 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1810,79 +1810,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1900,13 +1846,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1918,7 +1924,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1930,31 +1966,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1966,25 +1978,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2006,11 +2006,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2030,35 +2067,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2078,26 +2091,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,10 +2107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,133 +2119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2608,10 +2608,10 @@
   <sheetPr/>
   <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3024,13 +3024,13 @@
         <v>0.9</v>
       </c>
       <c r="D13" s="2">
-        <v>1.45</v>
+        <v>1.7</v>
       </c>
       <c r="E13" s="2">
         <v>1</v>
       </c>
       <c r="F13" s="2">
-        <v>5.4</v>
+        <v>8</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>35</v>
@@ -3135,7 +3135,7 @@
         <v>51</v>
       </c>
       <c r="I16" s="4">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="J16" s="2">
         <v>16</v>
@@ -3167,7 +3167,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="4">
-        <v>1.12</v>
+        <v>1.5</v>
       </c>
       <c r="J17" s="2">
         <v>18</v>
@@ -3184,13 +3184,13 @@
         <v>0.9</v>
       </c>
       <c r="D18" s="2">
-        <v>1.7</v>
+        <v>2</v>
       </c>
       <c r="E18" s="2">
         <v>1</v>
       </c>
       <c r="F18" s="2">
-        <v>8.4</v>
+        <v>10</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>35</v>
@@ -3199,7 +3199,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="4">
-        <v>1.13</v>
+        <v>1.5</v>
       </c>
       <c r="J18" s="2">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="4">
-        <v>1.14</v>
+        <v>1.5</v>
       </c>
       <c r="J19" s="2">
         <v>22</v>
@@ -3263,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="4">
-        <v>1.15</v>
+        <v>1.5</v>
       </c>
       <c r="J20" s="2">
         <v>24</v>
@@ -3295,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="4">
-        <v>1.16</v>
+        <v>1.5</v>
       </c>
       <c r="J21" s="2">
         <v>26</v>
@@ -3327,7 +3327,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="4">
-        <v>1.17</v>
+        <v>1.5</v>
       </c>
       <c r="J22" s="2">
         <v>28</v>
@@ -3359,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="4">
-        <v>1.18</v>
+        <v>1.5</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3391,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="I24" s="4">
-        <v>1.19</v>
+        <v>1.5</v>
       </c>
       <c r="J24" s="2">
         <v>32</v>
@@ -3423,7 +3423,7 @@
         <v>69</v>
       </c>
       <c r="I25" s="4">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="J25" s="2">
         <v>34</v>
@@ -3455,7 +3455,7 @@
         <v>71</v>
       </c>
       <c r="I26" s="4">
-        <v>1.3</v>
+        <v>1.5</v>
       </c>
       <c r="J26" s="2">
         <v>36</v>
@@ -3487,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="4">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="J27" s="2">
         <v>38</v>
@@ -3504,13 +3504,13 @@
         <v>0.7</v>
       </c>
       <c r="D28" s="2">
-        <v>1.9</v>
+        <v>2</v>
       </c>
       <c r="E28" s="2">
         <v>1.2</v>
       </c>
       <c r="F28" s="2">
-        <v>14.4</v>
+        <v>16</v>
       </c>
       <c r="G28" s="3" t="s">
         <v>35</v>
@@ -3551,7 +3551,7 @@
         <v>77</v>
       </c>
       <c r="I29" s="4">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="J29" s="2">
         <v>42</v>
@@ -3583,7 +3583,7 @@
         <v>79</v>
       </c>
       <c r="I30" s="4">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="J30" s="2">
         <v>44</v>
@@ -3647,7 +3647,7 @@
         <v>83</v>
       </c>
       <c r="I32" s="4">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J32" s="2">
         <v>48</v>
@@ -3670,7 +3670,7 @@
         <v>1.2</v>
       </c>
       <c r="F33" s="2">
-        <v>17.4</v>
+        <v>20</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>35</v>
@@ -3679,7 +3679,7 @@
         <v>85</v>
       </c>
       <c r="I33" s="4">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="J33" s="2">
         <v>50</v>
@@ -3711,7 +3711,7 @@
         <v>87</v>
       </c>
       <c r="I34" s="4">
-        <v>3</v>
+        <v>1.8</v>
       </c>
       <c r="J34" s="2">
         <v>50</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="4">
-        <v>4</v>
+        <v>1.8</v>
       </c>
       <c r="J35" s="2">
         <v>50</v>
@@ -3775,7 +3775,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="4">
-        <v>5</v>
+        <v>1.8</v>
       </c>
       <c r="J36" s="2">
         <v>50</v>
@@ -3807,7 +3807,7 @@
         <v>93</v>
       </c>
       <c r="I37" s="4">
-        <v>6</v>
+        <v>1.8</v>
       </c>
       <c r="J37" s="2">
         <v>50</v>
@@ -3839,7 +3839,7 @@
         <v>95</v>
       </c>
       <c r="I38" s="4">
-        <v>7</v>
+        <v>1.8</v>
       </c>
       <c r="J38" s="2">
         <v>50</v>
@@ -3871,7 +3871,7 @@
         <v>97</v>
       </c>
       <c r="I39" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="J39" s="2">
         <v>50</v>
@@ -3903,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="4">
-        <v>9.00000000000001</v>
+        <v>2</v>
       </c>
       <c r="J40" s="2">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="I41" s="4">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="J41" s="2">
         <v>50</v>
@@ -3967,7 +3967,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="4">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="J42" s="2">
         <v>50</v>
@@ -3999,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="I43" s="4">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="J43" s="2">
         <v>50</v>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="I44" s="4">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="J44" s="2">
         <v>50</v>
@@ -4063,7 +4063,7 @@
         <v>109</v>
       </c>
       <c r="I45" s="4">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="J45" s="2">
         <v>50</v>
@@ -4095,7 +4095,7 @@
         <v>111</v>
       </c>
       <c r="I46" s="4">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="J46" s="2">
         <v>50</v>
@@ -4127,7 +4127,7 @@
         <v>113</v>
       </c>
       <c r="I47" s="4">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="J47" s="2">
         <v>50</v>
@@ -4159,7 +4159,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="4">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J48" s="2">
         <v>50</v>
@@ -4191,7 +4191,7 @@
         <v>117</v>
       </c>
       <c r="I49" s="4">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="J49" s="2">
         <v>50</v>
@@ -4223,7 +4223,7 @@
         <v>119</v>
       </c>
       <c r="I50" s="4">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="J50" s="2">
         <v>50</v>
@@ -4255,7 +4255,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="4">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="J51" s="2">
         <v>50</v>
@@ -4287,7 +4287,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="4">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="J52" s="2">
         <v>50</v>
@@ -4319,7 +4319,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="4">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J53" s="2">
         <v>50</v>
@@ -4336,13 +4336,13 @@
         <v>0.5</v>
       </c>
       <c r="D54" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E54" s="2">
         <v>1.1</v>
       </c>
       <c r="F54" s="2">
-        <v>200</v>
+        <v>600</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>26</v>
@@ -4351,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="4">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="J54" s="2">
         <v>100</v>
@@ -4368,13 +4368,13 @@
         <v>0.5</v>
       </c>
       <c r="D55" s="2">
-        <v>2.02</v>
+        <v>5</v>
       </c>
       <c r="E55" s="2">
         <v>1.1</v>
       </c>
       <c r="F55" s="2">
-        <v>202</v>
+        <v>600</v>
       </c>
       <c r="G55" s="3" t="s">
         <v>26</v>
@@ -4383,7 +4383,7 @@
         <v>127</v>
       </c>
       <c r="I55" s="4">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -4400,13 +4400,13 @@
         <v>0.5</v>
       </c>
       <c r="D56" s="2">
-        <v>2.04</v>
+        <v>3</v>
       </c>
       <c r="E56" s="2">
         <v>1.1</v>
       </c>
       <c r="F56" s="2">
-        <v>204</v>
+        <v>600</v>
       </c>
       <c r="G56" s="3" t="s">
         <v>26</v>
@@ -4415,7 +4415,7 @@
         <v>127</v>
       </c>
       <c r="I56" s="4">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
@@ -4432,13 +4432,13 @@
         <v>0.5</v>
       </c>
       <c r="D57" s="2">
-        <v>2.06</v>
+        <v>3</v>
       </c>
       <c r="E57" s="2">
         <v>1.1</v>
       </c>
       <c r="F57" s="2">
-        <v>206</v>
+        <v>600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>26</v>
@@ -4447,7 +4447,7 @@
         <v>127</v>
       </c>
       <c r="I57" s="4">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="J57" s="2">
         <v>100</v>
@@ -4464,13 +4464,13 @@
         <v>0.5</v>
       </c>
       <c r="D58" s="2">
-        <v>2.08</v>
+        <v>2</v>
       </c>
       <c r="E58" s="2">
         <v>1.1</v>
       </c>
       <c r="F58" s="2">
-        <v>208</v>
+        <v>600</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>35</v>
@@ -4479,7 +4479,7 @@
         <v>127</v>
       </c>
       <c r="I58" s="4">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="J58" s="2">
         <v>100</v>
@@ -4502,7 +4502,7 @@
         <v>1.1</v>
       </c>
       <c r="F59" s="2">
-        <v>210</v>
+        <v>600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>26</v>
@@ -4511,7 +4511,7 @@
         <v>133</v>
       </c>
       <c r="I59" s="4">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="J59" s="2">
         <v>100</v>
@@ -4534,7 +4534,7 @@
         <v>1.1</v>
       </c>
       <c r="F60" s="2">
-        <v>212</v>
+        <v>600</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>26</v>
@@ -4543,7 +4543,7 @@
         <v>133</v>
       </c>
       <c r="I60" s="4">
-        <v>29</v>
+        <v>4</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
@@ -4566,7 +4566,7 @@
         <v>1.1</v>
       </c>
       <c r="F61" s="2">
-        <v>214</v>
+        <v>600</v>
       </c>
       <c r="G61" s="3" t="s">
         <v>26</v>
@@ -4575,7 +4575,7 @@
         <v>133</v>
       </c>
       <c r="I61" s="4">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -4598,7 +4598,7 @@
         <v>1.1</v>
       </c>
       <c r="F62" s="2">
-        <v>216</v>
+        <v>600</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>26</v>
@@ -4607,7 +4607,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="4">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="J62" s="2">
         <v>100</v>
@@ -4630,7 +4630,7 @@
         <v>1.1</v>
       </c>
       <c r="F63" s="2">
-        <v>218</v>
+        <v>600</v>
       </c>
       <c r="G63" s="3" t="s">
         <v>35</v>
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="I63" s="4">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
@@ -4662,7 +4662,7 @@
         <v>1.1</v>
       </c>
       <c r="F64" s="2">
-        <v>220</v>
+        <v>500</v>
       </c>
       <c r="G64" s="3" t="s">
         <v>26</v>
@@ -4671,7 +4671,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="4">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
@@ -4694,7 +4694,7 @@
         <v>1.1</v>
       </c>
       <c r="F65" s="2">
-        <v>222</v>
+        <v>500</v>
       </c>
       <c r="G65" s="3" t="s">
         <v>26</v>
@@ -4703,7 +4703,7 @@
         <v>136</v>
       </c>
       <c r="I65" s="4">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="J65" s="2">
         <v>100</v>
@@ -4726,7 +4726,7 @@
         <v>1.1</v>
       </c>
       <c r="F66" s="2">
-        <v>224</v>
+        <v>500</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>26</v>
@@ -4735,7 +4735,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="4">
-        <v>35</v>
+        <v>4</v>
       </c>
       <c r="J66" s="2">
         <v>100</v>
@@ -4758,7 +4758,7 @@
         <v>1.1</v>
       </c>
       <c r="F67" s="2">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="G67" s="3" t="s">
         <v>26</v>
@@ -4767,7 +4767,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="4">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="J67" s="2">
         <v>100</v>
@@ -4790,7 +4790,7 @@
         <v>1.1</v>
       </c>
       <c r="F68" s="2">
-        <v>228</v>
+        <v>500</v>
       </c>
       <c r="G68" s="3" t="s">
         <v>35</v>
@@ -4799,7 +4799,7 @@
         <v>141</v>
       </c>
       <c r="I68" s="4">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="J68" s="2">
         <v>100</v>
@@ -4822,7 +4822,7 @@
         <v>1.1</v>
       </c>
       <c r="F69" s="2">
-        <v>230</v>
+        <v>500</v>
       </c>
       <c r="G69" s="3" t="s">
         <v>26</v>
@@ -4831,7 +4831,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="4">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="J69" s="2">
         <v>260</v>
@@ -4854,7 +4854,7 @@
         <v>1.1</v>
       </c>
       <c r="F70" s="2">
-        <v>232</v>
+        <v>500</v>
       </c>
       <c r="G70" s="3" t="s">
         <v>26</v>
@@ -4863,7 +4863,7 @@
         <v>144</v>
       </c>
       <c r="I70" s="4">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="J70" s="2">
         <v>270</v>
@@ -4886,7 +4886,7 @@
         <v>1.1</v>
       </c>
       <c r="F71" s="2">
-        <v>234</v>
+        <v>300</v>
       </c>
       <c r="G71" s="3" t="s">
         <v>26</v>
@@ -4895,7 +4895,7 @@
         <v>146</v>
       </c>
       <c r="I71" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J71" s="2">
         <v>280</v>
@@ -4918,7 +4918,7 @@
         <v>1.1</v>
       </c>
       <c r="F72" s="2">
-        <v>236</v>
+        <v>300</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>26</v>
@@ -4927,7 +4927,7 @@
         <v>148</v>
       </c>
       <c r="I72" s="4">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="J72" s="2">
         <v>290</v>
@@ -4950,7 +4950,7 @@
         <v>1.1</v>
       </c>
       <c r="F73" s="2">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="G73" s="3" t="s">
         <v>35</v>
@@ -4959,7 +4959,7 @@
         <v>150</v>
       </c>
       <c r="I73" s="4">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="J73" s="2">
         <v>300</v>
@@ -4982,7 +4982,7 @@
         <v>1.2</v>
       </c>
       <c r="F74" s="2">
-        <v>240</v>
+        <v>300</v>
       </c>
       <c r="G74" s="3" t="s">
         <v>26</v>
@@ -4991,7 +4991,7 @@
         <v>151</v>
       </c>
       <c r="I74" s="4">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="J74" s="2">
         <v>310</v>
@@ -5014,7 +5014,7 @@
         <v>1.2</v>
       </c>
       <c r="F75" s="2">
-        <v>242</v>
+        <v>300</v>
       </c>
       <c r="G75" s="3" t="s">
         <v>26</v>
@@ -5023,7 +5023,7 @@
         <v>152</v>
       </c>
       <c r="I75" s="4">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="J75" s="2">
         <v>320</v>
@@ -5046,7 +5046,7 @@
         <v>1.2</v>
       </c>
       <c r="F76" s="2">
-        <v>244</v>
+        <v>300</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>26</v>
@@ -5055,7 +5055,7 @@
         <v>153</v>
       </c>
       <c r="I76" s="4">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="J76" s="2">
         <v>330</v>
@@ -5087,7 +5087,7 @@
         <v>154</v>
       </c>
       <c r="I77" s="4">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="J77" s="2">
         <v>340</v>
@@ -5119,7 +5119,7 @@
         <v>155</v>
       </c>
       <c r="I78" s="4">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="J78" s="2">
         <v>350</v>
@@ -5151,7 +5151,7 @@
         <v>156</v>
       </c>
       <c r="I79" s="4">
-        <v>48</v>
+        <v>5</v>
       </c>
       <c r="J79" s="2">
         <v>360</v>
@@ -5183,7 +5183,7 @@
         <v>157</v>
       </c>
       <c r="I80" s="4">
-        <v>49</v>
+        <v>5</v>
       </c>
       <c r="J80" s="2">
         <v>370</v>
@@ -5215,7 +5215,7 @@
         <v>158</v>
       </c>
       <c r="I81" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J81" s="2">
         <v>380</v>
@@ -5247,7 +5247,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J82" s="2">
         <v>390</v>
@@ -5279,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="I83" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J83" s="2">
         <v>420</v>
@@ -5311,7 +5311,7 @@
         <v>161</v>
       </c>
       <c r="I84" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J84" s="2">
         <v>450</v>
@@ -5343,7 +5343,7 @@
         <v>162</v>
       </c>
       <c r="I85" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J85" s="2">
         <v>480</v>
@@ -5375,7 +5375,7 @@
         <v>163</v>
       </c>
       <c r="I86" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J86" s="2">
         <v>510</v>
@@ -5407,7 +5407,7 @@
         <v>164</v>
       </c>
       <c r="I87" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J87" s="2">
         <v>540</v>
@@ -5439,7 +5439,7 @@
         <v>165</v>
       </c>
       <c r="I88" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J88" s="2">
         <v>570</v>
@@ -5471,7 +5471,7 @@
         <v>166</v>
       </c>
       <c r="I89" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J89" s="2">
         <v>600</v>
@@ -5503,7 +5503,7 @@
         <v>167</v>
       </c>
       <c r="I90" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J90" s="2">
         <v>630</v>
@@ -5535,7 +5535,7 @@
         <v>168</v>
       </c>
       <c r="I91" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J91" s="2">
         <v>660</v>
@@ -5567,7 +5567,7 @@
         <v>169</v>
       </c>
       <c r="I92" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J92" s="2">
         <v>690</v>
@@ -5599,7 +5599,7 @@
         <v>170</v>
       </c>
       <c r="I93" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J93" s="2">
         <v>720</v>
@@ -5631,7 +5631,7 @@
         <v>172</v>
       </c>
       <c r="I94" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J94" s="2">
         <v>750</v>
@@ -5663,7 +5663,7 @@
         <v>173</v>
       </c>
       <c r="I95" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J95" s="2">
         <v>780</v>
@@ -5695,7 +5695,7 @@
         <v>174</v>
       </c>
       <c r="I96" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J96" s="2">
         <v>810</v>
@@ -5727,7 +5727,7 @@
         <v>175</v>
       </c>
       <c r="I97" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J97" s="2">
         <v>840</v>
@@ -5759,7 +5759,7 @@
         <v>176</v>
       </c>
       <c r="I98" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J98" s="2">
         <v>870</v>
@@ -5791,7 +5791,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J99" s="2">
         <v>900</v>
@@ -5823,7 +5823,7 @@
         <v>178</v>
       </c>
       <c r="I100" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J100" s="2">
         <v>1000</v>
@@ -5855,7 +5855,7 @@
         <v>179</v>
       </c>
       <c r="I101" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J101" s="2">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>180</v>
       </c>
       <c r="I102" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J102" s="2">
         <v>1000</v>
@@ -5919,7 +5919,7 @@
         <v>181</v>
       </c>
       <c r="I103" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J103" s="2">
         <v>1000</v>
@@ -5951,7 +5951,7 @@
         <v>182</v>
       </c>
       <c r="I104" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J104" s="2">
         <v>1000</v>
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="I105" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J105" s="2">
         <v>1000</v>
@@ -6015,7 +6015,7 @@
         <v>182</v>
       </c>
       <c r="I106" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J106" s="2">
         <v>1000</v>
@@ -6047,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="I107" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J107" s="2">
         <v>1000</v>
@@ -6079,7 +6079,7 @@
         <v>182</v>
       </c>
       <c r="I108" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J108" s="2">
         <v>1000</v>
@@ -6111,7 +6111,7 @@
         <v>182</v>
       </c>
       <c r="I109" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J109" s="2">
         <v>1000</v>
@@ -6143,7 +6143,7 @@
         <v>182</v>
       </c>
       <c r="I110" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J110" s="2">
         <v>1000</v>
@@ -6175,7 +6175,7 @@
         <v>182</v>
       </c>
       <c r="I111" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J111" s="2">
         <v>1050</v>
@@ -6207,7 +6207,7 @@
         <v>182</v>
       </c>
       <c r="I112" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J112" s="2">
         <v>1100</v>
@@ -6239,7 +6239,7 @@
         <v>182</v>
       </c>
       <c r="I113" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J113" s="2">
         <v>1150</v>
@@ -6271,7 +6271,7 @@
         <v>184</v>
       </c>
       <c r="I114" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J114" s="2">
         <v>1200</v>
@@ -6303,7 +6303,7 @@
         <v>185</v>
       </c>
       <c r="I115" s="4">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="J115" s="2">
         <v>1250</v>
@@ -6335,7 +6335,7 @@
         <v>186</v>
       </c>
       <c r="I116" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J116" s="2">
         <v>1300</v>
@@ -6367,7 +6367,7 @@
         <v>187</v>
       </c>
       <c r="I117" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J117" s="2">
         <v>1350</v>
@@ -6399,7 +6399,7 @@
         <v>188</v>
       </c>
       <c r="I118" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J118" s="2">
         <v>1400</v>
@@ -6431,7 +6431,7 @@
         <v>189</v>
       </c>
       <c r="I119" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J119" s="2">
         <v>1450</v>
@@ -6463,7 +6463,7 @@
         <v>190</v>
       </c>
       <c r="I120" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J120" s="2">
         <v>1500</v>
@@ -6495,7 +6495,7 @@
         <v>191</v>
       </c>
       <c r="I121" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J121" s="2">
         <v>1600</v>
@@ -6527,7 +6527,7 @@
         <v>192</v>
       </c>
       <c r="I122" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J122" s="2">
         <v>1700</v>
@@ -6560,7 +6560,7 @@
         <v>193</v>
       </c>
       <c r="I123" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J123" s="2">
         <v>1800</v>
@@ -6593,7 +6593,7 @@
         <v>194</v>
       </c>
       <c r="I124" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J124" s="2">
         <v>1900</v>
@@ -6626,7 +6626,7 @@
         <v>195</v>
       </c>
       <c r="I125" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J125" s="2">
         <v>2000</v>
@@ -6659,7 +6659,7 @@
         <v>196</v>
       </c>
       <c r="I126" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J126" s="2">
         <v>2100</v>
@@ -6692,7 +6692,7 @@
         <v>197</v>
       </c>
       <c r="I127" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J127" s="2">
         <v>2200</v>
@@ -6725,7 +6725,7 @@
         <v>198</v>
       </c>
       <c r="I128" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J128" s="2">
         <v>2300</v>
@@ -6758,7 +6758,7 @@
         <v>199</v>
       </c>
       <c r="I129" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J129" s="2">
         <v>2400</v>
@@ -6791,7 +6791,7 @@
         <v>200</v>
       </c>
       <c r="I130" s="4">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="J130" s="2">
         <v>2500</v>
@@ -6824,7 +6824,7 @@
         <v>201</v>
       </c>
       <c r="I131" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J131" s="2">
         <v>2600</v>
@@ -6857,7 +6857,7 @@
         <v>202</v>
       </c>
       <c r="I132" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J132" s="2">
         <v>2700</v>
@@ -6890,7 +6890,7 @@
         <v>203</v>
       </c>
       <c r="I133" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J133" s="2">
         <v>2800</v>
@@ -6923,7 +6923,7 @@
         <v>182</v>
       </c>
       <c r="I134" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J134" s="2">
         <v>2900</v>
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="I135" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J135" s="2">
         <v>3000</v>
@@ -6989,7 +6989,7 @@
         <v>185</v>
       </c>
       <c r="I136" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J136" s="2">
         <v>3100</v>
@@ -7022,7 +7022,7 @@
         <v>186</v>
       </c>
       <c r="I137" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J137" s="2">
         <v>3200</v>
@@ -7055,7 +7055,7 @@
         <v>187</v>
       </c>
       <c r="I138" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J138" s="2">
         <v>3300</v>
@@ -7088,7 +7088,7 @@
         <v>188</v>
       </c>
       <c r="I139" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J139" s="2">
         <v>3400</v>
@@ -7121,7 +7121,7 @@
         <v>189</v>
       </c>
       <c r="I140" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J140" s="2">
         <v>3500</v>
@@ -7154,7 +7154,7 @@
         <v>190</v>
       </c>
       <c r="I141" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J141" s="2">
         <v>3700</v>
@@ -7187,7 +7187,7 @@
         <v>191</v>
       </c>
       <c r="I142" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J142" s="2">
         <v>3900</v>
@@ -7220,7 +7220,7 @@
         <v>192</v>
       </c>
       <c r="I143" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J143" s="2">
         <v>4100</v>
@@ -7253,7 +7253,7 @@
         <v>193</v>
       </c>
       <c r="I144" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J144" s="2">
         <v>4300</v>
@@ -7286,7 +7286,7 @@
         <v>194</v>
       </c>
       <c r="I145" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J145" s="2">
         <v>4500</v>
@@ -7319,7 +7319,7 @@
         <v>195</v>
       </c>
       <c r="I146" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J146" s="2">
         <v>4700</v>
@@ -7352,7 +7352,7 @@
         <v>196</v>
       </c>
       <c r="I147" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J147" s="2">
         <v>4900</v>
@@ -7385,7 +7385,7 @@
         <v>197</v>
       </c>
       <c r="I148" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J148" s="2">
         <v>5100</v>
@@ -7418,7 +7418,7 @@
         <v>198</v>
       </c>
       <c r="I149" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J149" s="2">
         <v>5300</v>
@@ -7451,7 +7451,7 @@
         <v>199</v>
       </c>
       <c r="I150" s="4">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="J150" s="2">
         <v>5500</v>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -1631,8 +1631,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1658,23 +1658,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1682,21 +1673,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1710,18 +1694,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1734,21 +1718,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,7 +1726,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1771,15 +1741,7 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1794,8 +1756,46 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1810,49 +1810,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,13 +1834,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,49 +1888,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1948,7 +1930,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1960,19 +1948,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1984,13 +1990,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,11 +2004,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2038,45 +2059,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -2087,6 +2069,24 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,10 +2107,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,133 +2119,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2608,10 +2608,10 @@
   <sheetPr/>
   <dimension ref="A1:K504"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D109" sqref="D109"/>
+      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -3167,7 +3167,7 @@
         <v>53</v>
       </c>
       <c r="I17" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J17" s="2">
         <v>18</v>
@@ -3199,7 +3199,7 @@
         <v>55</v>
       </c>
       <c r="I18" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J18" s="2">
         <v>20</v>
@@ -3231,7 +3231,7 @@
         <v>57</v>
       </c>
       <c r="I19" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J19" s="2">
         <v>22</v>
@@ -3263,7 +3263,7 @@
         <v>59</v>
       </c>
       <c r="I20" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J20" s="2">
         <v>24</v>
@@ -3295,7 +3295,7 @@
         <v>61</v>
       </c>
       <c r="I21" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J21" s="2">
         <v>26</v>
@@ -3327,7 +3327,7 @@
         <v>63</v>
       </c>
       <c r="I22" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J22" s="2">
         <v>28</v>
@@ -3359,7 +3359,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J23" s="2">
         <v>30</v>
@@ -3391,7 +3391,7 @@
         <v>67</v>
       </c>
       <c r="I24" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J24" s="2">
         <v>32</v>
@@ -3423,7 +3423,7 @@
         <v>69</v>
       </c>
       <c r="I25" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J25" s="2">
         <v>34</v>
@@ -3455,7 +3455,7 @@
         <v>71</v>
       </c>
       <c r="I26" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J26" s="2">
         <v>36</v>
@@ -3487,7 +3487,7 @@
         <v>73</v>
       </c>
       <c r="I27" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J27" s="2">
         <v>38</v>
@@ -3519,7 +3519,7 @@
         <v>75</v>
       </c>
       <c r="I28" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J28" s="2">
         <v>40</v>
@@ -3551,7 +3551,7 @@
         <v>77</v>
       </c>
       <c r="I29" s="4">
-        <v>1.5</v>
+        <v>1.1</v>
       </c>
       <c r="J29" s="2">
         <v>42</v>
@@ -3583,7 +3583,7 @@
         <v>79</v>
       </c>
       <c r="I30" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J30" s="2">
         <v>44</v>
@@ -3615,7 +3615,7 @@
         <v>81</v>
       </c>
       <c r="I31" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J31" s="2">
         <v>46</v>
@@ -3647,7 +3647,7 @@
         <v>83</v>
       </c>
       <c r="I32" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J32" s="2">
         <v>48</v>
@@ -3679,7 +3679,7 @@
         <v>85</v>
       </c>
       <c r="I33" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J33" s="2">
         <v>50</v>
@@ -3711,7 +3711,7 @@
         <v>87</v>
       </c>
       <c r="I34" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J34" s="2">
         <v>50</v>
@@ -3743,7 +3743,7 @@
         <v>89</v>
       </c>
       <c r="I35" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J35" s="2">
         <v>50</v>
@@ -3775,7 +3775,7 @@
         <v>91</v>
       </c>
       <c r="I36" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J36" s="2">
         <v>50</v>
@@ -3807,7 +3807,7 @@
         <v>93</v>
       </c>
       <c r="I37" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J37" s="2">
         <v>50</v>
@@ -3839,7 +3839,7 @@
         <v>95</v>
       </c>
       <c r="I38" s="4">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="J38" s="2">
         <v>50</v>
@@ -3871,7 +3871,7 @@
         <v>97</v>
       </c>
       <c r="I39" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J39" s="2">
         <v>50</v>
@@ -3903,7 +3903,7 @@
         <v>99</v>
       </c>
       <c r="I40" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J40" s="2">
         <v>50</v>
@@ -3935,7 +3935,7 @@
         <v>101</v>
       </c>
       <c r="I41" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J41" s="2">
         <v>50</v>
@@ -3967,7 +3967,7 @@
         <v>103</v>
       </c>
       <c r="I42" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J42" s="2">
         <v>50</v>
@@ -3999,7 +3999,7 @@
         <v>105</v>
       </c>
       <c r="I43" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J43" s="2">
         <v>50</v>
@@ -4031,7 +4031,7 @@
         <v>107</v>
       </c>
       <c r="I44" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J44" s="2">
         <v>50</v>
@@ -4063,7 +4063,7 @@
         <v>109</v>
       </c>
       <c r="I45" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J45" s="2">
         <v>50</v>
@@ -4095,7 +4095,7 @@
         <v>111</v>
       </c>
       <c r="I46" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J46" s="2">
         <v>50</v>
@@ -4127,7 +4127,7 @@
         <v>113</v>
       </c>
       <c r="I47" s="4">
-        <v>2</v>
+        <v>1.1</v>
       </c>
       <c r="J47" s="2">
         <v>50</v>
@@ -4159,7 +4159,7 @@
         <v>115</v>
       </c>
       <c r="I48" s="4">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="J48" s="2">
         <v>50</v>
@@ -4191,7 +4191,7 @@
         <v>117</v>
       </c>
       <c r="I49" s="4">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="J49" s="2">
         <v>50</v>
@@ -4223,7 +4223,7 @@
         <v>119</v>
       </c>
       <c r="I50" s="4">
-        <v>3</v>
+        <v>1.1</v>
       </c>
       <c r="J50" s="2">
         <v>50</v>
@@ -4255,7 +4255,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J51" s="2">
         <v>50</v>
@@ -4287,7 +4287,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J52" s="2">
         <v>50</v>
@@ -4319,7 +4319,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J53" s="2">
         <v>50</v>
@@ -4351,7 +4351,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J54" s="2">
         <v>100</v>
@@ -4383,7 +4383,7 @@
         <v>127</v>
       </c>
       <c r="I55" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -4415,7 +4415,7 @@
         <v>127</v>
       </c>
       <c r="I56" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
@@ -4447,7 +4447,7 @@
         <v>127</v>
       </c>
       <c r="I57" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J57" s="2">
         <v>100</v>
@@ -4479,7 +4479,7 @@
         <v>127</v>
       </c>
       <c r="I58" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="J58" s="2">
         <v>100</v>
@@ -4511,7 +4511,7 @@
         <v>133</v>
       </c>
       <c r="I59" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J59" s="2">
         <v>100</v>
@@ -4543,7 +4543,7 @@
         <v>133</v>
       </c>
       <c r="I60" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
@@ -4575,7 +4575,7 @@
         <v>133</v>
       </c>
       <c r="I61" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -4607,7 +4607,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J62" s="2">
         <v>100</v>
@@ -4639,7 +4639,7 @@
         <v>133</v>
       </c>
       <c r="I63" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
@@ -4671,7 +4671,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
@@ -4703,7 +4703,7 @@
         <v>136</v>
       </c>
       <c r="I65" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J65" s="2">
         <v>100</v>
@@ -4735,7 +4735,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J66" s="2">
         <v>100</v>
@@ -4767,7 +4767,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J67" s="2">
         <v>100</v>
@@ -4799,7 +4799,7 @@
         <v>141</v>
       </c>
       <c r="I68" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J68" s="2">
         <v>100</v>
@@ -4831,7 +4831,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J69" s="2">
         <v>260</v>
@@ -4863,7 +4863,7 @@
         <v>144</v>
       </c>
       <c r="I70" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="J70" s="2">
         <v>270</v>
@@ -5215,7 +5215,7 @@
         <v>158</v>
       </c>
       <c r="I81" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J81" s="2">
         <v>380</v>
@@ -5247,7 +5247,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J82" s="2">
         <v>390</v>
@@ -5279,7 +5279,7 @@
         <v>160</v>
       </c>
       <c r="I83" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J83" s="2">
         <v>420</v>
@@ -5311,7 +5311,7 @@
         <v>161</v>
       </c>
       <c r="I84" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J84" s="2">
         <v>450</v>
@@ -5343,7 +5343,7 @@
         <v>162</v>
       </c>
       <c r="I85" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J85" s="2">
         <v>480</v>
@@ -5375,7 +5375,7 @@
         <v>163</v>
       </c>
       <c r="I86" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J86" s="2">
         <v>510</v>
@@ -5407,7 +5407,7 @@
         <v>164</v>
       </c>
       <c r="I87" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J87" s="2">
         <v>540</v>
@@ -5439,7 +5439,7 @@
         <v>165</v>
       </c>
       <c r="I88" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J88" s="2">
         <v>570</v>
@@ -5471,7 +5471,7 @@
         <v>166</v>
       </c>
       <c r="I89" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J89" s="2">
         <v>600</v>
@@ -5503,7 +5503,7 @@
         <v>167</v>
       </c>
       <c r="I90" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J90" s="2">
         <v>630</v>
@@ -5535,7 +5535,7 @@
         <v>168</v>
       </c>
       <c r="I91" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J91" s="2">
         <v>660</v>
@@ -5567,7 +5567,7 @@
         <v>169</v>
       </c>
       <c r="I92" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J92" s="2">
         <v>690</v>
@@ -5599,7 +5599,7 @@
         <v>170</v>
       </c>
       <c r="I93" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J93" s="2">
         <v>720</v>
@@ -5631,7 +5631,7 @@
         <v>172</v>
       </c>
       <c r="I94" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J94" s="2">
         <v>750</v>
@@ -5663,7 +5663,7 @@
         <v>173</v>
       </c>
       <c r="I95" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J95" s="2">
         <v>780</v>
@@ -5695,7 +5695,7 @@
         <v>174</v>
       </c>
       <c r="I96" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J96" s="2">
         <v>810</v>
@@ -5727,7 +5727,7 @@
         <v>175</v>
       </c>
       <c r="I97" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J97" s="2">
         <v>840</v>
@@ -5759,7 +5759,7 @@
         <v>176</v>
       </c>
       <c r="I98" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J98" s="2">
         <v>870</v>
@@ -5791,7 +5791,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J99" s="2">
         <v>900</v>
@@ -5823,7 +5823,7 @@
         <v>178</v>
       </c>
       <c r="I100" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J100" s="2">
         <v>1000</v>
@@ -5855,7 +5855,7 @@
         <v>179</v>
       </c>
       <c r="I101" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J101" s="2">
         <v>1000</v>
@@ -5887,7 +5887,7 @@
         <v>180</v>
       </c>
       <c r="I102" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J102" s="2">
         <v>1000</v>
@@ -5919,7 +5919,7 @@
         <v>181</v>
       </c>
       <c r="I103" s="4">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="J103" s="2">
         <v>1000</v>
@@ -5951,7 +5951,7 @@
         <v>182</v>
       </c>
       <c r="I104" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J104" s="2">
         <v>1000</v>
@@ -5983,7 +5983,7 @@
         <v>182</v>
       </c>
       <c r="I105" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J105" s="2">
         <v>1000</v>
@@ -6015,7 +6015,7 @@
         <v>182</v>
       </c>
       <c r="I106" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J106" s="2">
         <v>1000</v>
@@ -6047,7 +6047,7 @@
         <v>182</v>
       </c>
       <c r="I107" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J107" s="2">
         <v>1000</v>
@@ -6079,7 +6079,7 @@
         <v>182</v>
       </c>
       <c r="I108" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J108" s="2">
         <v>1000</v>
@@ -6111,7 +6111,7 @@
         <v>182</v>
       </c>
       <c r="I109" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J109" s="2">
         <v>1000</v>
@@ -6143,7 +6143,7 @@
         <v>182</v>
       </c>
       <c r="I110" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J110" s="2">
         <v>1000</v>
@@ -6175,7 +6175,7 @@
         <v>182</v>
       </c>
       <c r="I111" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J111" s="2">
         <v>1050</v>
@@ -6207,7 +6207,7 @@
         <v>182</v>
       </c>
       <c r="I112" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J112" s="2">
         <v>1100</v>
@@ -6239,7 +6239,7 @@
         <v>182</v>
       </c>
       <c r="I113" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J113" s="2">
         <v>1150</v>
@@ -6271,7 +6271,7 @@
         <v>184</v>
       </c>
       <c r="I114" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J114" s="2">
         <v>1200</v>
@@ -6303,7 +6303,7 @@
         <v>185</v>
       </c>
       <c r="I115" s="4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="J115" s="2">
         <v>1250</v>
@@ -6335,7 +6335,7 @@
         <v>186</v>
       </c>
       <c r="I116" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J116" s="2">
         <v>1300</v>
@@ -6367,7 +6367,7 @@
         <v>187</v>
       </c>
       <c r="I117" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J117" s="2">
         <v>1350</v>
@@ -6399,7 +6399,7 @@
         <v>188</v>
       </c>
       <c r="I118" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J118" s="2">
         <v>1400</v>
@@ -6431,7 +6431,7 @@
         <v>189</v>
       </c>
       <c r="I119" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J119" s="2">
         <v>1450</v>
@@ -6463,7 +6463,7 @@
         <v>190</v>
       </c>
       <c r="I120" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J120" s="2">
         <v>1500</v>
@@ -6495,7 +6495,7 @@
         <v>191</v>
       </c>
       <c r="I121" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J121" s="2">
         <v>1600</v>
@@ -6527,7 +6527,7 @@
         <v>192</v>
       </c>
       <c r="I122" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J122" s="2">
         <v>1700</v>
@@ -6560,7 +6560,7 @@
         <v>193</v>
       </c>
       <c r="I123" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J123" s="2">
         <v>1800</v>
@@ -6593,7 +6593,7 @@
         <v>194</v>
       </c>
       <c r="I124" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J124" s="2">
         <v>1900</v>
@@ -6626,7 +6626,7 @@
         <v>195</v>
       </c>
       <c r="I125" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J125" s="2">
         <v>2000</v>
@@ -6659,7 +6659,7 @@
         <v>196</v>
       </c>
       <c r="I126" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J126" s="2">
         <v>2100</v>
@@ -6692,7 +6692,7 @@
         <v>197</v>
       </c>
       <c r="I127" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J127" s="2">
         <v>2200</v>
@@ -6725,7 +6725,7 @@
         <v>198</v>
       </c>
       <c r="I128" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J128" s="2">
         <v>2300</v>
@@ -6758,7 +6758,7 @@
         <v>199</v>
       </c>
       <c r="I129" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J129" s="2">
         <v>2400</v>
@@ -6791,7 +6791,7 @@
         <v>200</v>
       </c>
       <c r="I130" s="4">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="J130" s="2">
         <v>2500</v>
@@ -6824,7 +6824,7 @@
         <v>201</v>
       </c>
       <c r="I131" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J131" s="2">
         <v>2600</v>
@@ -6857,7 +6857,7 @@
         <v>202</v>
       </c>
       <c r="I132" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J132" s="2">
         <v>2700</v>
@@ -6890,7 +6890,7 @@
         <v>203</v>
       </c>
       <c r="I133" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J133" s="2">
         <v>2800</v>
@@ -6923,7 +6923,7 @@
         <v>182</v>
       </c>
       <c r="I134" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J134" s="2">
         <v>2900</v>
@@ -6956,7 +6956,7 @@
         <v>184</v>
       </c>
       <c r="I135" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J135" s="2">
         <v>3000</v>
@@ -6989,7 +6989,7 @@
         <v>185</v>
       </c>
       <c r="I136" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J136" s="2">
         <v>3100</v>
@@ -7022,7 +7022,7 @@
         <v>186</v>
       </c>
       <c r="I137" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J137" s="2">
         <v>3200</v>
@@ -7055,7 +7055,7 @@
         <v>187</v>
       </c>
       <c r="I138" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J138" s="2">
         <v>3300</v>
@@ -7088,7 +7088,7 @@
         <v>188</v>
       </c>
       <c r="I139" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J139" s="2">
         <v>3400</v>
@@ -7121,7 +7121,7 @@
         <v>189</v>
       </c>
       <c r="I140" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J140" s="2">
         <v>3500</v>
@@ -7154,7 +7154,7 @@
         <v>190</v>
       </c>
       <c r="I141" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J141" s="2">
         <v>3700</v>
@@ -7187,7 +7187,7 @@
         <v>191</v>
       </c>
       <c r="I142" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J142" s="2">
         <v>3900</v>
@@ -7220,7 +7220,7 @@
         <v>192</v>
       </c>
       <c r="I143" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J143" s="2">
         <v>4100</v>
@@ -7253,7 +7253,7 @@
         <v>193</v>
       </c>
       <c r="I144" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J144" s="2">
         <v>4300</v>
@@ -7286,7 +7286,7 @@
         <v>194</v>
       </c>
       <c r="I145" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J145" s="2">
         <v>4500</v>
@@ -7319,7 +7319,7 @@
         <v>195</v>
       </c>
       <c r="I146" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J146" s="2">
         <v>4700</v>
@@ -7352,7 +7352,7 @@
         <v>196</v>
       </c>
       <c r="I147" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J147" s="2">
         <v>4900</v>
@@ -7385,7 +7385,7 @@
         <v>197</v>
       </c>
       <c r="I148" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J148" s="2">
         <v>5100</v>
@@ -7418,7 +7418,7 @@
         <v>198</v>
       </c>
       <c r="I149" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J149" s="2">
         <v>5300</v>
@@ -7451,7 +7451,7 @@
         <v>199</v>
       </c>
       <c r="I150" s="4">
-        <v>40</v>
+        <v>5</v>
       </c>
       <c r="J150" s="2">
         <v>5500</v>
@@ -7484,7 +7484,7 @@
         <v>200</v>
       </c>
       <c r="I151" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J151" s="2">
         <v>5700</v>
@@ -7517,7 +7517,7 @@
         <v>201</v>
       </c>
       <c r="I152" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J152" s="2">
         <v>5900</v>
@@ -7550,7 +7550,7 @@
         <v>202</v>
       </c>
       <c r="I153" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J153" s="2">
         <v>6100</v>
@@ -7583,7 +7583,7 @@
         <v>204</v>
       </c>
       <c r="I154" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J154" s="2">
         <v>6300</v>
@@ -7616,7 +7616,7 @@
         <v>204</v>
       </c>
       <c r="I155" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J155" s="2">
         <v>6500</v>
@@ -7649,7 +7649,7 @@
         <v>204</v>
       </c>
       <c r="I156" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J156" s="2">
         <v>6700</v>
@@ -7682,7 +7682,7 @@
         <v>204</v>
       </c>
       <c r="I157" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J157" s="2">
         <v>6900</v>
@@ -7715,7 +7715,7 @@
         <v>204</v>
       </c>
       <c r="I158" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J158" s="2">
         <v>7100</v>
@@ -7748,7 +7748,7 @@
         <v>204</v>
       </c>
       <c r="I159" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J159" s="2">
         <v>7300</v>
@@ -7781,7 +7781,7 @@
         <v>204</v>
       </c>
       <c r="I160" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J160" s="2">
         <v>7500</v>
@@ -7814,7 +7814,7 @@
         <v>204</v>
       </c>
       <c r="I161" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J161" s="2">
         <v>7700</v>
@@ -7847,7 +7847,7 @@
         <v>204</v>
       </c>
       <c r="I162" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J162" s="2">
         <v>7900</v>
@@ -7880,7 +7880,7 @@
         <v>204</v>
       </c>
       <c r="I163" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J163" s="2">
         <v>8100</v>
@@ -7913,7 +7913,7 @@
         <v>205</v>
       </c>
       <c r="I164" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J164" s="2">
         <v>8300</v>
@@ -7946,7 +7946,7 @@
         <v>206</v>
       </c>
       <c r="I165" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J165" s="2">
         <v>8500</v>
@@ -7979,7 +7979,7 @@
         <v>207</v>
       </c>
       <c r="I166" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J166" s="2">
         <v>8700</v>
@@ -8012,7 +8012,7 @@
         <v>208</v>
       </c>
       <c r="I167" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J167" s="2">
         <v>8900</v>
@@ -8045,7 +8045,7 @@
         <v>209</v>
       </c>
       <c r="I168" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J168" s="2">
         <v>9100</v>
@@ -8078,7 +8078,7 @@
         <v>210</v>
       </c>
       <c r="I169" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J169" s="2">
         <v>9300</v>
@@ -8111,7 +8111,7 @@
         <v>211</v>
       </c>
       <c r="I170" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J170" s="2">
         <v>9500</v>
@@ -8144,7 +8144,7 @@
         <v>212</v>
       </c>
       <c r="I171" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J171" s="2">
         <v>9700</v>
@@ -8177,7 +8177,7 @@
         <v>213</v>
       </c>
       <c r="I172" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J172" s="2">
         <v>9900</v>
@@ -8210,7 +8210,7 @@
         <v>214</v>
       </c>
       <c r="I173" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J173" s="2">
         <v>10000</v>
@@ -8243,7 +8243,7 @@
         <v>215</v>
       </c>
       <c r="I174" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J174" s="2">
         <v>11000</v>
@@ -8276,7 +8276,7 @@
         <v>216</v>
       </c>
       <c r="I175" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J175" s="2">
         <v>12000</v>
@@ -8309,7 +8309,7 @@
         <v>217</v>
       </c>
       <c r="I176" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J176" s="2">
         <v>13000</v>
@@ -8342,7 +8342,7 @@
         <v>218</v>
       </c>
       <c r="I177" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J177" s="2">
         <v>14000</v>
@@ -8375,7 +8375,7 @@
         <v>219</v>
       </c>
       <c r="I178" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J178" s="2">
         <v>15000</v>
@@ -8408,7 +8408,7 @@
         <v>220</v>
       </c>
       <c r="I179" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J179" s="2">
         <v>16000</v>
@@ -8441,7 +8441,7 @@
         <v>221</v>
       </c>
       <c r="I180" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J180" s="2">
         <v>17000</v>
@@ -8474,7 +8474,7 @@
         <v>222</v>
       </c>
       <c r="I181" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J181" s="2">
         <v>18000</v>
@@ -8507,7 +8507,7 @@
         <v>223</v>
       </c>
       <c r="I182" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J182" s="2">
         <v>19000</v>
@@ -8540,7 +8540,7 @@
         <v>224</v>
       </c>
       <c r="I183" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J183" s="2">
         <v>20000</v>
@@ -8573,7 +8573,7 @@
         <v>225</v>
       </c>
       <c r="I184" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J184" s="2">
         <v>21000</v>
@@ -8606,7 +8606,7 @@
         <v>226</v>
       </c>
       <c r="I185" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J185" s="2">
         <v>22000</v>
@@ -8639,7 +8639,7 @@
         <v>227</v>
       </c>
       <c r="I186" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J186" s="2">
         <v>23000</v>
@@ -8672,7 +8672,7 @@
         <v>228</v>
       </c>
       <c r="I187" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J187" s="2">
         <v>24000</v>
@@ -8705,7 +8705,7 @@
         <v>229</v>
       </c>
       <c r="I188" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J188" s="2">
         <v>25000</v>
@@ -8738,7 +8738,7 @@
         <v>230</v>
       </c>
       <c r="I189" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J189" s="2">
         <v>26000</v>
@@ -8771,7 +8771,7 @@
         <v>231</v>
       </c>
       <c r="I190" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J190" s="2">
         <v>27000</v>
@@ -8804,7 +8804,7 @@
         <v>232</v>
       </c>
       <c r="I191" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J191" s="2">
         <v>28000</v>
@@ -8837,7 +8837,7 @@
         <v>233</v>
       </c>
       <c r="I192" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J192" s="2">
         <v>29000</v>
@@ -8870,7 +8870,7 @@
         <v>234</v>
       </c>
       <c r="I193" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J193" s="2">
         <v>30000</v>
@@ -8903,7 +8903,7 @@
         <v>235</v>
       </c>
       <c r="I194" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J194" s="2">
         <v>31000</v>
@@ -8936,7 +8936,7 @@
         <v>236</v>
       </c>
       <c r="I195" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J195" s="2">
         <v>32000</v>
@@ -8969,7 +8969,7 @@
         <v>237</v>
       </c>
       <c r="I196" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J196" s="2">
         <v>33000</v>
@@ -9002,7 +9002,7 @@
         <v>238</v>
       </c>
       <c r="I197" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J197" s="2">
         <v>34000</v>
@@ -9035,7 +9035,7 @@
         <v>239</v>
       </c>
       <c r="I198" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J198" s="2">
         <v>35000</v>
@@ -9068,7 +9068,7 @@
         <v>240</v>
       </c>
       <c r="I199" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J199" s="2">
         <v>36000</v>
@@ -9101,7 +9101,7 @@
         <v>241</v>
       </c>
       <c r="I200" s="4">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="J200" s="2">
         <v>37000</v>
@@ -9134,7 +9134,7 @@
         <v>242</v>
       </c>
       <c r="I201" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J201" s="2">
         <v>38000</v>
@@ -9167,7 +9167,7 @@
         <v>243</v>
       </c>
       <c r="I202" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J202" s="2">
         <v>39000</v>
@@ -9200,7 +9200,7 @@
         <v>244</v>
       </c>
       <c r="I203" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J203" s="2">
         <v>40000</v>
@@ -9233,7 +9233,7 @@
         <v>245</v>
       </c>
       <c r="I204" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J204" s="2">
         <v>41000</v>
@@ -9266,7 +9266,7 @@
         <v>245</v>
       </c>
       <c r="I205" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J205" s="2">
         <v>42000</v>
@@ -9299,7 +9299,7 @@
         <v>245</v>
       </c>
       <c r="I206" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J206" s="2">
         <v>43000</v>
@@ -9332,7 +9332,7 @@
         <v>245</v>
       </c>
       <c r="I207" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J207" s="2">
         <v>44000</v>
@@ -9365,7 +9365,7 @@
         <v>245</v>
       </c>
       <c r="I208" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J208" s="2">
         <v>45000</v>
@@ -9398,7 +9398,7 @@
         <v>245</v>
       </c>
       <c r="I209" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J209" s="2">
         <v>46000</v>
@@ -9431,7 +9431,7 @@
         <v>245</v>
       </c>
       <c r="I210" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J210" s="2">
         <v>47000</v>
@@ -9464,7 +9464,7 @@
         <v>245</v>
       </c>
       <c r="I211" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J211" s="2">
         <v>48000</v>
@@ -9497,7 +9497,7 @@
         <v>245</v>
       </c>
       <c r="I212" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J212" s="2">
         <v>49000</v>
@@ -9530,7 +9530,7 @@
         <v>245</v>
       </c>
       <c r="I213" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J213" s="2">
         <v>50000</v>
@@ -9563,7 +9563,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J214" s="2">
         <v>51000</v>
@@ -9596,7 +9596,7 @@
         <v>247</v>
       </c>
       <c r="I215" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J215" s="2">
         <v>52000</v>
@@ -9629,7 +9629,7 @@
         <v>248</v>
       </c>
       <c r="I216" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J216" s="2">
         <v>53000</v>
@@ -9662,7 +9662,7 @@
         <v>249</v>
       </c>
       <c r="I217" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J217" s="2">
         <v>54000</v>
@@ -9695,7 +9695,7 @@
         <v>250</v>
       </c>
       <c r="I218" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J218" s="2">
         <v>55000</v>
@@ -9728,7 +9728,7 @@
         <v>251</v>
       </c>
       <c r="I219" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J219" s="2">
         <v>56000</v>
@@ -9761,7 +9761,7 @@
         <v>252</v>
       </c>
       <c r="I220" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J220" s="2">
         <v>57000</v>
@@ -9794,7 +9794,7 @@
         <v>253</v>
       </c>
       <c r="I221" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J221" s="2">
         <v>58000</v>
@@ -9827,7 +9827,7 @@
         <v>254</v>
       </c>
       <c r="I222" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J222" s="2">
         <v>59000</v>
@@ -9860,7 +9860,7 @@
         <v>255</v>
       </c>
       <c r="I223" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J223" s="2">
         <v>60000</v>
@@ -9893,7 +9893,7 @@
         <v>256</v>
       </c>
       <c r="I224" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J224" s="2">
         <v>61000</v>
@@ -9926,7 +9926,7 @@
         <v>257</v>
       </c>
       <c r="I225" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J225" s="2">
         <v>62000</v>
@@ -9959,7 +9959,7 @@
         <v>258</v>
       </c>
       <c r="I226" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J226" s="2">
         <v>63000</v>
@@ -9992,7 +9992,7 @@
         <v>259</v>
       </c>
       <c r="I227" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J227" s="2">
         <v>64000</v>
@@ -10025,7 +10025,7 @@
         <v>260</v>
       </c>
       <c r="I228" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J228" s="2">
         <v>65000</v>
@@ -10058,7 +10058,7 @@
         <v>261</v>
       </c>
       <c r="I229" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J229" s="2">
         <v>66000</v>
@@ -10091,7 +10091,7 @@
         <v>262</v>
       </c>
       <c r="I230" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J230" s="2">
         <v>67000</v>
@@ -10124,7 +10124,7 @@
         <v>263</v>
       </c>
       <c r="I231" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J231" s="2">
         <v>68000</v>
@@ -10157,7 +10157,7 @@
         <v>264</v>
       </c>
       <c r="I232" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J232" s="2">
         <v>69000</v>
@@ -10190,7 +10190,7 @@
         <v>265</v>
       </c>
       <c r="I233" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J233" s="2">
         <v>70000</v>
@@ -10223,7 +10223,7 @@
         <v>266</v>
       </c>
       <c r="I234" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J234" s="2">
         <v>71000</v>
@@ -10256,7 +10256,7 @@
         <v>267</v>
       </c>
       <c r="I235" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J235" s="2">
         <v>72000</v>
@@ -10289,7 +10289,7 @@
         <v>268</v>
       </c>
       <c r="I236" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J236" s="2">
         <v>73000</v>
@@ -10322,7 +10322,7 @@
         <v>269</v>
       </c>
       <c r="I237" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J237" s="2">
         <v>74000</v>
@@ -10355,7 +10355,7 @@
         <v>270</v>
       </c>
       <c r="I238" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J238" s="2">
         <v>75000</v>
@@ -10388,7 +10388,7 @@
         <v>271</v>
       </c>
       <c r="I239" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J239" s="2">
         <v>76000</v>
@@ -10421,7 +10421,7 @@
         <v>272</v>
       </c>
       <c r="I240" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J240" s="2">
         <v>77000</v>
@@ -10454,7 +10454,7 @@
         <v>273</v>
       </c>
       <c r="I241" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J241" s="2">
         <v>78000</v>
@@ -10487,7 +10487,7 @@
         <v>274</v>
       </c>
       <c r="I242" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J242" s="2">
         <v>79000</v>
@@ -10520,7 +10520,7 @@
         <v>275</v>
       </c>
       <c r="I243" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J243" s="2">
         <v>80000</v>
@@ -10553,7 +10553,7 @@
         <v>276</v>
       </c>
       <c r="I244" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J244" s="2">
         <v>81000</v>
@@ -10586,7 +10586,7 @@
         <v>277</v>
       </c>
       <c r="I245" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J245" s="2">
         <v>82000</v>
@@ -10619,7 +10619,7 @@
         <v>278</v>
       </c>
       <c r="I246" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J246" s="2">
         <v>83000</v>
@@ -10652,7 +10652,7 @@
         <v>279</v>
       </c>
       <c r="I247" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J247" s="2">
         <v>84000</v>
@@ -10685,7 +10685,7 @@
         <v>280</v>
       </c>
       <c r="I248" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J248" s="2">
         <v>85000</v>
@@ -10718,7 +10718,7 @@
         <v>281</v>
       </c>
       <c r="I249" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J249" s="2">
         <v>86000</v>
@@ -10751,7 +10751,7 @@
         <v>282</v>
       </c>
       <c r="I250" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J250" s="2">
         <v>87000</v>
@@ -10784,7 +10784,7 @@
         <v>283</v>
       </c>
       <c r="I251" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J251" s="2">
         <v>88000</v>
@@ -10817,7 +10817,7 @@
         <v>284</v>
       </c>
       <c r="I252" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J252" s="2">
         <v>89000</v>
@@ -10850,7 +10850,7 @@
         <v>285</v>
       </c>
       <c r="I253" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J253" s="2">
         <v>90000</v>
@@ -10883,7 +10883,7 @@
         <v>286</v>
       </c>
       <c r="I254" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J254" s="2">
         <v>91000</v>
@@ -10916,7 +10916,7 @@
         <v>287</v>
       </c>
       <c r="I255" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J255" s="2">
         <v>92000</v>
@@ -10949,7 +10949,7 @@
         <v>288</v>
       </c>
       <c r="I256" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J256" s="2">
         <v>93000</v>
@@ -10982,7 +10982,7 @@
         <v>289</v>
       </c>
       <c r="I257" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J257" s="2">
         <v>94000</v>
@@ -11015,7 +11015,7 @@
         <v>290</v>
       </c>
       <c r="I258" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J258" s="2">
         <v>95000</v>
@@ -11048,7 +11048,7 @@
         <v>291</v>
       </c>
       <c r="I259" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J259" s="2">
         <v>96000</v>
@@ -11081,7 +11081,7 @@
         <v>292</v>
       </c>
       <c r="I260" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J260" s="2">
         <v>97000</v>
@@ -11114,7 +11114,7 @@
         <v>293</v>
       </c>
       <c r="I261" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J261" s="2">
         <v>98000</v>
@@ -11147,7 +11147,7 @@
         <v>294</v>
       </c>
       <c r="I262" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J262" s="2">
         <v>99000</v>
@@ -11180,7 +11180,7 @@
         <v>295</v>
       </c>
       <c r="I263" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J263" s="2">
         <v>100000</v>
@@ -11213,7 +11213,7 @@
         <v>296</v>
       </c>
       <c r="I264" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J264" s="2">
         <v>110000</v>
@@ -11246,7 +11246,7 @@
         <v>297</v>
       </c>
       <c r="I265" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J265" s="2">
         <v>120000</v>
@@ -11279,7 +11279,7 @@
         <v>298</v>
       </c>
       <c r="I266" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J266" s="2">
         <v>130000</v>
@@ -11312,7 +11312,7 @@
         <v>299</v>
       </c>
       <c r="I267" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J267" s="2">
         <v>140000</v>
@@ -11345,7 +11345,7 @@
         <v>300</v>
       </c>
       <c r="I268" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J268" s="2">
         <v>150000</v>
@@ -11378,7 +11378,7 @@
         <v>301</v>
       </c>
       <c r="I269" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J269" s="2">
         <v>160000</v>
@@ -11411,7 +11411,7 @@
         <v>302</v>
       </c>
       <c r="I270" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J270" s="2">
         <v>170000</v>
@@ -11444,7 +11444,7 @@
         <v>303</v>
       </c>
       <c r="I271" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J271" s="2">
         <v>180000</v>
@@ -11477,7 +11477,7 @@
         <v>304</v>
       </c>
       <c r="I272" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J272" s="2">
         <v>190000</v>
@@ -11510,7 +11510,7 @@
         <v>305</v>
       </c>
       <c r="I273" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J273" s="2">
         <v>200000</v>
@@ -11543,7 +11543,7 @@
         <v>306</v>
       </c>
       <c r="I274" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J274" s="2">
         <v>210000</v>
@@ -11576,7 +11576,7 @@
         <v>307</v>
       </c>
       <c r="I275" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J275" s="2">
         <v>220000</v>
@@ -11609,7 +11609,7 @@
         <v>308</v>
       </c>
       <c r="I276" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J276" s="2">
         <v>230000</v>
@@ -11642,7 +11642,7 @@
         <v>309</v>
       </c>
       <c r="I277" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J277" s="2">
         <v>240000</v>
@@ -11675,7 +11675,7 @@
         <v>310</v>
       </c>
       <c r="I278" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J278" s="2">
         <v>250000</v>
@@ -11708,7 +11708,7 @@
         <v>311</v>
       </c>
       <c r="I279" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J279" s="2">
         <v>260000</v>
@@ -11741,7 +11741,7 @@
         <v>312</v>
       </c>
       <c r="I280" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J280" s="2">
         <v>270000</v>
@@ -11774,7 +11774,7 @@
         <v>313</v>
       </c>
       <c r="I281" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J281" s="2">
         <v>280000</v>
@@ -11807,7 +11807,7 @@
         <v>314</v>
       </c>
       <c r="I282" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J282" s="2">
         <v>290000</v>
@@ -11840,7 +11840,7 @@
         <v>315</v>
       </c>
       <c r="I283" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J283" s="2">
         <v>300000</v>
@@ -11873,7 +11873,7 @@
         <v>316</v>
       </c>
       <c r="I284" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J284" s="2">
         <v>310000</v>
@@ -11906,7 +11906,7 @@
         <v>317</v>
       </c>
       <c r="I285" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J285" s="2">
         <v>320000</v>
@@ -11939,7 +11939,7 @@
         <v>318</v>
       </c>
       <c r="I286" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J286" s="2">
         <v>330000</v>
@@ -11972,7 +11972,7 @@
         <v>319</v>
       </c>
       <c r="I287" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J287" s="2">
         <v>340000</v>
@@ -12005,7 +12005,7 @@
         <v>320</v>
       </c>
       <c r="I288" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J288" s="2">
         <v>350000</v>
@@ -12038,7 +12038,7 @@
         <v>321</v>
       </c>
       <c r="I289" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J289" s="2">
         <v>360000</v>
@@ -12071,7 +12071,7 @@
         <v>322</v>
       </c>
       <c r="I290" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J290" s="2">
         <v>370000</v>
@@ -12104,7 +12104,7 @@
         <v>323</v>
       </c>
       <c r="I291" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J291" s="2">
         <v>380000</v>
@@ -12137,7 +12137,7 @@
         <v>324</v>
       </c>
       <c r="I292" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J292" s="2">
         <v>390000</v>
@@ -12170,7 +12170,7 @@
         <v>325</v>
       </c>
       <c r="I293" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J293" s="2">
         <v>400000</v>
@@ -12203,7 +12203,7 @@
         <v>326</v>
       </c>
       <c r="I294" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J294" s="2">
         <v>410000</v>
@@ -12236,7 +12236,7 @@
         <v>327</v>
       </c>
       <c r="I295" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J295" s="2">
         <v>420000</v>
@@ -12269,7 +12269,7 @@
         <v>328</v>
       </c>
       <c r="I296" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J296" s="2">
         <v>430000</v>
@@ -12302,7 +12302,7 @@
         <v>329</v>
       </c>
       <c r="I297" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J297" s="2">
         <v>440000</v>
@@ -12335,7 +12335,7 @@
         <v>330</v>
       </c>
       <c r="I298" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J298" s="2">
         <v>450000</v>
@@ -12368,7 +12368,7 @@
         <v>331</v>
       </c>
       <c r="I299" s="4">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="J299" s="2">
         <v>460000</v>
@@ -12401,7 +12401,7 @@
         <v>332</v>
       </c>
       <c r="I300" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J300" s="2">
         <v>470000</v>
@@ -12434,7 +12434,7 @@
         <v>333</v>
       </c>
       <c r="I301" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J301" s="2">
         <v>480000</v>
@@ -12467,7 +12467,7 @@
         <v>334</v>
       </c>
       <c r="I302" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J302" s="2">
         <v>490000</v>
@@ -12500,7 +12500,7 @@
         <v>335</v>
       </c>
       <c r="I303" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J303" s="2">
         <v>500000</v>
@@ -12533,7 +12533,7 @@
         <v>336</v>
       </c>
       <c r="I304" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J304" s="2">
         <v>510000</v>
@@ -12566,7 +12566,7 @@
         <v>337</v>
       </c>
       <c r="I305" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J305" s="2">
         <v>520000</v>
@@ -12599,7 +12599,7 @@
         <v>338</v>
       </c>
       <c r="I306" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J306" s="2">
         <v>530000</v>
@@ -12632,7 +12632,7 @@
         <v>339</v>
       </c>
       <c r="I307" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J307" s="2">
         <v>540000</v>
@@ -12665,7 +12665,7 @@
         <v>340</v>
       </c>
       <c r="I308" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J308" s="2">
         <v>550000</v>
@@ -12698,7 +12698,7 @@
         <v>341</v>
       </c>
       <c r="I309" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J309" s="2">
         <v>560000</v>
@@ -12731,7 +12731,7 @@
         <v>342</v>
       </c>
       <c r="I310" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J310" s="2">
         <v>570000</v>
@@ -12764,7 +12764,7 @@
         <v>343</v>
       </c>
       <c r="I311" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J311" s="2">
         <v>580000</v>
@@ -12797,7 +12797,7 @@
         <v>344</v>
       </c>
       <c r="I312" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J312" s="2">
         <v>590000</v>
@@ -12830,7 +12830,7 @@
         <v>345</v>
       </c>
       <c r="I313" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J313" s="2">
         <v>600000</v>
@@ -12863,7 +12863,7 @@
         <v>346</v>
       </c>
       <c r="I314" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J314" s="2">
         <v>610000</v>
@@ -12896,7 +12896,7 @@
         <v>347</v>
       </c>
       <c r="I315" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J315" s="2">
         <v>620000</v>
@@ -12929,7 +12929,7 @@
         <v>348</v>
       </c>
       <c r="I316" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J316" s="2">
         <v>630000</v>
@@ -12962,7 +12962,7 @@
         <v>349</v>
       </c>
       <c r="I317" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J317" s="2">
         <v>640000</v>
@@ -12995,7 +12995,7 @@
         <v>350</v>
       </c>
       <c r="I318" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J318" s="2">
         <v>650000</v>
@@ -13028,7 +13028,7 @@
         <v>351</v>
       </c>
       <c r="I319" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J319" s="2">
         <v>660000</v>
@@ -13061,7 +13061,7 @@
         <v>352</v>
       </c>
       <c r="I320" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J320" s="2">
         <v>670000</v>
@@ -13094,7 +13094,7 @@
         <v>353</v>
       </c>
       <c r="I321" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J321" s="2">
         <v>680000</v>
@@ -13127,7 +13127,7 @@
         <v>354</v>
       </c>
       <c r="I322" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J322" s="2">
         <v>690000</v>
@@ -13160,7 +13160,7 @@
         <v>355</v>
       </c>
       <c r="I323" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J323" s="2">
         <v>700000</v>
@@ -13193,7 +13193,7 @@
         <v>356</v>
       </c>
       <c r="I324" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J324" s="2">
         <v>710000</v>
@@ -13226,7 +13226,7 @@
         <v>357</v>
       </c>
       <c r="I325" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J325" s="2">
         <v>720000</v>
@@ -13259,7 +13259,7 @@
         <v>358</v>
       </c>
       <c r="I326" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J326" s="2">
         <v>730000</v>
@@ -13292,7 +13292,7 @@
         <v>359</v>
       </c>
       <c r="I327" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J327" s="2">
         <v>740000</v>
@@ -13325,7 +13325,7 @@
         <v>360</v>
       </c>
       <c r="I328" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J328" s="2">
         <v>750000</v>
@@ -13358,7 +13358,7 @@
         <v>361</v>
       </c>
       <c r="I329" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J329" s="2">
         <v>760000</v>
@@ -13391,7 +13391,7 @@
         <v>362</v>
       </c>
       <c r="I330" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J330" s="2">
         <v>770000</v>
@@ -13424,7 +13424,7 @@
         <v>363</v>
       </c>
       <c r="I331" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J331" s="2">
         <v>780000</v>
@@ -13457,7 +13457,7 @@
         <v>364</v>
       </c>
       <c r="I332" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J332" s="2">
         <v>790000</v>
@@ -13490,7 +13490,7 @@
         <v>365</v>
       </c>
       <c r="I333" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J333" s="2">
         <v>800000</v>
@@ -13523,7 +13523,7 @@
         <v>366</v>
       </c>
       <c r="I334" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J334" s="2">
         <v>810000</v>
@@ -13556,7 +13556,7 @@
         <v>367</v>
       </c>
       <c r="I335" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J335" s="2">
         <v>820000</v>
@@ -13589,7 +13589,7 @@
         <v>368</v>
       </c>
       <c r="I336" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J336" s="2">
         <v>830000</v>
@@ -13622,7 +13622,7 @@
         <v>369</v>
       </c>
       <c r="I337" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J337" s="2">
         <v>840000</v>
@@ -13655,7 +13655,7 @@
         <v>370</v>
       </c>
       <c r="I338" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J338" s="2">
         <v>850000</v>
@@ -13688,7 +13688,7 @@
         <v>371</v>
       </c>
       <c r="I339" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J339" s="2">
         <v>860000</v>
@@ -13721,7 +13721,7 @@
         <v>372</v>
       </c>
       <c r="I340" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J340" s="2">
         <v>870000</v>
@@ -13754,7 +13754,7 @@
         <v>373</v>
       </c>
       <c r="I341" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J341" s="2">
         <v>880000</v>
@@ -13787,7 +13787,7 @@
         <v>374</v>
       </c>
       <c r="I342" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J342" s="2">
         <v>890000</v>
@@ -13820,7 +13820,7 @@
         <v>375</v>
       </c>
       <c r="I343" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J343" s="2">
         <v>900000</v>
@@ -13853,7 +13853,7 @@
         <v>376</v>
       </c>
       <c r="I344" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J344" s="2">
         <v>910000</v>
@@ -13886,7 +13886,7 @@
         <v>377</v>
       </c>
       <c r="I345" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J345" s="2">
         <v>920000</v>
@@ -13919,7 +13919,7 @@
         <v>378</v>
       </c>
       <c r="I346" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J346" s="2">
         <v>930000</v>
@@ -13952,7 +13952,7 @@
         <v>379</v>
       </c>
       <c r="I347" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J347" s="2">
         <v>940000</v>
@@ -13985,7 +13985,7 @@
         <v>380</v>
       </c>
       <c r="I348" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J348" s="2">
         <v>950000</v>
@@ -14018,7 +14018,7 @@
         <v>381</v>
       </c>
       <c r="I349" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J349" s="2">
         <v>960000</v>
@@ -14051,7 +14051,7 @@
         <v>382</v>
       </c>
       <c r="I350" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J350" s="2">
         <v>970000</v>
@@ -14084,7 +14084,7 @@
         <v>383</v>
       </c>
       <c r="I351" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J351" s="2">
         <v>980000</v>
@@ -14117,7 +14117,7 @@
         <v>384</v>
       </c>
       <c r="I352" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J352" s="2">
         <v>990000</v>
@@ -14150,7 +14150,7 @@
         <v>385</v>
       </c>
       <c r="I353" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J353" s="2">
         <v>1000000</v>
@@ -14183,7 +14183,7 @@
         <v>386</v>
       </c>
       <c r="I354" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J354" s="2">
         <v>1010000</v>
@@ -14216,7 +14216,7 @@
         <v>387</v>
       </c>
       <c r="I355" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J355" s="2">
         <v>1020000</v>
@@ -14249,7 +14249,7 @@
         <v>388</v>
       </c>
       <c r="I356" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J356" s="2">
         <v>1030000</v>
@@ -14282,7 +14282,7 @@
         <v>389</v>
       </c>
       <c r="I357" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J357" s="2">
         <v>1040000</v>
@@ -14315,7 +14315,7 @@
         <v>390</v>
       </c>
       <c r="I358" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J358" s="2">
         <v>1050000</v>
@@ -14348,7 +14348,7 @@
         <v>391</v>
       </c>
       <c r="I359" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J359" s="2">
         <v>1060000</v>
@@ -14381,7 +14381,7 @@
         <v>392</v>
       </c>
       <c r="I360" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J360" s="2">
         <v>1070000</v>
@@ -14414,7 +14414,7 @@
         <v>393</v>
       </c>
       <c r="I361" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J361" s="2">
         <v>1080000</v>
@@ -14447,7 +14447,7 @@
         <v>394</v>
       </c>
       <c r="I362" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J362" s="2">
         <v>1090000</v>
@@ -14480,7 +14480,7 @@
         <v>395</v>
       </c>
       <c r="I363" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J363" s="2">
         <v>1100000</v>
@@ -14513,7 +14513,7 @@
         <v>396</v>
       </c>
       <c r="I364" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J364" s="2">
         <v>1110000</v>
@@ -14546,7 +14546,7 @@
         <v>397</v>
       </c>
       <c r="I365" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J365" s="2">
         <v>1120000</v>
@@ -14579,7 +14579,7 @@
         <v>398</v>
       </c>
       <c r="I366" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J366" s="2">
         <v>1130000</v>
@@ -14612,7 +14612,7 @@
         <v>399</v>
       </c>
       <c r="I367" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J367" s="2">
         <v>1140000</v>
@@ -14645,7 +14645,7 @@
         <v>400</v>
       </c>
       <c r="I368" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J368" s="2">
         <v>1150000</v>
@@ -14678,7 +14678,7 @@
         <v>401</v>
       </c>
       <c r="I369" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J369" s="2">
         <v>1160000</v>
@@ -14711,7 +14711,7 @@
         <v>402</v>
       </c>
       <c r="I370" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J370" s="2">
         <v>1170000</v>
@@ -14744,7 +14744,7 @@
         <v>403</v>
       </c>
       <c r="I371" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J371" s="2">
         <v>1180000</v>
@@ -14777,7 +14777,7 @@
         <v>404</v>
       </c>
       <c r="I372" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J372" s="2">
         <v>1190000</v>
@@ -14810,7 +14810,7 @@
         <v>405</v>
       </c>
       <c r="I373" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J373" s="2">
         <v>1200000</v>
@@ -14843,7 +14843,7 @@
         <v>406</v>
       </c>
       <c r="I374" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J374" s="2">
         <v>1210000</v>
@@ -14876,7 +14876,7 @@
         <v>407</v>
       </c>
       <c r="I375" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J375" s="2">
         <v>1220000</v>
@@ -14909,7 +14909,7 @@
         <v>408</v>
       </c>
       <c r="I376" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J376" s="2">
         <v>1230000</v>
@@ -14942,7 +14942,7 @@
         <v>409</v>
       </c>
       <c r="I377" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J377" s="2">
         <v>1240000</v>
@@ -14975,7 +14975,7 @@
         <v>410</v>
       </c>
       <c r="I378" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J378" s="2">
         <v>1250000</v>
@@ -15008,7 +15008,7 @@
         <v>411</v>
       </c>
       <c r="I379" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J379" s="2">
         <v>1260000</v>
@@ -15041,7 +15041,7 @@
         <v>412</v>
       </c>
       <c r="I380" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J380" s="2">
         <v>1270000</v>
@@ -15074,7 +15074,7 @@
         <v>413</v>
       </c>
       <c r="I381" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J381" s="2">
         <v>1280000</v>
@@ -15107,7 +15107,7 @@
         <v>414</v>
       </c>
       <c r="I382" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J382" s="2">
         <v>1290000</v>
@@ -15140,7 +15140,7 @@
         <v>415</v>
       </c>
       <c r="I383" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J383" s="2">
         <v>1300000</v>
@@ -15173,7 +15173,7 @@
         <v>416</v>
       </c>
       <c r="I384" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J384" s="2">
         <v>1310000</v>
@@ -15206,7 +15206,7 @@
         <v>417</v>
       </c>
       <c r="I385" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J385" s="2">
         <v>1320000</v>
@@ -15239,7 +15239,7 @@
         <v>418</v>
       </c>
       <c r="I386" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J386" s="2">
         <v>1330000</v>
@@ -15272,7 +15272,7 @@
         <v>419</v>
       </c>
       <c r="I387" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J387" s="2">
         <v>1340000</v>
@@ -15305,7 +15305,7 @@
         <v>420</v>
       </c>
       <c r="I388" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J388" s="2">
         <v>1350000</v>
@@ -15338,7 +15338,7 @@
         <v>421</v>
       </c>
       <c r="I389" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J389" s="2">
         <v>1360000</v>
@@ -15371,7 +15371,7 @@
         <v>422</v>
       </c>
       <c r="I390" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J390" s="2">
         <v>1370000</v>
@@ -15404,7 +15404,7 @@
         <v>423</v>
       </c>
       <c r="I391" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J391" s="2">
         <v>1380000</v>
@@ -15437,7 +15437,7 @@
         <v>424</v>
       </c>
       <c r="I392" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J392" s="2">
         <v>1390000</v>
@@ -15470,7 +15470,7 @@
         <v>425</v>
       </c>
       <c r="I393" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J393" s="2">
         <v>1400000</v>
@@ -15503,7 +15503,7 @@
         <v>426</v>
       </c>
       <c r="I394" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J394" s="2">
         <v>1410000</v>
@@ -15536,7 +15536,7 @@
         <v>427</v>
       </c>
       <c r="I395" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J395" s="2">
         <v>1420000</v>
@@ -15569,7 +15569,7 @@
         <v>428</v>
       </c>
       <c r="I396" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J396" s="2">
         <v>1430000</v>
@@ -15602,7 +15602,7 @@
         <v>429</v>
       </c>
       <c r="I397" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J397" s="2">
         <v>1440000</v>
@@ -15635,7 +15635,7 @@
         <v>430</v>
       </c>
       <c r="I398" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J398" s="2">
         <v>1450000</v>
@@ -15668,7 +15668,7 @@
         <v>431</v>
       </c>
       <c r="I399" s="4">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="J399" s="2">
         <v>1460000</v>
@@ -15701,7 +15701,7 @@
         <v>432</v>
       </c>
       <c r="I400" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J400" s="2">
         <v>1470000</v>
@@ -15734,7 +15734,7 @@
         <v>433</v>
       </c>
       <c r="I401" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J401" s="2">
         <v>1480000</v>
@@ -15767,7 +15767,7 @@
         <v>434</v>
       </c>
       <c r="I402" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J402" s="2">
         <v>1490000</v>
@@ -15800,7 +15800,7 @@
         <v>435</v>
       </c>
       <c r="I403" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J403" s="2">
         <v>1500000</v>
@@ -15833,7 +15833,7 @@
         <v>436</v>
       </c>
       <c r="I404" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J404" s="2">
         <v>1510000</v>
@@ -15866,7 +15866,7 @@
         <v>437</v>
       </c>
       <c r="I405" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J405" s="2">
         <v>1520000</v>
@@ -15899,7 +15899,7 @@
         <v>438</v>
       </c>
       <c r="I406" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J406" s="2">
         <v>1530000</v>
@@ -15932,7 +15932,7 @@
         <v>439</v>
       </c>
       <c r="I407" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J407" s="2">
         <v>1540000</v>
@@ -15965,7 +15965,7 @@
         <v>440</v>
       </c>
       <c r="I408" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J408" s="2">
         <v>1550000</v>
@@ -15998,7 +15998,7 @@
         <v>441</v>
       </c>
       <c r="I409" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J409" s="2">
         <v>1560000</v>
@@ -16031,7 +16031,7 @@
         <v>442</v>
       </c>
       <c r="I410" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J410" s="2">
         <v>1570000</v>
@@ -16064,7 +16064,7 @@
         <v>443</v>
       </c>
       <c r="I411" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J411" s="2">
         <v>1580000</v>
@@ -16097,7 +16097,7 @@
         <v>444</v>
       </c>
       <c r="I412" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J412" s="2">
         <v>1590000</v>
@@ -16130,7 +16130,7 @@
         <v>445</v>
       </c>
       <c r="I413" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J413" s="2">
         <v>1600000</v>
@@ -16163,7 +16163,7 @@
         <v>446</v>
       </c>
       <c r="I414" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J414" s="2">
         <v>1610000</v>
@@ -16196,7 +16196,7 @@
         <v>447</v>
       </c>
       <c r="I415" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J415" s="2">
         <v>1620000</v>
@@ -16229,7 +16229,7 @@
         <v>448</v>
       </c>
       <c r="I416" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J416" s="2">
         <v>1630000</v>
@@ -16262,7 +16262,7 @@
         <v>449</v>
       </c>
       <c r="I417" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J417" s="2">
         <v>1640000</v>
@@ -16295,7 +16295,7 @@
         <v>450</v>
       </c>
       <c r="I418" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J418" s="2">
         <v>1650000</v>
@@ -16328,7 +16328,7 @@
         <v>451</v>
       </c>
       <c r="I419" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J419" s="2">
         <v>1660000</v>
@@ -16361,7 +16361,7 @@
         <v>452</v>
       </c>
       <c r="I420" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J420" s="2">
         <v>1670000</v>
@@ -16394,7 +16394,7 @@
         <v>453</v>
       </c>
       <c r="I421" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J421" s="2">
         <v>1680000</v>
@@ -16427,7 +16427,7 @@
         <v>454</v>
       </c>
       <c r="I422" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J422" s="2">
         <v>1690000</v>
@@ -16460,7 +16460,7 @@
         <v>455</v>
       </c>
       <c r="I423" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J423" s="2">
         <v>1700000</v>
@@ -16493,7 +16493,7 @@
         <v>456</v>
       </c>
       <c r="I424" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J424" s="2">
         <v>1710000</v>
@@ -16526,7 +16526,7 @@
         <v>457</v>
       </c>
       <c r="I425" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J425" s="2">
         <v>1720000</v>
@@ -16559,7 +16559,7 @@
         <v>458</v>
       </c>
       <c r="I426" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J426" s="2">
         <v>1730000</v>
@@ -16592,7 +16592,7 @@
         <v>459</v>
       </c>
       <c r="I427" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J427" s="2">
         <v>1740000</v>
@@ -16625,7 +16625,7 @@
         <v>460</v>
       </c>
       <c r="I428" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J428" s="2">
         <v>1750000</v>
@@ -16658,7 +16658,7 @@
         <v>461</v>
       </c>
       <c r="I429" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J429" s="2">
         <v>1760000</v>
@@ -16691,7 +16691,7 @@
         <v>462</v>
       </c>
       <c r="I430" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J430" s="2">
         <v>1770000</v>
@@ -16724,7 +16724,7 @@
         <v>463</v>
       </c>
       <c r="I431" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J431" s="2">
         <v>1780000</v>
@@ -16757,7 +16757,7 @@
         <v>464</v>
       </c>
       <c r="I432" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J432" s="2">
         <v>1790000</v>
@@ -16790,7 +16790,7 @@
         <v>465</v>
       </c>
       <c r="I433" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J433" s="2">
         <v>1800000</v>
@@ -16823,7 +16823,7 @@
         <v>466</v>
       </c>
       <c r="I434" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J434" s="2">
         <v>1810000</v>
@@ -16856,7 +16856,7 @@
         <v>467</v>
       </c>
       <c r="I435" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J435" s="2">
         <v>1820000</v>
@@ -16889,7 +16889,7 @@
         <v>468</v>
       </c>
       <c r="I436" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J436" s="2">
         <v>1830000</v>
@@ -16922,7 +16922,7 @@
         <v>469</v>
       </c>
       <c r="I437" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J437" s="2">
         <v>1840000</v>
@@ -16955,7 +16955,7 @@
         <v>470</v>
       </c>
       <c r="I438" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J438" s="2">
         <v>1850000</v>
@@ -16988,7 +16988,7 @@
         <v>471</v>
       </c>
       <c r="I439" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J439" s="2">
         <v>1860000</v>
@@ -17021,7 +17021,7 @@
         <v>472</v>
       </c>
       <c r="I440" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J440" s="2">
         <v>1870000</v>
@@ -17054,7 +17054,7 @@
         <v>473</v>
       </c>
       <c r="I441" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J441" s="2">
         <v>1880000</v>
@@ -17087,7 +17087,7 @@
         <v>474</v>
       </c>
       <c r="I442" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J442" s="2">
         <v>1890000</v>
@@ -17120,7 +17120,7 @@
         <v>475</v>
       </c>
       <c r="I443" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J443" s="2">
         <v>1900000</v>
@@ -17153,7 +17153,7 @@
         <v>476</v>
       </c>
       <c r="I444" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J444" s="2">
         <v>1910000</v>
@@ -17186,7 +17186,7 @@
         <v>477</v>
       </c>
       <c r="I445" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J445" s="2">
         <v>1920000</v>
@@ -17219,7 +17219,7 @@
         <v>478</v>
       </c>
       <c r="I446" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J446" s="2">
         <v>1930000</v>
@@ -17252,7 +17252,7 @@
         <v>479</v>
       </c>
       <c r="I447" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J447" s="2">
         <v>1940000</v>
@@ -17285,7 +17285,7 @@
         <v>480</v>
       </c>
       <c r="I448" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J448" s="2">
         <v>1950000</v>
@@ -17318,7 +17318,7 @@
         <v>481</v>
       </c>
       <c r="I449" s="4">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="J449" s="2">
         <v>1960000</v>
@@ -17351,7 +17351,7 @@
         <v>482</v>
       </c>
       <c r="I450" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J450" s="2">
         <v>1970000</v>
@@ -17384,7 +17384,7 @@
         <v>483</v>
       </c>
       <c r="I451" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J451" s="2">
         <v>1980000</v>
@@ -17417,7 +17417,7 @@
         <v>484</v>
       </c>
       <c r="I452" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J452" s="2">
         <v>1990000</v>
@@ -17450,7 +17450,7 @@
         <v>485</v>
       </c>
       <c r="I453" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J453" s="2">
         <v>2000000</v>
@@ -17483,7 +17483,7 @@
         <v>486</v>
       </c>
       <c r="I454" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J454" s="2">
         <v>2010000</v>
@@ -17516,7 +17516,7 @@
         <v>487</v>
       </c>
       <c r="I455" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J455" s="2">
         <v>2020000</v>
@@ -17549,7 +17549,7 @@
         <v>488</v>
       </c>
       <c r="I456" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J456" s="2">
         <v>2030000</v>
@@ -17582,7 +17582,7 @@
         <v>489</v>
       </c>
       <c r="I457" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J457" s="2">
         <v>2040000</v>
@@ -17615,7 +17615,7 @@
         <v>490</v>
       </c>
       <c r="I458" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J458" s="2">
         <v>2050000</v>
@@ -17648,7 +17648,7 @@
         <v>491</v>
       </c>
       <c r="I459" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J459" s="2">
         <v>2060000</v>
@@ -17681,7 +17681,7 @@
         <v>492</v>
       </c>
       <c r="I460" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J460" s="2">
         <v>2070000</v>
@@ -17714,7 +17714,7 @@
         <v>493</v>
       </c>
       <c r="I461" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J461" s="2">
         <v>2080000</v>
@@ -17747,7 +17747,7 @@
         <v>494</v>
       </c>
       <c r="I462" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J462" s="2">
         <v>2090000</v>
@@ -17780,7 +17780,7 @@
         <v>495</v>
       </c>
       <c r="I463" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J463" s="2">
         <v>2100000</v>
@@ -17813,7 +17813,7 @@
         <v>496</v>
       </c>
       <c r="I464" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J464" s="2">
         <v>2110000</v>
@@ -17846,7 +17846,7 @@
         <v>497</v>
       </c>
       <c r="I465" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J465" s="2">
         <v>2120000</v>
@@ -17879,7 +17879,7 @@
         <v>498</v>
       </c>
       <c r="I466" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J466" s="2">
         <v>2130000</v>
@@ -17912,7 +17912,7 @@
         <v>499</v>
       </c>
       <c r="I467" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J467" s="2">
         <v>2140000</v>
@@ -17945,7 +17945,7 @@
         <v>500</v>
       </c>
       <c r="I468" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J468" s="2">
         <v>2150000</v>
@@ -17978,7 +17978,7 @@
         <v>501</v>
       </c>
       <c r="I469" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J469" s="2">
         <v>2160000</v>
@@ -18011,7 +18011,7 @@
         <v>502</v>
       </c>
       <c r="I470" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J470" s="2">
         <v>2170000</v>
@@ -18044,7 +18044,7 @@
         <v>503</v>
       </c>
       <c r="I471" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J471" s="2">
         <v>2180000</v>
@@ -18077,7 +18077,7 @@
         <v>504</v>
       </c>
       <c r="I472" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J472" s="2">
         <v>2190000</v>
@@ -18110,7 +18110,7 @@
         <v>505</v>
       </c>
       <c r="I473" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J473" s="2">
         <v>2200000</v>
@@ -18143,7 +18143,7 @@
         <v>506</v>
       </c>
       <c r="I474" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J474" s="2">
         <v>2210000</v>
@@ -18176,7 +18176,7 @@
         <v>507</v>
       </c>
       <c r="I475" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J475" s="2">
         <v>2220000</v>
@@ -18209,7 +18209,7 @@
         <v>508</v>
       </c>
       <c r="I476" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J476" s="2">
         <v>2230000</v>
@@ -18242,7 +18242,7 @@
         <v>509</v>
       </c>
       <c r="I477" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J477" s="2">
         <v>2240000</v>
@@ -18275,7 +18275,7 @@
         <v>510</v>
       </c>
       <c r="I478" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J478" s="2">
         <v>2250000</v>
@@ -18308,7 +18308,7 @@
         <v>511</v>
       </c>
       <c r="I479" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J479" s="2">
         <v>2260000</v>
@@ -18341,7 +18341,7 @@
         <v>512</v>
       </c>
       <c r="I480" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J480" s="2">
         <v>2270000</v>
@@ -18374,7 +18374,7 @@
         <v>513</v>
       </c>
       <c r="I481" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J481" s="2">
         <v>2280000</v>
@@ -18407,7 +18407,7 @@
         <v>514</v>
       </c>
       <c r="I482" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J482" s="2">
         <v>2290000</v>
@@ -18440,7 +18440,7 @@
         <v>515</v>
       </c>
       <c r="I483" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J483" s="2">
         <v>2300000</v>
@@ -18473,7 +18473,7 @@
         <v>516</v>
       </c>
       <c r="I484" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J484" s="2">
         <v>2310000</v>
@@ -18506,7 +18506,7 @@
         <v>517</v>
       </c>
       <c r="I485" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J485" s="2">
         <v>2320000</v>
@@ -18539,7 +18539,7 @@
         <v>518</v>
       </c>
       <c r="I486" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J486" s="2">
         <v>2330000</v>
@@ -18572,7 +18572,7 @@
         <v>519</v>
       </c>
       <c r="I487" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J487" s="2">
         <v>2340000</v>
@@ -18605,7 +18605,7 @@
         <v>520</v>
       </c>
       <c r="I488" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J488" s="2">
         <v>2350000</v>
@@ -18638,7 +18638,7 @@
         <v>521</v>
       </c>
       <c r="I489" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J489" s="2">
         <v>2360000</v>
@@ -18671,7 +18671,7 @@
         <v>522</v>
       </c>
       <c r="I490" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J490" s="2">
         <v>2370000</v>
@@ -18704,7 +18704,7 @@
         <v>523</v>
       </c>
       <c r="I491" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J491" s="2">
         <v>2380000</v>
@@ -18737,7 +18737,7 @@
         <v>524</v>
       </c>
       <c r="I492" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J492" s="2">
         <v>2390000</v>
@@ -18770,7 +18770,7 @@
         <v>525</v>
       </c>
       <c r="I493" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J493" s="2">
         <v>2400000</v>
@@ -18803,7 +18803,7 @@
         <v>526</v>
       </c>
       <c r="I494" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J494" s="2">
         <v>2410000</v>
@@ -18836,7 +18836,7 @@
         <v>527</v>
       </c>
       <c r="I495" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J495" s="2">
         <v>2420000</v>
@@ -18869,7 +18869,7 @@
         <v>528</v>
       </c>
       <c r="I496" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J496" s="2">
         <v>2430000</v>
@@ -18902,7 +18902,7 @@
         <v>529</v>
       </c>
       <c r="I497" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J497" s="2">
         <v>2440000</v>
@@ -18935,7 +18935,7 @@
         <v>530</v>
       </c>
       <c r="I498" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J498" s="2">
         <v>2450000</v>
@@ -18968,7 +18968,7 @@
         <v>531</v>
       </c>
       <c r="I499" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J499" s="2">
         <v>2460000</v>
@@ -19001,7 +19001,7 @@
         <v>532</v>
       </c>
       <c r="I500" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J500" s="2">
         <v>2470000</v>
@@ -19034,7 +19034,7 @@
         <v>533</v>
       </c>
       <c r="I501" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J501" s="2">
         <v>2480000</v>
@@ -19067,7 +19067,7 @@
         <v>534</v>
       </c>
       <c r="I502" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J502" s="2">
         <v>2490000</v>
@@ -19100,7 +19100,7 @@
         <v>535</v>
       </c>
       <c r="I503" s="4">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="J503" s="2">
         <v>2500000</v>
@@ -19108,9 +19108,7 @@
       <c r="K503" s="5"/>
     </row>
     <row r="504" spans="9:9">
-      <c r="I504" s="4">
-        <v>50</v>
-      </c>
+      <c r="I504" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1530" uniqueCount="537">
   <si>
     <t>id</t>
   </si>
@@ -1021,6 +1021,9 @@
   </si>
   <si>
     <t>4000000~99000000</t>
+  </si>
+  <si>
+    <t>[72,70,55,54,85,87]</t>
   </si>
   <si>
     <t>4000000~100000000</t>
@@ -1631,8 +1634,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1664,6 +1667,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -1671,9 +1682,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1686,9 +1696,17 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1703,7 +1721,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1717,8 +1735,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1732,50 +1775,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1810,31 +1813,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1852,7 +1879,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1864,25 +1927,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1894,19 +1951,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1919,72 +1988,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2020,16 +2023,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2039,6 +2042,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2059,16 +2071,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2078,15 +2090,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2107,10 +2110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2119,76 +2122,76 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="26" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -2197,55 +2200,55 @@
     <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2606,12 +2609,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K504"/>
+  <dimension ref="A1:K505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A139" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I148" sqref="I148"/>
+      <selection pane="bottomLeft" activeCell="B503" sqref="B503"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -4255,7 +4258,7 @@
         <v>121</v>
       </c>
       <c r="I51" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J51" s="2">
         <v>50</v>
@@ -4287,7 +4290,7 @@
         <v>123</v>
       </c>
       <c r="I52" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J52" s="2">
         <v>50</v>
@@ -4319,7 +4322,7 @@
         <v>125</v>
       </c>
       <c r="I53" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J53" s="2">
         <v>50</v>
@@ -4351,7 +4354,7 @@
         <v>127</v>
       </c>
       <c r="I54" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J54" s="2">
         <v>100</v>
@@ -4383,7 +4386,7 @@
         <v>127</v>
       </c>
       <c r="I55" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J55" s="2">
         <v>100</v>
@@ -4415,7 +4418,7 @@
         <v>127</v>
       </c>
       <c r="I56" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J56" s="2">
         <v>100</v>
@@ -4447,7 +4450,7 @@
         <v>127</v>
       </c>
       <c r="I57" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J57" s="2">
         <v>100</v>
@@ -4479,7 +4482,7 @@
         <v>127</v>
       </c>
       <c r="I58" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J58" s="2">
         <v>100</v>
@@ -4511,7 +4514,7 @@
         <v>133</v>
       </c>
       <c r="I59" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J59" s="2">
         <v>100</v>
@@ -4543,7 +4546,7 @@
         <v>133</v>
       </c>
       <c r="I60" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J60" s="2">
         <v>100</v>
@@ -4575,7 +4578,7 @@
         <v>133</v>
       </c>
       <c r="I61" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J61" s="2">
         <v>100</v>
@@ -4607,7 +4610,7 @@
         <v>133</v>
       </c>
       <c r="I62" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J62" s="2">
         <v>100</v>
@@ -4639,7 +4642,7 @@
         <v>133</v>
       </c>
       <c r="I63" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J63" s="2">
         <v>100</v>
@@ -4671,7 +4674,7 @@
         <v>135</v>
       </c>
       <c r="I64" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J64" s="2">
         <v>100</v>
@@ -4703,7 +4706,7 @@
         <v>136</v>
       </c>
       <c r="I65" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J65" s="2">
         <v>100</v>
@@ -4735,7 +4738,7 @@
         <v>138</v>
       </c>
       <c r="I66" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J66" s="2">
         <v>100</v>
@@ -4767,7 +4770,7 @@
         <v>139</v>
       </c>
       <c r="I67" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J67" s="2">
         <v>100</v>
@@ -4799,7 +4802,7 @@
         <v>141</v>
       </c>
       <c r="I68" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J68" s="2">
         <v>100</v>
@@ -4831,7 +4834,7 @@
         <v>142</v>
       </c>
       <c r="I69" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J69" s="2">
         <v>260</v>
@@ -4863,7 +4866,7 @@
         <v>144</v>
       </c>
       <c r="I70" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J70" s="2">
         <v>270</v>
@@ -4895,7 +4898,7 @@
         <v>146</v>
       </c>
       <c r="I71" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J71" s="2">
         <v>280</v>
@@ -4927,7 +4930,7 @@
         <v>148</v>
       </c>
       <c r="I72" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J72" s="2">
         <v>290</v>
@@ -4959,7 +4962,7 @@
         <v>150</v>
       </c>
       <c r="I73" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J73" s="2">
         <v>300</v>
@@ -4991,7 +4994,7 @@
         <v>151</v>
       </c>
       <c r="I74" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J74" s="2">
         <v>310</v>
@@ -5023,7 +5026,7 @@
         <v>152</v>
       </c>
       <c r="I75" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J75" s="2">
         <v>320</v>
@@ -5055,7 +5058,7 @@
         <v>153</v>
       </c>
       <c r="I76" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J76" s="2">
         <v>330</v>
@@ -5087,7 +5090,7 @@
         <v>154</v>
       </c>
       <c r="I77" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J77" s="2">
         <v>340</v>
@@ -5119,7 +5122,7 @@
         <v>155</v>
       </c>
       <c r="I78" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J78" s="2">
         <v>350</v>
@@ -5151,7 +5154,7 @@
         <v>156</v>
       </c>
       <c r="I79" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J79" s="2">
         <v>360</v>
@@ -5183,7 +5186,7 @@
         <v>157</v>
       </c>
       <c r="I80" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J80" s="2">
         <v>370</v>
@@ -5215,7 +5218,7 @@
         <v>158</v>
       </c>
       <c r="I81" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J81" s="2">
         <v>380</v>
@@ -5247,7 +5250,7 @@
         <v>159</v>
       </c>
       <c r="I82" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J82" s="2">
         <v>390</v>
@@ -5279,7 +5282,7 @@
         <v>160</v>
       </c>
       <c r="I83" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J83" s="2">
         <v>420</v>
@@ -5311,7 +5314,7 @@
         <v>161</v>
       </c>
       <c r="I84" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J84" s="2">
         <v>450</v>
@@ -5343,7 +5346,7 @@
         <v>162</v>
       </c>
       <c r="I85" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J85" s="2">
         <v>480</v>
@@ -5375,7 +5378,7 @@
         <v>163</v>
       </c>
       <c r="I86" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J86" s="2">
         <v>510</v>
@@ -5407,7 +5410,7 @@
         <v>164</v>
       </c>
       <c r="I87" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J87" s="2">
         <v>540</v>
@@ -5439,7 +5442,7 @@
         <v>165</v>
       </c>
       <c r="I88" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J88" s="2">
         <v>570</v>
@@ -5471,7 +5474,7 @@
         <v>166</v>
       </c>
       <c r="I89" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J89" s="2">
         <v>600</v>
@@ -5503,7 +5506,7 @@
         <v>167</v>
       </c>
       <c r="I90" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J90" s="2">
         <v>630</v>
@@ -5535,7 +5538,7 @@
         <v>168</v>
       </c>
       <c r="I91" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J91" s="2">
         <v>660</v>
@@ -5567,7 +5570,7 @@
         <v>169</v>
       </c>
       <c r="I92" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J92" s="2">
         <v>690</v>
@@ -5599,7 +5602,7 @@
         <v>170</v>
       </c>
       <c r="I93" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J93" s="2">
         <v>720</v>
@@ -5631,7 +5634,7 @@
         <v>172</v>
       </c>
       <c r="I94" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J94" s="2">
         <v>750</v>
@@ -5663,7 +5666,7 @@
         <v>173</v>
       </c>
       <c r="I95" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J95" s="2">
         <v>780</v>
@@ -5695,7 +5698,7 @@
         <v>174</v>
       </c>
       <c r="I96" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J96" s="2">
         <v>810</v>
@@ -5727,7 +5730,7 @@
         <v>175</v>
       </c>
       <c r="I97" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J97" s="2">
         <v>840</v>
@@ -5759,7 +5762,7 @@
         <v>176</v>
       </c>
       <c r="I98" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J98" s="2">
         <v>870</v>
@@ -5791,7 +5794,7 @@
         <v>177</v>
       </c>
       <c r="I99" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J99" s="2">
         <v>900</v>
@@ -5823,7 +5826,7 @@
         <v>178</v>
       </c>
       <c r="I100" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J100" s="2">
         <v>1000</v>
@@ -5855,7 +5858,7 @@
         <v>179</v>
       </c>
       <c r="I101" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J101" s="2">
         <v>1000</v>
@@ -5887,7 +5890,7 @@
         <v>180</v>
       </c>
       <c r="I102" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J102" s="2">
         <v>1000</v>
@@ -5919,7 +5922,7 @@
         <v>181</v>
       </c>
       <c r="I103" s="4">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J103" s="2">
         <v>1000</v>
@@ -5951,7 +5954,7 @@
         <v>182</v>
       </c>
       <c r="I104" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J104" s="2">
         <v>1000</v>
@@ -5983,7 +5986,7 @@
         <v>182</v>
       </c>
       <c r="I105" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J105" s="2">
         <v>1000</v>
@@ -6015,7 +6018,7 @@
         <v>182</v>
       </c>
       <c r="I106" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J106" s="2">
         <v>1000</v>
@@ -6047,7 +6050,7 @@
         <v>182</v>
       </c>
       <c r="I107" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J107" s="2">
         <v>1000</v>
@@ -6079,7 +6082,7 @@
         <v>182</v>
       </c>
       <c r="I108" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J108" s="2">
         <v>1000</v>
@@ -6111,7 +6114,7 @@
         <v>182</v>
       </c>
       <c r="I109" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J109" s="2">
         <v>1000</v>
@@ -6143,7 +6146,7 @@
         <v>182</v>
       </c>
       <c r="I110" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J110" s="2">
         <v>1000</v>
@@ -6175,7 +6178,7 @@
         <v>182</v>
       </c>
       <c r="I111" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J111" s="2">
         <v>1050</v>
@@ -6207,7 +6210,7 @@
         <v>182</v>
       </c>
       <c r="I112" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J112" s="2">
         <v>1100</v>
@@ -6239,7 +6242,7 @@
         <v>182</v>
       </c>
       <c r="I113" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J113" s="2">
         <v>1150</v>
@@ -6271,7 +6274,7 @@
         <v>184</v>
       </c>
       <c r="I114" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J114" s="2">
         <v>1200</v>
@@ -6303,7 +6306,7 @@
         <v>185</v>
       </c>
       <c r="I115" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J115" s="2">
         <v>1250</v>
@@ -6335,7 +6338,7 @@
         <v>186</v>
       </c>
       <c r="I116" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J116" s="2">
         <v>1300</v>
@@ -6367,7 +6370,7 @@
         <v>187</v>
       </c>
       <c r="I117" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J117" s="2">
         <v>1350</v>
@@ -6399,7 +6402,7 @@
         <v>188</v>
       </c>
       <c r="I118" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J118" s="2">
         <v>1400</v>
@@ -6431,7 +6434,7 @@
         <v>189</v>
       </c>
       <c r="I119" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J119" s="2">
         <v>1450</v>
@@ -6463,7 +6466,7 @@
         <v>190</v>
       </c>
       <c r="I120" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J120" s="2">
         <v>1500</v>
@@ -6495,7 +6498,7 @@
         <v>191</v>
       </c>
       <c r="I121" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J121" s="2">
         <v>1600</v>
@@ -6527,7 +6530,7 @@
         <v>192</v>
       </c>
       <c r="I122" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J122" s="2">
         <v>1700</v>
@@ -6560,7 +6563,7 @@
         <v>193</v>
       </c>
       <c r="I123" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J123" s="2">
         <v>1800</v>
@@ -6593,7 +6596,7 @@
         <v>194</v>
       </c>
       <c r="I124" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J124" s="2">
         <v>1900</v>
@@ -6626,7 +6629,7 @@
         <v>195</v>
       </c>
       <c r="I125" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J125" s="2">
         <v>2000</v>
@@ -6659,7 +6662,7 @@
         <v>196</v>
       </c>
       <c r="I126" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J126" s="2">
         <v>2100</v>
@@ -6692,7 +6695,7 @@
         <v>197</v>
       </c>
       <c r="I127" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J127" s="2">
         <v>2200</v>
@@ -6725,7 +6728,7 @@
         <v>198</v>
       </c>
       <c r="I128" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J128" s="2">
         <v>2300</v>
@@ -6758,7 +6761,7 @@
         <v>199</v>
       </c>
       <c r="I129" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J129" s="2">
         <v>2400</v>
@@ -6791,7 +6794,7 @@
         <v>200</v>
       </c>
       <c r="I130" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J130" s="2">
         <v>2500</v>
@@ -6824,7 +6827,7 @@
         <v>201</v>
       </c>
       <c r="I131" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J131" s="2">
         <v>2600</v>
@@ -6857,7 +6860,7 @@
         <v>202</v>
       </c>
       <c r="I132" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J132" s="2">
         <v>2700</v>
@@ -6890,7 +6893,7 @@
         <v>203</v>
       </c>
       <c r="I133" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J133" s="2">
         <v>2800</v>
@@ -6923,7 +6926,7 @@
         <v>182</v>
       </c>
       <c r="I134" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J134" s="2">
         <v>2900</v>
@@ -6956,7 +6959,7 @@
         <v>184</v>
       </c>
       <c r="I135" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J135" s="2">
         <v>3000</v>
@@ -6989,7 +6992,7 @@
         <v>185</v>
       </c>
       <c r="I136" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J136" s="2">
         <v>3100</v>
@@ -7022,7 +7025,7 @@
         <v>186</v>
       </c>
       <c r="I137" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J137" s="2">
         <v>3200</v>
@@ -7055,7 +7058,7 @@
         <v>187</v>
       </c>
       <c r="I138" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J138" s="2">
         <v>3300</v>
@@ -7088,7 +7091,7 @@
         <v>188</v>
       </c>
       <c r="I139" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J139" s="2">
         <v>3400</v>
@@ -7121,7 +7124,7 @@
         <v>189</v>
       </c>
       <c r="I140" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J140" s="2">
         <v>3500</v>
@@ -7154,7 +7157,7 @@
         <v>190</v>
       </c>
       <c r="I141" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J141" s="2">
         <v>3700</v>
@@ -7187,7 +7190,7 @@
         <v>191</v>
       </c>
       <c r="I142" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J142" s="2">
         <v>3900</v>
@@ -7220,7 +7223,7 @@
         <v>192</v>
       </c>
       <c r="I143" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J143" s="2">
         <v>4100</v>
@@ -7253,7 +7256,7 @@
         <v>193</v>
       </c>
       <c r="I144" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J144" s="2">
         <v>4300</v>
@@ -7286,7 +7289,7 @@
         <v>194</v>
       </c>
       <c r="I145" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J145" s="2">
         <v>4500</v>
@@ -7319,7 +7322,7 @@
         <v>195</v>
       </c>
       <c r="I146" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J146" s="2">
         <v>4700</v>
@@ -7352,7 +7355,7 @@
         <v>196</v>
       </c>
       <c r="I147" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J147" s="2">
         <v>4900</v>
@@ -7385,7 +7388,7 @@
         <v>197</v>
       </c>
       <c r="I148" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J148" s="2">
         <v>5100</v>
@@ -7418,7 +7421,7 @@
         <v>198</v>
       </c>
       <c r="I149" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J149" s="2">
         <v>5300</v>
@@ -7451,7 +7454,7 @@
         <v>199</v>
       </c>
       <c r="I150" s="4">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J150" s="2">
         <v>5500</v>
@@ -7484,7 +7487,7 @@
         <v>200</v>
       </c>
       <c r="I151" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J151" s="2">
         <v>5700</v>
@@ -7517,7 +7520,7 @@
         <v>201</v>
       </c>
       <c r="I152" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J152" s="2">
         <v>5900</v>
@@ -7550,7 +7553,7 @@
         <v>202</v>
       </c>
       <c r="I153" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="J153" s="2">
         <v>6100</v>
@@ -7583,7 +7586,7 @@
         <v>204</v>
       </c>
       <c r="I154" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J154" s="2">
         <v>6300</v>
@@ -7616,7 +7619,7 @@
         <v>204</v>
       </c>
       <c r="I155" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J155" s="2">
         <v>6500</v>
@@ -7649,7 +7652,7 @@
         <v>204</v>
       </c>
       <c r="I156" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J156" s="2">
         <v>6700</v>
@@ -7682,7 +7685,7 @@
         <v>204</v>
       </c>
       <c r="I157" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J157" s="2">
         <v>6900</v>
@@ -7715,7 +7718,7 @@
         <v>204</v>
       </c>
       <c r="I158" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J158" s="2">
         <v>7100</v>
@@ -7748,7 +7751,7 @@
         <v>204</v>
       </c>
       <c r="I159" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J159" s="2">
         <v>7300</v>
@@ -7781,7 +7784,7 @@
         <v>204</v>
       </c>
       <c r="I160" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J160" s="2">
         <v>7500</v>
@@ -7814,7 +7817,7 @@
         <v>204</v>
       </c>
       <c r="I161" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J161" s="2">
         <v>7700</v>
@@ -7847,7 +7850,7 @@
         <v>204</v>
       </c>
       <c r="I162" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J162" s="2">
         <v>7900</v>
@@ -7880,7 +7883,7 @@
         <v>204</v>
       </c>
       <c r="I163" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J163" s="2">
         <v>8100</v>
@@ -7913,7 +7916,7 @@
         <v>205</v>
       </c>
       <c r="I164" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J164" s="2">
         <v>8300</v>
@@ -7946,7 +7949,7 @@
         <v>206</v>
       </c>
       <c r="I165" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J165" s="2">
         <v>8500</v>
@@ -7979,7 +7982,7 @@
         <v>207</v>
       </c>
       <c r="I166" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J166" s="2">
         <v>8700</v>
@@ -8012,7 +8015,7 @@
         <v>208</v>
       </c>
       <c r="I167" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J167" s="2">
         <v>8900</v>
@@ -8045,7 +8048,7 @@
         <v>209</v>
       </c>
       <c r="I168" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J168" s="2">
         <v>9100</v>
@@ -8078,7 +8081,7 @@
         <v>210</v>
       </c>
       <c r="I169" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J169" s="2">
         <v>9300</v>
@@ -8111,7 +8114,7 @@
         <v>211</v>
       </c>
       <c r="I170" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J170" s="2">
         <v>9500</v>
@@ -8144,7 +8147,7 @@
         <v>212</v>
       </c>
       <c r="I171" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J171" s="2">
         <v>9700</v>
@@ -8177,7 +8180,7 @@
         <v>213</v>
       </c>
       <c r="I172" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J172" s="2">
         <v>9900</v>
@@ -8210,7 +8213,7 @@
         <v>214</v>
       </c>
       <c r="I173" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J173" s="2">
         <v>10000</v>
@@ -8243,7 +8246,7 @@
         <v>215</v>
       </c>
       <c r="I174" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J174" s="2">
         <v>11000</v>
@@ -8276,7 +8279,7 @@
         <v>216</v>
       </c>
       <c r="I175" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J175" s="2">
         <v>12000</v>
@@ -8309,7 +8312,7 @@
         <v>217</v>
       </c>
       <c r="I176" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J176" s="2">
         <v>13000</v>
@@ -8342,7 +8345,7 @@
         <v>218</v>
       </c>
       <c r="I177" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J177" s="2">
         <v>14000</v>
@@ -8375,7 +8378,7 @@
         <v>219</v>
       </c>
       <c r="I178" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J178" s="2">
         <v>15000</v>
@@ -8408,7 +8411,7 @@
         <v>220</v>
       </c>
       <c r="I179" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J179" s="2">
         <v>16000</v>
@@ -8441,7 +8444,7 @@
         <v>221</v>
       </c>
       <c r="I180" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J180" s="2">
         <v>17000</v>
@@ -8474,7 +8477,7 @@
         <v>222</v>
       </c>
       <c r="I181" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J181" s="2">
         <v>18000</v>
@@ -8507,7 +8510,7 @@
         <v>223</v>
       </c>
       <c r="I182" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J182" s="2">
         <v>19000</v>
@@ -8540,7 +8543,7 @@
         <v>224</v>
       </c>
       <c r="I183" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J183" s="2">
         <v>20000</v>
@@ -8573,7 +8576,7 @@
         <v>225</v>
       </c>
       <c r="I184" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J184" s="2">
         <v>21000</v>
@@ -8606,7 +8609,7 @@
         <v>226</v>
       </c>
       <c r="I185" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J185" s="2">
         <v>22000</v>
@@ -8639,7 +8642,7 @@
         <v>227</v>
       </c>
       <c r="I186" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J186" s="2">
         <v>23000</v>
@@ -8672,7 +8675,7 @@
         <v>228</v>
       </c>
       <c r="I187" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J187" s="2">
         <v>24000</v>
@@ -8705,7 +8708,7 @@
         <v>229</v>
       </c>
       <c r="I188" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J188" s="2">
         <v>25000</v>
@@ -8738,7 +8741,7 @@
         <v>230</v>
       </c>
       <c r="I189" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J189" s="2">
         <v>26000</v>
@@ -8771,7 +8774,7 @@
         <v>231</v>
       </c>
       <c r="I190" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J190" s="2">
         <v>27000</v>
@@ -8804,7 +8807,7 @@
         <v>232</v>
       </c>
       <c r="I191" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J191" s="2">
         <v>28000</v>
@@ -8837,7 +8840,7 @@
         <v>233</v>
       </c>
       <c r="I192" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J192" s="2">
         <v>29000</v>
@@ -8870,7 +8873,7 @@
         <v>234</v>
       </c>
       <c r="I193" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J193" s="2">
         <v>30000</v>
@@ -8903,7 +8906,7 @@
         <v>235</v>
       </c>
       <c r="I194" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J194" s="2">
         <v>31000</v>
@@ -8936,7 +8939,7 @@
         <v>236</v>
       </c>
       <c r="I195" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J195" s="2">
         <v>32000</v>
@@ -8969,7 +8972,7 @@
         <v>237</v>
       </c>
       <c r="I196" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J196" s="2">
         <v>33000</v>
@@ -9002,7 +9005,7 @@
         <v>238</v>
       </c>
       <c r="I197" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J197" s="2">
         <v>34000</v>
@@ -9035,7 +9038,7 @@
         <v>239</v>
       </c>
       <c r="I198" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J198" s="2">
         <v>35000</v>
@@ -9068,7 +9071,7 @@
         <v>240</v>
       </c>
       <c r="I199" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J199" s="2">
         <v>36000</v>
@@ -9101,7 +9104,7 @@
         <v>241</v>
       </c>
       <c r="I200" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J200" s="2">
         <v>37000</v>
@@ -9134,7 +9137,7 @@
         <v>242</v>
       </c>
       <c r="I201" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J201" s="2">
         <v>38000</v>
@@ -9167,7 +9170,7 @@
         <v>243</v>
       </c>
       <c r="I202" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J202" s="2">
         <v>39000</v>
@@ -9200,7 +9203,7 @@
         <v>244</v>
       </c>
       <c r="I203" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="J203" s="2">
         <v>40000</v>
@@ -9233,7 +9236,7 @@
         <v>245</v>
       </c>
       <c r="I204" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J204" s="2">
         <v>41000</v>
@@ -9266,7 +9269,7 @@
         <v>245</v>
       </c>
       <c r="I205" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J205" s="2">
         <v>42000</v>
@@ -9299,7 +9302,7 @@
         <v>245</v>
       </c>
       <c r="I206" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J206" s="2">
         <v>43000</v>
@@ -9332,7 +9335,7 @@
         <v>245</v>
       </c>
       <c r="I207" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J207" s="2">
         <v>44000</v>
@@ -9365,7 +9368,7 @@
         <v>245</v>
       </c>
       <c r="I208" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J208" s="2">
         <v>45000</v>
@@ -9398,7 +9401,7 @@
         <v>245</v>
       </c>
       <c r="I209" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J209" s="2">
         <v>46000</v>
@@ -9431,7 +9434,7 @@
         <v>245</v>
       </c>
       <c r="I210" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J210" s="2">
         <v>47000</v>
@@ -9464,7 +9467,7 @@
         <v>245</v>
       </c>
       <c r="I211" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J211" s="2">
         <v>48000</v>
@@ -9497,7 +9500,7 @@
         <v>245</v>
       </c>
       <c r="I212" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J212" s="2">
         <v>49000</v>
@@ -9530,7 +9533,7 @@
         <v>245</v>
       </c>
       <c r="I213" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J213" s="2">
         <v>50000</v>
@@ -9563,7 +9566,7 @@
         <v>246</v>
       </c>
       <c r="I214" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J214" s="2">
         <v>51000</v>
@@ -9596,7 +9599,7 @@
         <v>247</v>
       </c>
       <c r="I215" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J215" s="2">
         <v>52000</v>
@@ -9629,7 +9632,7 @@
         <v>248</v>
       </c>
       <c r="I216" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J216" s="2">
         <v>53000</v>
@@ -9662,7 +9665,7 @@
         <v>249</v>
       </c>
       <c r="I217" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J217" s="2">
         <v>54000</v>
@@ -9695,7 +9698,7 @@
         <v>250</v>
       </c>
       <c r="I218" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J218" s="2">
         <v>55000</v>
@@ -9728,7 +9731,7 @@
         <v>251</v>
       </c>
       <c r="I219" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J219" s="2">
         <v>56000</v>
@@ -9761,7 +9764,7 @@
         <v>252</v>
       </c>
       <c r="I220" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J220" s="2">
         <v>57000</v>
@@ -9794,7 +9797,7 @@
         <v>253</v>
       </c>
       <c r="I221" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J221" s="2">
         <v>58000</v>
@@ -9827,7 +9830,7 @@
         <v>254</v>
       </c>
       <c r="I222" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J222" s="2">
         <v>59000</v>
@@ -9860,7 +9863,7 @@
         <v>255</v>
       </c>
       <c r="I223" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J223" s="2">
         <v>60000</v>
@@ -9893,7 +9896,7 @@
         <v>256</v>
       </c>
       <c r="I224" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J224" s="2">
         <v>61000</v>
@@ -9926,7 +9929,7 @@
         <v>257</v>
       </c>
       <c r="I225" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J225" s="2">
         <v>62000</v>
@@ -9959,7 +9962,7 @@
         <v>258</v>
       </c>
       <c r="I226" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J226" s="2">
         <v>63000</v>
@@ -9992,7 +9995,7 @@
         <v>259</v>
       </c>
       <c r="I227" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J227" s="2">
         <v>64000</v>
@@ -10025,7 +10028,7 @@
         <v>260</v>
       </c>
       <c r="I228" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J228" s="2">
         <v>65000</v>
@@ -10058,7 +10061,7 @@
         <v>261</v>
       </c>
       <c r="I229" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J229" s="2">
         <v>66000</v>
@@ -10091,7 +10094,7 @@
         <v>262</v>
       </c>
       <c r="I230" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J230" s="2">
         <v>67000</v>
@@ -10124,7 +10127,7 @@
         <v>263</v>
       </c>
       <c r="I231" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J231" s="2">
         <v>68000</v>
@@ -10157,7 +10160,7 @@
         <v>264</v>
       </c>
       <c r="I232" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J232" s="2">
         <v>69000</v>
@@ -10190,7 +10193,7 @@
         <v>265</v>
       </c>
       <c r="I233" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J233" s="2">
         <v>70000</v>
@@ -10223,7 +10226,7 @@
         <v>266</v>
       </c>
       <c r="I234" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J234" s="2">
         <v>71000</v>
@@ -10256,7 +10259,7 @@
         <v>267</v>
       </c>
       <c r="I235" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J235" s="2">
         <v>72000</v>
@@ -10289,7 +10292,7 @@
         <v>268</v>
       </c>
       <c r="I236" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J236" s="2">
         <v>73000</v>
@@ -10322,7 +10325,7 @@
         <v>269</v>
       </c>
       <c r="I237" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J237" s="2">
         <v>74000</v>
@@ -10355,7 +10358,7 @@
         <v>270</v>
       </c>
       <c r="I238" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J238" s="2">
         <v>75000</v>
@@ -10388,7 +10391,7 @@
         <v>271</v>
       </c>
       <c r="I239" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J239" s="2">
         <v>76000</v>
@@ -10421,7 +10424,7 @@
         <v>272</v>
       </c>
       <c r="I240" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J240" s="2">
         <v>77000</v>
@@ -10454,7 +10457,7 @@
         <v>273</v>
       </c>
       <c r="I241" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J241" s="2">
         <v>78000</v>
@@ -10487,7 +10490,7 @@
         <v>274</v>
       </c>
       <c r="I242" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J242" s="2">
         <v>79000</v>
@@ -10520,7 +10523,7 @@
         <v>275</v>
       </c>
       <c r="I243" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J243" s="2">
         <v>80000</v>
@@ -10553,7 +10556,7 @@
         <v>276</v>
       </c>
       <c r="I244" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J244" s="2">
         <v>81000</v>
@@ -10586,7 +10589,7 @@
         <v>277</v>
       </c>
       <c r="I245" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J245" s="2">
         <v>82000</v>
@@ -10619,7 +10622,7 @@
         <v>278</v>
       </c>
       <c r="I246" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J246" s="2">
         <v>83000</v>
@@ -10652,7 +10655,7 @@
         <v>279</v>
       </c>
       <c r="I247" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J247" s="2">
         <v>84000</v>
@@ -10685,7 +10688,7 @@
         <v>280</v>
       </c>
       <c r="I248" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J248" s="2">
         <v>85000</v>
@@ -10718,7 +10721,7 @@
         <v>281</v>
       </c>
       <c r="I249" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J249" s="2">
         <v>86000</v>
@@ -10751,7 +10754,7 @@
         <v>282</v>
       </c>
       <c r="I250" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J250" s="2">
         <v>87000</v>
@@ -10784,7 +10787,7 @@
         <v>283</v>
       </c>
       <c r="I251" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J251" s="2">
         <v>88000</v>
@@ -10817,7 +10820,7 @@
         <v>284</v>
       </c>
       <c r="I252" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J252" s="2">
         <v>89000</v>
@@ -10850,7 +10853,7 @@
         <v>285</v>
       </c>
       <c r="I253" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J253" s="2">
         <v>90000</v>
@@ -10883,7 +10886,7 @@
         <v>286</v>
       </c>
       <c r="I254" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J254" s="2">
         <v>91000</v>
@@ -10916,7 +10919,7 @@
         <v>287</v>
       </c>
       <c r="I255" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J255" s="2">
         <v>92000</v>
@@ -10949,7 +10952,7 @@
         <v>288</v>
       </c>
       <c r="I256" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J256" s="2">
         <v>93000</v>
@@ -10982,7 +10985,7 @@
         <v>289</v>
       </c>
       <c r="I257" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J257" s="2">
         <v>94000</v>
@@ -11015,7 +11018,7 @@
         <v>290</v>
       </c>
       <c r="I258" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J258" s="2">
         <v>95000</v>
@@ -11048,7 +11051,7 @@
         <v>291</v>
       </c>
       <c r="I259" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J259" s="2">
         <v>96000</v>
@@ -11081,7 +11084,7 @@
         <v>292</v>
       </c>
       <c r="I260" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J260" s="2">
         <v>97000</v>
@@ -11114,7 +11117,7 @@
         <v>293</v>
       </c>
       <c r="I261" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J261" s="2">
         <v>98000</v>
@@ -11147,7 +11150,7 @@
         <v>294</v>
       </c>
       <c r="I262" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J262" s="2">
         <v>99000</v>
@@ -11180,7 +11183,7 @@
         <v>295</v>
       </c>
       <c r="I263" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J263" s="2">
         <v>100000</v>
@@ -11213,7 +11216,7 @@
         <v>296</v>
       </c>
       <c r="I264" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J264" s="2">
         <v>110000</v>
@@ -11246,7 +11249,7 @@
         <v>297</v>
       </c>
       <c r="I265" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J265" s="2">
         <v>120000</v>
@@ -11279,7 +11282,7 @@
         <v>298</v>
       </c>
       <c r="I266" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J266" s="2">
         <v>130000</v>
@@ -11312,7 +11315,7 @@
         <v>299</v>
       </c>
       <c r="I267" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J267" s="2">
         <v>140000</v>
@@ -11345,7 +11348,7 @@
         <v>300</v>
       </c>
       <c r="I268" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J268" s="2">
         <v>150000</v>
@@ -11378,7 +11381,7 @@
         <v>301</v>
       </c>
       <c r="I269" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J269" s="2">
         <v>160000</v>
@@ -11411,7 +11414,7 @@
         <v>302</v>
       </c>
       <c r="I270" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J270" s="2">
         <v>170000</v>
@@ -11444,7 +11447,7 @@
         <v>303</v>
       </c>
       <c r="I271" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J271" s="2">
         <v>180000</v>
@@ -11477,7 +11480,7 @@
         <v>304</v>
       </c>
       <c r="I272" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J272" s="2">
         <v>190000</v>
@@ -11510,7 +11513,7 @@
         <v>305</v>
       </c>
       <c r="I273" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J273" s="2">
         <v>200000</v>
@@ -11543,7 +11546,7 @@
         <v>306</v>
       </c>
       <c r="I274" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J274" s="2">
         <v>210000</v>
@@ -11576,7 +11579,7 @@
         <v>307</v>
       </c>
       <c r="I275" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J275" s="2">
         <v>220000</v>
@@ -11609,7 +11612,7 @@
         <v>308</v>
       </c>
       <c r="I276" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J276" s="2">
         <v>230000</v>
@@ -11642,7 +11645,7 @@
         <v>309</v>
       </c>
       <c r="I277" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J277" s="2">
         <v>240000</v>
@@ -11675,7 +11678,7 @@
         <v>310</v>
       </c>
       <c r="I278" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J278" s="2">
         <v>250000</v>
@@ -11708,7 +11711,7 @@
         <v>311</v>
       </c>
       <c r="I279" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J279" s="2">
         <v>260000</v>
@@ -11741,7 +11744,7 @@
         <v>312</v>
       </c>
       <c r="I280" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J280" s="2">
         <v>270000</v>
@@ -11774,7 +11777,7 @@
         <v>313</v>
       </c>
       <c r="I281" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J281" s="2">
         <v>280000</v>
@@ -11807,7 +11810,7 @@
         <v>314</v>
       </c>
       <c r="I282" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J282" s="2">
         <v>290000</v>
@@ -11840,7 +11843,7 @@
         <v>315</v>
       </c>
       <c r="I283" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J283" s="2">
         <v>300000</v>
@@ -11873,7 +11876,7 @@
         <v>316</v>
       </c>
       <c r="I284" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J284" s="2">
         <v>310000</v>
@@ -11906,7 +11909,7 @@
         <v>317</v>
       </c>
       <c r="I285" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J285" s="2">
         <v>320000</v>
@@ -11939,7 +11942,7 @@
         <v>318</v>
       </c>
       <c r="I286" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J286" s="2">
         <v>330000</v>
@@ -11972,7 +11975,7 @@
         <v>319</v>
       </c>
       <c r="I287" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J287" s="2">
         <v>340000</v>
@@ -12005,7 +12008,7 @@
         <v>320</v>
       </c>
       <c r="I288" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J288" s="2">
         <v>350000</v>
@@ -12038,7 +12041,7 @@
         <v>321</v>
       </c>
       <c r="I289" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J289" s="2">
         <v>360000</v>
@@ -12071,7 +12074,7 @@
         <v>322</v>
       </c>
       <c r="I290" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J290" s="2">
         <v>370000</v>
@@ -12104,7 +12107,7 @@
         <v>323</v>
       </c>
       <c r="I291" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J291" s="2">
         <v>380000</v>
@@ -12137,7 +12140,7 @@
         <v>324</v>
       </c>
       <c r="I292" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J292" s="2">
         <v>390000</v>
@@ -12170,7 +12173,7 @@
         <v>325</v>
       </c>
       <c r="I293" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J293" s="2">
         <v>400000</v>
@@ -12203,7 +12206,7 @@
         <v>326</v>
       </c>
       <c r="I294" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J294" s="2">
         <v>410000</v>
@@ -12221,7 +12224,7 @@
         <v>0.5</v>
       </c>
       <c r="D295" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E295" s="2">
         <v>1.3</v>
@@ -12236,7 +12239,7 @@
         <v>327</v>
       </c>
       <c r="I295" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J295" s="2">
         <v>420000</v>
@@ -12254,7 +12257,7 @@
         <v>0.5</v>
       </c>
       <c r="D296" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E296" s="2">
         <v>1.3</v>
@@ -12269,7 +12272,7 @@
         <v>328</v>
       </c>
       <c r="I296" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J296" s="2">
         <v>430000</v>
@@ -12287,7 +12290,7 @@
         <v>0.5</v>
       </c>
       <c r="D297" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E297" s="2">
         <v>1.3</v>
@@ -12302,7 +12305,7 @@
         <v>329</v>
       </c>
       <c r="I297" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J297" s="2">
         <v>440000</v>
@@ -12320,7 +12323,7 @@
         <v>0.5</v>
       </c>
       <c r="D298" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E298" s="2">
         <v>1.3</v>
@@ -12335,7 +12338,7 @@
         <v>330</v>
       </c>
       <c r="I298" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J298" s="2">
         <v>450000</v>
@@ -12353,7 +12356,7 @@
         <v>0.5</v>
       </c>
       <c r="D299" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E299" s="2">
         <v>1.3</v>
@@ -12368,7 +12371,7 @@
         <v>331</v>
       </c>
       <c r="I299" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="J299" s="2">
         <v>460000</v>
@@ -12386,7 +12389,7 @@
         <v>0.5</v>
       </c>
       <c r="D300" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E300" s="2">
         <v>1.3</v>
@@ -12401,7 +12404,7 @@
         <v>332</v>
       </c>
       <c r="I300" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J300" s="2">
         <v>470000</v>
@@ -12419,7 +12422,7 @@
         <v>0.5</v>
       </c>
       <c r="D301" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E301" s="2">
         <v>1.3</v>
@@ -12434,7 +12437,7 @@
         <v>333</v>
       </c>
       <c r="I301" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J301" s="2">
         <v>480000</v>
@@ -12452,7 +12455,7 @@
         <v>0.5</v>
       </c>
       <c r="D302" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E302" s="2">
         <v>1.3</v>
@@ -12467,7 +12470,7 @@
         <v>334</v>
       </c>
       <c r="I302" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J302" s="2">
         <v>490000</v>
@@ -12479,16 +12482,16 @@
         <v>300</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C303" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D303" s="2">
-        <v>5.00000000000025</v>
+        <v>4</v>
       </c>
       <c r="E303" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F303" s="2">
         <v>160000</v>
@@ -12497,10 +12500,10 @@
         <v>35</v>
       </c>
       <c r="H303" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I303" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J303" s="2">
         <v>500000</v>
@@ -12515,13 +12518,13 @@
         <v>126</v>
       </c>
       <c r="C304" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D304" s="2">
-        <v>5.01</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E304" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F304" s="2">
         <v>320000</v>
@@ -12530,10 +12533,10 @@
         <v>26</v>
       </c>
       <c r="H304" s="3" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I304" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J304" s="2">
         <v>510000</v>
@@ -12548,13 +12551,13 @@
         <v>128</v>
       </c>
       <c r="C305" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D305" s="2">
-        <v>5.01999999999975</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E305" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F305" s="2">
         <v>320000</v>
@@ -12563,10 +12566,10 @@
         <v>26</v>
       </c>
       <c r="H305" s="3" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="I305" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J305" s="2">
         <v>520000</v>
@@ -12581,13 +12584,13 @@
         <v>129</v>
       </c>
       <c r="C306" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D306" s="2">
-        <v>5.02999999999951</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E306" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F306" s="2">
         <v>320000</v>
@@ -12596,10 +12599,10 @@
         <v>26</v>
       </c>
       <c r="H306" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="I306" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J306" s="2">
         <v>530000</v>
@@ -12614,13 +12617,13 @@
         <v>130</v>
       </c>
       <c r="C307" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D307" s="2">
-        <v>5.03999999999926</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E307" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F307" s="2">
         <v>320000</v>
@@ -12629,10 +12632,10 @@
         <v>26</v>
       </c>
       <c r="H307" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="I307" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J307" s="2">
         <v>540000</v>
@@ -12647,13 +12650,13 @@
         <v>131</v>
       </c>
       <c r="C308" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D308" s="2">
-        <v>5.04999999999902</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E308" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F308" s="2">
         <v>320000</v>
@@ -12662,10 +12665,10 @@
         <v>35</v>
       </c>
       <c r="H308" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I308" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J308" s="2">
         <v>550000</v>
@@ -12680,13 +12683,13 @@
         <v>132</v>
       </c>
       <c r="C309" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D309" s="2">
-        <v>5.05999999999877</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E309" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F309" s="2">
         <v>320000</v>
@@ -12695,10 +12698,10 @@
         <v>26</v>
       </c>
       <c r="H309" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="I309" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J309" s="2">
         <v>560000</v>
@@ -12713,13 +12716,13 @@
         <v>38</v>
       </c>
       <c r="C310" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D310" s="2">
-        <v>5.06999999999853</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E310" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F310" s="2">
         <v>320000</v>
@@ -12728,10 +12731,10 @@
         <v>26</v>
       </c>
       <c r="H310" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I310" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J310" s="2">
         <v>570000</v>
@@ -12746,13 +12749,13 @@
         <v>40</v>
       </c>
       <c r="C311" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D311" s="2">
-        <v>5.07999999999828</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E311" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F311" s="2">
         <v>320000</v>
@@ -12761,10 +12764,10 @@
         <v>26</v>
       </c>
       <c r="H311" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I311" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J311" s="2">
         <v>580000</v>
@@ -12779,13 +12782,13 @@
         <v>42</v>
       </c>
       <c r="C312" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D312" s="2">
-        <v>5.08999999999804</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E312" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F312" s="2">
         <v>320000</v>
@@ -12794,10 +12797,10 @@
         <v>26</v>
       </c>
       <c r="H312" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="I312" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J312" s="2">
         <v>590000</v>
@@ -12812,13 +12815,13 @@
         <v>44</v>
       </c>
       <c r="C313" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D313" s="2">
-        <v>5.09999999999779</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E313" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F313" s="2">
         <v>320000</v>
@@ -12827,10 +12830,10 @@
         <v>35</v>
       </c>
       <c r="H313" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I313" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J313" s="2">
         <v>600000</v>
@@ -12845,13 +12848,13 @@
         <v>134</v>
       </c>
       <c r="C314" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D314" s="2">
-        <v>5.10999999999755</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E314" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F314" s="2">
         <v>320000</v>
@@ -12860,10 +12863,10 @@
         <v>26</v>
       </c>
       <c r="H314" s="3" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="I314" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J314" s="2">
         <v>610000</v>
@@ -12878,13 +12881,13 @@
         <v>48</v>
       </c>
       <c r="C315" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D315" s="2">
-        <v>5.1199999999973</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E315" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F315" s="2">
         <v>320000</v>
@@ -12893,10 +12896,10 @@
         <v>26</v>
       </c>
       <c r="H315" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I315" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J315" s="2">
         <v>620000</v>
@@ -12911,13 +12914,13 @@
         <v>137</v>
       </c>
       <c r="C316" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D316" s="2">
-        <v>5.12999999999706</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E316" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F316" s="2">
         <v>320000</v>
@@ -12926,10 +12929,10 @@
         <v>26</v>
       </c>
       <c r="H316" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="I316" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J316" s="2">
         <v>630000</v>
@@ -12944,13 +12947,13 @@
         <v>52</v>
       </c>
       <c r="C317" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D317" s="2">
-        <v>5.13999999999681</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E317" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F317" s="2">
         <v>320000</v>
@@ -12959,10 +12962,10 @@
         <v>26</v>
       </c>
       <c r="H317" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="I317" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J317" s="2">
         <v>640000</v>
@@ -12977,13 +12980,13 @@
         <v>140</v>
       </c>
       <c r="C318" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D318" s="2">
-        <v>5.14999999999656</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E318" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F318" s="2">
         <v>320000</v>
@@ -12992,10 +12995,10 @@
         <v>35</v>
       </c>
       <c r="H318" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="I318" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J318" s="2">
         <v>650000</v>
@@ -13010,13 +13013,13 @@
         <v>56</v>
       </c>
       <c r="C319" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D319" s="2">
-        <v>5.15999999999632</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E319" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F319" s="2">
         <v>320000</v>
@@ -13025,10 +13028,10 @@
         <v>26</v>
       </c>
       <c r="H319" s="3" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="I319" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J319" s="2">
         <v>660000</v>
@@ -13043,13 +13046,13 @@
         <v>143</v>
       </c>
       <c r="C320" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D320" s="2">
-        <v>5.16999999999607</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E320" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F320" s="2">
         <v>320000</v>
@@ -13058,10 +13061,10 @@
         <v>26</v>
       </c>
       <c r="H320" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="I320" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J320" s="2">
         <v>670000</v>
@@ -13076,13 +13079,13 @@
         <v>145</v>
       </c>
       <c r="C321" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D321" s="2">
-        <v>5.17999999999583</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E321" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F321" s="2">
         <v>320000</v>
@@ -13091,10 +13094,10 @@
         <v>26</v>
       </c>
       <c r="H321" s="3" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="I321" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J321" s="2">
         <v>680000</v>
@@ -13109,13 +13112,13 @@
         <v>147</v>
       </c>
       <c r="C322" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D322" s="2">
-        <v>5.18999999999558</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E322" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F322" s="2">
         <v>320000</v>
@@ -13124,10 +13127,10 @@
         <v>26</v>
       </c>
       <c r="H322" s="3" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="I322" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J322" s="2">
         <v>690000</v>
@@ -13142,13 +13145,13 @@
         <v>149</v>
       </c>
       <c r="C323" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D323" s="2">
-        <v>5.19999999999534</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E323" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F323" s="2">
         <v>320000</v>
@@ -13157,10 +13160,10 @@
         <v>35</v>
       </c>
       <c r="H323" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="I323" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J323" s="2">
         <v>700000</v>
@@ -13175,13 +13178,13 @@
         <v>66</v>
       </c>
       <c r="C324" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D324" s="2">
-        <v>5.20999999999509</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E324" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F324" s="2">
         <v>320000</v>
@@ -13190,10 +13193,10 @@
         <v>26</v>
       </c>
       <c r="H324" s="3" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I324" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J324" s="2">
         <v>710000</v>
@@ -13208,13 +13211,13 @@
         <v>68</v>
       </c>
       <c r="C325" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D325" s="2">
-        <v>5.21999999999485</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E325" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F325" s="2">
         <v>320000</v>
@@ -13223,10 +13226,10 @@
         <v>26</v>
       </c>
       <c r="H325" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="I325" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J325" s="2">
         <v>720000</v>
@@ -13241,13 +13244,13 @@
         <v>70</v>
       </c>
       <c r="C326" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D326" s="2">
-        <v>5.2299999999946</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E326" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F326" s="2">
         <v>320000</v>
@@ -13256,10 +13259,10 @@
         <v>26</v>
       </c>
       <c r="H326" s="3" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I326" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J326" s="2">
         <v>730000</v>
@@ -13274,13 +13277,13 @@
         <v>72</v>
       </c>
       <c r="C327" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D327" s="2">
-        <v>5.23999999999436</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E327" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F327" s="2">
         <v>320000</v>
@@ -13289,10 +13292,10 @@
         <v>26</v>
       </c>
       <c r="H327" s="3" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="I327" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J327" s="2">
         <v>740000</v>
@@ -13307,13 +13310,13 @@
         <v>74</v>
       </c>
       <c r="C328" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D328" s="2">
-        <v>5.24999999999411</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E328" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F328" s="2">
         <v>320000</v>
@@ -13322,10 +13325,10 @@
         <v>35</v>
       </c>
       <c r="H328" s="3" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I328" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J328" s="2">
         <v>750000</v>
@@ -13340,13 +13343,13 @@
         <v>76</v>
       </c>
       <c r="C329" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D329" s="2">
-        <v>5.25999999999387</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E329" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F329" s="2">
         <v>320000</v>
@@ -13355,10 +13358,10 @@
         <v>26</v>
       </c>
       <c r="H329" s="3" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I329" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J329" s="2">
         <v>760000</v>
@@ -13373,13 +13376,13 @@
         <v>78</v>
       </c>
       <c r="C330" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D330" s="2">
-        <v>5.26999999999362</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E330" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F330" s="2">
         <v>320000</v>
@@ -13388,10 +13391,10 @@
         <v>26</v>
       </c>
       <c r="H330" s="3" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I330" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J330" s="2">
         <v>770000</v>
@@ -13406,13 +13409,13 @@
         <v>80</v>
       </c>
       <c r="C331" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D331" s="2">
-        <v>5.27999999999338</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E331" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F331" s="2">
         <v>320000</v>
@@ -13421,10 +13424,10 @@
         <v>26</v>
       </c>
       <c r="H331" s="3" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I331" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J331" s="2">
         <v>780000</v>
@@ -13439,13 +13442,13 @@
         <v>82</v>
       </c>
       <c r="C332" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D332" s="2">
-        <v>5.28999999999313</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E332" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F332" s="2">
         <v>320000</v>
@@ -13454,10 +13457,10 @@
         <v>26</v>
       </c>
       <c r="H332" s="3" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="I332" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J332" s="2">
         <v>790000</v>
@@ -13472,13 +13475,13 @@
         <v>84</v>
       </c>
       <c r="C333" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D333" s="2">
-        <v>5.29999999999288</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E333" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F333" s="2">
         <v>320000</v>
@@ -13487,10 +13490,10 @@
         <v>35</v>
       </c>
       <c r="H333" s="3" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="I333" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J333" s="2">
         <v>800000</v>
@@ -13505,13 +13508,13 @@
         <v>86</v>
       </c>
       <c r="C334" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D334" s="2">
-        <v>5.30999999999264</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E334" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F334" s="2">
         <v>320000</v>
@@ -13520,10 +13523,10 @@
         <v>26</v>
       </c>
       <c r="H334" s="3" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="I334" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J334" s="2">
         <v>810000</v>
@@ -13538,13 +13541,13 @@
         <v>88</v>
       </c>
       <c r="C335" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D335" s="2">
-        <v>5.31999999999239</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E335" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F335" s="2">
         <v>320000</v>
@@ -13553,10 +13556,10 @@
         <v>26</v>
       </c>
       <c r="H335" s="3" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="I335" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J335" s="2">
         <v>820000</v>
@@ -13571,13 +13574,13 @@
         <v>90</v>
       </c>
       <c r="C336" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D336" s="2">
-        <v>5.32999999999215</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E336" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F336" s="2">
         <v>320000</v>
@@ -13586,10 +13589,10 @@
         <v>26</v>
       </c>
       <c r="H336" s="3" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I336" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J336" s="2">
         <v>830000</v>
@@ -13604,13 +13607,13 @@
         <v>92</v>
       </c>
       <c r="C337" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D337" s="2">
-        <v>5.3399999999919</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E337" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F337" s="2">
         <v>320000</v>
@@ -13619,10 +13622,10 @@
         <v>26</v>
       </c>
       <c r="H337" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="I337" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J337" s="2">
         <v>840000</v>
@@ -13637,13 +13640,13 @@
         <v>94</v>
       </c>
       <c r="C338" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D338" s="2">
-        <v>5.34999999999166</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E338" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F338" s="2">
         <v>320000</v>
@@ -13652,10 +13655,10 @@
         <v>35</v>
       </c>
       <c r="H338" s="3" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="I338" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J338" s="2">
         <v>850000</v>
@@ -13670,13 +13673,13 @@
         <v>96</v>
       </c>
       <c r="C339" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D339" s="2">
-        <v>5.35999999999141</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E339" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F339" s="2">
         <v>320000</v>
@@ -13685,10 +13688,10 @@
         <v>26</v>
       </c>
       <c r="H339" s="3" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="I339" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J339" s="2">
         <v>860000</v>
@@ -13703,13 +13706,13 @@
         <v>98</v>
       </c>
       <c r="C340" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D340" s="2">
-        <v>5.36999999999117</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E340" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F340" s="2">
         <v>320000</v>
@@ -13718,10 +13721,10 @@
         <v>26</v>
       </c>
       <c r="H340" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I340" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J340" s="2">
         <v>870000</v>
@@ -13736,13 +13739,13 @@
         <v>100</v>
       </c>
       <c r="C341" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D341" s="2">
-        <v>5.37999999999092</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E341" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F341" s="2">
         <v>320000</v>
@@ -13751,10 +13754,10 @@
         <v>26</v>
       </c>
       <c r="H341" s="3" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="I341" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J341" s="2">
         <v>880000</v>
@@ -13769,13 +13772,13 @@
         <v>102</v>
       </c>
       <c r="C342" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D342" s="2">
-        <v>5.38999999999068</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E342" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F342" s="2">
         <v>320000</v>
@@ -13784,10 +13787,10 @@
         <v>26</v>
       </c>
       <c r="H342" s="3" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="I342" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J342" s="2">
         <v>890000</v>
@@ -13802,13 +13805,13 @@
         <v>104</v>
       </c>
       <c r="C343" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D343" s="2">
-        <v>5.39999999999043</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E343" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F343" s="2">
         <v>320000</v>
@@ -13817,10 +13820,10 @@
         <v>35</v>
       </c>
       <c r="H343" s="3" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="I343" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J343" s="2">
         <v>900000</v>
@@ -13835,13 +13838,13 @@
         <v>106</v>
       </c>
       <c r="C344" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D344" s="2">
-        <v>5.40999999999019</v>
+        <v>4</v>
       </c>
       <c r="E344" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F344" s="2">
         <v>320000</v>
@@ -13850,10 +13853,10 @@
         <v>26</v>
       </c>
       <c r="H344" s="3" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I344" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J344" s="2">
         <v>910000</v>
@@ -13868,13 +13871,13 @@
         <v>108</v>
       </c>
       <c r="C345" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D345" s="2">
-        <v>5.41999999998994</v>
+        <v>4</v>
       </c>
       <c r="E345" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F345" s="2">
         <v>320000</v>
@@ -13883,10 +13886,10 @@
         <v>26</v>
       </c>
       <c r="H345" s="3" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I345" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J345" s="2">
         <v>920000</v>
@@ -13901,13 +13904,13 @@
         <v>110</v>
       </c>
       <c r="C346" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D346" s="2">
-        <v>5.4299999999897</v>
+        <v>4</v>
       </c>
       <c r="E346" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F346" s="2">
         <v>320000</v>
@@ -13916,10 +13919,10 @@
         <v>26</v>
       </c>
       <c r="H346" s="3" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I346" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J346" s="2">
         <v>930000</v>
@@ -13934,13 +13937,13 @@
         <v>112</v>
       </c>
       <c r="C347" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D347" s="2">
-        <v>5.43999999998945</v>
+        <v>4</v>
       </c>
       <c r="E347" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F347" s="2">
         <v>320000</v>
@@ -13949,10 +13952,10 @@
         <v>26</v>
       </c>
       <c r="H347" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="I347" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J347" s="2">
         <v>940000</v>
@@ -13967,13 +13970,13 @@
         <v>114</v>
       </c>
       <c r="C348" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D348" s="2">
-        <v>5.4499999999892</v>
+        <v>4</v>
       </c>
       <c r="E348" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F348" s="2">
         <v>320000</v>
@@ -13982,10 +13985,10 @@
         <v>35</v>
       </c>
       <c r="H348" s="3" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="I348" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J348" s="2">
         <v>950000</v>
@@ -14000,13 +14003,13 @@
         <v>116</v>
       </c>
       <c r="C349" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D349" s="2">
-        <v>5.45999999998896</v>
+        <v>4</v>
       </c>
       <c r="E349" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F349" s="2">
         <v>320000</v>
@@ -14015,10 +14018,10 @@
         <v>26</v>
       </c>
       <c r="H349" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="I349" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J349" s="2">
         <v>960000</v>
@@ -14033,13 +14036,13 @@
         <v>118</v>
       </c>
       <c r="C350" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D350" s="2">
-        <v>5.46999999998871</v>
+        <v>4</v>
       </c>
       <c r="E350" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F350" s="2">
         <v>320000</v>
@@ -14048,10 +14051,10 @@
         <v>26</v>
       </c>
       <c r="H350" s="3" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="I350" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J350" s="2">
         <v>970000</v>
@@ -14066,13 +14069,13 @@
         <v>120</v>
       </c>
       <c r="C351" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D351" s="2">
-        <v>5.47999999998847</v>
+        <v>4</v>
       </c>
       <c r="E351" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F351" s="2">
         <v>320000</v>
@@ -14081,10 +14084,10 @@
         <v>26</v>
       </c>
       <c r="H351" s="3" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="I351" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J351" s="2">
         <v>980000</v>
@@ -14099,13 +14102,13 @@
         <v>122</v>
       </c>
       <c r="C352" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D352" s="2">
-        <v>5.48999999998822</v>
+        <v>4</v>
       </c>
       <c r="E352" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F352" s="2">
         <v>320000</v>
@@ -14114,10 +14117,10 @@
         <v>26</v>
       </c>
       <c r="H352" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="I352" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J352" s="2">
         <v>990000</v>
@@ -14129,16 +14132,16 @@
         <v>350</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C353" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D353" s="2">
-        <v>5.49999999998798</v>
+        <v>4</v>
       </c>
       <c r="E353" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F353" s="2">
         <v>320000</v>
@@ -14147,10 +14150,10 @@
         <v>35</v>
       </c>
       <c r="H353" s="3" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I353" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J353" s="2">
         <v>1000000</v>
@@ -14165,13 +14168,13 @@
         <v>126</v>
       </c>
       <c r="C354" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D354" s="2">
-        <v>5.50999999998773</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E354" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F354" s="2">
         <v>1280000</v>
@@ -14180,10 +14183,10 @@
         <v>26</v>
       </c>
       <c r="H354" s="3" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I354" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J354" s="2">
         <v>1010000</v>
@@ -14198,13 +14201,13 @@
         <v>128</v>
       </c>
       <c r="C355" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D355" s="2">
-        <v>5.51999999998749</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E355" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F355" s="2">
         <v>1282000</v>
@@ -14213,10 +14216,10 @@
         <v>26</v>
       </c>
       <c r="H355" s="3" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I355" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J355" s="2">
         <v>1020000</v>
@@ -14231,13 +14234,13 @@
         <v>129</v>
       </c>
       <c r="C356" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D356" s="2">
-        <v>5.52999999998724</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E356" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F356" s="2">
         <v>1284000</v>
@@ -14246,10 +14249,10 @@
         <v>26</v>
       </c>
       <c r="H356" s="3" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="I356" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J356" s="2">
         <v>1030000</v>
@@ -14264,13 +14267,13 @@
         <v>130</v>
       </c>
       <c r="C357" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D357" s="2">
-        <v>5.539999999987</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E357" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F357" s="2">
         <v>1286000</v>
@@ -14279,10 +14282,10 @@
         <v>26</v>
       </c>
       <c r="H357" s="3" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="I357" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J357" s="2">
         <v>1040000</v>
@@ -14297,13 +14300,13 @@
         <v>131</v>
       </c>
       <c r="C358" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D358" s="2">
-        <v>5.54999999998675</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E358" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F358" s="2">
         <v>1288000</v>
@@ -14312,10 +14315,10 @@
         <v>35</v>
       </c>
       <c r="H358" s="3" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="I358" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J358" s="2">
         <v>1050000</v>
@@ -14330,13 +14333,13 @@
         <v>132</v>
       </c>
       <c r="C359" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D359" s="2">
-        <v>5.55999999998651</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E359" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F359" s="2">
         <v>1290000</v>
@@ -14345,10 +14348,10 @@
         <v>26</v>
       </c>
       <c r="H359" s="3" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I359" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J359" s="2">
         <v>1060000</v>
@@ -14363,13 +14366,13 @@
         <v>38</v>
       </c>
       <c r="C360" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D360" s="2">
-        <v>5.56999999998626</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E360" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F360" s="2">
         <v>1292000</v>
@@ -14378,10 +14381,10 @@
         <v>26</v>
       </c>
       <c r="H360" s="3" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="I360" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J360" s="2">
         <v>1070000</v>
@@ -14396,13 +14399,13 @@
         <v>40</v>
       </c>
       <c r="C361" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D361" s="2">
-        <v>5.57999999998601</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E361" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F361" s="2">
         <v>1294000</v>
@@ -14411,10 +14414,10 @@
         <v>26</v>
       </c>
       <c r="H361" s="3" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="I361" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J361" s="2">
         <v>1080000</v>
@@ -14429,13 +14432,13 @@
         <v>42</v>
       </c>
       <c r="C362" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D362" s="2">
-        <v>5.58999999998577</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E362" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F362" s="2">
         <v>1296000</v>
@@ -14444,10 +14447,10 @@
         <v>26</v>
       </c>
       <c r="H362" s="3" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="I362" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J362" s="2">
         <v>1090000</v>
@@ -14462,13 +14465,13 @@
         <v>44</v>
       </c>
       <c r="C363" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D363" s="2">
-        <v>5.59999999998552</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E363" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F363" s="2">
         <v>1298000</v>
@@ -14477,10 +14480,10 @@
         <v>35</v>
       </c>
       <c r="H363" s="3" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I363" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J363" s="2">
         <v>1100000</v>
@@ -14495,13 +14498,13 @@
         <v>134</v>
       </c>
       <c r="C364" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D364" s="2">
-        <v>5.60999999998528</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E364" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F364" s="2">
         <v>1300000</v>
@@ -14510,10 +14513,10 @@
         <v>26</v>
       </c>
       <c r="H364" s="3" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="I364" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J364" s="2">
         <v>1110000</v>
@@ -14528,13 +14531,13 @@
         <v>48</v>
       </c>
       <c r="C365" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D365" s="2">
-        <v>5.61999999998503</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E365" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F365" s="2">
         <v>1302000</v>
@@ -14543,10 +14546,10 @@
         <v>26</v>
       </c>
       <c r="H365" s="3" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I365" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J365" s="2">
         <v>1120000</v>
@@ -14561,13 +14564,13 @@
         <v>137</v>
       </c>
       <c r="C366" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D366" s="2">
-        <v>5.62999999998479</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E366" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F366" s="2">
         <v>1304000</v>
@@ -14576,10 +14579,10 @@
         <v>26</v>
       </c>
       <c r="H366" s="3" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I366" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J366" s="2">
         <v>1130000</v>
@@ -14594,13 +14597,13 @@
         <v>52</v>
       </c>
       <c r="C367" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D367" s="2">
-        <v>5.63999999998454</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E367" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F367" s="2">
         <v>1306000</v>
@@ -14609,10 +14612,10 @@
         <v>26</v>
       </c>
       <c r="H367" s="3" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I367" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J367" s="2">
         <v>1140000</v>
@@ -14627,13 +14630,13 @@
         <v>140</v>
       </c>
       <c r="C368" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D368" s="2">
-        <v>5.6499999999843</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E368" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F368" s="2">
         <v>1308000</v>
@@ -14642,10 +14645,10 @@
         <v>35</v>
       </c>
       <c r="H368" s="3" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="I368" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J368" s="2">
         <v>1150000</v>
@@ -14660,13 +14663,13 @@
         <v>56</v>
       </c>
       <c r="C369" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D369" s="2">
-        <v>5.65999999998405</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E369" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F369" s="2">
         <v>1310000</v>
@@ -14675,10 +14678,10 @@
         <v>26</v>
       </c>
       <c r="H369" s="3" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="I369" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J369" s="2">
         <v>1160000</v>
@@ -14693,13 +14696,13 @@
         <v>143</v>
       </c>
       <c r="C370" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D370" s="2">
-        <v>5.66999999998381</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E370" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F370" s="2">
         <v>1312000</v>
@@ -14708,10 +14711,10 @@
         <v>26</v>
       </c>
       <c r="H370" s="3" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="I370" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J370" s="2">
         <v>1170000</v>
@@ -14726,13 +14729,13 @@
         <v>145</v>
       </c>
       <c r="C371" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D371" s="2">
-        <v>5.67999999998356</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E371" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F371" s="2">
         <v>1314000</v>
@@ -14741,10 +14744,10 @@
         <v>26</v>
       </c>
       <c r="H371" s="3" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I371" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J371" s="2">
         <v>1180000</v>
@@ -14759,13 +14762,13 @@
         <v>147</v>
       </c>
       <c r="C372" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D372" s="2">
-        <v>5.68999999998332</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E372" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F372" s="2">
         <v>1316000</v>
@@ -14774,10 +14777,10 @@
         <v>26</v>
       </c>
       <c r="H372" s="3" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="I372" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J372" s="2">
         <v>1190000</v>
@@ -14792,13 +14795,13 @@
         <v>149</v>
       </c>
       <c r="C373" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D373" s="2">
-        <v>5.69999999998307</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E373" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F373" s="2">
         <v>1318000</v>
@@ -14807,10 +14810,10 @@
         <v>35</v>
       </c>
       <c r="H373" s="3" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="I373" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J373" s="2">
         <v>1200000</v>
@@ -14825,13 +14828,13 @@
         <v>66</v>
       </c>
       <c r="C374" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D374" s="2">
-        <v>5.70999999998283</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E374" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F374" s="2">
         <v>1320000</v>
@@ -14840,10 +14843,10 @@
         <v>26</v>
       </c>
       <c r="H374" s="3" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="I374" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J374" s="2">
         <v>1210000</v>
@@ -14858,13 +14861,13 @@
         <v>68</v>
       </c>
       <c r="C375" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D375" s="2">
-        <v>5.71999999998258</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E375" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F375" s="2">
         <v>1322000</v>
@@ -14873,10 +14876,10 @@
         <v>26</v>
       </c>
       <c r="H375" s="3" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="I375" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J375" s="2">
         <v>1220000</v>
@@ -14891,13 +14894,13 @@
         <v>70</v>
       </c>
       <c r="C376" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D376" s="2">
-        <v>5.72999999998233</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E376" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F376" s="2">
         <v>1324000</v>
@@ -14906,10 +14909,10 @@
         <v>26</v>
       </c>
       <c r="H376" s="3" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="I376" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J376" s="2">
         <v>1230000</v>
@@ -14924,13 +14927,13 @@
         <v>72</v>
       </c>
       <c r="C377" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D377" s="2">
-        <v>5.73999999998209</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E377" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F377" s="2">
         <v>1326000</v>
@@ -14939,10 +14942,10 @@
         <v>26</v>
       </c>
       <c r="H377" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I377" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J377" s="2">
         <v>1240000</v>
@@ -14957,13 +14960,13 @@
         <v>74</v>
       </c>
       <c r="C378" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D378" s="2">
-        <v>5.74999999998184</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E378" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F378" s="2">
         <v>1328000</v>
@@ -14972,10 +14975,10 @@
         <v>35</v>
       </c>
       <c r="H378" s="3" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="I378" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J378" s="2">
         <v>1250000</v>
@@ -14990,13 +14993,13 @@
         <v>76</v>
       </c>
       <c r="C379" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D379" s="2">
-        <v>5.7599999999816</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E379" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F379" s="2">
         <v>1330000</v>
@@ -15005,10 +15008,10 @@
         <v>26</v>
       </c>
       <c r="H379" s="3" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="I379" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J379" s="2">
         <v>1260000</v>
@@ -15023,13 +15026,13 @@
         <v>78</v>
       </c>
       <c r="C380" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D380" s="2">
-        <v>5.76999999998135</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E380" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F380" s="2">
         <v>1332000</v>
@@ -15038,10 +15041,10 @@
         <v>26</v>
       </c>
       <c r="H380" s="3" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="I380" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J380" s="2">
         <v>1270000</v>
@@ -15056,13 +15059,13 @@
         <v>80</v>
       </c>
       <c r="C381" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D381" s="2">
-        <v>5.77999999998111</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E381" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F381" s="2">
         <v>1334000</v>
@@ -15071,10 +15074,10 @@
         <v>26</v>
       </c>
       <c r="H381" s="3" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I381" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J381" s="2">
         <v>1280000</v>
@@ -15089,13 +15092,13 @@
         <v>82</v>
       </c>
       <c r="C382" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D382" s="2">
-        <v>5.78999999998086</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E382" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F382" s="2">
         <v>1336000</v>
@@ -15104,10 +15107,10 @@
         <v>26</v>
       </c>
       <c r="H382" s="3" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="I382" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J382" s="2">
         <v>1290000</v>
@@ -15122,13 +15125,13 @@
         <v>84</v>
       </c>
       <c r="C383" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D383" s="2">
-        <v>5.79999999998062</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E383" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F383" s="2">
         <v>1338000</v>
@@ -15137,10 +15140,10 @@
         <v>35</v>
       </c>
       <c r="H383" s="3" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I383" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J383" s="2">
         <v>1300000</v>
@@ -15155,13 +15158,13 @@
         <v>86</v>
       </c>
       <c r="C384" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D384" s="2">
-        <v>5.80999999998037</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E384" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F384" s="2">
         <v>1340000</v>
@@ -15170,10 +15173,10 @@
         <v>26</v>
       </c>
       <c r="H384" s="3" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="I384" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J384" s="2">
         <v>1310000</v>
@@ -15188,13 +15191,13 @@
         <v>88</v>
       </c>
       <c r="C385" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D385" s="2">
-        <v>5.81999999998013</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E385" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F385" s="2">
         <v>1342000</v>
@@ -15203,10 +15206,10 @@
         <v>26</v>
       </c>
       <c r="H385" s="3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I385" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J385" s="2">
         <v>1320000</v>
@@ -15221,13 +15224,13 @@
         <v>90</v>
       </c>
       <c r="C386" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D386" s="2">
-        <v>5.82999999997988</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E386" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F386" s="2">
         <v>1344000</v>
@@ -15236,10 +15239,10 @@
         <v>26</v>
       </c>
       <c r="H386" s="3" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I386" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J386" s="2">
         <v>1330000</v>
@@ -15254,13 +15257,13 @@
         <v>92</v>
       </c>
       <c r="C387" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D387" s="2">
-        <v>5.83999999997964</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E387" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F387" s="2">
         <v>1346000</v>
@@ -15269,10 +15272,10 @@
         <v>26</v>
       </c>
       <c r="H387" s="3" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="I387" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J387" s="2">
         <v>1340000</v>
@@ -15287,13 +15290,13 @@
         <v>94</v>
       </c>
       <c r="C388" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D388" s="2">
-        <v>5.84999999997939</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E388" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F388" s="2">
         <v>1348000</v>
@@ -15302,10 +15305,10 @@
         <v>35</v>
       </c>
       <c r="H388" s="3" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="I388" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J388" s="2">
         <v>1350000</v>
@@ -15320,13 +15323,13 @@
         <v>96</v>
       </c>
       <c r="C389" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D389" s="2">
-        <v>5.85999999997915</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E389" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F389" s="2">
         <v>1350000</v>
@@ -15335,10 +15338,10 @@
         <v>26</v>
       </c>
       <c r="H389" s="3" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="I389" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J389" s="2">
         <v>1360000</v>
@@ -15353,13 +15356,13 @@
         <v>98</v>
       </c>
       <c r="C390" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D390" s="2">
-        <v>5.8699999999789</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E390" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F390" s="2">
         <v>1352000</v>
@@ -15368,10 +15371,10 @@
         <v>26</v>
       </c>
       <c r="H390" s="3" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="I390" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J390" s="2">
         <v>1370000</v>
@@ -15386,13 +15389,13 @@
         <v>100</v>
       </c>
       <c r="C391" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D391" s="2">
-        <v>5.87999999997865</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E391" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F391" s="2">
         <v>1354000</v>
@@ -15401,10 +15404,10 @@
         <v>26</v>
       </c>
       <c r="H391" s="3" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I391" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J391" s="2">
         <v>1380000</v>
@@ -15419,13 +15422,13 @@
         <v>102</v>
       </c>
       <c r="C392" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D392" s="2">
-        <v>5.88999999997841</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E392" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F392" s="2">
         <v>1356000</v>
@@ -15434,10 +15437,10 @@
         <v>26</v>
       </c>
       <c r="H392" s="3" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="I392" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J392" s="2">
         <v>1390000</v>
@@ -15452,13 +15455,13 @@
         <v>104</v>
       </c>
       <c r="C393" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D393" s="2">
-        <v>5.89999999997816</v>
+        <v>4</v>
       </c>
       <c r="E393" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F393" s="2">
         <v>1358000</v>
@@ -15467,10 +15470,10 @@
         <v>35</v>
       </c>
       <c r="H393" s="3" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I393" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J393" s="2">
         <v>1400000</v>
@@ -15485,13 +15488,13 @@
         <v>106</v>
       </c>
       <c r="C394" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D394" s="2">
-        <v>5.90999999997792</v>
+        <v>4</v>
       </c>
       <c r="E394" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F394" s="2">
         <v>1360000</v>
@@ -15500,10 +15503,10 @@
         <v>26</v>
       </c>
       <c r="H394" s="3" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I394" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J394" s="2">
         <v>1410000</v>
@@ -15518,13 +15521,13 @@
         <v>108</v>
       </c>
       <c r="C395" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D395" s="2">
-        <v>5.91999999997767</v>
+        <v>4</v>
       </c>
       <c r="E395" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F395" s="2">
         <v>1362000</v>
@@ -15533,10 +15536,10 @@
         <v>26</v>
       </c>
       <c r="H395" s="3" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="I395" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J395" s="2">
         <v>1420000</v>
@@ -15551,13 +15554,13 @@
         <v>110</v>
       </c>
       <c r="C396" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D396" s="2">
-        <v>5.92999999997743</v>
+        <v>4</v>
       </c>
       <c r="E396" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F396" s="2">
         <v>1364000</v>
@@ -15566,10 +15569,10 @@
         <v>26</v>
       </c>
       <c r="H396" s="3" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="I396" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J396" s="2">
         <v>1430000</v>
@@ -15584,13 +15587,13 @@
         <v>112</v>
       </c>
       <c r="C397" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D397" s="2">
-        <v>5.93999999997718</v>
+        <v>4</v>
       </c>
       <c r="E397" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F397" s="2">
         <v>1366000</v>
@@ -15599,10 +15602,10 @@
         <v>26</v>
       </c>
       <c r="H397" s="3" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I397" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J397" s="2">
         <v>1440000</v>
@@ -15617,13 +15620,13 @@
         <v>114</v>
       </c>
       <c r="C398" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D398" s="2">
-        <v>5.94999999997694</v>
+        <v>4</v>
       </c>
       <c r="E398" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F398" s="2">
         <v>1368000</v>
@@ -15632,10 +15635,10 @@
         <v>35</v>
       </c>
       <c r="H398" s="3" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I398" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J398" s="2">
         <v>1450000</v>
@@ -15650,13 +15653,13 @@
         <v>116</v>
       </c>
       <c r="C399" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D399" s="2">
-        <v>5.95999999997669</v>
+        <v>4</v>
       </c>
       <c r="E399" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F399" s="2">
         <v>1370000</v>
@@ -15665,10 +15668,10 @@
         <v>26</v>
       </c>
       <c r="H399" s="3" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I399" s="4">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="J399" s="2">
         <v>1460000</v>
@@ -15683,13 +15686,13 @@
         <v>118</v>
       </c>
       <c r="C400" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D400" s="2">
-        <v>5.96999999997645</v>
+        <v>4</v>
       </c>
       <c r="E400" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F400" s="2">
         <v>1372000</v>
@@ -15698,10 +15701,10 @@
         <v>26</v>
       </c>
       <c r="H400" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="I400" s="4">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="J400" s="2">
         <v>1470000</v>
@@ -15716,13 +15719,13 @@
         <v>120</v>
       </c>
       <c r="C401" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D401" s="2">
-        <v>5.9799999999762</v>
+        <v>4</v>
       </c>
       <c r="E401" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F401" s="2">
         <v>1374000</v>
@@ -15731,10 +15734,10 @@
         <v>26</v>
       </c>
       <c r="H401" s="3" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="I401" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J401" s="2">
         <v>1480000</v>
@@ -15749,13 +15752,13 @@
         <v>122</v>
       </c>
       <c r="C402" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D402" s="2">
-        <v>5.98999999997596</v>
+        <v>4</v>
       </c>
       <c r="E402" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F402" s="2">
         <v>1376000</v>
@@ -15764,10 +15767,10 @@
         <v>26</v>
       </c>
       <c r="H402" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I402" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J402" s="2">
         <v>1490000</v>
@@ -15779,16 +15782,16 @@
         <v>400</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C403" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D403" s="2">
-        <v>5.99999999997571</v>
+        <v>4</v>
       </c>
       <c r="E403" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F403" s="2">
         <v>1378000</v>
@@ -15797,10 +15800,10 @@
         <v>35</v>
       </c>
       <c r="H403" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I403" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J403" s="2">
         <v>1500000</v>
@@ -15815,13 +15818,13 @@
         <v>126</v>
       </c>
       <c r="C404" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D404" s="2">
-        <v>6.00999999997546</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E404" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F404" s="2">
         <v>2560000</v>
@@ -15830,10 +15833,10 @@
         <v>26</v>
       </c>
       <c r="H404" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I404" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J404" s="2">
         <v>1510000</v>
@@ -15848,13 +15851,13 @@
         <v>128</v>
       </c>
       <c r="C405" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D405" s="2">
-        <v>6.01999999997522</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E405" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F405" s="2">
         <v>2562000</v>
@@ -15863,10 +15866,10 @@
         <v>26</v>
       </c>
       <c r="H405" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I405" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J405" s="2">
         <v>1520000</v>
@@ -15881,13 +15884,13 @@
         <v>129</v>
       </c>
       <c r="C406" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D406" s="2">
-        <v>6.02999999997497</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E406" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F406" s="2">
         <v>2564000</v>
@@ -15896,10 +15899,10 @@
         <v>26</v>
       </c>
       <c r="H406" s="3" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I406" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J406" s="2">
         <v>1530000</v>
@@ -15914,13 +15917,13 @@
         <v>130</v>
       </c>
       <c r="C407" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D407" s="2">
-        <v>6.03999999997473</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E407" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F407" s="2">
         <v>2566000</v>
@@ -15929,10 +15932,10 @@
         <v>26</v>
       </c>
       <c r="H407" s="3" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I407" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J407" s="2">
         <v>1540000</v>
@@ -15947,13 +15950,13 @@
         <v>131</v>
       </c>
       <c r="C408" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D408" s="2">
-        <v>6.04999999997448</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E408" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F408" s="2">
         <v>2568000</v>
@@ -15962,10 +15965,10 @@
         <v>35</v>
       </c>
       <c r="H408" s="3" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="I408" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J408" s="2">
         <v>1550000</v>
@@ -15980,13 +15983,13 @@
         <v>132</v>
       </c>
       <c r="C409" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D409" s="2">
-        <v>6.05999999997424</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E409" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F409" s="2">
         <v>2570000</v>
@@ -15995,10 +15998,10 @@
         <v>26</v>
       </c>
       <c r="H409" s="3" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="I409" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J409" s="2">
         <v>1560000</v>
@@ -16013,13 +16016,13 @@
         <v>38</v>
       </c>
       <c r="C410" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D410" s="2">
-        <v>6.06999999997399</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E410" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F410" s="2">
         <v>2572000</v>
@@ -16028,10 +16031,10 @@
         <v>26</v>
       </c>
       <c r="H410" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="I410" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J410" s="2">
         <v>1570000</v>
@@ -16046,13 +16049,13 @@
         <v>40</v>
       </c>
       <c r="C411" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D411" s="2">
-        <v>6.07999999997375</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E411" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F411" s="2">
         <v>2574000</v>
@@ -16061,10 +16064,10 @@
         <v>26</v>
       </c>
       <c r="H411" s="3" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I411" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J411" s="2">
         <v>1580000</v>
@@ -16079,13 +16082,13 @@
         <v>42</v>
       </c>
       <c r="C412" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D412" s="2">
-        <v>6.0899999999735</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E412" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F412" s="2">
         <v>2576000</v>
@@ -16094,10 +16097,10 @@
         <v>26</v>
       </c>
       <c r="H412" s="3" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I412" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J412" s="2">
         <v>1590000</v>
@@ -16112,13 +16115,13 @@
         <v>44</v>
       </c>
       <c r="C413" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D413" s="2">
-        <v>6.09999999997326</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E413" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F413" s="2">
         <v>2578000</v>
@@ -16127,10 +16130,10 @@
         <v>35</v>
       </c>
       <c r="H413" s="3" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I413" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J413" s="2">
         <v>1600000</v>
@@ -16145,13 +16148,13 @@
         <v>134</v>
       </c>
       <c r="C414" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D414" s="2">
-        <v>6.10999999997301</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E414" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F414" s="2">
         <v>2580000</v>
@@ -16160,10 +16163,10 @@
         <v>26</v>
       </c>
       <c r="H414" s="3" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I414" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J414" s="2">
         <v>1610000</v>
@@ -16178,13 +16181,13 @@
         <v>48</v>
       </c>
       <c r="C415" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D415" s="2">
-        <v>6.11999999997277</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E415" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F415" s="2">
         <v>2582000</v>
@@ -16193,10 +16196,10 @@
         <v>26</v>
       </c>
       <c r="H415" s="3" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I415" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J415" s="2">
         <v>1620000</v>
@@ -16211,13 +16214,13 @@
         <v>137</v>
       </c>
       <c r="C416" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D416" s="2">
-        <v>6.12999999997252</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E416" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F416" s="2">
         <v>2584000</v>
@@ -16226,10 +16229,10 @@
         <v>26</v>
       </c>
       <c r="H416" s="3" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I416" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J416" s="2">
         <v>1630000</v>
@@ -16244,13 +16247,13 @@
         <v>52</v>
       </c>
       <c r="C417" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D417" s="2">
-        <v>6.13999999997228</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E417" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F417" s="2">
         <v>2586000</v>
@@ -16259,10 +16262,10 @@
         <v>26</v>
       </c>
       <c r="H417" s="3" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I417" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J417" s="2">
         <v>1640000</v>
@@ -16277,13 +16280,13 @@
         <v>140</v>
       </c>
       <c r="C418" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D418" s="2">
-        <v>6.14999999997203</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E418" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F418" s="2">
         <v>2588000</v>
@@ -16292,10 +16295,10 @@
         <v>35</v>
       </c>
       <c r="H418" s="3" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I418" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J418" s="2">
         <v>1650000</v>
@@ -16310,13 +16313,13 @@
         <v>56</v>
       </c>
       <c r="C419" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D419" s="2">
-        <v>6.15999999997178</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E419" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F419" s="2">
         <v>2590000</v>
@@ -16325,10 +16328,10 @@
         <v>26</v>
       </c>
       <c r="H419" s="3" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I419" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J419" s="2">
         <v>1660000</v>
@@ -16343,13 +16346,13 @@
         <v>143</v>
       </c>
       <c r="C420" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D420" s="2">
-        <v>6.16999999997154</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E420" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F420" s="2">
         <v>2592000</v>
@@ -16358,10 +16361,10 @@
         <v>26</v>
       </c>
       <c r="H420" s="3" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I420" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J420" s="2">
         <v>1670000</v>
@@ -16376,13 +16379,13 @@
         <v>145</v>
       </c>
       <c r="C421" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D421" s="2">
-        <v>6.17999999997129</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E421" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F421" s="2">
         <v>2594000</v>
@@ -16391,10 +16394,10 @@
         <v>26</v>
       </c>
       <c r="H421" s="3" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I421" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J421" s="2">
         <v>1680000</v>
@@ -16409,13 +16412,13 @@
         <v>147</v>
       </c>
       <c r="C422" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D422" s="2">
-        <v>6.18999999997105</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E422" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F422" s="2">
         <v>2596000</v>
@@ -16424,10 +16427,10 @@
         <v>26</v>
       </c>
       <c r="H422" s="3" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I422" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J422" s="2">
         <v>1690000</v>
@@ -16442,13 +16445,13 @@
         <v>149</v>
       </c>
       <c r="C423" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D423" s="2">
-        <v>6.1999999999708</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E423" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F423" s="2">
         <v>2598000</v>
@@ -16457,10 +16460,10 @@
         <v>35</v>
       </c>
       <c r="H423" s="3" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I423" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J423" s="2">
         <v>1700000</v>
@@ -16475,13 +16478,13 @@
         <v>66</v>
       </c>
       <c r="C424" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D424" s="2">
-        <v>6.20999999997056</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E424" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F424" s="2">
         <v>2600000</v>
@@ -16490,10 +16493,10 @@
         <v>26</v>
       </c>
       <c r="H424" s="3" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I424" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J424" s="2">
         <v>1710000</v>
@@ -16508,13 +16511,13 @@
         <v>68</v>
       </c>
       <c r="C425" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D425" s="2">
-        <v>6.21999999997031</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E425" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F425" s="2">
         <v>2602000</v>
@@ -16523,10 +16526,10 @@
         <v>26</v>
       </c>
       <c r="H425" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I425" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J425" s="2">
         <v>1720000</v>
@@ -16541,13 +16544,13 @@
         <v>70</v>
       </c>
       <c r="C426" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D426" s="2">
-        <v>6.22999999997007</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E426" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F426" s="2">
         <v>2604000</v>
@@ -16556,10 +16559,10 @@
         <v>26</v>
       </c>
       <c r="H426" s="3" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I426" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J426" s="2">
         <v>1730000</v>
@@ -16574,13 +16577,13 @@
         <v>72</v>
       </c>
       <c r="C427" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D427" s="2">
-        <v>6.23999999996982</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E427" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F427" s="2">
         <v>2606000</v>
@@ -16589,10 +16592,10 @@
         <v>26</v>
       </c>
       <c r="H427" s="3" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I427" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J427" s="2">
         <v>1740000</v>
@@ -16607,13 +16610,13 @@
         <v>74</v>
       </c>
       <c r="C428" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D428" s="2">
-        <v>6.24999999996958</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E428" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F428" s="2">
         <v>2608000</v>
@@ -16622,10 +16625,10 @@
         <v>35</v>
       </c>
       <c r="H428" s="3" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I428" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J428" s="2">
         <v>1750000</v>
@@ -16640,13 +16643,13 @@
         <v>76</v>
       </c>
       <c r="C429" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D429" s="2">
-        <v>6.25999999996933</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E429" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F429" s="2">
         <v>2610000</v>
@@ -16655,10 +16658,10 @@
         <v>26</v>
       </c>
       <c r="H429" s="3" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I429" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J429" s="2">
         <v>1760000</v>
@@ -16673,13 +16676,13 @@
         <v>78</v>
       </c>
       <c r="C430" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D430" s="2">
-        <v>6.26999999996909</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E430" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F430" s="2">
         <v>2612000</v>
@@ -16688,10 +16691,10 @@
         <v>26</v>
       </c>
       <c r="H430" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I430" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J430" s="2">
         <v>1770000</v>
@@ -16706,13 +16709,13 @@
         <v>80</v>
       </c>
       <c r="C431" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D431" s="2">
-        <v>6.27999999996884</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E431" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F431" s="2">
         <v>2614000</v>
@@ -16721,10 +16724,10 @@
         <v>26</v>
       </c>
       <c r="H431" s="3" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I431" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J431" s="2">
         <v>1780000</v>
@@ -16739,13 +16742,13 @@
         <v>82</v>
       </c>
       <c r="C432" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D432" s="2">
-        <v>6.28999999996859</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E432" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F432" s="2">
         <v>2616000</v>
@@ -16754,10 +16757,10 @@
         <v>26</v>
       </c>
       <c r="H432" s="3" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I432" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J432" s="2">
         <v>1790000</v>
@@ -16772,13 +16775,13 @@
         <v>84</v>
       </c>
       <c r="C433" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D433" s="2">
-        <v>6.29999999996835</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E433" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F433" s="2">
         <v>2618000</v>
@@ -16787,10 +16790,10 @@
         <v>35</v>
       </c>
       <c r="H433" s="3" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I433" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J433" s="2">
         <v>1800000</v>
@@ -16805,13 +16808,13 @@
         <v>86</v>
       </c>
       <c r="C434" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D434" s="2">
-        <v>6.3099999999681</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E434" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F434" s="2">
         <v>2620000</v>
@@ -16820,10 +16823,10 @@
         <v>26</v>
       </c>
       <c r="H434" s="3" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I434" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J434" s="2">
         <v>1810000</v>
@@ -16838,13 +16841,13 @@
         <v>88</v>
       </c>
       <c r="C435" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D435" s="2">
-        <v>6.31999999996786</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E435" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F435" s="2">
         <v>2622000</v>
@@ -16853,10 +16856,10 @@
         <v>26</v>
       </c>
       <c r="H435" s="3" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="I435" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J435" s="2">
         <v>1820000</v>
@@ -16871,13 +16874,13 @@
         <v>90</v>
       </c>
       <c r="C436" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D436" s="2">
-        <v>6.32999999996761</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E436" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F436" s="2">
         <v>2624000</v>
@@ -16886,10 +16889,10 @@
         <v>26</v>
       </c>
       <c r="H436" s="3" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="I436" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J436" s="2">
         <v>1830000</v>
@@ -16904,13 +16907,13 @@
         <v>92</v>
       </c>
       <c r="C437" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D437" s="2">
-        <v>6.33999999996737</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E437" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F437" s="2">
         <v>2626000</v>
@@ -16919,10 +16922,10 @@
         <v>26</v>
       </c>
       <c r="H437" s="3" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="I437" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J437" s="2">
         <v>1840000</v>
@@ -16937,13 +16940,13 @@
         <v>94</v>
       </c>
       <c r="C438" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D438" s="2">
-        <v>6.34999999996712</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E438" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F438" s="2">
         <v>2628000</v>
@@ -16952,10 +16955,10 @@
         <v>35</v>
       </c>
       <c r="H438" s="3" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I438" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J438" s="2">
         <v>1850000</v>
@@ -16970,13 +16973,13 @@
         <v>96</v>
       </c>
       <c r="C439" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D439" s="2">
-        <v>6.35999999996688</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E439" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F439" s="2">
         <v>2630000</v>
@@ -16985,10 +16988,10 @@
         <v>26</v>
       </c>
       <c r="H439" s="3" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="I439" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J439" s="2">
         <v>1860000</v>
@@ -17003,13 +17006,13 @@
         <v>98</v>
       </c>
       <c r="C440" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D440" s="2">
-        <v>6.36999999996663</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E440" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F440" s="2">
         <v>2632000</v>
@@ -17018,10 +17021,10 @@
         <v>26</v>
       </c>
       <c r="H440" s="3" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="I440" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J440" s="2">
         <v>1870000</v>
@@ -17036,13 +17039,13 @@
         <v>100</v>
       </c>
       <c r="C441" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D441" s="2">
-        <v>6.37999999996639</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E441" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F441" s="2">
         <v>2634000</v>
@@ -17051,10 +17054,10 @@
         <v>26</v>
       </c>
       <c r="H441" s="3" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="I441" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J441" s="2">
         <v>1880000</v>
@@ -17069,13 +17072,13 @@
         <v>102</v>
       </c>
       <c r="C442" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D442" s="2">
-        <v>6.38999999996614</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E442" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F442" s="2">
         <v>2636000</v>
@@ -17084,10 +17087,10 @@
         <v>26</v>
       </c>
       <c r="H442" s="3" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="I442" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J442" s="2">
         <v>1890000</v>
@@ -17102,13 +17105,13 @@
         <v>104</v>
       </c>
       <c r="C443" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D443" s="2">
-        <v>6.3999999999659</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E443" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F443" s="2">
         <v>2638000</v>
@@ -17117,10 +17120,10 @@
         <v>35</v>
       </c>
       <c r="H443" s="3" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="I443" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J443" s="2">
         <v>1900000</v>
@@ -17135,13 +17138,13 @@
         <v>106</v>
       </c>
       <c r="C444" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D444" s="2">
-        <v>6.40999999996565</v>
+        <v>4</v>
       </c>
       <c r="E444" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F444" s="2">
         <v>2640000</v>
@@ -17150,10 +17153,10 @@
         <v>26</v>
       </c>
       <c r="H444" s="3" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="I444" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J444" s="2">
         <v>1910000</v>
@@ -17168,13 +17171,13 @@
         <v>108</v>
       </c>
       <c r="C445" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D445" s="2">
-        <v>6.41999999996541</v>
+        <v>4</v>
       </c>
       <c r="E445" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F445" s="2">
         <v>2642000</v>
@@ -17183,10 +17186,10 @@
         <v>26</v>
       </c>
       <c r="H445" s="3" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I445" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J445" s="2">
         <v>1920000</v>
@@ -17201,13 +17204,13 @@
         <v>110</v>
       </c>
       <c r="C446" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D446" s="2">
-        <v>6.42999999996516</v>
+        <v>4</v>
       </c>
       <c r="E446" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F446" s="2">
         <v>2644000</v>
@@ -17216,10 +17219,10 @@
         <v>26</v>
       </c>
       <c r="H446" s="3" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="I446" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J446" s="2">
         <v>1930000</v>
@@ -17234,13 +17237,13 @@
         <v>112</v>
       </c>
       <c r="C447" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D447" s="2">
-        <v>6.43999999996491</v>
+        <v>4</v>
       </c>
       <c r="E447" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F447" s="2">
         <v>2646000</v>
@@ -17249,10 +17252,10 @@
         <v>26</v>
       </c>
       <c r="H447" s="3" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="I447" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J447" s="2">
         <v>1940000</v>
@@ -17267,13 +17270,13 @@
         <v>114</v>
       </c>
       <c r="C448" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D448" s="2">
-        <v>6.44999999996467</v>
+        <v>4</v>
       </c>
       <c r="E448" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F448" s="2">
         <v>2648000</v>
@@ -17282,10 +17285,10 @@
         <v>35</v>
       </c>
       <c r="H448" s="3" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="I448" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J448" s="2">
         <v>1950000</v>
@@ -17300,13 +17303,13 @@
         <v>116</v>
       </c>
       <c r="C449" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D449" s="2">
-        <v>6.45999999996442</v>
+        <v>4</v>
       </c>
       <c r="E449" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F449" s="2">
         <v>2650000</v>
@@ -17315,10 +17318,10 @@
         <v>26</v>
       </c>
       <c r="H449" s="3" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I449" s="4">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="J449" s="2">
         <v>1960000</v>
@@ -17333,13 +17336,13 @@
         <v>118</v>
       </c>
       <c r="C450" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D450" s="2">
-        <v>6.46999999996418</v>
+        <v>4</v>
       </c>
       <c r="E450" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F450" s="2">
         <v>2652000</v>
@@ -17348,10 +17351,10 @@
         <v>26</v>
       </c>
       <c r="H450" s="3" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="I450" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J450" s="2">
         <v>1970000</v>
@@ -17366,13 +17369,13 @@
         <v>120</v>
       </c>
       <c r="C451" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D451" s="2">
-        <v>6.47999999996393</v>
+        <v>4</v>
       </c>
       <c r="E451" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F451" s="2">
         <v>2654000</v>
@@ -17381,10 +17384,10 @@
         <v>26</v>
       </c>
       <c r="H451" s="3" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="I451" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J451" s="2">
         <v>1980000</v>
@@ -17399,13 +17402,13 @@
         <v>122</v>
       </c>
       <c r="C452" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D452" s="2">
-        <v>6.48999999996369</v>
+        <v>4</v>
       </c>
       <c r="E452" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F452" s="2">
         <v>2656000</v>
@@ -17414,10 +17417,10 @@
         <v>26</v>
       </c>
       <c r="H452" s="3" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="I452" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J452" s="2">
         <v>1990000</v>
@@ -17429,16 +17432,16 @@
         <v>450</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C453" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D453" s="2">
-        <v>6.49999999996344</v>
+        <v>4</v>
       </c>
       <c r="E453" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F453" s="2">
         <v>2658000</v>
@@ -17447,10 +17450,10 @@
         <v>35</v>
       </c>
       <c r="H453" s="3" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I453" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J453" s="2">
         <v>2000000</v>
@@ -17465,13 +17468,13 @@
         <v>126</v>
       </c>
       <c r="C454" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D454" s="2">
-        <v>6.5099999999632</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E454" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F454" s="2">
         <v>5120000</v>
@@ -17480,10 +17483,10 @@
         <v>26</v>
       </c>
       <c r="H454" s="3" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="I454" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J454" s="2">
         <v>2010000</v>
@@ -17498,13 +17501,13 @@
         <v>128</v>
       </c>
       <c r="C455" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D455" s="2">
-        <v>6.51999999996295</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E455" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F455" s="2">
         <v>5122000</v>
@@ -17513,10 +17516,10 @@
         <v>26</v>
       </c>
       <c r="H455" s="3" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="I455" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J455" s="2">
         <v>2020000</v>
@@ -17531,13 +17534,13 @@
         <v>129</v>
       </c>
       <c r="C456" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D456" s="2">
-        <v>6.52999999996271</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E456" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F456" s="2">
         <v>5124000</v>
@@ -17546,10 +17549,10 @@
         <v>26</v>
       </c>
       <c r="H456" s="3" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="I456" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J456" s="2">
         <v>2030000</v>
@@ -17564,13 +17567,13 @@
         <v>130</v>
       </c>
       <c r="C457" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D457" s="2">
-        <v>6.53999999996246</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E457" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F457" s="2">
         <v>5126000</v>
@@ -17579,10 +17582,10 @@
         <v>26</v>
       </c>
       <c r="H457" s="3" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I457" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J457" s="2">
         <v>2040000</v>
@@ -17597,13 +17600,13 @@
         <v>131</v>
       </c>
       <c r="C458" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D458" s="2">
-        <v>6.54999999996222</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E458" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F458" s="2">
         <v>5128000</v>
@@ -17612,10 +17615,10 @@
         <v>35</v>
       </c>
       <c r="H458" s="3" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="I458" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J458" s="2">
         <v>2050000</v>
@@ -17630,13 +17633,13 @@
         <v>132</v>
       </c>
       <c r="C459" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D459" s="2">
-        <v>6.55999999996197</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E459" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F459" s="2">
         <v>5130000</v>
@@ -17645,10 +17648,10 @@
         <v>26</v>
       </c>
       <c r="H459" s="3" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="I459" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J459" s="2">
         <v>2060000</v>
@@ -17663,13 +17666,13 @@
         <v>38</v>
       </c>
       <c r="C460" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D460" s="2">
-        <v>6.56999999996173</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E460" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F460" s="2">
         <v>5132000</v>
@@ -17678,10 +17681,10 @@
         <v>26</v>
       </c>
       <c r="H460" s="3" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="I460" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J460" s="2">
         <v>2070000</v>
@@ -17696,13 +17699,13 @@
         <v>40</v>
       </c>
       <c r="C461" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D461" s="2">
-        <v>6.57999999996148</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E461" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F461" s="2">
         <v>5134000</v>
@@ -17711,10 +17714,10 @@
         <v>26</v>
       </c>
       <c r="H461" s="3" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I461" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J461" s="2">
         <v>2080000</v>
@@ -17729,13 +17732,13 @@
         <v>42</v>
       </c>
       <c r="C462" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D462" s="2">
-        <v>6.58999999996123</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E462" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F462" s="2">
         <v>5136000</v>
@@ -17744,10 +17747,10 @@
         <v>26</v>
       </c>
       <c r="H462" s="3" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="I462" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J462" s="2">
         <v>2090000</v>
@@ -17762,13 +17765,13 @@
         <v>44</v>
       </c>
       <c r="C463" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D463" s="2">
-        <v>6.59999999996099</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E463" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F463" s="2">
         <v>5138000</v>
@@ -17777,10 +17780,10 @@
         <v>35</v>
       </c>
       <c r="H463" s="3" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="I463" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J463" s="2">
         <v>2100000</v>
@@ -17795,13 +17798,13 @@
         <v>134</v>
       </c>
       <c r="C464" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D464" s="2">
-        <v>6.60999999996074</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E464" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F464" s="2">
         <v>5140000</v>
@@ -17810,10 +17813,10 @@
         <v>26</v>
       </c>
       <c r="H464" s="3" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="I464" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J464" s="2">
         <v>2110000</v>
@@ -17828,13 +17831,13 @@
         <v>48</v>
       </c>
       <c r="C465" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D465" s="2">
-        <v>6.6199999999605</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E465" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F465" s="2">
         <v>5142000</v>
@@ -17843,10 +17846,10 @@
         <v>26</v>
       </c>
       <c r="H465" s="3" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I465" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J465" s="2">
         <v>2120000</v>
@@ -17861,13 +17864,13 @@
         <v>137</v>
       </c>
       <c r="C466" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D466" s="2">
-        <v>6.62999999996025</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E466" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F466" s="2">
         <v>5144000</v>
@@ -17876,10 +17879,10 @@
         <v>26</v>
       </c>
       <c r="H466" s="3" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I466" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J466" s="2">
         <v>2130000</v>
@@ -17894,13 +17897,13 @@
         <v>52</v>
       </c>
       <c r="C467" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D467" s="2">
-        <v>6.63999999996001</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E467" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F467" s="2">
         <v>5146000</v>
@@ -17909,10 +17912,10 @@
         <v>26</v>
       </c>
       <c r="H467" s="3" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="I467" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J467" s="2">
         <v>2140000</v>
@@ -17927,13 +17930,13 @@
         <v>140</v>
       </c>
       <c r="C468" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D468" s="2">
-        <v>6.64999999995976</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E468" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F468" s="2">
         <v>5148000</v>
@@ -17942,10 +17945,10 @@
         <v>35</v>
       </c>
       <c r="H468" s="3" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="I468" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J468" s="2">
         <v>2150000</v>
@@ -17960,13 +17963,13 @@
         <v>56</v>
       </c>
       <c r="C469" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D469" s="2">
-        <v>6.65999999995952</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E469" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F469" s="2">
         <v>5150000</v>
@@ -17975,10 +17978,10 @@
         <v>26</v>
       </c>
       <c r="H469" s="3" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="I469" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J469" s="2">
         <v>2160000</v>
@@ -17993,13 +17996,13 @@
         <v>143</v>
       </c>
       <c r="C470" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D470" s="2">
-        <v>6.66999999995927</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E470" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F470" s="2">
         <v>5152000</v>
@@ -18008,10 +18011,10 @@
         <v>26</v>
       </c>
       <c r="H470" s="3" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I470" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J470" s="2">
         <v>2170000</v>
@@ -18026,13 +18029,13 @@
         <v>145</v>
       </c>
       <c r="C471" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D471" s="2">
-        <v>6.67999999995903</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E471" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F471" s="2">
         <v>5154000</v>
@@ -18041,10 +18044,10 @@
         <v>26</v>
       </c>
       <c r="H471" s="3" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="I471" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J471" s="2">
         <v>2180000</v>
@@ -18059,13 +18062,13 @@
         <v>147</v>
       </c>
       <c r="C472" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D472" s="2">
-        <v>6.68999999995878</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E472" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F472" s="2">
         <v>5156000</v>
@@ -18074,10 +18077,10 @@
         <v>26</v>
       </c>
       <c r="H472" s="3" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="I472" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J472" s="2">
         <v>2190000</v>
@@ -18092,13 +18095,13 @@
         <v>149</v>
       </c>
       <c r="C473" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D473" s="2">
-        <v>6.69999999995854</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E473" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F473" s="2">
         <v>5158000</v>
@@ -18107,10 +18110,10 @@
         <v>35</v>
       </c>
       <c r="H473" s="3" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="I473" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J473" s="2">
         <v>2200000</v>
@@ -18125,13 +18128,13 @@
         <v>66</v>
       </c>
       <c r="C474" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D474" s="2">
-        <v>6.70999999995829</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E474" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F474" s="2">
         <v>5160000</v>
@@ -18140,10 +18143,10 @@
         <v>26</v>
       </c>
       <c r="H474" s="3" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="I474" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J474" s="2">
         <v>2210000</v>
@@ -18158,13 +18161,13 @@
         <v>68</v>
       </c>
       <c r="C475" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D475" s="2">
-        <v>6.71999999995804</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E475" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F475" s="2">
         <v>5162000</v>
@@ -18173,10 +18176,10 @@
         <v>26</v>
       </c>
       <c r="H475" s="3" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="I475" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J475" s="2">
         <v>2220000</v>
@@ -18191,13 +18194,13 @@
         <v>70</v>
       </c>
       <c r="C476" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D476" s="2">
-        <v>6.7299999999578</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E476" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F476" s="2">
         <v>5164000</v>
@@ -18206,10 +18209,10 @@
         <v>26</v>
       </c>
       <c r="H476" s="3" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="I476" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J476" s="2">
         <v>2230000</v>
@@ -18224,13 +18227,13 @@
         <v>72</v>
       </c>
       <c r="C477" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D477" s="2">
-        <v>6.73999999995755</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E477" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F477" s="2">
         <v>5166000</v>
@@ -18239,10 +18242,10 @@
         <v>26</v>
       </c>
       <c r="H477" s="3" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I477" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J477" s="2">
         <v>2240000</v>
@@ -18257,13 +18260,13 @@
         <v>74</v>
       </c>
       <c r="C478" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D478" s="2">
-        <v>6.74999999995731</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E478" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F478" s="2">
         <v>5168000</v>
@@ -18272,10 +18275,10 @@
         <v>35</v>
       </c>
       <c r="H478" s="3" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="I478" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J478" s="2">
         <v>2250000</v>
@@ -18290,13 +18293,13 @@
         <v>76</v>
       </c>
       <c r="C479" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D479" s="2">
-        <v>6.75999999995706</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E479" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F479" s="2">
         <v>5170000</v>
@@ -18305,10 +18308,10 @@
         <v>26</v>
       </c>
       <c r="H479" s="3" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="I479" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J479" s="2">
         <v>2260000</v>
@@ -18323,13 +18326,13 @@
         <v>78</v>
       </c>
       <c r="C480" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D480" s="2">
-        <v>6.76999999995682</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E480" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F480" s="2">
         <v>5172000</v>
@@ -18338,10 +18341,10 @@
         <v>26</v>
       </c>
       <c r="H480" s="3" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I480" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J480" s="2">
         <v>2270000</v>
@@ -18356,13 +18359,13 @@
         <v>80</v>
       </c>
       <c r="C481" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D481" s="2">
-        <v>6.77999999995657</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E481" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F481" s="2">
         <v>5174000</v>
@@ -18371,10 +18374,10 @@
         <v>26</v>
       </c>
       <c r="H481" s="3" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="I481" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J481" s="2">
         <v>2280000</v>
@@ -18389,13 +18392,13 @@
         <v>82</v>
       </c>
       <c r="C482" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D482" s="2">
-        <v>6.78999999995633</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E482" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F482" s="2">
         <v>5176000</v>
@@ -18404,10 +18407,10 @@
         <v>26</v>
       </c>
       <c r="H482" s="3" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="I482" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J482" s="2">
         <v>2290000</v>
@@ -18422,13 +18425,13 @@
         <v>84</v>
       </c>
       <c r="C483" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D483" s="2">
-        <v>6.79999999995608</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E483" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F483" s="2">
         <v>5178000</v>
@@ -18437,10 +18440,10 @@
         <v>35</v>
       </c>
       <c r="H483" s="3" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="I483" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J483" s="2">
         <v>2300000</v>
@@ -18455,13 +18458,13 @@
         <v>86</v>
       </c>
       <c r="C484" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D484" s="2">
-        <v>6.80999999995584</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E484" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F484" s="2">
         <v>5180000</v>
@@ -18470,10 +18473,10 @@
         <v>26</v>
       </c>
       <c r="H484" s="3" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="I484" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J484" s="2">
         <v>2310000</v>
@@ -18488,13 +18491,13 @@
         <v>88</v>
       </c>
       <c r="C485" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D485" s="2">
-        <v>6.81999999995559</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E485" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F485" s="2">
         <v>5182000</v>
@@ -18503,10 +18506,10 @@
         <v>26</v>
       </c>
       <c r="H485" s="3" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="I485" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J485" s="2">
         <v>2320000</v>
@@ -18521,13 +18524,13 @@
         <v>90</v>
       </c>
       <c r="C486" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D486" s="2">
-        <v>6.82999999995535</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E486" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F486" s="2">
         <v>5184000</v>
@@ -18536,10 +18539,10 @@
         <v>26</v>
       </c>
       <c r="H486" s="3" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="I486" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J486" s="2">
         <v>2330000</v>
@@ -18554,13 +18557,13 @@
         <v>92</v>
       </c>
       <c r="C487" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D487" s="2">
-        <v>6.8399999999551</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E487" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F487" s="2">
         <v>5186000</v>
@@ -18569,10 +18572,10 @@
         <v>26</v>
       </c>
       <c r="H487" s="3" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="I487" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J487" s="2">
         <v>2340000</v>
@@ -18587,13 +18590,13 @@
         <v>94</v>
       </c>
       <c r="C488" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D488" s="2">
-        <v>6.84999999995486</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E488" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F488" s="2">
         <v>5188000</v>
@@ -18602,10 +18605,10 @@
         <v>35</v>
       </c>
       <c r="H488" s="3" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="I488" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J488" s="2">
         <v>2350000</v>
@@ -18620,13 +18623,13 @@
         <v>96</v>
       </c>
       <c r="C489" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D489" s="2">
-        <v>6.85999999995461</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E489" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F489" s="2">
         <v>5190000</v>
@@ -18635,10 +18638,10 @@
         <v>26</v>
       </c>
       <c r="H489" s="3" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="I489" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J489" s="2">
         <v>2360000</v>
@@ -18653,13 +18656,13 @@
         <v>98</v>
       </c>
       <c r="C490" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D490" s="2">
-        <v>6.86999999995436</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E490" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F490" s="2">
         <v>5192000</v>
@@ -18668,10 +18671,10 @@
         <v>26</v>
       </c>
       <c r="H490" s="3" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="I490" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J490" s="2">
         <v>2370000</v>
@@ -18686,13 +18689,13 @@
         <v>100</v>
       </c>
       <c r="C491" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D491" s="2">
-        <v>6.87999999995412</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E491" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F491" s="2">
         <v>5194000</v>
@@ -18701,10 +18704,10 @@
         <v>26</v>
       </c>
       <c r="H491" s="3" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="I491" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J491" s="2">
         <v>2380000</v>
@@ -18719,13 +18722,13 @@
         <v>102</v>
       </c>
       <c r="C492" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D492" s="2">
-        <v>6.88999999995387</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E492" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F492" s="2">
         <v>5196000</v>
@@ -18734,10 +18737,10 @@
         <v>26</v>
       </c>
       <c r="H492" s="3" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="I492" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J492" s="2">
         <v>2390000</v>
@@ -18752,13 +18755,13 @@
         <v>104</v>
       </c>
       <c r="C493" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D493" s="2">
-        <v>6.89999999995363</v>
+        <v>5.00000000000025</v>
       </c>
       <c r="E493" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F493" s="2">
         <v>5198000</v>
@@ -18767,10 +18770,10 @@
         <v>35</v>
       </c>
       <c r="H493" s="3" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="I493" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J493" s="2">
         <v>2400000</v>
@@ -18785,13 +18788,13 @@
         <v>106</v>
       </c>
       <c r="C494" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D494" s="2">
-        <v>6.90999999995338</v>
+        <v>4</v>
       </c>
       <c r="E494" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F494" s="2">
         <v>5200000</v>
@@ -18800,10 +18803,10 @@
         <v>26</v>
       </c>
       <c r="H494" s="3" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="I494" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J494" s="2">
         <v>2410000</v>
@@ -18818,13 +18821,13 @@
         <v>108</v>
       </c>
       <c r="C495" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D495" s="2">
-        <v>6.91999999995314</v>
+        <v>4</v>
       </c>
       <c r="E495" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F495" s="2">
         <v>5202000</v>
@@ -18833,10 +18836,10 @@
         <v>26</v>
       </c>
       <c r="H495" s="3" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="I495" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J495" s="2">
         <v>2420000</v>
@@ -18851,13 +18854,13 @@
         <v>110</v>
       </c>
       <c r="C496" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D496" s="2">
-        <v>6.92999999995289</v>
+        <v>4</v>
       </c>
       <c r="E496" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F496" s="2">
         <v>5204000</v>
@@ -18866,10 +18869,10 @@
         <v>26</v>
       </c>
       <c r="H496" s="3" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="I496" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J496" s="2">
         <v>2430000</v>
@@ -18884,13 +18887,13 @@
         <v>112</v>
       </c>
       <c r="C497" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D497" s="2">
-        <v>6.93999999995265</v>
+        <v>4</v>
       </c>
       <c r="E497" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F497" s="2">
         <v>5206000</v>
@@ -18899,10 +18902,10 @@
         <v>26</v>
       </c>
       <c r="H497" s="3" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="I497" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J497" s="2">
         <v>2440000</v>
@@ -18917,13 +18920,13 @@
         <v>114</v>
       </c>
       <c r="C498" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D498" s="2">
-        <v>6.9499999999524</v>
+        <v>4</v>
       </c>
       <c r="E498" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F498" s="2">
         <v>5208000</v>
@@ -18932,10 +18935,10 @@
         <v>35</v>
       </c>
       <c r="H498" s="3" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="I498" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J498" s="2">
         <v>2450000</v>
@@ -18950,13 +18953,13 @@
         <v>116</v>
       </c>
       <c r="C499" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D499" s="2">
-        <v>6.95999999995216</v>
+        <v>4</v>
       </c>
       <c r="E499" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F499" s="2">
         <v>5210000</v>
@@ -18965,10 +18968,10 @@
         <v>26</v>
       </c>
       <c r="H499" s="3" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="I499" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J499" s="2">
         <v>2460000</v>
@@ -18983,13 +18986,13 @@
         <v>118</v>
       </c>
       <c r="C500" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D500" s="2">
-        <v>6.96999999995191</v>
+        <v>4</v>
       </c>
       <c r="E500" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F500" s="2">
         <v>5212000</v>
@@ -18998,10 +19001,10 @@
         <v>26</v>
       </c>
       <c r="H500" s="3" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="I500" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J500" s="2">
         <v>2470000</v>
@@ -19016,13 +19019,13 @@
         <v>120</v>
       </c>
       <c r="C501" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D501" s="2">
-        <v>6.97999999995167</v>
+        <v>4</v>
       </c>
       <c r="E501" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F501" s="2">
         <v>5214000</v>
@@ -19031,10 +19034,10 @@
         <v>26</v>
       </c>
       <c r="H501" s="3" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="I501" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J501" s="2">
         <v>2480000</v>
@@ -19049,13 +19052,13 @@
         <v>122</v>
       </c>
       <c r="C502" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D502" s="2">
-        <v>6.98999999995142</v>
+        <v>4</v>
       </c>
       <c r="E502" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F502" s="2">
         <v>5216000</v>
@@ -19064,10 +19067,10 @@
         <v>26</v>
       </c>
       <c r="H502" s="3" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="I502" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J502" s="2">
         <v>2490000</v>
@@ -19079,16 +19082,16 @@
         <v>500</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>124</v>
+        <v>335</v>
       </c>
       <c r="C503" s="2">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="D503" s="2">
-        <v>6.99999999995118</v>
+        <v>4</v>
       </c>
       <c r="E503" s="2">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="F503" s="2">
         <v>5218000</v>
@@ -19097,18 +19100,27 @@
         <v>35</v>
       </c>
       <c r="H503" s="3" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="I503" s="4">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="J503" s="2">
         <v>2500000</v>
       </c>
       <c r="K503" s="5"/>
     </row>
-    <row r="504" spans="9:9">
+    <row r="504" s="2" customFormat="1" spans="7:11">
+      <c r="G504" s="3"/>
+      <c r="H504" s="3"/>
       <c r="I504" s="4"/>
+      <c r="K504" s="5"/>
+    </row>
+    <row r="505" s="2" customFormat="1" spans="7:11">
+      <c r="G505" s="3"/>
+      <c r="H505" s="3"/>
+      <c r="I505" s="4"/>
+      <c r="K505" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
+++ b/DestroyViruses/Assets/Tables/TableGameLevel.xlsx
@@ -1634,10 +1634,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1667,16 +1667,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1690,7 +1698,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1705,8 +1713,15 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1714,14 +1729,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1735,19 +1743,34 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1761,17 +1784,9 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1788,21 +1803,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -1813,7 +1813,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1825,73 +1825,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1909,7 +1849,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1921,37 +1963,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1963,37 +1993,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2004,6 +2004,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2022,35 +2037,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2066,6 +2057,17 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2096,11 +2098,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2110,10 +2110,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2122,133 +2122,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2612,9 +2612,9 @@
   <dimension ref="A1:K505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A497" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="3" topLeftCell="A489" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B503" sqref="B503"/>
+      <selection pane="bottomLeft" activeCell="A504" sqref="$A504:$XFD505"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -19114,12 +19114,14 @@
       <c r="G504" s="3"/>
       <c r="H504" s="3"/>
       <c r="I504" s="4"/>
+      <c r="J504" s="2"/>
       <c r="K504" s="5"/>
     </row>
     <row r="505" s="2" customFormat="1" spans="7:11">
       <c r="G505" s="3"/>
       <c r="H505" s="3"/>
       <c r="I505" s="4"/>
+      <c r="J505" s="2"/>
       <c r="K505" s="5"/>
     </row>
   </sheetData>
